--- a/subsetting_results/subsetting-DINSQL-spider2-Native-gpt41.xlsx
+++ b/subsetting_results/subsetting-DINSQL-spider2-Native-gpt41.xlsx
@@ -560,10 +560,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6.442694348981604</v>
+        <v>20.50801714399131</v>
       </c>
       <c r="E2" t="n">
-        <v>5076</v>
+        <v>5171</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -614,7 +614,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>{'PATENTS.PATENTS.PUBLICATIONS.application_number', 'PATENTS.PATENTS.PUBLICATIONS.assignee_harmonized', 'PATENTS.PATENTS.PUBLICATIONS.cpc', 'PATENTS.PATENTS.PUBLICATIONS.filing_date'}</t>
+          <t>{'PATENTS.PATENTS.PUBLICATIONS.filing_date', 'PATENTS.PATENTS.PUBLICATIONS.cpc', 'PATENTS.PATENTS.PUBLICATIONS.assignee_harmonized', 'PATENTS.PATENTS.PUBLICATIONS.application_number'}</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15.17896249005571</v>
+        <v>12.95155872998293</v>
       </c>
       <c r="E3" t="n">
-        <v>5453</v>
+        <v>5668</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>{'PATENTS.PATENTS.PUBLICATIONS.country_code', 'PATENTS.PATENTS.PUBLICATIONS.filing_date', 'PATENTS.PATENTS.PUBLICATIONS.application_number', 'PATENTS.PATENTS.PUBLICATIONS.assignee_harmonized', 'PATENTS.PATENTS.PUBLICATIONS.cpc'}</t>
+          <t>{'PATENTS.PATENTS.PUBLICATIONS.filing_date', 'PATENTS.PATENTS.PUBLICATIONS.cpc', 'PATENTS.PATENTS.PUBLICATIONS.assignee_harmonized', 'PATENTS.PATENTS.PUBLICATIONS.country_code', 'PATENTS.PATENTS.PUBLICATIONS.application_number'}</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>25.52835191809572</v>
+        <v>7.205363436019979</v>
       </c>
       <c r="E4" t="n">
-        <v>5264</v>
+        <v>5272</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -782,7 +782,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>{'PATENTS.PATENTS.PUBLICATIONS.application_number', 'PATENTS.PATENTS.PUBLICATIONS.abstract_localized', 'PATENTS.PATENTS.PUBLICATIONS.country_code', 'PATENTS.PATENTS.PUBLICATIONS.filing_date'}</t>
+          <t>{'PATENTS.PATENTS.PUBLICATIONS.filing_date', 'PATENTS.PATENTS.PUBLICATIONS.abstract_localized', 'PATENTS.PATENTS.PUBLICATIONS.application_number'}</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>16.5043935100548</v>
+        <v>10.91089721297612</v>
       </c>
       <c r="E5" t="n">
-        <v>5329</v>
+        <v>5442</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{'PUBLICATIONS'}</t>
+          <t>{'PATENTS'}</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>{'PATENTS.PATENTS.PUBLICATIONS.citation', 'PATENTS.PATENTS.PUBLICATIONS.filing_date', 'PATENTS.PATENTS.PUBLICATIONS.publication_number', 'PATENTS.PATENTS.PUBLICATIONS.grant_date', 'PATENTS.PATENTS.PUBLICATIONS.application_number'}</t>
+          <t>{'PATENTS.PATENTS.PUBLICATIONS.filing_date', 'PATENTS.PATENTS.PUBLICATIONS.publication_number', 'PATENTS.PATENTS.PUBLICATIONS.citation', 'PATENTS.PATENTS.PUBLICATIONS.grant_date', 'PATENTS.PATENTS.PUBLICATIONS.application_number'}</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>{'PUBLICATIONS.application_kind'}</t>
+          <t>{'PATENTS.PATENTS'}</t>
         </is>
       </c>
       <c r="U5" t="n">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7.897302760975435</v>
+        <v>6.271564663969912</v>
       </c>
       <c r="E6" t="n">
-        <v>5132</v>
+        <v>5179</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>{'PATENTS.PATENTS.PUBLICATIONS.grant_date', 'PATENTS.PATENTS.PUBLICATIONS.claims_localized', 'PATENTS.PATENTS.PUBLICATIONS.publication_number', 'PATENTS.PATENTS.PUBLICATIONS.country_code'}</t>
+          <t>{'PATENTS.PATENTS.PUBLICATIONS.claims_localized', 'PATENTS.PATENTS.PUBLICATIONS.publication_number'}</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11.30508369603194</v>
+        <v>9.899671365972608</v>
       </c>
       <c r="E7" t="n">
-        <v>5329</v>
+        <v>5387</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>{'PATENTS'}</t>
+          <t>{'but the above is the standard format', 'PATENTS'}</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1034,19 +1034,19 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>{'PATENTS.PATENTS.PUBLICATIONS.grant_date', 'PATENTS.PATENTS.PUBLICATIONS.publication_number', 'PATENTS.PATENTS.PUBLICATIONS.ipc', 'PATENTS.PATENTS.PUBLICATIONS.country_code'}</t>
+          <t>{'PATENTS.PATENTS.PUBLICATIONS.publication_number', 'PATENTS.PATENTS.PUBLICATIONS.ipc'}</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>{'PATENTS.PATENTS'}</t>
+          <t>{'PATENTS.PATENTS', 'but the above is the standard format.)**'}</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01265822784810127</v>
+        <v>0.02531645569620253</v>
       </c>
     </row>
     <row r="8">
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11.44027362100314</v>
+        <v>11.27564154699212</v>
       </c>
       <c r="E8" t="n">
-        <v>5660</v>
+        <v>5545</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>{'0', 'including the EMA smoothing factor', 'PATENTS'}</t>
+          <t>{'PUBLICATIONS', '0', 'CPC_DEFINITION'}</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1118,19 +1118,19 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>{'PATENTS.PATENTS.PUBLICATIONS.country_code', 'PATENTS.PATENTS.PUBLICATIONS.filing_date', 'PATENTS.PATENTS.CPC_DEFINITION.parents', 'PATENTS.PATENTS.PUBLICATIONS.grant_date', 'PATENTS.PATENTS.CPC_DEFINITION.titleFull', 'PATENTS.PATENTS.CPC_DEFINITION.level', 'PATENTS.PATENTS.PUBLICATIONS.application_number', 'PATENTS.PATENTS.PUBLICATIONS.cpc', 'PATENTS.PATENTS.CPC_DEFINITION.symbol'}</t>
+          <t>{'PATENTS.PATENTS.PUBLICATIONS.filing_date', 'PATENTS.PATENTS.PUBLICATIONS.cpc', 'PATENTS.PATENTS.CPC_DEFINITION.parents', 'PATENTS.PATENTS.CPC_DEFINITION.titleFull', 'PATENTS.PATENTS.PUBLICATIONS.application_number'}</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>{'PATENTS.PATENTS', 'including the EMA smoothing factor.', '0.1\n\n```\n\n**Explanation:**  \nThese schema links cover the necessary columns'}</t>
+          <t>{'PUBLICATIONS.cpc', 'PUBLICATIONS.filing_date', '0.1', 'CPC_DEFINITION.titleFull', 'CPC_DEFINITION.level', 'CPC_DEFINITION.symbol', 'PUBLICATIONS.country_code', 'PUBLICATIONS.grant_date'}</t>
         </is>
       </c>
       <c r="U8" t="n">
         <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0379746835443038</v>
+        <v>0.1012658227848101</v>
       </c>
     </row>
     <row r="9">
@@ -1148,10 +1148,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11.64956556702964</v>
+        <v>14.35323707800126</v>
       </c>
       <c r="E9" t="n">
-        <v>5652</v>
+        <v>5751</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>{'0', 'PUBLICATIONS', 'CPC_DEFINITION', 'and joining for CPC group at level 5'}</t>
+          <t>{'PUBLICATIONS', '0', 'including the necessary aggregation and filtering steps', 'CPC_DEFINITION'}</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>{'PATENTS.PATENTS.PUBLICATIONS.filing_date', 'PATENTS.PATENTS.CPC_DEFINITION.parents', 'PATENTS.PATENTS.CPC_DEFINITION.level', 'PATENTS.PATENTS.CPC_DEFINITION.titleFull', 'PATENTS.PATENTS.PUBLICATIONS.application_number', 'PATENTS.PATENTS.PUBLICATIONS.cpc', 'PATENTS.PATENTS.CPC_DEFINITION.symbol'}</t>
+          <t>{'PATENTS.PATENTS.PUBLICATIONS.filing_date', 'PATENTS.PATENTS.PUBLICATIONS.cpc', 'PATENTS.PATENTS.CPC_DEFINITION.parents', 'PATENTS.PATENTS.CPC_DEFINITION.titleFull', 'PATENTS.PATENTS.PUBLICATIONS.application_number'}</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>{'0.2\n\n```\n\n---\n\n**Explanation:**  \nThese schema links cover all the columns', 'CPC_DEFINITION.symbol', 'PUBLICATIONS.cpc (first code)', 'PUBLICATIONS.filing_date', 'and joining for CPC group at level 5.', 'CPC_DEFINITION.level', 'PUBLICATIONS.application_number', 'CPC_DEFINITION.titleFull'}</t>
+          <t>{'PUBLICATIONS.cpc (first code)', 'including the necessary aggregation and filtering steps.', 'PUBLICATIONS.filing_date', 'CPC_DEFINITION.titleFull', 'CPC_DEFINITION.level', '0.2', 'CPC_DEFINITION.symbol', 'PUBLICATIONS.application_number'}</t>
         </is>
       </c>
       <c r="U9" t="n">
@@ -1232,10 +1232,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20.29551860690117</v>
+        <v>19.06251634901855</v>
       </c>
       <c r="E10" t="n">
-        <v>5913</v>
+        <v>6124</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>{'PUBLICATIONS', 'group by PUBLICATIONS', 'CPC_DEFINITION', 'first code in PUBLICATIONS'}</t>
+          <t>{'PUBLICATIONS', 'first code in PUBLICATIONS', 'CPC_DEFINITION'}</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1286,19 +1286,19 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>{'PATENTS.PATENTS.PUBLICATIONS.citation', 'PATENTS.PATENTS.PUBLICATIONS.publication_number', 'PATENTS.PATENTS.CPC_DEFINITION.titleFull', 'PATENTS.PATENTS.PUBLICATIONS.assignee_harmonized', 'PATENTS.PATENTS.PUBLICATIONS.cpc', 'PATENTS.PATENTS.CPC_DEFINITION.symbol'}</t>
+          <t>{'PATENTS.PATENTS.PUBLICATIONS.assignee_harmonized', 'PATENTS.PATENTS.PUBLICATIONS.cpc', 'PATENTS.PATENTS.PUBLICATIONS.publication_number', 'PATENTS.PATENTS.CPC_DEFINITION.titleFull', 'PATENTS.PATENTS.PUBLICATIONS.citation'}</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>{'group by PUBLICATIONS.assignee', 'CPC_DEFINITION.symbol', 'PUBLICATIONS.filing_date', 'PUBLICATIONS.assignee', 'PUBLICATIONS.cpc', 'PUBLICATIONS.citation', 'PUBLICATIONS.assignee !', 'PUBLICATIONS.publication_number', 'CPC_DEFINITION.titleFull', 'first code in PUBLICATIONS.cpc'}</t>
+          <t>{'PUBLICATIONS.cpc (first code)', 'PUBLICATIONS.assignee (citing patent)', 'PUBLICATIONS.filing_date', 'CPC_DEFINITION.titleFull', 'PUBLICATIONS.publication_number (citing to cited)', 'CPC_DEFINITION.symbol', 'PUBLICATIONS.citation', 'first code in PUBLICATIONS.cpc', 'PUBLICATIONS.assignee (cited patent)'}</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>1.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1265822784810127</v>
+        <v>0.1139240506329114</v>
       </c>
     </row>
     <row r="11">
@@ -1316,10 +1316,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>17.94008333189413</v>
+        <v>9.013322287006304</v>
       </c>
       <c r="E11" t="n">
-        <v>5487</v>
+        <v>5478</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1355,12 +1355,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>{'PATENTS_GOOGLE.PATENTS_GOOGLE.ABS_AND_EMB', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS'}</t>
+          <t>{'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS', 'PATENTS_GOOGLE.PATENTS_GOOGLE.ABS_AND_EMB'}</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>{'PUBLICATIONS', 'ABS_AND_EMB'}</t>
+          <t>{'PATENTS_GOOGLE'}</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1370,19 +1370,19 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>{'PATENTS_GOOGLE.PATENTS_GOOGLE.ABS_AND_EMB.publication_number', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.filing_date', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.publication_number', 'PATENTS_GOOGLE.PATENTS_GOOGLE.ABS_AND_EMB.embedding_v1', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.application_number'}</t>
+          <t>{'PATENTS_GOOGLE.PATENTS_GOOGLE.ABS_AND_EMB.publication_number', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.publication_number', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.application_number', 'PATENTS_GOOGLE.PATENTS_GOOGLE.ABS_AND_EMB.embedding_v1'}</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>{'ABS_AND_EMB.embedding_v1', 'ABS_AND_EMB.similar', 'ABS_AND_EMB.publication_number', 'PUBLICATIONS.filing_date', 'PUBLICATIONS.publication_number'}</t>
+          <t>{'PATENTS_GOOGLE.PATENTS_GOOGLE'}</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="V11" t="n">
-        <v>0.05747126436781609</v>
+        <v>0.01149425287356322</v>
       </c>
     </row>
     <row r="12">
@@ -1400,10 +1400,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>16.25006368500181</v>
+        <v>13.26910482801031</v>
       </c>
       <c r="E12" t="n">
-        <v>5739</v>
+        <v>6006</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>{'PATENTS_GOOGLE.PATENTS_GOOGLE.ABS_AND_EMB', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS'}</t>
+          <t>{'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS', 'PATENTS_GOOGLE.PATENTS_GOOGLE.ABS_AND_EMB'}</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>{'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.publication_date', 'PATENTS_GOOGLE.PATENTS_GOOGLE.ABS_AND_EMB.publication_number', 'PATENTS_GOOGLE.PATENTS_GOOGLE.ABS_AND_EMB.cpc', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.citation', 'PATENTS_GOOGLE.PATENTS_GOOGLE.ABS_AND_EMB.cited_by', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.cpc', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.ipc', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.country_code', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.publication_number', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.family_id'}</t>
+          <t>{'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.publication_date', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.family_id', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.country_code', 'PATENTS_GOOGLE.PATENTS_GOOGLE.ABS_AND_EMB.publication_number', 'PATENTS_GOOGLE.PATENTS_GOOGLE.ABS_AND_EMB.cpc', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.cpc', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.ipc', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.publication_number', 'PATENTS_GOOGLE.PATENTS_GOOGLE.PUBLICATIONS.citation', 'PATENTS_GOOGLE.PATENTS_GOOGLE.ABS_AND_EMB.cited_by'}</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>34.90343297505751</v>
+        <v>54.95304446999216</v>
       </c>
       <c r="E13" t="n">
-        <v>8639</v>
+        <v>8629</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1523,12 +1523,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>{'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT', 'PATENTSVIEW.PATENTSVIEW.APPLICATION', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION', 'PATENTSVIEW.PATENTSVIEW.PATENT'}</t>
+          <t>{'PATENTSVIEW.PATENTSVIEW.APPLICATION', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION', 'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT', 'PATENTSVIEW.PATENTSVIEW.PATENT'}</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>{'PATENTSVIEW', "but that's not a direct schema link"}</t>
+          <t>{'PATENTSVIEW', 'and value constraints needed to generate the SQL for the question', 'PATENT', 'USPATENTCITATION'}</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1538,19 +1538,19 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>{'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.country', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.citation_id', 'PATENTSVIEW.PATENTSVIEW.APPLICATION.country', 'PATENTSVIEW.PATENTSVIEW.PATENT.country', 'PATENTSVIEW.PATENTSVIEW.PATENT.date', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.patent_id', 'PATENTSVIEW.PATENTSVIEW.PATENT.id', 'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT.group_id', 'PATENTSVIEW.PATENTSVIEW.APPLICATION.date', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.date', 'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT.subsection_id', 'PATENTSVIEW.PATENTSVIEW.PATENT.title', 'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT.patent_id', 'PATENTSVIEW.PATENTSVIEW.PATENT.abstract', 'PATENTSVIEW.PATENTSVIEW.APPLICATION.patent_id', 'PATENTSVIEW.PATENTSVIEW.APPLICATION.id'}</t>
+          <t>{'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.patent_id', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.citation_id', 'PATENTSVIEW.PATENTSVIEW.APPLICATION.date', 'PATENTSVIEW.PATENTSVIEW.PATENT.abstract', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.date', 'PATENTSVIEW.PATENTSVIEW.PATENT.date', 'PATENTSVIEW.PATENTSVIEW.PATENT.title', 'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT.patent_id', 'PATENTSVIEW.PATENTSVIEW.APPLICATION.patent_id'}</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>{'PATENTSVIEW.PATENTSVIEW', "but that's not a direct schema link.)**"}</t>
+          <t>{'USPATENTCITATION.citation_id', 'USPATENTCITATION.date &gt; PATENT', 'PATENTSVIEW.PATENTSVIEW', 'and value constraints needed to generate the SQL for the question.**', 'PATENT.date + 5 years\n\n```\n\n---\n\n**This set of schema links covers all the columns', 'USPATENTCITATION.date &lt; APPLICATION', 'PATENT.id', 'USPATENTCITATION.patent_id'}</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>0.03389830508474576</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="V13" t="n">
-        <v>0.006578947368421052</v>
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="14">
@@ -1568,10 +1568,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>39.38710703793913</v>
+        <v>23.82585442403797</v>
       </c>
       <c r="E14" t="n">
-        <v>8151</v>
+        <v>8530</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1607,12 +1607,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>{'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT', 'PATENTSVIEW.PATENTSVIEW.APPLICATION', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION'}</t>
+          <t>{'PATENTSVIEW.PATENTSVIEW.APPLICATION', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION', 'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT'}</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>{'USPATENTCITATION', 'PATENTSVIEW', 'as well as the CPC category filter and the sorting/limiting requirements', 'you can write:**\n- `USPATENTCITATION', 'PATENT'}</t>
+          <t>{'PATENTSVIEW', 'and filter values needed to generate the SQL for the question', 'USPATENTCITATION'}</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1622,19 +1622,19 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>{'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.country', 'PATENTSVIEW.PATENTSVIEW.APPLICATION.country', 'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT.patent_id', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.patent_id', 'PATENTSVIEW.PATENTSVIEW.APPLICATION.patent_id', 'PATENTSVIEW.PATENTSVIEW.APPLICATION.date', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.date'}</t>
+          <t>{'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.patent_id', 'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT.patent_id', 'PATENTSVIEW.PATENTSVIEW.APPLICATION.patent_id'}</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>{'PATENTSVIEW.USPATENTCITATION', 'PATENT.date + 3 years', 'PATENTSVIEW.CPC_CURRENT', 'you can write:**\n- `USPATENTCITATION.date BETWEEN PATENT', 'USPATENTCITATION.date &gt;', 'USPATENTCITATION.date &lt;', 'PATENTSVIEW.PATENT', 'PATENT.date + 1 year', 'as well as the CPC category filter and the sorting/limiting requirements.', 'PATENT.date - 1 year'}</t>
+          <t>{'USPATENTCITATION.date between APPLICATION', 'PATENTSVIEW.PATENTSVIEW', 'and filter values needed to generate the SQL for the question.'}</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>0.0847457627118644</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="V14" t="n">
-        <v>0.03289473684210526</v>
+        <v>0.009868421052631578</v>
       </c>
     </row>
     <row r="15">
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>21.70921077788807</v>
+        <v>22.85116985696368</v>
       </c>
       <c r="E15" t="n">
-        <v>8137</v>
+        <v>8643</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1691,12 +1691,12 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>{'PATENTSVIEW.PATENTSVIEW.BRF_SUM_TEXT', 'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION', 'PATENTSVIEW.PATENTSVIEW.PATENT', 'PATENTSVIEW.PATENTSVIEW.APPLICATION'}</t>
+          <t>{'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT', 'PATENTSVIEW.PATENTSVIEW.BRF_SUM_TEXT', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION', 'PATENTSVIEW.PATENTSVIEW.APPLICATION', 'PATENTSVIEW.PATENTSVIEW.PATENT'}</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>{'sort by PATENTSVIEW', 'and only if at least one such citation exists', '# backward\n  (PATENTSVIEW', 'PATENTSVIEW', '(PATENTSVIEW', 'and values'}</t>
+          <t>{'(USPATENTCITATION', 'PATENTSVIEW', 'ORDER BY PATENTSVIEW'}</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1706,19 +1706,19 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>{'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.country', 'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT.subsection_id', 'PATENTSVIEW.PATENTSVIEW.APPLICATION.country', 'PATENTSVIEW.PATENTSVIEW.PATENT.country', 'PATENTSVIEW.PATENTSVIEW.PATENT.date', 'PATENTSVIEW.PATENTSVIEW.PATENT.title', 'PATENTSVIEW.PATENTSVIEW.BRF_SUM_TEXT.text', 'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT.patent_id', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.patent_id', 'PATENTSVIEW.PATENTSVIEW.BRF_SUM_TEXT.patent_id', 'PATENTSVIEW.PATENTSVIEW.PATENT.id', 'PATENTSVIEW.PATENTSVIEW.APPLICATION.patent_id', 'PATENTSVIEW.PATENTSVIEW.APPLICATION.id', 'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT.group_id', 'PATENTSVIEW.PATENTSVIEW.APPLICATION.date', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.date'}</t>
+          <t>{'PATENTSVIEW.PATENTSVIEW.BRF_SUM_TEXT.text', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.patent_id', 'PATENTSVIEW.PATENTSVIEW.APPLICATION.date', 'PATENTSVIEW.PATENTSVIEW.USPATENTCITATION.date', 'PATENTSVIEW.PATENTSVIEW.PATENT.date', 'PATENTSVIEW.PATENTSVIEW.PATENT.title', 'PATENTSVIEW.PATENTSVIEW.CPC_CURRENT.patent_id', 'PATENTSVIEW.PATENTSVIEW.APPLICATION.patent_id', 'PATENTSVIEW.PATENTSVIEW.BRF_SUM_TEXT.patent_id'}</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>{'PATENTSVIEW.USPATENTCITATION', 'PATENTSVIEW.APPLICATION', 'PATENTSVIEW.CPC_CURRENT', '(PATENTSVIEW.USPATENTCITATION', 'and only if at least one such citation exists.- The schema links above cover all necessary columns', 'PATENTSVIEW.PATENT', 'sort by PATENTSVIEW.APPLICATION', '# backward\n  (PATENTSVIEW.USPATENTCITATION', 'and values.'}</t>
+          <t>{'PATENTSVIEW.PATENT', 'PATENTSVIEW.CPC_CURRENT', '(USPATENTCITATION.date between (APPLICATION', '(USPATENTCITATION.date between APPLICATION', 'PATENTSVIEW.APPLICATION', 'PATENTSVIEW.USPATENTCITATION', 'ORDER BY PATENTSVIEW.APPLICATION'}</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>0.1016949152542373</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="V15" t="n">
-        <v>0.02960526315789474</v>
+        <v>0.02302631578947368</v>
       </c>
     </row>
     <row r="16">
@@ -1736,10 +1736,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>20.24319206201471</v>
+        <v>10.34657553897705</v>
       </c>
       <c r="E16" t="n">
-        <v>6198</v>
+        <v>6251</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1790,12 +1790,12 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS_DATE.GITHUB_REPOS.LANGUAGES.repo_name', 'GITHUB_REPOS_DATE.GITHUB_REPOS.LANGUAGES.language'}</t>
+          <t>{'GITHUB_REPOS_DATE.GITHUB_REPOS.LANGUAGES.language', 'GITHUB_REPOS_DATE.GITHUB_REPOS.LANGUAGES.repo_name'}</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS_DATE.GITHUB_RE', 'GITHUB_REPOS_DATE.YEAR'}</t>
+          <t>{'GITHUB_REPOS_DATE.GITHUB_REPOS', 'GITHUB_REPOS_DATE.DAY'}</t>
         </is>
       </c>
       <c r="U16" t="n">
@@ -1820,10 +1820,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10.9801776020322</v>
+        <v>19.76517263700953</v>
       </c>
       <c r="E17" t="n">
-        <v>6190</v>
+        <v>6749</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>{'', 'SAMPLE_CONTENTS: not relevant for forks/issues/watches', 'watch_count\n- GITHUB_REPOS_DATE', 'but would be a value list)\n- "April 2022" → created_at LIKE \'2022-04%\' or similar\n\n### Step 5: Schema links\n\n**Columns:**\n- GITHUB_REPOS_DATE', 'but repo_name/repo is the join key', 'license\n- GITHUB_REPOS_DATE', 'GITHUB_REPOS_DATE'}</t>
+          <t>{'and watches for each repo in April 2022 (from event tables and SAMPLE_REPOS)', 'GITHUB_REPOS_DATE', 'licenses', 'filtered by licenses'}</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1879,14 +1879,14 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>{'license\n- GITHUB_REPOS_DATE.GITHUB_REPOS', 'GITHUB_REPOS_DATE.GITHUB_REPOS', 'but would be a value list)\n- "April 2022" → created_at LIKE \'2022-04%\' or similar\n\n### Step 5: Schema links\n\n**Columns:**\n- GITHUB_REPOS_DATE.GITHUB_REPOS', 'GITHUB_REPOS_DATE.DAY', 'GITHUB_REPOS_DATE.MONTH', 'watch_count\n- GITHUB_REPOS_DATE.YEAR', '.', 'but repo_name/repo is the join key.### Step 4: Cell values\n\n- "approved license in licenses', 'SAMPLE_CONTENTS: not relevant for forks/issues/watches.### Step 3: Foreign keys / joins\n\n- GITHUB_REPOS_DATE'}</t>
+          <t>{'GITHUB_REPOS_DATE.MONTH', 'and watches for each repo in April 2022 (from event tables and SAMPLE_REPOS).- We need to join on repo_name', 'licenses.md', 'filtered by licenses.md)', 'GITHUB_REPOS_DATE.GITHUB_REPOS'}</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="V17" t="n">
-        <v>0.02960526315789474</v>
+        <v>0.01644736842105263</v>
       </c>
     </row>
     <row r="18">
@@ -1904,10 +1904,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>16.10748619097285</v>
+        <v>11.27476060501067</v>
       </c>
       <c r="E18" t="n">
-        <v>6624</v>
+        <v>6503</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1943,12 +1943,12 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS_DATE.MONTH._201706', 'GITHUB_REPOS_DATE.GITHUB_REPOS.SAMPLE_CONTENTS', 'GITHUB_REPOS_DATE.GITHUB_REPOS.SAMPLE_FILES'}</t>
+          <t>{'GITHUB_REPOS_DATE.GITHUB_REPOS.SAMPLE_CONTENTS', 'GITHUB_REPOS_DATE.MONTH._201706', 'GITHUB_REPOS_DATE.GITHUB_REPOS.SAMPLE_FILES'}</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>{"'", 'GITHUB_REPOS_DATE', "'WatchEvent'\n\n---\n\n**This set of schema links will allow you to generate the correct SQL query for the question"}</t>
+          <t>{"'", 'GITHUB_REPOS_DATE'}</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1958,19 +1958,19 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS_DATE.GITHUB_REPOS.SAMPLE_CONTENTS.id', 'GITHUB_REPOS_DATE.MONTH._201706.id', 'GITHUB_REPOS_DATE.GITHUB_REPOS.SAMPLE_FILES.id', 'GITHUB_REPOS_DATE.GITHUB_REPOS.SAMPLE_CONTENTS.size', 'GITHUB_REPOS_DATE.GITHUB_REPOS.SAMPLE_FILES.path', 'GITHUB_REPOS_DATE.GITHUB_REPOS.SAMPLE_FILES.repo_name', 'GITHUB_REPOS_DATE.GITHUB_REPOS.SAMPLE_CONTENTS.content', 'GITHUB_REPOS_DATE.MONTH._201706.repo', 'GITHUB_REPOS_DATE.MONTH._201706.type'}</t>
+          <t>{'GITHUB_REPOS_DATE.MONTH._201706.repo'}</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS_DATE.GITHUB_REPOS', 'GITHUB_REPOS_DATE.YEAR', "'.py'", "'WatchEvent'\n\n---\n\n**This set of schema links will allow you to generate the correct SQL query for the question.**"}</t>
+          <t>{"'.py'", 'GITHUB_REPOS_DATE.GITHUB_REPOS', 'GITHUB_REPOS_DATE.YEAR'}</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="V18" t="n">
-        <v>0.0131578947368421</v>
+        <v>0.009868421052631578</v>
       </c>
     </row>
     <row r="19">
@@ -1988,10 +1988,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8.836982273962349</v>
+        <v>11.44175329897553</v>
       </c>
       <c r="E19" t="n">
-        <v>5256</v>
+        <v>5516</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2027,12 +2027,12 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES'}</t>
+          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS'}</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>{'SAMPLE_CONTENTS', '`sample_ref` (to join with files)\n\n---\n\n### 2', '`ref` (to join with contents)\n\n- **GITHUB_REPOS', 'also `SAMPLE_FILES', 'then by count descending\n\n---\n\n### 4'}</t>
+          <t>{"'", 'GITHUB_REPOS'}</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -2042,19 +2042,19 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.id', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.path', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS.id', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.repo_name'}</t>
+          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.path', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.id', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS.id', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.repo_name'}</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>{'SAMPLE_CONTENTS.sample_ref` if needed for versioning)\n\n---\n\n### 3', 'also `SAMPLE_FILES.ref', '`ref` (to join with contents)\n\n- **GITHUB_REPOS.GITHUB_REPOS', '`sample_ref` (to join with files)\n\n---\n\n### 2.**Determine the join condition**\n\n- Join on:  \n  - `SAMPLE_FILES', 'SAMPLE_CONTENTS.sample_path`\n  - `SAMPLE_FILES', 'then by count descending\n\n---\n\n### 4.**Schema Links**\n\n- **Columns:**\n  - `SAMPLE_FILES'}</t>
+          <t>{"'.py'", "'.r'", 'GITHUB_REPOS.GITHUB_REPOS'}</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.08823529411764706</v>
       </c>
     </row>
     <row r="20">
@@ -2072,10 +2072,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>13.93456165096723</v>
+        <v>13.2399707059958</v>
       </c>
       <c r="E20" t="n">
-        <v>5546</v>
+        <v>5440</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2111,12 +2111,12 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES'}</t>
+          <t>{'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS'}</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS', '"readme'}</t>
+          <t>{"'readme", 'GITHUB_REPOS'}</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -2126,12 +2126,12 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.id', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.language', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.path', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS.id', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS.content'}</t>
+          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.path', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.language', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS.content', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.id', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS.id', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.repo_name'}</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS.GITHUB_REPOS', '"readme.md"'}</t>
+          <t>{"'readme.md'", 'GITHUB_REPOS.GITHUB_REPOS'}</t>
         </is>
       </c>
       <c r="U20" t="n">
@@ -2156,10 +2156,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>19.70484083821066</v>
+        <v>22.79192175099161</v>
       </c>
       <c r="E21" t="n">
-        <v>5696</v>
+        <v>5969</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2195,12 +2195,12 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES'}</t>
+          <t>{'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS'}</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS', "'README"}</t>
+          <t>{"'README", 'GITHUB_REPOS'}</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2210,12 +2210,12 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.id', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.language', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.path', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS.id', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS.content'}</t>
+          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.path', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.language', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS.content', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.id', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS.id', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.repo_name'}</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS.GITHUB_REPOS', "'README.md'"}</t>
+          <t>{"'README.md'", 'GITHUB_REPOS.GITHUB_REPOS'}</t>
         </is>
       </c>
       <c r="U21" t="n">
@@ -2240,10 +2240,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>11.57571177091449</v>
+        <v>9.334532546985429</v>
       </c>
       <c r="E22" t="n">
-        <v>5360</v>
+        <v>5384</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS', "'apache-2", 'LENGTH(GITHUB_REPOS'}</t>
+          <t>{"'apache-2", 'GITHUB_REPOS'}</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2294,19 +2294,19 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.LICENSES.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.language', 'GITHUB_REPOS.GITHUB_REPOS.LICENSES.license', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_COMMITS.message', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_COMMITS.repo_name'}</t>
+          <t>{'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.language', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_COMMITS.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.LICENSES.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_COMMITS.message'}</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>{'LENGTH(GITHUB_REPOS.GITHUB_REPOS', 'GITHUB_REPOS.GITHUB_REPOS', "'apache-2.0'"}</t>
+          <t>{"'apache-2.0'", 'GITHUB_REPOS.GITHUB_REPOS'}</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V22" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="23">
@@ -2324,10 +2324,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>18.98758286098018</v>
+        <v>7.976135623990558</v>
       </c>
       <c r="E23" t="n">
-        <v>5066</v>
+        <v>5178</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>14.58725730981678</v>
+        <v>9.474976836005226</v>
       </c>
       <c r="E24" t="n">
-        <v>5208</v>
+        <v>5174</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.language', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_COMMITS.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_COMMITS.commit'}</t>
+          <t>{'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.LANGUAGES.language', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_COMMITS.commit', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_COMMITS.repo_name'}</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -2492,10 +2492,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10.22132998192683</v>
+        <v>10.40797813300742</v>
       </c>
       <c r="E25" t="n">
-        <v>5213</v>
+        <v>5421</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2531,12 +2531,12 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES'}</t>
+          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS'}</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS'}</t>
+          <t>{'', 'GITHUB_REPOS', '0`', 'and the repository name'}</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2546,19 +2546,19 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.id', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.repo_name', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.path', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS.binary', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS.id'}</t>
+          <t>{'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.path', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.id', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_CONTENTS.id', 'GITHUB_REPOS.GITHUB_REPOS.SAMPLE_FILES.repo_name'}</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>{'GITHUB_REPOS.GITHUB_REPOS'}</t>
+          <t>{'0`.- We select the file with the maximum `copies`', 'and the repository name.- We filter for `', '.swift', 'GITHUB_REPOS.GITHUB_REPOS'}</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V25" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="26">
@@ -2576,10 +2576,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>17.78394009405747</v>
+        <v>11.08063820999814</v>
       </c>
       <c r="E26" t="n">
-        <v>10974</v>
+        <v>10832</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.cms_medicare.part_d_prescriber_2014.generic_name', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.total_day_supply', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.total_drug_cost', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.nppes_provider_state', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.drug_name', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.total_claim_count'}</t>
+          <t>{'bigquery-public-data.cms_medicare.part_d_prescriber_2014.total_drug_cost', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.total_day_supply', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.drug_name', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.nppes_provider_state', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.generic_name', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.total_claim_count'}</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -2660,10 +2660,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8.839046539040282</v>
+        <v>10.63217615202302</v>
       </c>
       <c r="E27" t="n">
-        <v>11030</v>
+        <v>11307</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.cms_medicare.outpatient_charges_2014', 'bigquery-public-data.cms_medicare.inpatient_charges_2014'}</t>
+          <t>{'bigquery-public-data.cms_medicare.inpatient_charges_2014', 'bigquery-public-data.cms_medicare.outpatient_charges_2014'}</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.cms_medicare.outpatient_charges_2014.provider_state', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.provider_state', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.total_discharges', 'bigquery-public-data.cms_medicare.outpatient_charges_2014.provider_id', 'bigquery-public-data.cms_medicare.outpatient_charges_2014.provider_name', 'bigquery-public-data.cms_medicare.outpatient_charges_2014.outpatient_services', 'bigquery-public-data.cms_medicare.outpatient_charges_2014.average_total_payments', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.provider_name', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.provider_city', 'bigquery-public-data.cms_medicare.outpatient_charges_2014.provider_city', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.average_total_payments', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.average_medicare_payments', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.provider_id'}</t>
+          <t>{'bigquery-public-data.cms_medicare.inpatient_charges_2014.provider_state', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.provider_city', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.average_total_payments', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.provider_name', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.total_discharges', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.average_medicare_payments', 'bigquery-public-data.cms_medicare.outpatient_charges_2014.provider_city', 'bigquery-public-data.cms_medicare.outpatient_charges_2014.average_total_payments', 'bigquery-public-data.cms_medicare.outpatient_charges_2014.provider_id', 'bigquery-public-data.cms_medicare.outpatient_charges_2014.outpatient_services', 'bigquery-public-data.cms_medicare.inpatient_charges_2014.provider_id', 'bigquery-public-data.cms_medicare.outpatient_charges_2014.provider_state', 'bigquery-public-data.cms_medicare.outpatient_charges_2014.provider_name'}</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -2744,10 +2744,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7.794030363904312</v>
+        <v>13.04304352897452</v>
       </c>
       <c r="E28" t="n">
-        <v>11055</v>
+        <v>11327</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2798,19 +2798,19 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.cms_medicare.part_d_prescriber_2014.total_claim_count', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.nppes_provider_state', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.drug_name', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.total_drug_cost'}</t>
+          <t>{'bigquery-public-data.cms_medicare.part_d_prescriber_2014.drug_name', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.total_claim_count', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.nppes_provider_state', 'bigquery-public-data.cms_medicare.part_d_prescriber_2014.total_drug_cost'}</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.cms_medicare', 'bigquery-public-data.cms'}</t>
+          <t>{'bigquery-public-data.cms_medicare'}</t>
         </is>
       </c>
       <c r="U28" t="n">
         <v>0.01923076923076923</v>
       </c>
       <c r="V28" t="n">
-        <v>0.0023121387283237</v>
+        <v>0.00115606936416185</v>
       </c>
     </row>
     <row r="29">
@@ -2828,10 +2828,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>15.1682073600241</v>
+        <v>52.41476564895129</v>
       </c>
       <c r="E29" t="n">
-        <v>11322</v>
+        <v>11365</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2867,12 +2867,12 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.cms_synthetic_patient_data_omop.concept_ancestor', 'bigquery-public-data.cms_synthetic_patient_data_omop.person', 'bigquery-public-data.cms_synthetic_patient_data_omop.condition_occurrence', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_relationship', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept'}</t>
+          <t>{'bigquery-public-data.cms_synthetic_patient_data_omop.concept_ancestor', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_relationship', 'bigquery-public-data.cms_synthetic_patient_data_omop.condition_occurrence', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept', 'bigquery-public-data.cms_synthetic_patient_data_omop.person'}</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>{'condition_occurrence', 'concept_ancestor', 'concept', 'and divide by the total number of participants (person_id) to get the percentage', 'person', 'and join relationships'}</t>
+          <t>{'person', 'concept', 'concept_ancestor', 'and divide by the total number of unique person_ids', 'condition_occurrence', 'and cell values are included above'}</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2882,12 +2882,12 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.cms_synthetic_patient_data_omop.person.person_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept.concept_code', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept.vocabulary_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_relationship.concept_id_2', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept.standard_concept', 'bigquery-public-data.cms_synthetic_patient_data_omop.condition_occurrence.condition_concept_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_ancestor.ancestor_concept_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_relationship.concept_id_1', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_ancestor.descendant_concept_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept.concept_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_relationship.relationship_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.condition_occurrence.person_id'}</t>
+          <t>{'bigquery-public-data.cms_synthetic_patient_data_omop.concept.concept_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_ancestor.ancestor_concept_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.condition_occurrence.condition_concept_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_ancestor.descendant_concept_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.person.person_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_relationship.concept_id_1', 'bigquery-public-data.cms_synthetic_patient_data_omop.condition_occurrence.person_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_relationship.concept_id_2', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept.concept_code'}</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>{'concept_ancestor.ancestor_concept_id', 'and join relationships.', 'person.person_id', 'concept.concept_id', 'concept.vocabulary_id', 'condition_occurrence.condition_concept_id', 'and divide by the total number of participants (person_id) to get the percentage.- The schema links above cover all the necessary columns', 'concept.standard_concept', 'concept.concept_code', 'condition_occurrence.person_id', 'concept_ancestor.descendant_concept_id'}</t>
+          <t>{'person.person_id', 'and divide by the total number of unique person_ids.- All relevant columns', 'concept.vocabulary_id', 'condition_occurrence.condition_concept_id', 'concept_ancestor.ancestor_concept_id', 'condition_occurrence.person_id', 'and cell values are included above.', 'concept_ancestor.descendant_concept_id', 'concept.concept_code', 'concept.standard_concept', 'concept.concept_id'}</t>
         </is>
       </c>
       <c r="U29" t="n">
@@ -2912,10 +2912,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11.65737830195576</v>
+        <v>12.2859672930208</v>
       </c>
       <c r="E30" t="n">
-        <v>11035</v>
+        <v>11081</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2951,12 +2951,12 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.cms_synthetic_patient_data_omop.concept', 'bigquery-public-data.cms_synthetic_patient_data_omop.person', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_ancestor', 'bigquery-public-data.cms_synthetic_patient_data_omop.drug_exposure'}</t>
+          <t>{'bigquery-public-data.cms_synthetic_patient_data_omop.person', 'bigquery-public-data.cms_synthetic_patient_data_omop.drug_exposure', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_ancestor'}</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data'}</t>
+          <t>{'drug_exposure', 'person', 'concept_ancestor'}</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2966,19 +2966,19 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.cms_synthetic_patient_data_omop.person.person_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept.concept_code', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept.vocabulary_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.drug_exposure.person_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.drug_exposure.drug_concept_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_ancestor.ancestor_concept_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_ancestor.descendant_concept_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept.concept_id'}</t>
+          <t>{'bigquery-public-data.cms_synthetic_patient_data_omop.person.person_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept.concept_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.concept_ancestor.descendant_concept_id', 'bigquery-public-data.cms_synthetic_patient_data_omop.drug_exposure.person_id'}</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.cms_synthetic_patient_data_omop'}</t>
+          <t>{'person.person_id', 'drug_exposure.person_id', 'concept_ancestor.ancestor_concept_id', 'drug_exposure.drug_concept_id', 'concept_ancestor.descendant_concept_id'}</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="V30" t="n">
-        <v>0.00115606936416185</v>
+        <v>0.005780346820809248</v>
       </c>
     </row>
     <row r="31">
@@ -2996,10 +2996,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19.18598079797812</v>
+        <v>32.58281252899906</v>
       </c>
       <c r="E31" t="n">
-        <v>32246</v>
+        <v>32685</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3035,12 +3035,12 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.noaa_historic_severe_storms.storms_1984', 'bigquery-public-data.noaa_historic_severe_storms.storms_1983', 'bigquery-public-data.noaa_historic_severe_storms.storms_1989', 'bigquery-public-data.noaa_historic_severe_storms.storms_1990', 'bigquery-public-data.noaa_historic_severe_storms.storms_1994', 'bigquery-public-data.noaa_historic_severe_storms.storms_1980', 'bigquery-public-data.noaa_historic_severe_storms.storms_1995', 'bigquery-public-data.noaa_historic_severe_storms.storms_1981', 'bigquery-public-data.noaa_historic_severe_storms.storms_1993', 'bigquery-public-data.noaa_historic_severe_storms.storms_1985', 'bigquery-public-data.noaa_historic_severe_storms.storms_1991', 'bigquery-public-data.noaa_historic_severe_storms.storms_1982', 'bigquery-public-data.noaa_historic_severe_storms.storms_1988', 'bigquery-public-data.noaa_historic_severe_storms.storms_1986', 'bigquery-public-data.noaa_historic_severe_storms.storms_1992', 'bigquery-public-data.noaa_historic_severe_storms.storms_1987'}</t>
+          <t>{'bigquery-public-data.noaa_historic_severe_storms.storms_1983', 'bigquery-public-data.noaa_historic_severe_storms.storms_1994', 'bigquery-public-data.noaa_historic_severe_storms.storms_1987', 'bigquery-public-data.noaa_historic_severe_storms.storms_1988', 'bigquery-public-data.noaa_historic_severe_storms.storms_1989', 'bigquery-public-data.noaa_historic_severe_storms.storms_1982', 'bigquery-public-data.noaa_historic_severe_storms.storms_1980', 'bigquery-public-data.noaa_historic_severe_storms.storms_1992', 'bigquery-public-data.noaa_historic_severe_storms.storms_1984', 'bigquery-public-data.noaa_historic_severe_storms.storms_1991', 'bigquery-public-data.noaa_historic_severe_storms.storms_1981', 'bigquery-public-data.noaa_historic_severe_storms.storms_1986', 'bigquery-public-data.noaa_historic_severe_storms.storms_1993', 'bigquery-public-data.noaa_historic_severe_storms.storms_1990', 'bigquery-public-data.noaa_historic_severe_storms.storms_1995', 'bigquery-public-data.noaa_historic_severe_storms.storms_1985'}</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>{'storms_YYYY'}</t>
+          <t>{'', 'and the number 5 (for top states overall)', 'so counting rows per state gives the event count', 'bigquery-public-data', 'as all data is in the storms tables'}</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -3050,19 +3050,19 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.noaa_historic_severe_storms.storms_1982.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1991.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1989.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1992.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1985.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1995.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1985.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1986.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1982.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1989.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1981.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1993.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1992.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1994.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1980.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1983.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1987.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1988.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1981.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1990.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1990.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1984.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1983.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1991.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1987.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1986.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1988.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1984.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1995.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1993.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1980.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1994.event_id'}</t>
+          <t>{'bigquery-public-data.noaa_historic_severe_storms.storms_1989.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1992.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1988.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1985.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1980.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1986.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1990.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1987.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1991.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1981.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1982.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1995.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1985.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1993.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1994.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1990.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1994.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1993.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1983.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1987.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1988.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1982.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1983.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1995.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1989.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1986.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1984.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1980.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1984.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1991.state', 'bigquery-public-data.noaa_historic_severe_storms.storms_1992.event_id', 'bigquery-public-data.noaa_historic_severe_storms.storms_1981.event_id'}</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>{'storms_YYYY.state', 'storms_YYYY.event_id'}</t>
+          <t>{'.', 'and the number 5 (for top states overall).- Each row in these tables is a storm event', 'as all data is in the storms tables.- The state abbreviation is used as the grouping and output column', 'bigquery-public-data.noaa_historic_severe_storms', 'so counting rows per state gives the event count.- No explicit foreign keys are needed'}</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>0.004587155963302753</v>
+        <v>0.02293577981651376</v>
       </c>
       <c r="V31" t="n">
-        <v>0.000274914089347079</v>
+        <v>0.0006872852233676976</v>
       </c>
     </row>
     <row r="32">
@@ -3076,14 +3076,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>bq042.sql</t>
+          <t>bq045.sql</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>18.78966664895415</v>
+        <v>15.48367005999899</v>
       </c>
       <c r="E32" t="n">
-        <v>32253</v>
+        <v>33293</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3119,12 +3119,12 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.noaa_gsod.gsod2003', 'bigquery-public-data.noaa_gsod.gsod2019', 'bigquery-public-data.noaa_gsod.gsod2006', 'bigquery-public-data.noaa_gsod.gsod2022', 'bigquery-public-data.noaa_gsod.gsod2007', 'bigquery-public-data.noaa_gsod.gsod2017', 'bigquery-public-data.noaa_gsod.gsod2008', 'bigquery-public-data.noaa_gsod.gsod2000', 'bigquery-public-data.noaa_gsod.gsod2024', 'bigquery-public-data.noaa_gsod.gsod2012', 'bigquery-public-data.noaa_gsod.gsod2021', 'bigquery-public-data.noaa_gsod.gsod2004', 'bigquery-public-data.noaa_gsod.gsod2023', 'bigquery-public-data.noaa_gsod.gsod2005', 'bigquery-public-data.noaa_gsod.gsod2014', 'bigquery-public-data.noaa_gsod.gsod2013', 'bigquery-public-data.noaa_gsod.gsod2010', 'bigquery-public-data.noaa_gsod.gsod2015', 'bigquery-public-data.noaa_gsod.gsod2002', 'bigquery-public-data.noaa_gsod.gsod2018', 'bigquery-public-data.noaa_gsod.gsod2020', 'bigquery-public-data.noaa_gsod.gsod2001', 'bigquery-public-data.noaa_gsod.gsod2009', 'bigquery-public-data.noaa_gsod.gsod2011', 'bigquery-public-data.noaa_gsod.gsod2016'}</t>
+          <t>{'bigquery-public-data.noaa_gsod.stations', 'bigquery-public-data.noaa_gsod.gsod2022', 'bigquery-public-data.noaa_gsod.gsod2023'}</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>{'gsod2013', 'gsod2011', 'gsod2012', 'gsod2014'}</t>
+          <t>{'bigquery-public-data', '99'}</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -3134,19 +3134,19 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.noaa_gsod.gsod2021.year', 'bigquery-public-data.noaa_gsod.gsod2013.year', 'bigquery-public-data.noaa_gsod.gsod2011.da', 'bigquery-public-data.noaa_gsod.gsod2006.year', 'bigquery-public-data.noaa_gsod.gsod2008.stn', 'bigquery-public-data.noaa_gsod.gsod2003.prcp', 'bigquery-public-data.noaa_gsod.gsod2006.mo', 'bigquery-public-data.noaa_gsod.gsod2022.prcp', 'bigquery-public-data.noaa_gsod.gsod2019.year', 'bigquery-public-data.noaa_gsod.gsod2017.wdsp', 'bigquery-public-data.noaa_gsod.gsod2008.wdsp', 'bigquery-public-data.noaa_gsod.gsod2012.wdsp', 'bigquery-public-data.noaa_gsod.gsod2005.year', 'bigquery-public-data.noaa_gsod.gsod2000.prcp', 'bigquery-public-data.noaa_gsod.gsod2008.year', 'bigquery-public-data.noaa_gsod.gsod2018.wdsp', 'bigquery-public-data.noaa_gsod.gsod2015.mo', 'bigquery-public-data.noaa_gsod.gsod2019.mo', 'bigquery-public-data.noaa_gsod.gsod2000.wdsp', 'bigquery-public-data.noaa_gsod.gsod2019.temp', 'bigquery-public-data.noaa_gsod.gsod2009.da', 'bigquery-public-data.noaa_gsod.gsod2020.year', 'bigquery-public-data.noaa_gsod.gsod2012.temp', 'bigquery-public-data.noaa_gsod.gsod2024.year', 'bigquery-public-data.noaa_gsod.gsod2018.temp', 'bigquery-public-data.noaa_gsod.gsod2000.da', 'bigquery-public-data.noaa_gsod.gsod2018.mo', 'bigquery-public-data.noaa_gsod.gsod2018.prcp', 'bigquery-public-data.noaa_gsod.gsod2006.stn', 'bigquery-public-data.noaa_gsod.gsod2012.year', 'bigquery-public-data.noaa_gsod.gsod2015.year', 'bigquery-public-data.noaa_gsod.gsod2014.wdsp', 'bigquery-public-data.noaa_gsod.gsod2004.mo', 'bigquery-public-data.noaa_gsod.gsod2005.wdsp', 'bigquery-public-data.noaa_gsod.gsod2003.year', 'bigquery-public-data.noaa_gsod.gsod2008.temp', 'bigquery-public-data.noaa_gsod.gsod2020.da', 'bigquery-public-data.noaa_gsod.gsod2008.mo', 'bigquery-public-data.noaa_gsod.gsod2013.da', 'bigquery-public-data.noaa_gsod.gsod2020.wdsp', 'bigquery-public-data.noaa_gsod.gsod2019.prcp', 'bigquery-public-data.noaa_gsod.gsod2016.wdsp', 'bigquery-public-data.noaa_gsod.gsod2023.mo', 'bigquery-public-data.noaa_gsod.gsod2017.da', 'bigquery-public-data.noaa_gsod.gsod2012.da', 'bigquery-public-data.noaa_gsod.gsod2019.da', 'bigquery-public-data.noaa_gsod.gsod2023.temp', 'bigquery-public-data.noaa_gsod.gsod2021.mo', 'bigquery-public-data.noaa_gsod.gsod2010.prcp', 'bigquery-public-data.noaa_gsod.gsod2001.prcp', 'bigquery-public-data.noaa_gsod.gsod2010.year', 'bigquery-public-data.noaa_gsod.gsod2013.mo', 'bigquery-public-data.noaa_gsod.gsod2004.year', 'bigquery-public-data.noaa_gsod.gsod2000.temp', 'bigquery-public-data.noaa_gsod.gsod2022.year', 'bigquery-public-data.noaa_gsod.gsod2023.prcp', 'bigquery-public-data.noaa_gsod.gsod2021.wdsp', 'bigquery-public-data.noaa_gsod.gsod2016.mo', 'bigquery-public-data.noaa_gsod.gsod2006.temp', 'bigquery-public-data.noaa_gsod.gsod2014.stn', 'bigquery-public-data.noaa_gsod.gsod2024.temp', 'bigquery-public-data.noaa_gsod.gsod2021.prcp', 'bigquery-public-data.noaa_gsod.gsod2019.wdsp', 'bigquery-public-data.noaa_gsod.gsod2002.year', 'bigquery-public-data.noaa_gsod.gsod2011.stn', 'bigquery-public-data.noaa_gsod.gsod2006.prcp', 'bigquery-public-data.noaa_gsod.gsod2007.wdsp', 'bigquery-public-data.noaa_gsod.gsod2013.prcp', 'bigquery-public-data.noaa_gsod.gsod2021.temp', 'bigquery-public-data.noaa_gsod.gsod2006.wdsp', 'bigquery-public-data.noaa_gsod.gsod2002.mo', 'bigquery-public-data.noaa_gsod.gsod2015.da', 'bigquery-public-data.noaa_gsod.gsod2000.year', 'bigquery-public-data.noaa_gsod.gsod2014.prcp', 'bigquery-public-data.noaa_gsod.gsod2009.stn', 'bigquery-public-data.noaa_gsod.gsod2001.stn', 'bigquery-public-data.noaa_gsod.gsod2010.temp', 'bigquery-public-data.noaa_gsod.gsod2007.da', 'bigquery-public-data.noaa_gsod.gsod2016.da', 'bigquery-public-data.noaa_gsod.gsod2009.temp', 'bigquery-public-data.noaa_gsod.gsod2007.temp', 'bigquery-public-data.noaa_gsod.gsod2019.stn', 'bigquery-public-data.noaa_gsod.gsod2003.mo', 'bigquery-public-data.noaa_gsod.gsod2016.year', 'bigquery-public-data.noaa_gsod.gsod2005.mo', 'bigquery-public-data.noaa_gsod.gsod2004.wdsp', 'bigquery-public-data.noaa_gsod.gsod2014.temp', 'bigquery-public-data.noaa_gsod.gsod2008.prcp', 'bigquery-public-data.noaa_gsod.gsod2007.mo', 'bigquery-public-data.noaa_gsod.gsod2015.temp', 'bigquery-public-data.noaa_gsod.gsod2000.stn', 'bigquery-public-data.noaa_gsod.gsod2021.stn', 'bigquery-public-data.noaa_gsod.gsod2003.temp', 'bigquery-public-data.noaa_gsod.gsod2011.prcp', 'bigquery-public-data.noaa_gsod.gsod2007.year', 'bigquery-public-data.noaa_gsod.gsod2005.stn', 'bigquery-public-data.noaa_gsod.gsod2018.year', 'bigquery-public-data.noaa_gsod.gsod2012.stn', 'bigquery-public-data.noaa_gsod.gsod2002.stn', 'bigquery-public-data.noaa_gsod.gsod2014.da', 'bigquery-public-data.noaa_gsod.gsod2009.year', 'bigquery-public-data.noaa_gsod.gsod2011.mo', 'bigquery-public-data.noaa_gsod.gsod2001.da', 'bigquery-public-data.noaa_gsod.gsod2015.stn', 'bigquery-public-data.noaa_gsod.gsod2015.wdsp', 'bigquery-public-data.noaa_gsod.gsod2002.da', 'bigquery-public-data.noaa_gsod.gsod2001.year', 'bigquery-public-data.noaa_gsod.gsod2009.mo', 'bigquery-public-data.noaa_gsod.gsod2004.temp', 'bigquery-public-data.noaa_gsod.gsod2005.prcp', 'bigquery-public-data.noaa_gsod.gsod2022.wdsp', 'bigquery-public-data.noaa_gsod.gsod2003.stn', 'bigquery-public-data.noaa_gsod.gsod2016.stn', 'bigquery-public-data.noaa_gsod.gsod2001.wdsp', 'bigquery-public-data.noaa_gsod.gsod2022.da', 'bigquery-public-data.noaa_gsod.gsod2002.prcp', 'bigquery-public-data.noaa_gsod.gsod2024.stn', 'bigquery-public-data.noaa_gsod.gsod2003.da', 'bigquery-public-data.noaa_gsod.gsod2024.da', 'bigquery-public-data.noaa_gsod.gsod2020.prcp', 'bigquery-public-data.noaa_gsod.gsod2014.year', 'bigquery-public-data.noaa_gsod.gsod2011.wdsp', 'bigquery-public-data.noaa_gsod.gsod2016.temp', 'bigquery-public-data.noaa_gsod.gsod2002.wdsp', 'bigquery-public-data.noaa_gsod.gsod2024.prcp', 'bigquery-public-data.noaa_gsod.gsod2000.mo', 'bigquery-public-data.noaa_gsod.gsod2010.mo', 'bigquery-public-data.noaa_gsod.gsod2013.temp', 'bigquery-public-data.noaa_gsod.gsod2013.wdsp', 'bigquery-public-data.noaa_gsod.gsod2020.temp', 'bigquery-public-data.noaa_gsod.gsod2003.wdsp', 'bigquery-public-data.noaa_gsod.gsod2012.mo', 'bigquery-public-data.noaa_gsod.gsod2017.stn', 'bigquery-public-data.noaa_gsod.gsod2021.da', 'bigquery-public-data.noaa_gsod.gsod2011.year', 'bigquery-public-data.noaa_gsod.gsod2023.da', 'bigquery-public-data.noaa_gsod.gsod2006.da', 'bigquery-public-data.noaa_gsod.gsod2015.prcp', 'bigquery-public-data.noaa_gsod.gsod2018.stn', 'bigquery-public-data.noaa_gsod.gsod2022.temp', 'bigquery-public-data.noaa_gsod.gsod2004.da', 'bigquery-public-data.noaa_gsod.gsod2020.stn', 'bigquery-public-data.noaa_gsod.gsod2007.stn', 'bigquery-public-data.noaa_gsod.gsod2017.mo', 'bigquery-public-data.noaa_gsod.gsod2016.prcp', 'bigquery-public-data.noaa_gsod.gsod2010.stn', 'bigquery-public-data.noaa_gsod.gsod2023.stn', 'bigquery-public-data.noaa_gsod.gsod2020.mo', 'bigquery-public-data.noaa_gsod.gsod2002.temp', 'bigquery-public-data.noaa_gsod.gsod2009.prcp', 'bigquery-public-data.noaa_gsod.gsod2018.da', 'bigquery-public-data.noaa_gsod.gsod2004.stn', 'bigquery-public-data.noaa_gsod.gsod2017.year', 'bigquery-public-data.noaa_gsod.gsod2011.temp', 'bigquery-public-data.noaa_gsod.gsod2022.stn', 'bigquery-public-data.noaa_gsod.gsod2017.prcp', 'bigquery-public-data.noaa_gsod.gsod2010.da', 'bigquery-public-data.noaa_gsod.gsod2001.mo', 'bigquery-public-data.noaa_gsod.gsod2010.wdsp', 'bigquery-public-data.noaa_gsod.gsod2008.da', 'bigquery-public-data.noaa_gsod.gsod2023.wdsp', 'bigquery-public-data.noaa_gsod.gsod2009.wdsp', 'bigquery-public-data.noaa_gsod.gsod2005.da', 'bigquery-public-data.noaa_gsod.gsod2013.stn', 'bigquery-public-data.noaa_gsod.gsod2005.temp', 'bigquery-public-data.noaa_gsod.gsod2024.wdsp', 'bigquery-public-data.noaa_gsod.gsod2001.temp', 'bigquery-public-data.noaa_gsod.gsod2022.mo', 'bigquery-public-data.noaa_gsod.gsod2014.mo', 'bigquery-public-data.noaa_gsod.gsod2012.prcp', 'bigquery-public-data.noaa_gsod.gsod2024.mo', 'bigquery-public-data.noaa_gsod.gsod2017.temp', 'bigquery-public-data.noaa_gsod.gsod2007.prcp', 'bigquery-public-data.noaa_gsod.gsod2004.prcp', 'bigquery-public-data.noaa_gsod.gsod2023.year'}</t>
+          <t>{'bigquery-public-data.noaa_gsod.stations.usaf', 'bigquery-public-data.noaa_gsod.gsod2023.stn', 'bigquery-public-data.noaa_gsod.stations.name', 'bigquery-public-data.noaa_gsod.gsod2022.stn'}</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>{'gsod2012.da', 'gsod2013.stn', 'gsod2013.year', 'gsod2011.prcp', 'gsod2012.temp', 'gsod2011.year', 'gsod2012.prcp', 'gsod2012.wdsp', 'gsod2014.stn', 'gsod2014.year', 'gsod2011.mo', 'gsod2013.mo', 'gsod2014.mo', 'gsod2012.stn', 'gsod2013.prcp', 'gsod2013.da', 'gsod2011.stn', 'gsod2011.temp', 'gsod2012.mo', 'gsod2013.wdsp', 'gsod2011.da', 'gsod2012.year', 'gsod2011.wdsp', 'gsod2013.temp'}</t>
+          <t>{'99.99', 'bigquery-public-data.noaa_gsod'}</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>0.01834862385321101</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="V32" t="n">
-        <v>0.003298969072164949</v>
+        <v>0.000274914089347079</v>
       </c>
     </row>
     <row r="33">
@@ -3160,14 +3160,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>bq394.sql</t>
+          <t>bq290.sql</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>12.10278538498096</v>
+        <v>14.31691098498413</v>
       </c>
       <c r="E33" t="n">
-        <v>32265</v>
+        <v>32957</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3203,12 +3203,12 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.noaa_icoads.icoads_core_2005', 'bigquery-public-data.noaa_icoads.icoads_core_2013', 'bigquery-public-data.noaa_icoads.icoads_core_2008', 'bigquery-public-data.noaa_icoads.icoads_core_2016', 'bigquery-public-data.noaa_icoads.icoads_core_2014', 'bigquery-public-data.noaa_icoads.icoads_core_2006', 'bigquery-public-data.noaa_icoads.icoads_core_2011', 'bigquery-public-data.noaa_icoads.icoads_core_1662_2000', 'bigquery-public-data.noaa_icoads.icoads_core_2010', 'bigquery-public-data.noaa_icoads.icoads_core_2009', 'bigquery-public-data.noaa_icoads.icoads_core_2012', 'bigquery-public-data.noaa_icoads.icoads_core_2015', 'bigquery-public-data.noaa_icoads.icoads_core_2007', 'bigquery-public-data.noaa_icoads.icoads_core_2001_2004', 'bigquery-public-data.noaa_icoads.icoads_core_2017'}</t>
+          <t>{'bigquery-public-data.noaa_gsod.stations', 'bigquery-public-data.noaa_gsod.gsod2023'}</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>{'', 'bigquery-public-data'}</t>
+          <t>{'bigquery-public-data'}</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3218,19 +3218,19 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.noaa_icoads.icoads_core_2009.sea_surface_temp', 'bigquery-public-data.noaa_icoads.icoads_core_2013.sea_surface_temp', 'bigquery-public-data.noaa_icoads.icoads_core_2016.wetbulb_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2006.dewpoint_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2006.month', 'bigquery-public-data.noaa_icoads.icoads_core_2008.air_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2007.year', 'bigquery-public-data.noaa_icoads.icoads_core_2010.air_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2007.wetbulb_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2012.dewpoint_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2001_2004.day', 'bigquery-public-data.noaa_icoads.icoads_core_2015.wetbulb_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2009.air_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2007.sea_surface_temp', 'bigquery-public-data.noaa_icoads.icoads_core_2007.dewpoint_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2010.year', 'bigquery-public-data.noaa_icoads.icoads_core_2005.month', 'bigquery-public-data.noaa_icoads.icoads_core_2015.month', 'bigquery-public-data.noaa_icoads.icoads_core_2015.air_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2017.dewpoint_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_1662_2000.sea_surface_temp', 'bigquery-public-data.noaa_icoads.icoads_core_2017.day', 'bigquery-public-data.noaa_icoads.icoads_core_2013.month', 'bigquery-public-data.noaa_icoads.icoads_core_2009.day', 'bigquery-public-data.noaa_icoads.icoads_core_2011.dewpoint_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2005.dewpoint_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2012.month', 'bigquery-public-data.noaa_icoads.icoads_core_2005.sea_surface_temp', 'bigquery-public-data.noaa_icoads.icoads_core_2011.wetbulb_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2014.month', 'bigquery-public-data.noaa_icoads.icoads_core_2001_2004.year', 'bigquery-public-data.noaa_icoads.icoads_core_2014.year', 'bigquery-public-data.noaa_icoads.icoads_core_2011.sea_surface_temp', 'bigquery-public-data.noaa_icoads.icoads_core_2006.air_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2009.month', 'bigquery-public-data.noaa_icoads.icoads_core_2008.wetbulb_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2014.dewpoint_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2006.wetbulb_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2012.sea_surface_temp', 'bigquery-public-data.noaa_icoads.icoads_core_2011.month', 'bigquery-public-data.noaa_icoads.icoads_core_2013.day', 'bigquery-public-data.noaa_icoads.icoads_core_2008.dewpoint_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2008.sea_surface_temp', 'bigquery-public-data.noaa_icoads.icoads_core_2005.year', 'bigquery-public-data.noaa_icoads.icoads_core_2007.month', 'bigquery-public-data.noaa_icoads.icoads_core_2006.day', 'bigquery-public-data.noaa_icoads.icoads_core_2017.wetbulb_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2005.day', 'bigquery-public-data.noaa_icoads.icoads_core_2006.sea_surface_temp', 'bigquery-public-data.noaa_icoads.icoads_core_2013.dewpoint_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2005.air_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2016.year', 'bigquery-public-data.noaa_icoads.icoads_core_2012.day', 'bigquery-public-data.noaa_icoads.icoads_core_2001_2004.wetbulb_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2001_2004.month', 'bigquery-public-data.noaa_icoads.icoads_core_2010.dewpoint_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2015.dewpoint_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2017.year', 'bigquery-public-data.noaa_icoads.icoads_core_2006.year', 'bigquery-public-data.noaa_icoads.icoads_core_2005.wetbulb_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_1662_2000.day', 'bigquery-public-data.noaa_icoads.icoads_core_2010.day', 'bigquery-public-data.noaa_icoads.icoads_core_2015.year', 'bigquery-public-data.noaa_icoads.icoads_core_2001_2004.air_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2007.air_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2014.day', 'bigquery-public-data.noaa_icoads.icoads_core_2008.month', 'bigquery-public-data.noaa_icoads.icoads_core_2015.day', 'bigquery-public-data.noaa_icoads.icoads_core_2013.wetbulb_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2015.sea_surface_temp', 'bigquery-public-data.noaa_icoads.icoads_core_1662_2000.dewpoint_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2014.sea_surface_temp', 'bigquery-public-data.noaa_icoads.icoads_core_1662_2000.month', 'bigquery-public-data.noaa_icoads.icoads_core_2008.year', 'bigquery-public-data.noaa_icoads.icoads_core_2013.air_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2017.sea_surface_temp', 'bigquery-public-data.noaa_icoads.icoads_core_2016.dewpoint_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2009.year', 'bigquery-public-data.noaa_icoads.icoads_core_2012.air_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2010.sea_surface_temp', 'bigquery-public-data.noaa_icoads.icoads_core_2011.air_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2011.year', 'bigquery-public-data.noaa_icoads.icoads_core_2016.day', 'bigquery-public-data.noaa_icoads.icoads_core_1662_2000.air_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2017.air_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2016.air_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2009.dewpoint_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2012.year', 'bigquery-public-data.noaa_icoads.icoads_core_2014.wetbulb_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2008.day', 'bigquery-public-data.noaa_icoads.icoads_core_1662_2000.wetbulb_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2014.air_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2007.day', 'bigquery-public-data.noaa_icoads.icoads_core_2010.month', 'bigquery-public-data.noaa_icoads.icoads_core_1662_2000.year', 'bigquery-public-data.noaa_icoads.icoads_core_2013.year', 'bigquery-public-data.noaa_icoads.icoads_core_2001_2004.sea_surface_temp', 'bigquery-public-data.noaa_icoads.icoads_core_2011.day', 'bigquery-public-data.noaa_icoads.icoads_core_2010.wetbulb_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2001_2004.dewpoint_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2009.wetbulb_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2016.sea_surface_temp', 'bigquery-public-data.noaa_icoads.icoads_core_2012.wetbulb_temperature', 'bigquery-public-data.noaa_icoads.icoads_core_2017.month', 'bigquery-public-data.noaa_icoads.icoads_core_2016.month'}</t>
+          <t>{'bigquery-public-data.noaa_gsod.stations.name', 'bigquery-public-data.noaa_gsod.gsod2023.wban', 'bigquery-public-data.noaa_gsod.stations.wban', 'bigquery-public-data.noaa_gsod.stations.usaf', 'bigquery-public-data.noaa_gsod.gsod2023.temp', 'bigquery-public-data.noaa_gsod.gsod2023.stn', 'bigquery-public-data.noaa_gsod.gsod2023.date', 'bigquery-public-data.noaa_gsod.stations.country'}</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.noaa_icoads', '.'}</t>
+          <t>{'bigquery-public-data.noaa_gsod'}</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>0.009174311926605505</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="V33" t="n">
-        <v>0.000274914089347079</v>
+        <v>0.0001374570446735395</v>
       </c>
     </row>
     <row r="34">
@@ -3248,10 +3248,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10.92567466408946</v>
+        <v>55.35314735397696</v>
       </c>
       <c r="E34" t="n">
-        <v>33377</v>
+        <v>34164</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>{'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2014', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2022', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2024', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2023', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2020', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2016', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2018', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2017', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2019', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2021', 'NOAA_DATA_PLUS.GEO_US_BOUNDARIES.ZIP_CODES', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2015'}</t>
+          <t>{'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2019', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2020', 'NOAA_DATA_PLUS.GEO_US_BOUNDARIES.ZIP_CODES', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2017', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2015', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2014', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2022', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2024', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2016', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2023', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2021', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2018'}</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -3302,19 +3302,19 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>{'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2015.event_id', 'NOAA_DATA_PLUS.GEO_US_BOUNDARIES.ZIP_CODES.state_name', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2016.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2018.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2024.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2017.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2022.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2023.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2021.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2019.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2019.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2017.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2015.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2014.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2022.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2023.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2017.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2024.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2018.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2021.event_type', 'NOAA_DATA_PLUS.GEO_US_BOUNDARIES.ZIP_CODES.city', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2023.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2015.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2020.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2018.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2021.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2014.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2016.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2020.event_type', 'NOAA_DATA_PLUS.GEO_US_BOUNDARIES.ZIP_CODES.zip_code', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2016.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2014.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2019.event_id', 'NOAA_DATA_PLUS.GEO_US_BOUNDARIES.ZIP_CODES.zip_code_geom', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2022.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2020.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2024.event_point'}</t>
+          <t>{'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2022.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2016.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2021.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2016.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2021.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2022.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2014.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2019.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2021.event_id', 'NOAA_DATA_PLUS.GEO_US_BOUNDARIES.ZIP_CODES.zip_code', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2014.event_point', 'NOAA_DATA_PLUS.GEO_US_BOUNDARIES.ZIP_CODES.zip_code_geom', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2017.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2015.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2024.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2023.event_id', 'NOAA_DATA_PLUS.GEO_US_BOUNDARIES.ZIP_CODES.state_name', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2022.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2017.event_id', 'NOAA_DATA_PLUS.GEO_US_BOUNDARIES.ZIP_CODES.city', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2024.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2017.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2023.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2020.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2019.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2015.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2015.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2018.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2023.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2018.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2020.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2016.event_point', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2018.event_type', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2024.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2014.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2019.event_id', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS.STORMS_2020.event_point'}</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>{'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS'}</t>
+          <t>{'NOAA_DATA_PLUS.GEO_US_BOUNDARIES', 'NOAA_DATA_PLUS.NOAA_HISTORIC_SEVERE_STORMS'}</t>
         </is>
       </c>
       <c r="U34" t="n">
         <v>0.004273504273504274</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0001342281879194631</v>
+        <v>0.0002684563758389261</v>
       </c>
     </row>
     <row r="35">
@@ -3332,10 +3332,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>22.43868219101569</v>
+        <v>43.23914448299911</v>
       </c>
       <c r="E35" t="n">
-        <v>18422</v>
+        <v>18550</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3371,12 +3371,12 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>{'NEW_YORK_CITIBIKE_1.GEO_US_BOUNDARIES.ZIP_CODES', 'NEW_YORK_CITIBIKE_1.CYCLISTIC.ZIP_CODES', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2015'}</t>
+          <t>{'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2015', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS', 'NEW_YORK_CITIBIKE_1.GEO_US_BOUNDARIES.ZIP_CODES', 'NEW_YORK_CITIBIKE_1.CYCLISTIC.ZIP_CODES'}</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>{"'94728'\n\n```\n\n**Note:**  \n- The spatial join is not a traditional foreign key but is essential for mapping stations to ZIP codes", 'which together allow you to generate the correct SQL query', 'longitude) spatially within ZIP_CODES', 'GSOD2015', 'so the "highest average temperature" is the same for all', 'CITIBIKE_STATIONS', 'ZIP_CODES', 'but a query logic step)', 'CITIBIKE_TRIPS'}</t>
+          <t>{'ZIP_CODES', 'CITIBIKE_STATIONS', 'GSOD2015', '(spatial join: CITIBIKE_STATIONS', 'longitude) within ZIP_CODES', 'CITIBIKE_TRIPS'}</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3386,19 +3386,19 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>{'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS.start_station_longitude', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS.starttime', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2015.wban', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2015.year', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS.end_station_latitude', 'NEW_YORK_CITIBIKE_1.GEO_US_BOUNDARIES.ZIP_CODES.zip_code_geom', 'NEW_YORK_CITIBIKE_1.GEO_US_BOUNDARIES.ZIP_CODES.zip_code', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS.end_station_longitude', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2015.mo', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS.start_station_latitude', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2015.da'}</t>
+          <t>{'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS.starttime', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2015.year', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2015.da', 'NEW_YORK_CITIBIKE_1.GEO_US_BOUNDARIES.ZIP_CODES.zip_code_geom', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS.end_station_longitude', 'NEW_YORK_CITIBIKE_1.GEO_US_BOUNDARIES.ZIP_CODES.zip_code', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2015.mo', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS.start_station_longitude'}</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>{'CITIBIKE_TRIPS.start_station_id', 'GSOD2015.stn', 'CITIBIKE_TRIPS.starttime', 'CITIBIKE_STATIONS.longitude', 'so the "highest average temperature" is the same for all.- If you want to be explicit about the "smallest start ZIP and largest end ZIP"', 'GSOD2015.year', 'which together allow you to generate the correct SQL query.', 'CITIBIKE_TRIPS.end_station_id', 'CITIBIKE_STATIONS.latitude', 'GSOD2015.mo', 'CITIBIKE_STATIONS.(latitude', 'GSOD2015.da', 'GSOD2015.temp', 'but a query logic step).---\n\n**Summary:**  \nThe schema links for this question are the columns', 'CITIBIKE_STATIONS.station_id', 'longitude) spatially within ZIP_CODES.zip_code_geom', "'94728'\n\n```\n\n**Note:**  \n- The spatial join is not a traditional foreign key but is essential for mapping stations to ZIP codes.- All ZIPs use the same weather station for this question", 'ZIP_CODES.zip_code'}</t>
+          <t>{'CITIBIKE_TRIPS.start_station_id', 'ZIP_CODES.zip_code', 'CITIBIKE_STATIONS.latitude', 'CITIBIKE_STATIONS.station_id', 'CITIBIKE_TRIPS.end_station_id', '(spatial join: CITIBIKE_STATIONS.(latitude', 'ZIP_CODES.zip_code_geom', 'CITIBIKE_STATIONS.longitude', 'GSOD2015.stn', 'GSOD2015.mo', 'GSOD2015.temp', 'longitude) within ZIP_CODES.zip_code_geom)', 'CITIBIKE_TRIPS.starttime', 'GSOD2015.year', 'GSOD2015.da'}</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="V35" t="n">
-        <v>0.005449591280653951</v>
+        <v>0.004541326067211626</v>
       </c>
     </row>
     <row r="36">
@@ -3416,10 +3416,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>33.20721536991186</v>
+        <v>31.27892765699653</v>
       </c>
       <c r="E36" t="n">
-        <v>18951</v>
+        <v>19476</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3455,12 +3455,12 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>{'NEW_YORK_CITIBIKE_1.GEO_US_BOUNDARIES.ZIP_CODES', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.STATIONS', 'NEW_YORK_CITIBIKE_1.CYCLISTIC.ZIP_CODES', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014'}</t>
+          <t>{'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.STATIONS', 'NEW_YORK_CITIBIKE_1.CYCLISTIC.ZIP_CODES', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS', 'NEW_YORK_CITIBIKE_1.GEO_US_BOUNDARIES.ZIP_CODES'}</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>{'GEO_US_BOUNDARIES', 'and filters needed to generate the SQL for your analysis', 'CYCLISTIC', 'GSOD2014', 'Join: GEO_US_BOUNDARIES', '// or GSOD2014', 'CITIBIKE_TRIPS', 'Filter: GSOD2014'}</t>
+          <t>{'# Trip data\n  NEW_YORK_CITIBIKE_1', 'da\n  # - GSOD2014', 'and relationships needed to generate the SQL for your analysis', '# Map lat/lon to zip code (spatial join)\n  NEW_YORK_CITIBIKE_1', '# Relationships\n  # - Spatial join: CITIBIKE_TRIPS', 'NEW_YORK_CITIBIKE_1', '# Central Park station lookup\n  NEW_YORK_CITIBIKE_1', 'GSOD2014', 'and the date join to weather for Central Park', '# Map zip code to neighborhood\n  NEW_YORK_CITIBIKE_1', 'CYCLISTIC', '# Weather data\n  NEW_YORK_CITIBIKE_1'}</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3470,19 +3470,19 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>{'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS.starttime', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS.end_station_latitude', 'NEW_YORK_CITIBIKE_1.GEO_US_BOUNDARIES.ZIP_CODES.zip_code_geom', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.STATIONS.wban', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS.end_station_longitude', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014.wban', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS.start_station_latitude', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.STATIONS.state', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.STATIONS.name', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014.mo', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS.start_station_longitude', 'NEW_YORK_CITIBIKE_1.CYCLISTIC.ZIP_CODES.zip', 'NEW_YORK_CITIBIKE_1.CYCLISTIC.ZIP_CODES.borough', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014.year', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014.da', 'NEW_YORK_CITIBIKE_1.CYCLISTIC.ZIP_CODES.neighborhood', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014.temp', 'NEW_YORK_CITIBIKE_1.GEO_US_BOUNDARIES.ZIP_CODES.zip_code', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014.prcp'}</t>
+          <t>{'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014.da', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014.year', 'NEW_YORK_CITIBIKE_1.CYCLISTIC.ZIP_CODES.borough', 'NEW_YORK_CITIBIKE_1.CYCLISTIC.ZIP_CODES.neighborhood', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014.prcp', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014.mo', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.STATIONS.wban', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014.temp', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS.end_station_longitude', 'NEW_YORK_CITIBIKE_1.GEO_US_BOUNDARIES.ZIP_CODES.zip_code_geom', 'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE.CITIBIKE_TRIPS.start_station_longitude', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.GSOD2014.wban', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD.STATIONS.name'}</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>{'CITIBIKE_TRIPS.starttime', 'CITIBIKE_TRIPS.end_station_longitude', 'GEO_US_BOUNDARIES.ZIP_CODES', 'GSOD2014.da', 'CYCLISTIC.ZIP_CODES', 'GSOD2014.prcp', 'GSOD2014.year', 'GSOD2014.stn', 'CITIBIKE_TRIPS.end_station_latitude', 'and filters needed to generate the SQL for your analysis.**', 'GSOD2014.temp', 'CITIBIKE_TRIPS.tripduration', '// or GSOD2014.wban\n  2014', 'Join: GEO_US_BOUNDARIES.ZIP_CODES', 'Filter: GSOD2014.stn/wban', 'GSOD2014.mo', 'CITIBIKE_TRIPS.start_station_latitude', 'GSOD2014.year/mo/da', 'GSOD2014.wdsp', 'CITIBIKE_TRIPS.start_station_longitude'}</t>
+          <t>{'NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE', '# Relationships\n  # - Spatial join: CITIBIKE_TRIPS.start_station_latitude/longitude ≈ ZIP_CODES', 'NEW_YORK_CITIBIKE_1.CYCLISTIC', 'da\n  # - GSOD2014.wban', 'and relationships needed to generate the SQL for your analysis.The main complexity is the spatial join from lat/lon to zip code', 'NEW_YORK_CITIBIKE_1.GEO_US_BOUNDARIES', '# Central Park station lookup\n  NEW_YORK_CITIBIKE_1.NOAA_GSOD', '# Trip data\n  NEW_YORK_CITIBIKE_1.NEW_YORK_CITIBIKE', 'NEW_YORK_CITIBIKE_1.NOAA_GSOD', '# Weather data\n  NEW_YORK_CITIBIKE_1.NOAA_GSOD', 'CYCLISTIC.ZIP_CODES', '# Map zip code to neighborhood\n  NEW_YORK_CITIBIKE_1.CYCLISTIC', '# Map lat/lon to zip code (spatial join)\n  NEW_YORK_CITIBIKE_1.GEO_US_BOUNDARIES', 'and the date join to weather for Central Park.All required columns and relationships are included above', 'GSOD2014.year'}</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>0.06837606837606838</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="V36" t="n">
-        <v>0.006055101422948834</v>
+        <v>0.004541326067211626</v>
       </c>
     </row>
     <row r="37">
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>11.70185413607396</v>
+        <v>14.09910780296195</v>
       </c>
       <c r="E37" t="n">
-        <v>15551</v>
+        <v>15581</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.noaa_gsod.gsod2009.temp', 'bigquery-public-data.noaa_gsod.gsod2009.mo', 'bigquery-public-data.noaa_gsod.gsod2009.stn', 'bigquery-public-data.noaa_gsod.gsod2009.da', 'bigquery-public-data.noaa_gsod.gsod2009.year'}</t>
+          <t>{'bigquery-public-data.noaa_gsod.gsod2009.year', 'bigquery-public-data.noaa_gsod.gsod2009.da', 'bigquery-public-data.noaa_gsod.gsod2009.temp', 'bigquery-public-data.noaa_gsod.gsod2009.mo'}</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
@@ -3584,10 +3584,10 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>37.96489955298603</v>
+        <v>17.72254111099755</v>
       </c>
       <c r="E38" t="n">
-        <v>5569</v>
+        <v>6104</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>{'creation_time + 1 day)', '51', 'rainfall**:  \n  - These are likely attributes within a structured field in the "forecast" column (possibly JSON or similar)', 'geography_polygon\n\n### 2', '32°F)\n\n### 3'}</t>
+          <t>{'creation_time + 1 day\n```\n\n---\n\n**Explanation:**  \n- The columns are selected based on the weather variables and filters required', '26', 'hours)', 'NOAA_GFS0P25', '51'}</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3638,19 +3638,19 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>{'NOAA_GLOBAL_FORECAST_SYSTEM.NOAA_GLOBAL_FORECAST_SYSTEM.NOAA_GFS0P25.geography', 'NOAA_GLOBAL_FORECAST_SYSTEM.NOAA_GLOBAL_FORECAST_SYSTEM.NOAA_GFS0P25.creation_time', 'NOAA_GLOBAL_FORECAST_SYSTEM.NOAA_GLOBAL_FORECAST_SYSTEM.NOAA_GFS0P25.forecast'}</t>
+          <t>{'NOAA_GLOBAL_FORECAST_SYSTEM.NOAA_GLOBAL_FORECAST_SYSTEM.NOAA_GFS0P25.forecast', 'NOAA_GLOBAL_FORECAST_SYSTEM.NOAA_GLOBAL_FORECAST_SYSTEM.NOAA_GFS0P25.geography', 'NOAA_GLOBAL_FORECAST_SYSTEM.NOAA_GLOBAL_FORECAST_SYSTEM.NOAA_GFS0P25.creation_time'}</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>{'51.5)', 'geography_polygon\n\n### 2.Identify the required columns and concepts:\n\n- **Forecast date**:  \n  - The "forecast" column likely contains the forecasted date/time', 'rainfall**:  \n  - These are likely attributes within a structured field in the "forecast" column (possibly JSON or similar).- We\'ll need to reference:  \n    - temperature (max', 'creation_time + 1 day).- **Geography**:  \n  - "geography" or "geography_polygon" columns', '51.5\n- **Radius**: 5 km\n- **Time window for cloud cover**: 10 AM to 5 PM\n- **Temperature threshold**: 32°F\n\n### 4', '32°F)\n\n### 3.Identify possible cell values:\n\n- **Date range**: July 2019 (2019-07-01 to 2019-07-31)\n- **Latitude/Longitude**: 26'}</t>
+          <t>{'NOAA_GFS0P25.cloud_cover', 'NOAA_GFS0P25.rainfall', 'NOAA_GFS0P25.precipitation', '51.5', 'NOAA_GFS0P25.geography', 'NOAA_GFS0P25.temperature', 'NOAA_GFS0P25.forecast', 'NOAA_GFS0P25.snowfall', 'creation_time + 1 day\n```\n\n---\n\n**Explanation:**  \n- The columns are selected based on the weather variables and filters required.- The cell values are the constants from the question (dates', '26.75', 'NOAA_GFS0P25.creation_time', 'hours).- The relationship between `forecast` and `creation_time` is specified', 'NOAA_GFS0P25.geography_polygon'}</t>
         </is>
       </c>
       <c r="U38" t="n">
         <v>0.4545454545454545</v>
       </c>
       <c r="V38" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1444444444444444</v>
       </c>
     </row>
     <row r="39">
@@ -3668,10 +3668,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>15.59117844398133</v>
+        <v>13.04822948697256</v>
       </c>
       <c r="E39" t="n">
-        <v>5463</v>
+        <v>5610</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>{'PLANET_FEATURES'}</t>
+          <t>{'GEO_OPENSTREETMAP'}</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3722,19 +3722,19 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>{'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.all_tags', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.geometry', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.feature_type'}</t>
+          <t>{'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.all_tags', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.geometry'}</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>{'PLANET_FEATURES.feature_type', 'PLANET_FEATURES.all_tags', 'PLANET_FEATURES.osm_id', 'PLANET_FEATURES.geometry'}</t>
+          <t>{'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP'}</t>
         </is>
       </c>
       <c r="U39" t="n">
         <v>0.1</v>
       </c>
       <c r="V39" t="n">
-        <v>0.04651162790697674</v>
+        <v>0.01162790697674419</v>
       </c>
     </row>
     <row r="40">
@@ -3752,10 +3752,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>16.41808868106455</v>
+        <v>11.03455995500553</v>
       </c>
       <c r="E40" t="n">
-        <v>5620</v>
+        <v>5673</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3791,12 +3791,12 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>{'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_NODES', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES'}</t>
+          <t>{'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_NODES'}</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>{'PLANET_NODES', 'and cell values (including spatial relationships) needed to generate the SQL for this question', 'PLANET_FEATURES', '(spatial containment: PLANET_NODES'}</t>
+          <t>{'PLANET_FEATURES', 'PLANET_NODES', 'ST_Contains(PLANET_FEATURES'}</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3806,16 +3806,16 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>{'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_NODES.id', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_NODES.all_tags', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.osm_id', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.all_tags', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_NODES.geometry', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.geometry', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.feature_type'}</t>
+          <t>{'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_NODES.geometry', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.osm_id', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_NODES.id', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_NODES.all_tags', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.geometry', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.all_tags'}</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>{'PLANET_NODES.all_tags', 'PLANET_FEATURES.osm_id', '(spatial containment: PLANET_NODES.geometry within PLANET_FEATURES', 'PLANET_FEATURES.geometry', 'PLANET_FEATURES.feature_type', 'PLANET_NODES.geometry', 'PLANET_FEATURES.all_tags', 'and cell values (including spatial relationships) needed to generate the SQL for this question.'}</t>
+          <t>{'ST_Contains(PLANET_FEATURES.geometry', 'PLANET_NODES.geometry)', 'PLANET_FEATURES.all_tags', 'PLANET_NODES.all_tags', 'PLANET_NODES.geometry', 'PLANET_FEATURES.feature_type', 'PLANET_FEATURES.geometry', 'PLANET_FEATURES.osm_id'}</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="V40" t="n">
         <v>0.09302325581395349</v>
@@ -3836,10 +3836,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>17.09199962508865</v>
+        <v>9.589425946003757</v>
       </c>
       <c r="E41" t="n">
-        <v>5952</v>
+        <v>5678</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>{'PLANET_FEATURES_POINTS', 'count points within their geometry', 'Q191_multipolygon', 'ST_Within(PLANET_FEATURES_POINTS', 'PLANET_FEATURES', 'ST_Intersects(PLANET_FEATURES', 'and extract their names from `all_tags`'}</t>
+          <t>{'PLANET_FEATURES_POINTS', 'PLANET_RELATIONS'}</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3890,19 +3890,19 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>{'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.all_tags', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.geometry', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.osm_id', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.feature_type'}</t>
+          <t>{'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.all_tags', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.osm_id', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.feature_type', 'GEO_OPENSTREETMAP.GEO_OPENSTREETMAP.PLANET_FEATURES.geometry'}</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>{'PLANET_FEATURES.osm_way_id', 'ST_Within(PLANET_FEATURES_POINTS.geometry', 'and extract their names from `all_tags`.', 'Q191_multipolygon.geometry)\n\n```\n\n---\n\n**Summary of reasoning:**\n- Identify the Q191 multipolygon by `all_tags` and `feature_type`', 'PLANET_FEATURES.geometry)', 'PLANET_FEATURES.osm_id', 'PLANET_FEATURES.geometry', 'PLANET_FEATURES.feature_type', 'PLANET_FEATURES_POINTS.geometry', 'PLANET_FEATURES.all_tags', 'count points within their geometry.- Return the two with the highest counts', 'ST_Intersects(PLANET_FEATURES.geometry'}</t>
+          <t>{'PLANET_RELATIONS.geometry', 'PLANET_RELATIONS.id', 'PLANET_FEATURES_POINTS.geometry', 'PLANET_RELATIONS.all_tags'}</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="V41" t="n">
-        <v>0.1395348837209302</v>
+        <v>0.04651162790697674</v>
       </c>
     </row>
     <row r="42">
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>69.43164573493414</v>
+        <v>57.60647582600359</v>
       </c>
       <c r="E42" t="n">
-        <v>499760</v>
+        <v>499635</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3959,12 +3959,12 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>{'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2017_5YR', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2018_5YR', 'CENSUS_BUREAU_ACS_2.GEO_US_BOUNDARIES.ZIP_CODES', 'CENSUS_BUREAU_ACS_2.CYCLISTIC.ZIP_CODES', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2015_5YR'}</t>
+          <t>{'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2017_5YR', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2015_5YR', 'CENSUS_BUREAU_ACS_2.GEO_US_BOUNDARIES.ZIP_CODES', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2018_5YR', 'CENSUS_BUREAU_ACS_2.CYCLISTIC.ZIP_CODES'}</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>{'CENSUS_BUREAU_ACS_2', '2018\n\n```\n\n---\n\n**This set of schema links will allow you to generate the required SQL query for the question'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3974,19 +3974,19 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>{'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2017_5YR.median_income', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2015_5YR.median_income', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2018_5YR.median_income', 'CENSUS_BUREAU_ACS_2.GEO_US_BOUNDARIES.ZIP_CODES.zip_code', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2017_5YR.geo_id', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2018_5YR.geo_id', 'CENSUS_BUREAU_ACS_2.GEO_US_BOUNDARIES.ZIP_CODES.state_name', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2015_5YR.geo_id'}</t>
+          <t>{'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2015_5YR.median_income', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2017_5YR.geo_id', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2015_5YR.geo_id', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2018_5YR.geo_id', 'CENSUS_BUREAU_ACS_2.GEO_US_BOUNDARIES.ZIP_CODES.state_name', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2017_5YR.median_income', 'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS.ZIP_CODES_2018_5YR.median_income'}</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>{'CENSUS_BUREAU_ACS_2.CENSUS_BUREAU_ACS', '2018\n\n```\n\n---\n\n**This set of schema links will allow you to generate the required SQL query for the question.**', 'CENSUS_BUREAU_ACS_2.GEO_US_BOUNDARIES'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>0.006756756756756757</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>4.383785837449221e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4004,10 +4004,10 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>11.19778541103005</v>
+        <v>16.62320342299063</v>
       </c>
       <c r="E43" t="n">
-        <v>11122</v>
+        <v>11270</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -4043,12 +4043,12 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>{'GEO_OPENSTREETMAP_CENSUS_PLACES.GEO_US_CENSUS_PLACES.PLACES_PENNSYLVANIA', 'GEO_OPENSTREETMAP_CENSUS_PLACES.GEO_OPENSTREETMAP.PLANET_FEATURES_POINTS'}</t>
+          <t>{'GEO_OPENSTREETMAP_CENSUS_PLACES.GEO_OPENSTREETMAP.PLANET_FEATURES_POINTS', 'GEO_OPENSTREETMAP_CENSUS_PLACES.GEO_US_CENSUS_PLACES.PLACES_PENNSYLVANIA'}</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>{'spatial_containment(GEO_OPENSTREETMAP_CENSUS_PLACES', 'GEO_OPENSTREETMAP_CENSUS_PLACES'}</t>
+          <t>{'PLANET_FEATURES_POINTS', 'PLACES_PENNSYLVANIA'}</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -4058,19 +4058,19 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>{'GEO_OPENSTREETMAP_CENSUS_PLACES.GEO_US_CENSUS_PLACES.PLACES_PENNSYLVANIA.place_geom', 'GEO_OPENSTREETMAP_CENSUS_PLACES.GEO_OPENSTREETMAP.PLANET_FEATURES_POINTS.geometry', 'GEO_OPENSTREETMAP_CENSUS_PLACES.GEO_OPENSTREETMAP.PLANET_FEATURES_POINTS.all_tags', 'GEO_OPENSTREETMAP_CENSUS_PLACES.GEO_OPENSTREETMAP.PLANET_FEATURES_POINTS.osm_id', 'GEO_OPENSTREETMAP_CENSUS_PLACES.GEO_US_CENSUS_PLACES.PLACES_PENNSYLVANIA.place_name'}</t>
+          <t>{'GEO_OPENSTREETMAP_CENSUS_PLACES.GEO_OPENSTREETMAP.PLANET_FEATURES_POINTS.all_tags', 'GEO_OPENSTREETMAP_CENSUS_PLACES.GEO_US_CENSUS_PLACES.PLACES_PENNSYLVANIA.place_geom', 'GEO_OPENSTREETMAP_CENSUS_PLACES.GEO_OPENSTREETMAP.PLANET_FEATURES_POINTS.geometry', 'GEO_OPENSTREETMAP_CENSUS_PLACES.GEO_OPENSTREETMAP.PLANET_FEATURES_POINTS.osm_id'}</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>{'GEO_OPENSTREETMAP_CENSUS_PLACES.GEO_OPENSTREETMAP', 'GEO_OPENSTREETMAP_CENSUS_PLACES.GEO_US_CENSUS_PLACES', 'spatial_containment(GEO_OPENSTREETMAP_CENSUS_PLACES.GEO_OPENSTREET'}</t>
+          <t>{'PLANET_FEATURES_POINTS.all_tags', 'PLANET_FEATURES_POINTS.feature_type', 'PLACES_PENNSYLVANIA.place_name', 'PLANET_FEATURES_POINTS.geometry within PLACES_PENNSYLVANIA', 'PLANET_FEATURES_POINTS.geometry', 'PLACES_PENNSYLVANIA.place_geom'}</t>
         </is>
       </c>
       <c r="U43" t="n">
         <v>0.02985074626865672</v>
       </c>
       <c r="V43" t="n">
-        <v>0.002840909090909091</v>
+        <v>0.005681818181818182</v>
       </c>
     </row>
     <row r="44">
@@ -4088,10 +4088,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>18.62204960803501</v>
+        <v>33.5583805370261</v>
       </c>
       <c r="E44" t="n">
-        <v>6348</v>
+        <v>6301</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>{'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM', 'GEO_OPENSTREETMAP_WORLDPOP.GEO_OPENSTREETMAP.PLANET_LAYERS'}</t>
+          <t>{'GEO_OPENSTREETMAP_WORLDPOP.GEO_OPENSTREETMAP.PLANET_LAYERS', 'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM'}</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -4142,12 +4142,12 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>{'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM.longitude_centroid', 'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM.latitude_centroid', 'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM.last_updated', 'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM.country_name', 'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM.population', 'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM.geo_id', 'GEO_OPENSTREETMAP_WORLDPOP.GEO_OPENSTREETMAP.PLANET_LAYERS.geometry', 'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM.geog', 'GEO_OPENSTREETMAP_WORLDPOP.GEO_OPENSTREETMAP.PLANET_LAYERS.layer_code'}</t>
+          <t>{'GEO_OPENSTREETMAP_WORLDPOP.GEO_OPENSTREETMAP.PLANET_LAYERS.geometry', 'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM.last_updated', 'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM.population', 'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM.longitude_centroid', 'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM.latitude_centroid', 'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM.geog', 'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP.POPULATION_GRID_1KM.geo_id'}</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>{'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP', 'GEO_OPENSTREETMAP_WORLDPOP.GEO_OPENSTREETMAP'}</t>
+          <t>{'GEO_OPENSTREETMAP_WORLDPOP.GEO_OPENSTREETMAP', 'GEO_OPENSTREETMAP_WORLDPOP.WORLDPOP'}</t>
         </is>
       </c>
       <c r="U44" t="n">
@@ -4172,10 +4172,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>22.03449234412983</v>
+        <v>20.52729880501283</v>
       </c>
       <c r="E45" t="n">
-        <v>7483</v>
+        <v>7484</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4211,12 +4211,12 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS', 'CRYPTO.CRYPTO_BAND.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS'}</t>
+          <t>{'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS', 'CRYPTO.CRYPTO_BAND.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS'}</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>{'and the operation of extracting/decoding the amount from input', 'CRYPTO'}</t>
+          <t>{'CRYPTO', 'but the above is the core schema link set'}</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -4226,12 +4226,12 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.to_address', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.block_timestamp', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.input', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.block_timestamp', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.block_timestamp', 'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS.block_timestamp', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.input', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.block_timestamp', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.block_timestamp', 'CRYPTO.CRYPTO_BAND.TRANSACTIONS.block_timestamp', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.to_address'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_ETHEREUM', 'and the operation of extracting/decoding the amount from input.)**'}</t>
+          <t>{'CRYPTO.CRYPTO_ETHEREUM', 'but the above is the core schema link set.)**'}</t>
         </is>
       </c>
       <c r="U45" t="n">
@@ -4256,10 +4256,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>29.2353115810547</v>
+        <v>11.27252094401047</v>
       </c>
       <c r="E46" t="n">
-        <v>7149</v>
+        <v>7107</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4295,12 +4295,12 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TOKEN_TRANSFERS', 'CRYPTO.CRYPTO_ETHEREUM.TOKEN_TRANSFERS'}</t>
+          <t>{'CRYPTO.CRYPTO_ETHEREUM.TOKEN_TRANSFERS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TOKEN_TRANSFERS'}</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>{'CRYPTO'}</t>
+          <t>{'CRYPTO', 'but typically only schema elements and literal values are included'}</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4310,19 +4310,19 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TOKEN_TRANSFERS.from_address', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TOKEN_TRANSFERS.to_address', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TOKEN_TRANSFERS.value', 'CRYPTO.CRYPTO_ETHEREUM.TOKEN_TRANSFERS.value', 'CRYPTO.CRYPTO_ETHEREUM.TOKEN_TRANSFERS.to_address', 'CRYPTO.CRYPTO_ETHEREUM.TOKEN_TRANSFERS.token_address', 'CRYPTO.CRYPTO_ETHEREUM.TOKEN_TRANSFERS.from_address', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TOKEN_TRANSFERS.token_address'}</t>
+          <t>{'CRYPTO.CRYPTO_ETHEREUM.TOKEN_TRANSFERS.from_address', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TOKEN_TRANSFERS.to_address', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TOKEN_TRANSFERS.value', 'CRYPTO.CRYPTO_ETHEREUM.TOKEN_TRANSFERS.value', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TOKEN_TRANSFERS.from_address', 'CRYPTO.CRYPTO_ETHEREUM.TOKEN_TRANSFERS.to_address'}</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_ETHEREUM'}</t>
+          <t>{'CRYPTO.CRYPTO_ETHEREUM', 'but typically only schema elements and literal values are included.)**'}</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="V46" t="n">
-        <v>0.002012072434607646</v>
+        <v>0.004024144869215292</v>
       </c>
     </row>
     <row r="47">
@@ -4340,10 +4340,10 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>38.67697444814257</v>
+        <v>24.57263977598632</v>
       </c>
       <c r="E47" t="n">
-        <v>7729</v>
+        <v>7601</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>{'ORDER BY CRYPTO', 'CRYPTO'}</t>
+          <t>{'5  \n\n\n**(No foreign keys needed for this query', 'CRYPTO'}</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4394,12 +4394,12 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS.address', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS.log_index', 'CRYPTO.CRYPTO_ETHEREUM.LOGS.data', 'CRYPTO.CRYPTO_ETHEREUM.LOGS.block_timestamp', 'CRYPTO.CRYPTO_ETHEREUM.LOGS.topics', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS.topics', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS.block_timestamp', 'CRYPTO.CRYPTO_BAND.LOGS.log_index', 'CRYPTO.CRYPTO_ETHEREUM.LOGS.transaction_hash', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS.block_number', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS.transaction_hash', 'CRYPTO.CRYPTO_ETHEREUM.LOGS.log_index', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS.data', 'CRYPTO.CRYPTO_ETHEREUM.LOGS.block_number', 'CRYPTO.CRYPTO_BAND.LOGS.block_timestamp', 'CRYPTO.CRYPTO_ETHEREUM.LOGS.address'}</t>
+          <t>{'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS.transaction_hash', 'CRYPTO.CRYPTO_ETHEREUM.LOGS.data', 'CRYPTO.CRYPTO_ETHEREUM.LOGS.block_number', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS.block_timestamp', 'CRYPTO.CRYPTO_ETHEREUM.LOGS.block_timestamp', 'CRYPTO.CRYPTO_ETHEREUM.LOGS.topics', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS.log_index', 'CRYPTO.CRYPTO_BAND.LOGS.block_timestamp', 'CRYPTO.CRYPTO_ETHEREUM.LOGS.log_index', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS.data', 'CRYPTO.CRYPTO_ETHEREUM.LOGS.transaction_hash', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS.topics', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.LOGS.block_number', 'CRYPTO.CRYPTO_BAND.LOGS.log_index'}</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_ETHEREUM', 'ORDER BY CRYPTO.CRYPTO_ETHEREUM'}</t>
+          <t>{'CRYPTO.CRYPTO_ETHEREUM', '5  \n\n\n**(No foreign keys needed for this query.)**'}</t>
         </is>
       </c>
       <c r="U47" t="n">
@@ -4424,10 +4424,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>10.97095067799091</v>
+        <v>19.92892532702535</v>
       </c>
       <c r="E48" t="n">
-        <v>7180</v>
+        <v>7202</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -4463,7 +4463,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_BITCOIN.INPUTS', 'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS', 'CRYPTO.CRYPTO_BAND.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS', 'CRYPTO.CRYPTO_DASH.OUTPUTS', 'CRYPTO.CRYPTO_DASH.INPUTS', 'CRYPTO.CRYPTO_BITCOIN_CASH.OUTPUTS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN_CASH.INPUTS', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN.OUTPUTS'}</t>
+          <t>{'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS', 'CRYPTO.CRYPTO_DASH.INPUTS', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS', 'CRYPTO.CRYPTO_BAND.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN.INPUTS', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN_CASH.INPUTS', 'CRYPTO.CRYPTO_BITCOIN_CASH.OUTPUTS', 'CRYPTO.CRYPTO_DASH.OUTPUTS', 'CRYPTO.CRYPTO_BITCOIN.OUTPUTS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS'}</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_DASH.INPUTS.value', 'CRYPTO.CRYPTO_BITCOIN.INPUTS.type', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.output_value', 'CRYPTO.CRYPTO_BITCOIN_CASH.OUTPUTS.value', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.value', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.value', 'CRYPTO.CRYPTO_DASH.OUTPUTS.type', 'CRYPTO.CRYPTO_BITCOIN.INPUTS.value', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.output_value', 'CRYPTO.CRYPTO_DASH.OUTPUTS.value', 'CRYPTO.CRYPTO_BITCOIN_CASH.OUTPUTS.type', 'CRYPTO.CRYPTO_BITCOIN.OUTPUTS.type', 'CRYPTO.CRYPTO_BITCOIN_CASH.INPUTS.type', 'CRYPTO.CRYPTO_BITCOIN_CASH.INPUTS.value', 'CRYPTO.CRYPTO_BITCOIN.OUTPUTS.value', 'CRYPTO.CRYPTO_DASH.INPUTS.type', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.output_value'}</t>
+          <t>{'CRYPTO.CRYPTO_DASH.OUTPUTS.value', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.output_value', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.output_value', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.value', 'CRYPTO.CRYPTO_BITCOIN_CASH.INPUTS.value', 'CRYPTO.CRYPTO_BITCOIN.OUTPUTS.value', 'CRYPTO.CRYPTO_BITCOIN_CASH.OUTPUTS.value', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.value', 'CRYPTO.CRYPTO_BITCOIN.INPUTS.value', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.output_value', 'CRYPTO.CRYPTO_DASH.INPUTS.value'}</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
@@ -4508,10 +4508,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>14.57541899802163</v>
+        <v>16.81610090698814</v>
       </c>
       <c r="E49" t="n">
-        <v>7568</v>
+        <v>7627</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -4547,12 +4547,12 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS', 'CRYPTO.CRYPTO_BAND.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS'}</t>
+          <t>{'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS', 'CRYPTO.CRYPTO_BAND.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS'}</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>{'note that as well', 'CRYPTO'}</t>
+          <t>{'CRYPTO', 'and compute ratios as requested'}</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4562,12 +4562,12 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.output_count', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.input_count', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.input_value', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.output_value', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.outputs', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.input_value', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.hash', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.output_count', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.output_value', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.outputs', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.input_count', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.block_timestamp_month', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.output_value', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.hash', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.output_count', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.hash', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.input_value', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.outputs', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.block_timestamp_month', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.block_timestamp_month', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.hash', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.input_count', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.hash'}</t>
+          <t>{'CRYPTO.CRYPTO_DASH.TRANSACTIONS.hash', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.block_timestamp_month', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.output_value', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.hash', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.output_value', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.hash', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.hash', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.output_count', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.outputs', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.outputs', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.input_value', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.input_count', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.output_value', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.block_timestamp_month', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.input_count', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.input_count', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.hash', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.outputs', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.input_value', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.output_count', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.block_timestamp_month', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.output_count', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.input_value'}</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_BITCOIN', 'note that as well.)**'}</t>
+          <t>{'CRYPTO.CRYPTO_BITCOIN', 'and compute ratios as requested.All relevant columns and implied foreign keys are listed above'}</t>
         </is>
       </c>
       <c r="U49" t="n">
@@ -4592,10 +4592,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>16.4884296420496</v>
+        <v>15.8242379159783</v>
       </c>
       <c r="E50" t="n">
-        <v>7552</v>
+        <v>7981</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -4631,12 +4631,12 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS', 'CRYPTO.CRYPTO_BAND.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS'}</t>
+          <t>{'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS', 'CRYPTO.CRYPTO_BAND.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS'}</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>{'and the grouping by address type', "'2014-04-01'  \n\n\n**(Grouping by INPUTS", 'CRYPTO'}</t>
+          <t>{'CRYPTO'}</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4646,19 +4646,19 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.inputs', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.outputs', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.block_timestamp', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.inputs', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.value', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.value', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.block_timestamp', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.outputs', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.block_timestamp', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.outputs', 'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS.block_timestamp', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.inputs', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.block_timestamp', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.block_timestamp', 'CRYPTO.CRYPTO_BAND.TRANSACTIONS.block_timestamp'}</t>
+          <t>{'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.outputs', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.value', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.inputs', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.inputs', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.inputs', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.outputs', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.outputs', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.value'}</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_BITCOIN_CASH', "'2014-04-01'  \n\n\n**(Grouping by INPUTS.type and OUTPUTS", 'and the grouping by address type.'}</t>
+          <t>{'CRYPTO.CRYPTO_BITCOIN_CASH'}</t>
         </is>
       </c>
       <c r="U50" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="V50" t="n">
-        <v>0.006036217303822937</v>
+        <v>0.002012072434607646</v>
       </c>
     </row>
     <row r="51">
@@ -4676,10 +4676,10 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>19.97515227179974</v>
+        <v>18.0091918889666</v>
       </c>
       <c r="E51" t="n">
-        <v>7833</v>
+        <v>8044</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -4715,12 +4715,12 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRACES', 'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM.TRACES', 'CRYPTO.CRYPTO_ETHEREUM.BLOCKS', 'CRYPTO.CRYPTO_BAND.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS', 'CRYPTO.CRYPTO_DASH.BLOCKS', 'CRYPTO.CRYPTO_BITCOIN.BLOCKS', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.BLOCKS', 'CRYPTO.CRYPTO_BAND.BLOCKS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN_CASH.BLOCKS', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS'}</t>
+          <t>{'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS', 'CRYPTO.CRYPTO_BITCOIN.BLOCKS', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM.TRACES', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS', 'CRYPTO.CRYPTO_BAND.BLOCKS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.BLOCKS', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS', 'CRYPTO.CRYPTO_BAND.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRACES', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS', 'CRYPTO.CRYPTO_ETHEREUM.BLOCKS', 'CRYPTO.CRYPTO_DASH.BLOCKS', 'CRYPTO.CRYPTO_BITCOIN_CASH.BLOCKS', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS'}</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>{'CRYPTO'}</t>
+          <t>{'and including gas fees (from gas_price and receipt_gas_used)', 'CRYPTO', '2016', 'and cell values for this computation'}</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4730,19 +4730,19 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_ETHEREUM.TRACES.value', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRACES.block_timestamp', 'CRYPTO.CRYPTO_ETHEREUM.BLOCKS.number', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.to_address', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRACES.from_address', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.value', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_ETHEREUM.TRACES.status', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRACES.value', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRACES.to_address', 'CRYPTO.CRYPTO_BAND.BLOCKS.block_timestamp', 'CRYPTO.CRYPTO_ETHEREUM.TRACES.to_address', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.from_address', 'CRYPTO.CRYPTO_DASH.BLOCKS.number', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.BLOCKS.miner', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.BLOCKS.number', 'CRYPTO.CRYPTO_ETHEREUM.TRACES.block_timestamp', 'CRYPTO.CRYPTO_BITCOIN.TRANSACTIONS.block_timestamp', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.to_address', 'CRYPTO.CRYPTO_BITCOIN_CASH.TRANSACTIONS.block_timestamp', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_ETHEREUM.TRACES.from_address', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.from_address', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRACES.block_number', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.value', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.block_timestamp', 'CRYPTO.CRYPTO_DASH.TRANSACTIONS.block_timestamp', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRACES.call_type', 'CRYPTO.CRYPTO_ETHEREUM.TRACES.block_number', 'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS.block_number', 'CRYPTO.CRYPTO_BITCOIN.BLOCKS.number', 'CRYPTO.CRYPTO_ETHEREUM.BLOCKS.miner', 'CRYPTO.CRYPTO_ETHEREUM.TRACES.call_type', 'CRYPTO.CRYPTO_BITCOIN_CASH.BLOCKS.number', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.block_timestamp', 'CRYPTO.CRYPTO_ZILLIQA.TRANSACTIONS.block_timestamp', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRACES.status', 'CRYPTO.CRYPTO_BAND.TRANSACTIONS.block_timestamp'}</t>
+          <t>{'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRACES.from_address', 'CRYPTO.CRYPTO_ETHEREUM.BLOCKS.miner', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRACES.to_address', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.to_address', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.value', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRACES.value', 'CRYPTO.CRYPTO_ETHEREUM.TRACES.from_address', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.from_address', 'CRYPTO.CRYPTO_ETHEREUM.TRANSACTIONS.value', 'CRYPTO.CRYPTO_ETHEREUM.TRACES.to_address', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.to_address', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.BLOCKS.miner', 'CRYPTO.CRYPTO_ETHEREUM.TRACES.value', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC.TRANSACTIONS.from_address'}</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>{'CRYPTO.CRYPTO_ETHEREUM_CLASSIC'}</t>
+          <t>{'2016.- The schema links above cover all necessary columns', 'and including gas fees (from gas_price and receipt_gas_used).- Only successful transactions (status/receipt_status', 'and cell values for this computation.', 'CRYPTO.CRYPTO_ETHEREUM_CLASSIC'}</t>
         </is>
       </c>
       <c r="U51" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="V51" t="n">
-        <v>0.002012072434607646</v>
+        <v>0.008048289738430584</v>
       </c>
     </row>
     <row r="52">
@@ -4760,10 +4760,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>8.739036149112508</v>
+        <v>7.178799144981895</v>
       </c>
       <c r="E52" t="n">
-        <v>5990</v>
+        <v>5982</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -4804,7 +4804,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>{'HUMAN_GENOME_VARIANTS', 'but the above is the standard format'}</t>
+          <t>{'HUMAN_GENOME_VARIANTS', 'but the above is sufficient and consistent with your examples'}</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4814,12 +4814,12 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>{'HUMAN_GENOME_VARIANTS.HUMAN_GENOME_VARIANTS._1000_GENOMES_PHASE_3_OPTIMIZED_SCHEMA_VARIANTS_20150220.start_position', 'HUMAN_GENOME_VARIANTS.HUMAN_GENOME_VARIANTS._1000_GENOMES_PHASE_3_OPTIMIZED_SCHEMA_VARIANTS_20150220.reference_bases'}</t>
+          <t>{'HUMAN_GENOME_VARIANTS.HUMAN_GENOME_VARIANTS._1000_GENOMES_PHASE_3_OPTIMIZED_SCHEMA_VARIANTS_20150220.reference_bases', 'HUMAN_GENOME_VARIANTS.HUMAN_GENOME_VARIANTS._1000_GENOMES_PHASE_3_OPTIMIZED_SCHEMA_VARIANTS_20150220.start_position'}</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>{'HUMAN_GENOME_VARIANTS.HUMAN_GENOME_VARIANTS', 'but the above is the standard format.)**'}</t>
+          <t>{'but the above is sufficient and consistent with your examples.)**', 'HUMAN_GENOME_VARIANTS.HUMAN_GENOME_VARIANTS'}</t>
         </is>
       </c>
       <c r="U52" t="n">
@@ -4844,10 +4844,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>21.7625252759899</v>
+        <v>18.60571890603751</v>
       </c>
       <c r="E53" t="n">
-        <v>6861</v>
+        <v>6505</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>{'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.BLOCKS', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRACES', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRANSACTIONS'}</t>
+          <t>{'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRANSACTIONS', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.BLOCKS', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRACES'}</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>{'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRACES.value', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRANSACTIONS.to_address', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRANSACTIONS.block_number', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.BLOCKS.number', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRANSACTIONS.value', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRACES.block_number', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRACES.from_address', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRACES.status', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRACES.call_type', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.BLOCKS.miner', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRANSACTIONS.from_address', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRACES.to_address'}</t>
+          <t>{'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRACES.to_address', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRANSACTIONS.value', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.BLOCKS.miner', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRACES.value', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRANSACTIONS.to_address', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRANSACTIONS.from_address', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TRACES.from_address'}</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
@@ -4928,10 +4928,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>10.47441308409907</v>
+        <v>13.21006933500757</v>
       </c>
       <c r="E54" t="n">
-        <v>5435</v>
+        <v>5751</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -4967,12 +4967,12 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>{'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TOKENS', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TOKEN_TRANSFERS'}</t>
+          <t>{'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TOKEN_TRANSFERS', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TOKENS'}</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>{"'BNB'\n\n---\n\n### 2", 'ETHEREUM_BLOCKCHAIN', 'BNB address\n\n**Schema link:**  \nETHEREUM_BLOCKCHAIN'}</t>
+          <t>{'TOKENS', 'TOKEN_TRANSFERS'}</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4982,19 +4982,19 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>{'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TOKENS.address', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TOKENS.name', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TOKEN_TRANSFERS.token_address', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TOKEN_TRANSFERS.from_address', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TOKEN_TRANSFERS.to_address'}</t>
+          <t>{'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TOKEN_TRANSFERS.to_address', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TOKENS.address', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TOKEN_TRANSFERS.from_address', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN.TOKENS.name'}</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>{'BNB address\n\n**Schema link:**  \nETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN', 'ETHEREUM_BLOCKCHAIN.ETHEREUM_BLOCKCHAIN', "'BNB'\n\n---\n\n### 2.**Find all BNB token transfers**\n\n- Table: `ETHEREUM_BLOCKCHAIN"}</t>
+          <t>{'TOKEN_TRANSFERS.from_address', 'TOKEN_TRANSFERS.to_address', 'TOKEN_TRANSFERS.token_address', 'TOKENS.symbol', 'TOKEN_TRANSFERS.value', 'TOKENS.address', 'TOKENS.decimals'}</t>
         </is>
       </c>
       <c r="U54" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="V54" t="n">
-        <v>0.03409090909090909</v>
+        <v>0.07954545454545454</v>
       </c>
     </row>
     <row r="55">
@@ -5012,10 +5012,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>5.676145803881809</v>
+        <v>14.49630557297496</v>
       </c>
       <c r="E55" t="n">
-        <v>13889</v>
+        <v>14004</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>{'-87', '41', 'bigquery-public-data'}</t>
+          <t>{'41', 'bigquery-public-data', '-87', 'and -87', 'and must filter by latitude/longitude using a distance formula (e'}</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -5066,19 +5066,19 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.ghcn_d.ghcnd_stations.state', 'bigquery-public-data.ghcn_d.ghcnd_stations.longitude', 'bigquery-public-data.ghcn_d.ghcnd_stations.id', 'bigquery-public-data.ghcn_d.ghcnd_stations.latitude', 'bigquery-public-data.ghcn_d.ghcnd_stations.name'}</t>
+          <t>{'bigquery-public-data.ghcn_d.ghcnd_stations.longitude', 'bigquery-public-data.ghcn_d.ghcnd_stations.latitude', 'bigquery-public-data.ghcn_d.ghcnd_stations.name', 'bigquery-public-data.ghcn_d.ghcnd_stations.id', 'bigquery-public-data.ghcn_d.ghcnd_stations.state'}</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>{'41.8319', 'bigquery-public-data.ghcn_d', '-87.6847'}</t>
+          <t>{'bigquery-public-data.ghcn_d', 'and must filter by latitude/longitude using a distance formula (e.g', '-87.6847\n\n```\n\n**Explanation:**  \n- The query needs station id and name', 'and -87.6847', '41.8319'}</t>
         </is>
       </c>
       <c r="U55" t="n">
-        <v>0.0112781954887218</v>
+        <v>0.01879699248120301</v>
       </c>
       <c r="V55" t="n">
-        <v>0.001401214385801028</v>
+        <v>0.002335357309668379</v>
       </c>
     </row>
     <row r="56">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>39.70046729396563</v>
+        <v>16.94392443803372</v>
       </c>
       <c r="E56" t="n">
-        <v>15769</v>
+        <v>15286</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -5135,12 +5135,12 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.ghcn_d.ghcnd_2016', 'bigquery-public-data.ghcn_d.ghcnd_2014', 'bigquery-public-data.ghcn_d.ghcnd_2015', 'bigquery-public-data.ghcn_d.ghcnd_2013'}</t>
+          <t>{'bigquery-public-data.ghcn_d.ghcnd_2013', 'bigquery-public-data.ghcn_d.ghcnd_2015', 'bigquery-public-data.ghcn_d.ghcnd_2016', 'bigquery-public-data.ghcn_d.ghcnd_2014'}</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>{'and cell values needed to generate the correct SQL for the question', 'bigquery-public-data'}</t>
+          <t>{'bigquery-public-data'}</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -5150,19 +5150,19 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.ghcn_d.ghcnd_2016.qflag', 'bigquery-public-data.ghcn_d.ghcnd_2016.id', 'bigquery-public-data.ghcn_d.ghcnd_2014.qflag', 'bigquery-public-data.ghcn_d.ghcnd_2015.qflag', 'bigquery-public-data.ghcn_d.ghcnd_2016.element', 'bigquery-public-data.ghcn_d.ghcnd_2016.date', 'bigquery-public-data.ghcn_d.ghcnd_2015.id', 'bigquery-public-data.ghcn_d.ghcnd_2013.id', 'bigquery-public-data.ghcn_d.ghcnd_2016.value', 'bigquery-public-data.ghcn_d.ghcnd_2013.date', 'bigquery-public-data.ghcn_d.ghcnd_2013.element', 'bigquery-public-data.ghcn_d.ghcnd_2014.element', 'bigquery-public-data.ghcn_d.ghcnd_2015.element', 'bigquery-public-data.ghcn_d.ghcnd_2015.date', 'bigquery-public-data.ghcn_d.ghcnd_2013.qflag', 'bigquery-public-data.ghcn_d.ghcnd_2013.value', 'bigquery-public-data.ghcn_d.ghcnd_2014.id', 'bigquery-public-data.ghcn_d.ghcnd_2014.date', 'bigquery-public-data.ghcn_d.ghcnd_2014.value', 'bigquery-public-data.ghcn_d.ghcnd_2015.value'}</t>
+          <t>{'bigquery-public-data.ghcn_d.ghcnd_2015.date', 'bigquery-public-data.ghcn_d.ghcnd_2014.date', 'bigquery-public-data.ghcn_d.ghcnd_2015.value', 'bigquery-public-data.ghcn_d.ghcnd_2013.value', 'bigquery-public-data.ghcn_d.ghcnd_2016.element', 'bigquery-public-data.ghcn_d.ghcnd_2016.value', 'bigquery-public-data.ghcn_d.ghcnd_2013.date', 'bigquery-public-data.ghcn_d.ghcnd_2014.element', 'bigquery-public-data.ghcn_d.ghcnd_2015.element', 'bigquery-public-data.ghcn_d.ghcnd_2013.element', 'bigquery-public-data.ghcn_d.ghcnd_2014.value', 'bigquery-public-data.ghcn_d.ghcnd_2016.date'}</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.ghcnd_2016', 'bigquery-public-data.ghcnd_2014', 'bigquery-public-data.ghcnd_2015', 'bigquery-public-data.ghcn_d', 'and cell values needed to generate the correct SQL for the question.**'}</t>
+          <t>{'bigquery-public-data.ghcn_d', 'bigquery-public-data.ghcnd_ghcnd_2013'}</t>
         </is>
       </c>
       <c r="U56" t="n">
-        <v>0.007518796992481203</v>
+        <v>0.003759398496240601</v>
       </c>
       <c r="V56" t="n">
-        <v>0.002335357309668379</v>
+        <v>0.0009341429238673517</v>
       </c>
     </row>
     <row r="57">
@@ -5180,10 +5180,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>27.61553776403889</v>
+        <v>37.84519819798879</v>
       </c>
       <c r="E57" t="n">
-        <v>8053</v>
+        <v>8095</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -5219,12 +5219,12 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.new_york.tree_species', 'bigquery-public-data.new_york.tree_census_2015', 'bigquery-public-data.new_york.tree_census_1995'}</t>
+          <t>{'bigquery-public-data.new_york.tree_census_1995', 'bigquery-public-data.new_york.tree_census_2015', 'bigquery-public-data.new_york.tree_species'}</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>{'UPPER(bigquery-public-data', 'bigquery-public-data'}</t>
+          <t>{'bigquery-public-data', 'UPPER(bigquery-public-data'}</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -5234,12 +5234,12 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.new_york.tree_species.species_scientific_name', 'bigquery-public-data.new_york.tree_census_2015.spc_latin', 'bigquery-public-data.new_york.tree_census_2015.status', 'bigquery-public-data.new_york.tree_census_1995.status', 'bigquery-public-data.new_york.tree_species.fall_color', 'bigquery-public-data.new_york.tree_census_1995.spc_latin', 'bigquery-public-data.new_york.tree_census_1995.spc_common', 'bigquery-public-data.new_york.tree_census_2015.spc_common'}</t>
+          <t>{'bigquery-public-data.new_york.tree_species.species_scientific_name', 'bigquery-public-data.new_york.tree_census_1995.spc_latin', 'bigquery-public-data.new_york.tree_census_1995.spc_common', 'bigquery-public-data.new_york.tree_species.fall_color', 'bigquery-public-data.new_york.tree_census_2015.spc_common', 'bigquery-public-data.new_york.tree_census_2015.spc_latin'}</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.new_york', 'UPPER(bigquery-public-data.new_york'}</t>
+          <t>{'UPPER(bigquery-public-data.new_york', 'bigquery-public-data.new_york'}</t>
         </is>
       </c>
       <c r="U57" t="n">
@@ -5264,10 +5264,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>34.27292502787896</v>
+        <v>18.43107395101106</v>
       </c>
       <c r="E58" t="n">
-        <v>8589</v>
+        <v>8323</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -5318,7 +5318,7 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.new_york.citibike_trips.starttime', 'bigquery-public-data.new_york.tlc_yellow_trips_2016.dropoff_datetime', 'bigquery-public-data.new_york.tlc_yellow_trips_2016.pickup_latitude', 'bigquery-public-data.new_york.citibike_trips.start_station_latitude', 'bigquery-public-data.new_york.citibike_trips.start_station_longitude', 'bigquery-public-data.new_york.citibike_trips.end_station_latitude', 'bigquery-public-data.new_york.tlc_yellow_trips_2016.dropoff_latitude', 'bigquery-public-data.new_york.citibike_trips.end_station_name', 'bigquery-public-data.new_york.tlc_yellow_trips_2016.pickup_longitude', 'bigquery-public-data.new_york.citibike_trips.tripduration', 'bigquery-public-data.new_york.citibike_trips.end_station_longitude', 'bigquery-public-data.new_york.citibike_trips.start_station_name', 'bigquery-public-data.new_york.tlc_yellow_trips_2016.dropoff_longitude', 'bigquery-public-data.new_york.tlc_yellow_trips_2016.pickup_datetime'}</t>
+          <t>{'bigquery-public-data.new_york.tlc_yellow_trips_2016.pickup_latitude', 'bigquery-public-data.new_york.tlc_yellow_trips_2016.dropoff_longitude', 'bigquery-public-data.new_york.citibike_trips.tripduration', 'bigquery-public-data.new_york.citibike_trips.end_station_longitude', 'bigquery-public-data.new_york.tlc_yellow_trips_2016.pickup_datetime', 'bigquery-public-data.new_york.citibike_trips.end_station_latitude', 'bigquery-public-data.new_york.tlc_yellow_trips_2016.pickup_longitude', 'bigquery-public-data.new_york.tlc_yellow_trips_2016.dropoff_latitude', 'bigquery-public-data.new_york.citibike_trips.start_station_latitude', 'bigquery-public-data.new_york.tlc_yellow_trips_2016.dropoff_datetime', 'bigquery-public-data.new_york.citibike_trips.start_station_name', 'bigquery-public-data.new_york.citibike_trips.start_station_longitude', 'bigquery-public-data.new_york.citibike_trips.end_station_name'}</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
@@ -5348,10 +5348,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>13.26568198902532</v>
+        <v>31.61578434798867</v>
       </c>
       <c r="E59" t="n">
-        <v>9424</v>
+        <v>9594</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -5387,12 +5387,12 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.new_york_taxi_trips.taxi_zone_geom', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016'}</t>
+          <t>{'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016', 'bigquery-public-data.new_york_taxi_trips.taxi_zone_geom'}</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -5402,19 +5402,19 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.trip_distance', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.dropoff_location_id', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.pickup_datetime', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.passenger_count', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.dropoff_datetime', 'bigquery-public-data.new_york_taxi_trips.taxi_zone_geom.borough', 'bigquery-public-data.new_york_taxi_trips.taxi_zone_geom.zone_id', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.pickup_location_id'}</t>
+          <t>{'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.pickup_location_id', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.pickup_datetime', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.dropoff_location_id', 'bigquery-public-data.new_york_taxi_trips.taxi_zone_geom.zone_id', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.dropoff_datetime'}</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.new_york_taxi_trips'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U59" t="n">
-        <v>0.02325581395348837</v>
+        <v>0</v>
       </c>
       <c r="V59" t="n">
-        <v>0.001183431952662722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -5432,10 +5432,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>16.8522050770116</v>
+        <v>13.85072482400574</v>
       </c>
       <c r="E60" t="n">
-        <v>10116</v>
+        <v>9738</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -5471,12 +5471,12 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.new_york_taxi_trips.taxi_zone_geom', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016'}</t>
+          <t>{'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016', 'bigquery-public-data.new_york_taxi_trips.taxi_zone_geom'}</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>{'tlc_yellow_trips_2016', 'taxi_zone_geom', 'tip rate)**\n\n---\n\n**This is the set of schema links needed to generate the SQL for the question'}</t>
+          <t>{'taxi_zone_geom', 'tlc_yellow_trips_2016', 'but the above are the direct schema links'}</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -5486,12 +5486,12 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.fare_amount', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.trip_distance', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.dropoff_location_id', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.pickup_datetime', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.passenger_count', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.tip_amount', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.dropoff_datetime', 'bigquery-public-data.new_york_taxi_trips.taxi_zone_geom.zone_name', 'bigquery-public-data.new_york_taxi_trips.taxi_zone_geom.zone_id', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.pickup_location_id', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.tolls_amount', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.total_amount', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.mta_tax'}</t>
+          <t>{'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.pickup_location_id', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.pickup_datetime', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.tip_amount', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.total_amount', 'bigquery-public-data.new_york_taxi_trips.taxi_zone_geom.zone_name', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.trip_distance', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.dropoff_location_id', 'bigquery-public-data.new_york_taxi_trips.taxi_zone_geom.zone_id', 'bigquery-public-data.new_york_taxi_trips.tlc_yellow_trips_2016.dropoff_datetime'}</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>{'tlc_yellow_trips_2016.trip_distance', 'tlc_yellow_trips_2016.dropoff_datetime', 'tlc_yellow_trips_2016.passenger_count', 'tlc_yellow_trips_2016.tip_amount', 'tlc_yellow_trips_2016.mta_tax', 'tlc_yellow_trips_2016.tolls_amount', 'tlc_yellow_trips_2016.dropoff_location_id', 'taxi_zone_geom.zone_name', 'tlc_yellow_trips_2016.pickup_location_id', 'tlc_yellow_trips_2016.total_amount', 'tlc_yellow_trips_2016.pickup_datetime', 'tlc_yellow_trips_2016.fare_amount', 'tip rate)**\n\n---\n\n**This is the set of schema links needed to generate the SQL for the question.**', 'taxi_zone_geom.zone_id'}</t>
+          <t>{'but the above are the direct schema links.)**', 'tlc_yellow_trips_2016.tolls_amount', 'tlc_yellow_trips_2016.tip_amount', 'tlc_yellow_trips_2016.fare_amount', 'tlc_yellow_trips_2016.trip_distance', 'tlc_yellow_trips_2016.dropoff_datetime', 'taxi_zone_geom.zone_id', 'tlc_yellow_trips_2016.dropoff_location_id', 'tlc_yellow_trips_2016.mta_tax', 'tlc_yellow_trips_2016.pickup_location_id', 'tlc_yellow_trips_2016.total_amount', 'tlc_yellow_trips_2016.pickup_datetime', 'taxi_zone_geom.zone_name', 'tlc_yellow_trips_2016.passenger_count'}</t>
         </is>
       </c>
       <c r="U60" t="n">
@@ -5516,10 +5516,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>11.91653835913166</v>
+        <v>9.883745856001042</v>
       </c>
       <c r="E61" t="n">
-        <v>9020</v>
+        <v>9186</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.new_york_subway.stations.borough_name', 'bigquery-public-data.new_york_subway.station_entrances.entry', 'bigquery-public-data.new_york_subway.station_entrances.ada_compliant', 'bigquery-public-data.new_york_subway.stations.station_name', 'bigquery-public-data.new_york_subway.station_entrances.station_name'}</t>
+          <t>{'bigquery-public-data.new_york_subway.station_entrances.entry', 'bigquery-public-data.new_york_subway.station_entrances.station_name', 'bigquery-public-data.new_york_subway.stations.borough_name', 'bigquery-public-data.new_york_subway.station_entrances.ada_compliant', 'bigquery-public-data.new_york_subway.stations.station_name'}</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
@@ -5600,10 +5600,10 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9.21371973794885</v>
+        <v>10.57057823397918</v>
       </c>
       <c r="E62" t="n">
-        <v>5516</v>
+        <v>5724</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.san_francisco.bikeshare_stations.station_id', 'bigquery-public-data.san_francisco.bikeshare_stations.latitude', 'bigquery-public-data.san_francisco.bikeshare_stations.longitude', 'bigquery-public-data.san_francisco.bikeshare_trips.bike_number', 'bigquery-public-data.san_francisco.bikeshare_trips.end_station_id', 'bigquery-public-data.san_francisco.bikeshare_trips.trip_id', 'bigquery-public-data.san_francisco.bikeshare_trips.start_station_id'}</t>
+          <t>{'bigquery-public-data.san_francisco.bikeshare_stations.station_id', 'bigquery-public-data.san_francisco.bikeshare_trips.end_station_id', 'bigquery-public-data.san_francisco.bikeshare_stations.latitude', 'bigquery-public-data.san_francisco.bikeshare_trips.bike_number', 'bigquery-public-data.san_francisco.bikeshare_trips.start_station_id', 'bigquery-public-data.san_francisco.bikeshare_stations.longitude', 'bigquery-public-data.san_francisco.bikeshare_trips.trip_id'}</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
@@ -5684,10 +5684,10 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>11.75271352101117</v>
+        <v>10.55660410400014</v>
       </c>
       <c r="E63" t="n">
-        <v>6624</v>
+        <v>7021</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_regions', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips'}</t>
+          <t>{'bigquery-public-data.san_francisco_bikeshare.bikeshare_regions', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips'}</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -5738,7 +5738,7 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.san_francisco_bikeshare.bikeshare_regions.name', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info.region_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.member_gender', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.trip_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info.station_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.duration_sec', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info.name', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.start_station_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_regions.region_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.start_station_name', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.start_date'}</t>
+          <t>{'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.start_date', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info.station_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_regions.region_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_regions.name', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info.region_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info.name', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.duration_sec', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.start_station_name', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.start_station_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.member_gender', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.trip_id'}</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
@@ -5768,10 +5768,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>8.178938995115459</v>
+        <v>5.618399029015563</v>
       </c>
       <c r="E64" t="n">
-        <v>6452</v>
+        <v>6411</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -5822,7 +5822,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.end_date', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.duration_sec', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.subscriber_type'}</t>
+          <t>{'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.end_date', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.subscriber_type', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.duration_sec'}</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -5852,10 +5852,10 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>13.49658839893527</v>
+        <v>11.83203678904101</v>
       </c>
       <c r="E65" t="n">
-        <v>6858</v>
+        <v>6921</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -5891,12 +5891,12 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.san_francisco_transit_muni.stops', 'bigquery-public-data.san_francisco_transit_muni.trips', 'bigquery-public-data.san_francisco_transit_muni.stop_times'}</t>
+          <t>{'bigquery-public-data.san_francisco_transit_muni.trips', 'bigquery-public-data.san_francisco_transit_muni.stop_times', 'bigquery-public-data.san_francisco_transit_muni.stops'}</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>{'and cell values needed to generate the SQL for the question', 'stops', 'stop_times', 'trips'}</t>
+          <t>{'stop_times', 'trips', 'routes', 'stops'}</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5906,12 +5906,12 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.san_francisco_transit_muni.stop_times.trip_id', 'bigquery-public-data.san_francisco_transit_muni.stops.stop_id', 'bigquery-public-data.san_francisco_transit_muni.stops.stop_name', 'bigquery-public-data.san_francisco_transit_muni.stop_times.stop_id', 'bigquery-public-data.san_francisco_transit_muni.stop_times.departure_time', 'bigquery-public-data.san_francisco_transit_muni.stop_times.stop_sequence', 'bigquery-public-data.san_francisco_transit_muni.trips.trip_id', 'bigquery-public-data.san_francisco_transit_muni.stop_times.arrival_time', 'bigquery-public-data.san_francisco_transit_muni.trips.trip_headsign'}</t>
+          <t>{'bigquery-public-data.san_francisco_transit_muni.stop_times.trip_id', 'bigquery-public-data.san_francisco_transit_muni.trips.trip_headsign', 'bigquery-public-data.san_francisco_transit_muni.trips.trip_id', 'bigquery-public-data.san_francisco_transit_muni.stop_times.stop_sequence', 'bigquery-public-data.san_francisco_transit_muni.stop_times.departure_time', 'bigquery-public-data.san_francisco_transit_muni.stops.stop_id', 'bigquery-public-data.san_francisco_transit_muni.stops.stop_name', 'bigquery-public-data.san_francisco_transit_muni.stop_times.stop_id', 'bigquery-public-data.san_francisco_transit_muni.stop_times.arrival_time'}</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>{'stop_times.trip_id', 'and cell values needed to generate the SQL for the question.', 'stops.stop_name', 'stop_times.arrival_time', 'stop_times.stop_sequence', 'stops.stop_id', 'trips.route_id', 'stop_times.departure_time', 'trips.trip_id', 'trips.trip_headsign', 'stop_times.stop_id'}</t>
+          <t>{'stops.stop_id', 'stops.stop_name', 'routes.route_id', 'stop_times.arrival_time', 'trips.trip_id', 'stop_times.stop_sequence', 'stop_times.trip_id', 'stop_times.stop_id', 'trips.route_id', 'trips.trip_headsign', 'stop_times.departure_time'}</t>
         </is>
       </c>
       <c r="U65" t="n">
@@ -5936,10 +5936,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>17.12800508295186</v>
+        <v>11.88975155598018</v>
       </c>
       <c r="E66" t="n">
-        <v>7105</v>
+        <v>7057</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_regions', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips'}</t>
+          <t>{'bigquery-public-data.san_francisco_bikeshare.bikeshare_regions', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips'}</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -5990,7 +5990,7 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.san_francisco_bikeshare.bikeshare_regions.name', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.end_station_geom', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.start_station_longitude', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.end_station_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info.region_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info.station_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.start_station_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.duration_sec', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info.name', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.start_station_latitude', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.end_station_longitude', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_regions.region_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.end_station_latitude', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.start_station_geom'}</t>
+          <t>{'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.duration_sec', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_station_info.station_id', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.end_station_geom', 'bigquery-public-data.san_francisco_bikeshare.bikeshare_trips.start_station_geom'}</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
@@ -6020,10 +6020,10 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>26.70562990102917</v>
+        <v>13.09315597597742</v>
       </c>
       <c r="E67" t="n">
-        <v>6781</v>
+        <v>7179</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -6064,7 +6064,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data'}</t>
+          <t>{'boundaries', 'sfpd_incidents', 'bigquery-public-data', 'ST_WITHIN(bikeshare_station_info', 'ST_WITHIN(ST_GEOGPOINT(sfpd_incidents'}</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -6074,19 +6074,19 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.san_francisco_sfpd_incidents.sfpd_incidents.longitude', 'bigquery-public-data.san_francisco_sfpd_incidents.sfpd_incidents.latitude', 'bigquery-public-data.san_francisco_neighborhoods.boundaries.neighborhood', 'bigquery-public-data.san_francisco_neighborhoods.boundaries.neighborhood_geom'}</t>
+          <t>{'bigquery-public-data.san_francisco_neighborhoods.boundaries.neighborhood', 'bigquery-public-data.san_francisco_sfpd_incidents.sfpd_incidents.longitude', 'bigquery-public-data.san_francisco_sfpd_incidents.sfpd_incidents.latitude', 'bigquery-public-data.san_francisco_neighborhoods.boundaries.neighborhood_geom'}</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.san_francisco_sfpd_incidents', 'bigquery-public-data.san_francisco_neighborhoods', 'bigquery-public-data.san_francisco_bikeshare'}</t>
+          <t>{'bigquery-public-data.san_francisco_sfpd_incidents', 'boundaries.neighborhood_geom)\n\n```', 'ST_WITHIN(ST_GEOGPOINT(sfpd_incidents.longitude', 'bigquery-public-data.san_francisco_bikeshare', 'boundaries.neighborhood_geom)', 'bigquery-public-data.san_francisco_neighborhoods', 'sfpd_incidents.latitude)', 'ST_WITHIN(bikeshare_station_info.station_geom'}</t>
         </is>
       </c>
       <c r="U67" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="V67" t="n">
-        <v>0.01079136690647482</v>
+        <v>0.02877697841726619</v>
       </c>
     </row>
     <row r="68">
@@ -6104,10 +6104,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>32.62912810593843</v>
+        <v>15.11231190600665</v>
       </c>
       <c r="E68" t="n">
-        <v>7468</v>
+        <v>7595</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>{'BIKESHARE_REGIONS', 'BIKESHARE_STATION_INFO', 'and age classification as described above', 'BIKESHARE_TRIPS'}</t>
+          <t>{'BIKESHARE_REGIONS', 'BIKESHARE_TRIPS', 'BIKESHARE_STATION_INFO', 'but they are not direct schema links'}</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -6158,12 +6158,12 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>{'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_REGIONS.name', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_STATION_INFO.name', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.start_station_name', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_REGIONS.region_id', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.bike_number', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.duration_sec', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.member_gender', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.trip_id', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.start_date', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_STATION_INFO.region_id', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.member_birth_year', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.subscriber_type'}</t>
+          <t>{'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.member_birth_year', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_REGIONS.name', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.member_gender', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.subscriber_type', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.duration_sec', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.bike_number', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.trip_id', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_STATION_INFO.name', 'SAN_FRANCISCO_PLUS.SAN_FRANCISCO_BIKESHARE.BIKESHARE_TRIPS.start_station_name'}</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>{'and age classification as described above.)**', 'BIKESHARE_TRIPS.end_station_name', 'BIKESHARE_TRIPS.bike_number', 'BIKESHARE_TRIPS.member_gender', 'BIKESHARE_TRIPS.start_date', 'BIKESHARE_TRIPS.start_station_name', 'BIKESHARE_REGIONS.region_id', 'BIKESHARE_TRIPS.member_birth_year', 'BIKESHARE_STATION_INFO.region_id', 'BIKESHARE_TRIPS.start_station_id', 'BIKESHARE_TRIPS.duration_sec', 'BIKESHARE_TRIPS.trip_id', 'BIKESHARE_TRIPS.subscriber_type', 'BIKESHARE_REGIONS.name', 'BIKESHARE_STATION_INFO.station_id'}</t>
+          <t>{'BIKESHARE_TRIPS.subscriber_type', 'BIKESHARE_TRIPS.start_station_id', 'BIKESHARE_STATION_INFO.region_id', 'BIKESHARE_TRIPS.duration_sec', 'BIKESHARE_STATION_INFO.station_id', 'BIKESHARE_REGIONS.region_id', 'BIKESHARE_TRIPS.start_date', 'BIKESHARE_TRIPS.trip_id', 'BIKESHARE_TRIPS.end_station_name', 'BIKESHARE_TRIPS.member_birth_year', 'BIKESHARE_TRIPS.start_station_name', 'BIKESHARE_TRIPS.bike_number', 'BIKESHARE_TRIPS.member_gender', 'BIKESHARE_REGIONS.name', 'but they are not direct schema links.)**'}</t>
         </is>
       </c>
       <c r="U68" t="n">
@@ -6188,10 +6188,10 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>7.703609782038257</v>
+        <v>5.888413918961305</v>
       </c>
       <c r="E69" t="n">
-        <v>5314</v>
+        <v>5280</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.age', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.first_name', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.last_name', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.created_at', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.gender'}</t>
+          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.gender', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.last_name', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.age', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.first_name'}</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
@@ -6272,10 +6272,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23.73423395608552</v>
+        <v>13.3971356570255</v>
       </c>
       <c r="E70" t="n">
-        <v>5997</v>
+        <v>5799</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -6311,12 +6311,12 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.PRODUCTS'}</t>
+          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.PRODUCTS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS'}</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE', '&gt; THELOOK_ECOMMERCE'}</t>
+          <t>{'ORDERS', 'ORDER_ITEMS', 'PRODUCTS', 'and filter values needed to generate the SQL for the question'}</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -6326,19 +6326,19 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.created_at', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.status', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.created_at', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.sale_price', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.status', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.PRODUCTS.category', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.PRODUCTS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.PRODUCTS.cost', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.product_id'}</t>
+          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.sale_price', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.PRODUCTS.category', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.product_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.PRODUCTS.cost'}</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE', '&gt; THELOOK_ECOMMERCE.THELOOK_ECOMMERCE'}</t>
+          <t>{'ORDER_ITEMS.created_at', 'ORDER_ITEMS.product_id', 'ORDERS.order_id', 'ORDER_ITEMS.order_id', 'ORDERS.created_at', 'ORDERS.status', 'and filter values needed to generate the SQL for the question.**', 'ORDER_ITEMS.sale_price', 'PRODUCTS.id', 'PRODUCTS.category', 'PRODUCTS.cost'}</t>
         </is>
       </c>
       <c r="U70" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="V70" t="n">
-        <v>0.0273972602739726</v>
+        <v>0.1506849315068493</v>
       </c>
     </row>
     <row r="71">
@@ -6356,10 +6356,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>6.259200853062794</v>
+        <v>6.904411259980407</v>
       </c>
       <c r="E71" t="n">
-        <v>5215</v>
+        <v>5263</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -6400,7 +6400,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE', 'the above is sufficient'}</t>
+          <t>{'you could also include:**\n- min(THELOOK_ECOMMERCE', 'THELOOK_ECOMMERCE'}</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6410,12 +6410,12 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.age', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.first_name', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.last_name', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.created_at', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.gender'}</t>
+          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.gender', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.age', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.last_name', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.first_name'}</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>{'the above is sufficient.)**', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE'}</t>
+          <t>{'you could also include:**\n- min(THELOOK_ECOMMERCE.THELOOK_ECOMMERCE', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE'}</t>
         </is>
       </c>
       <c r="U71" t="n">
@@ -6440,10 +6440,10 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>20.38612255989574</v>
+        <v>9.203592188016046</v>
       </c>
       <c r="E72" t="n">
-        <v>5903</v>
+        <v>5611</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -6479,12 +6479,12 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS'}</t>
+          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS'}</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE', 'and cell values needed to generate the SQL for the question'}</t>
+          <t>{'THELOOK_ECOMMERCE'}</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6494,19 +6494,19 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.status', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.gender', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.user_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.traffic_source', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.gender', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.product_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.user_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.created_at', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.created_at', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.sale_price', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.status', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.country', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.created_at', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.email', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.num_of_item'}</t>
+          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.email', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.user_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.gender', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.sale_price', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.gender', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.traffic_source', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.country', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.user_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.status', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.num_of_item', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.product_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.status'}</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE', 'and cell values needed to generate the SQL for the question.**'}</t>
+          <t>{'THELOOK_ECOMMERCE.USERS', 'THELOOK_ECOMMERCE.ORDERS', 'THELOOK_ECOMMERCE.ORDER_ITEMS'}</t>
         </is>
       </c>
       <c r="U72" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="V72" t="n">
-        <v>0.0273972602739726</v>
+        <v>0.0410958904109589</v>
       </c>
     </row>
     <row r="73">
@@ -6524,10 +6524,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>25.11851136712357</v>
+        <v>11.35584273701534</v>
       </c>
       <c r="E73" t="n">
-        <v>6090</v>
+        <v>5802</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -6563,12 +6563,12 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.DISTRIBUTION_CENTERS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS'}</t>
+          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.DISTRIBUTION_CENTERS'}</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE', 'and calculation'}</t>
+          <t>{'THELOOK_ECOMMERCE', 'and filter values needed to generate the SQL for the question'}</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -6578,19 +6578,19 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS.product_distribution_center_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.DISTRIBUTION_CENTERS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS.created_at', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.user_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.inventory_item_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.DISTRIBUTION_CENTERS.name', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS.cost', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS.product_retail_price', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.user_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.created_at', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.created_at', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.sale_price', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.country', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS.product_category', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.created_at', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS.product_department'}</t>
+          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.inventory_item_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.sale_price', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS.product_distribution_center_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.DISTRIBUTION_CENTERS.name', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.country', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.user_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS.product_retail_price', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.user_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS.cost', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS.product_category', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.INVENTORY_ITEMS.product_department'}</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>{'and calculation.- Mapped all necessary joins/foreign keys', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE'}</t>
+          <t>{'and filter values needed to generate the SQL for the question.', 'THELOOK_ECOMMERCE.USERS', 'THELOOK_ECOMMERCE.INVENTORY_ITEMS', 'THELOOK_ECOMMERCE.ORDERS', 'THELOOK_ECOMMERCE.ORDER_ITEMS'}</t>
         </is>
       </c>
       <c r="U73" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="V73" t="n">
-        <v>0.0273972602739726</v>
+        <v>0.0684931506849315</v>
       </c>
     </row>
     <row r="74">
@@ -6608,10 +6608,10 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>23.89821633114479</v>
+        <v>23.64717906498117</v>
       </c>
       <c r="E74" t="n">
-        <v>5573</v>
+        <v>6221</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -6647,12 +6647,12 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.PRODUCTS'}</t>
+          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.PRODUCTS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS'}</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>{'USERS', 'ORDER_ITEMS', 'INVENTORY_ITEMS', 'and cell values needed to generate the SQL for the question', 'ORDERS'}</t>
+          <t>{'THELOOK_ECOMMERCE'}</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -6662,19 +6662,19 @@
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.created_at', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.status', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.created_at', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.sale_price', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.status', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.user_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.traffic_source', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.created_at', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.PRODUCTS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.PRODUCTS.cost', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.product_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.user_id'}</t>
+          <t>{'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.created_at', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.product_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.user_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.created_at', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.PRODUCTS.id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.PRODUCTS.cost', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.sale_price', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.USERS.traffic_source', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.order_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.user_id', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDERS.status', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.created_at', 'THELOOK_ECOMMERCE.THELOOK_ECOMMERCE.ORDER_ITEMS.status'}</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>{'ORDERS.user_id', 'and cell values needed to generate the SQL for the question.', 'ORDER_ITEMS.order_id', 'INVENTORY_ITEMS.cost', 'INVENTORY_ITEMS.id', 'ORDER_ITEMS.sale_price', 'ORDER_ITEMS.inventory_item_id', 'USERS.id', 'ORDERS.status', 'ORDERS.order_id', 'ORDERS.created_at', 'USERS.traffic_source'}</t>
+          <t>{'THELOOK_ECOMMERCE.INVENTORY_ITEMS', 'THELOOK_ECOMMERCE.ORDERS', 'THELOOK_ECOMMERCE.ORDER_ITEMS'}</t>
         </is>
       </c>
       <c r="U74" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="V74" t="n">
-        <v>0.1643835616438356</v>
+        <v>0.0410958904109589</v>
       </c>
     </row>
     <row r="75">
@@ -6692,10 +6692,10 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>21.79766432405449</v>
+        <v>13.78210456401575</v>
       </c>
       <c r="E75" t="n">
-        <v>7008</v>
+        <v>6923</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -6736,7 +6736,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data', '10\n\n```\n\n**(You can abbreviate the population_age_0'}</t>
+          <t>{'', 'bigquery-public-data'}</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -6746,12 +6746,12 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_international.midyear_population_agespecific.year', 'bigquery-public-data.census_bureau_international.midyear_population.country_code', 'bigquery-public-data.census_bureau_international.midyear_population.country_name', 'bigquery-public-data.census_bureau_international.midyear_population_agespecific.country_name', 'bigquery-public-data.census_bureau_international.midyear_population.midyear_population', 'bigquery-public-data.census_bureau_international.midyear_population.year', 'bigquery-public-data.census_bureau_international.midyear_population_agespecific.age', 'bigquery-public-data.census_bureau_international.midyear_population_agespecific.country_code', 'bigquery-public-data.census_bureau_international.midyear_population_agespecific.population'}</t>
+          <t>{'bigquery-public-data.census_bureau_international.midyear_population_agespecific.population', 'bigquery-public-data.census_bureau_international.midyear_population.midyear_population', 'bigquery-public-data.census_bureau_international.midyear_population_agespecific.country_name', 'bigquery-public-data.census_bureau_international.midyear_population.country_name', 'bigquery-public-data.census_bureau_international.midyear_population_agespecific.country_code', 'bigquery-public-data.census_bureau_international.midyear_population.country_code'}</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_international', '10\n\n```\n\n**(You can abbreviate the population_age_0.'}</t>
+          <t>{'bigquery-public-data.census_bureau_international', '.'}</t>
         </is>
       </c>
       <c r="U75" t="n">
@@ -6776,10 +6776,10 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>12.54057884798385</v>
+        <v>14.12934069603216</v>
       </c>
       <c r="E76" t="n">
-        <v>6080</v>
+        <v>6784</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -6830,7 +6830,7 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_international.midyear_population_agespecific.year', 'bigquery-public-data.census_bureau_international.midyear_population.country_code', 'bigquery-public-data.census_bureau_international.midyear_population_agespecific.country_name', 'bigquery-public-data.census_bureau_international.midyear_population.country_name', 'bigquery-public-data.census_bureau_international.midyear_population.midyear_population', 'bigquery-public-data.census_bureau_international.midyear_population.year', 'bigquery-public-data.census_bureau_international.midyear_population_agespecific.age', 'bigquery-public-data.census_bureau_international.midyear_population_agespecific.country_code', 'bigquery-public-data.census_bureau_international.midyear_population_agespecific.population'}</t>
+          <t>{'bigquery-public-data.census_bureau_international.midyear_population_agespecific.population', 'bigquery-public-data.census_bureau_international.midyear_population.midyear_population', 'bigquery-public-data.census_bureau_international.midyear_population_agespecific.country_name', 'bigquery-public-data.census_bureau_international.midyear_population.country_name', 'bigquery-public-data.census_bureau_international.midyear_population_agespecific.country_code', 'bigquery-public-data.census_bureau_international.midyear_population.country_code'}</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
@@ -6860,10 +6860,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>9.550523451995105</v>
+        <v>5.379899207968265</v>
       </c>
       <c r="E77" t="n">
-        <v>6057</v>
+        <v>6062</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_international.country_names_area', 'bigquery-public-data.census_bureau_international.birth_death_growth_rates'}</t>
+          <t>{'bigquery-public-data.census_bureau_international.birth_death_growth_rates', 'bigquery-public-data.census_bureau_international.country_names_area'}</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
@@ -6914,7 +6914,7 @@
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_international.birth_death_growth_rates.year', 'bigquery-public-data.census_bureau_international.birth_death_growth_rates.net_migration', 'bigquery-public-data.census_bureau_international.country_names_area.country_area', 'bigquery-public-data.census_bureau_international.country_names_area.country_name', 'bigquery-public-data.census_bureau_international.birth_death_growth_rates.country_code', 'bigquery-public-data.census_bureau_international.birth_death_growth_rates.country_name', 'bigquery-public-data.census_bureau_international.country_names_area.country_code'}</t>
+          <t>{'bigquery-public-data.census_bureau_international.birth_death_growth_rates.country_code', 'bigquery-public-data.census_bureau_international.country_names_area.country_area', 'bigquery-public-data.census_bureau_international.birth_death_growth_rates.country_name', 'bigquery-public-data.census_bureau_international.country_names_area.country_code', 'bigquery-public-data.census_bureau_international.country_names_area.country_name', 'bigquery-public-data.census_bureau_international.birth_death_growth_rates.net_migration'}</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
@@ -6944,10 +6944,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7.406942137982696</v>
+        <v>10.36731632304145</v>
       </c>
       <c r="E78" t="n">
-        <v>10202</v>
+        <v>10181</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -6998,19 +6998,19 @@
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.covid19_open_data.covid19_open_data.date', 'bigquery-public-data.covid19_open_data.covid19_open_data.cumulative_confirmed', 'bigquery-public-data.covid19_open_data.covid19_open_data.country_name'}</t>
+          <t>{'bigquery-public-data.covid19_open_data.covid19_open_data.date', 'bigquery-public-data.covid19_open_data.covid19_open_data.cumulative_confirmed'}</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.covid19_open_data'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V78" t="n">
-        <v>0.001426533523537803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -7028,10 +7028,10 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>18.98520093597472</v>
+        <v>18.39845064503606</v>
       </c>
       <c r="E79" t="n">
-        <v>12014</v>
+        <v>12139</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -7072,7 +7072,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -7082,19 +7082,19 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.covid19_open_data.covid19_open_data.country_code', 'bigquery-public-data.world_bank_global_population.population_by_country.country_code', 'bigquery-public-data.world_bank_global_population.population_by_country.year_2018', 'bigquery-public-data.covid19_open_data.covid19_open_data.aggregation_level', 'bigquery-public-data.covid19_open_data.covid19_open_data.country_name', 'bigquery-public-data.covid19_open_data.covid19_open_data.date', 'bigquery-public-data.covid19_open_data.covid19_open_data.cumulative_confirmed'}</t>
+          <t>{'bigquery-public-data.world_bank_global_population.population_by_country.country_code', 'bigquery-public-data.covid19_open_data.covid19_open_data.country_name', 'bigquery-public-data.covid19_open_data.covid19_open_data.country_code', 'bigquery-public-data.world_bank_global_population.population_by_country.year_2018', 'bigquery-public-data.covid19_open_data.covid19_open_data.cumulative_confirmed'}</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.world_bank_global_population', 'bigquery-public-data.covid19_open_data'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U79" t="n">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="V79" t="n">
-        <v>0.001972386587771203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -7112,10 +7112,10 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>17.37218088610098</v>
+        <v>97.85390988696599</v>
       </c>
       <c r="E80" t="n">
-        <v>27800</v>
+        <v>28035</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -7156,7 +7156,7 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data', 'replace with year_2019'}</t>
+          <t>{'bigquery-public-data'}</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -7166,19 +7166,19 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.world_bank_wdi.indicators_data.value', 'bigquery-public-data.covid19_jhu_csse.summary.country_region', 'bigquery-public-data.covid19_jhu_csse.summary.confirmed', 'bigquery-public-data.world_bank_wdi.indicators_data.year', 'bigquery-public-data.world_bank_wdi.indicators_data.country_name', 'bigquery-public-data.world_bank_wdi.indicators_data.indicator_code', 'bigquery-public-data.covid19_jhu_csse.summary.date'}</t>
+          <t>{'bigquery-public-data.world_bank_wdi.indicators_data.country_name', 'bigquery-public-data.covid19_jhu_csse.summary.confirmed', 'bigquery-public-data.world_bank_wdi.indicators_data.value', 'bigquery-public-data.covid19_jhu_csse.summary.country_region'}</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.covid19_jhu_csse', 'bigquery-public-data.world_bank_global_population', 'replace with year_2019.)**'}</t>
+          <t>{'bigquery-public-data.world_bank_global_population', 'bigquery-public-data.covid19_jhu_csse'}</t>
         </is>
       </c>
       <c r="U80" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="V80" t="n">
-        <v>0.0007957559681697613</v>
+        <v>0.0005305039787798408</v>
       </c>
     </row>
     <row r="81">
@@ -7196,10 +7196,10 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>17.38197864405811</v>
+        <v>16.93281338794623</v>
       </c>
       <c r="E81" t="n">
-        <v>5765</v>
+        <v>5940</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.covid19_nyt.us_counties', 'bigquery-public-data.covid19_nyt.us_states'}</t>
+          <t>{'bigquery-public-data.covid19_nyt.us_states', 'bigquery-public-data.covid19_nyt.us_counties'}</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.covid19_nyt.us_states.state_fips_code', 'bigquery-public-data.covid19_nyt.us_counties.state_name', 'bigquery-public-data.covid19_nyt.us_counties.date', 'bigquery-public-data.covid19_nyt.us_states.date', 'bigquery-public-data.covid19_nyt.us_counties.confirmed_cases', 'bigquery-public-data.covid19_nyt.us_counties.county_fips_code', 'bigquery-public-data.covid19_nyt.us_states.confirmed_cases', 'bigquery-public-data.covid19_nyt.us_counties.county', 'bigquery-public-data.covid19_nyt.us_states.state_name'}</t>
+          <t>{'bigquery-public-data.covid19_nyt.us_states.state_name', 'bigquery-public-data.covid19_nyt.us_states.confirmed_cases', 'bigquery-public-data.covid19_nyt.us_counties.state_name', 'bigquery-public-data.covid19_nyt.us_states.state_fips_code', 'bigquery-public-data.covid19_nyt.us_counties.date', 'bigquery-public-data.covid19_nyt.us_counties.county_fips_code', 'bigquery-public-data.covid19_nyt.us_counties.county', 'bigquery-public-data.covid19_nyt.us_counties.confirmed_cases', 'bigquery-public-data.covid19_nyt.us_states.date'}</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
@@ -7280,10 +7280,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>19.07081391499378</v>
+        <v>20.10022792703239</v>
       </c>
       <c r="E82" t="n">
-        <v>23510</v>
+        <v>23359</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -7334,7 +7334,7 @@
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.covid19_symptom_search.symptom_search_sub_region_2_weekly.sub_region_1', 'bigquery-public-data.covid19_symptom_search.symptom_search_sub_region_2_weekly.date', 'bigquery-public-data.covid19_symptom_search.symptom_search_sub_region_2_weekly.symptom_anosmia', 'bigquery-public-data.covid19_symptom_search.symptom_search_sub_region_2_weekly.sub_region_2'}</t>
+          <t>{'bigquery-public-data.covid19_symptom_search.symptom_search_sub_region_2_weekly.symptom_anosmia'}</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
@@ -7364,10 +7364,10 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>13.87215705704875</v>
+        <v>7.471298719989136</v>
       </c>
       <c r="E83" t="n">
-        <v>23149</v>
+        <v>23335</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -7418,7 +7418,7 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.covid19_symptom_search.symptom_search_country_weekly.symptom_depression', 'bigquery-public-data.covid19_symptom_search.symptom_search_country_weekly.date', 'bigquery-public-data.covid19_symptom_search.symptom_search_country_weekly.country_region_code', 'bigquery-public-data.covid19_symptom_search.symptom_search_country_weekly.symptom_anxiety'}</t>
+          <t>{'bigquery-public-data.covid19_symptom_search.symptom_search_country_weekly.symptom_anxiety', 'bigquery-public-data.covid19_symptom_search.symptom_search_country_weekly.symptom_depression'}</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
@@ -7448,10 +7448,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>31.10166016197763</v>
+        <v>40.49299484700896</v>
       </c>
       <c r="E84" t="n">
-        <v>512692</v>
+        <v>512783</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -7502,7 +7502,7 @@
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.covid19_vaccination_access.facility_boundary_us_all.facility_place_id', 'bigquery-public-data.covid19_vaccination_access.facility_boundary_us_all.facility_sub_region_1', 'bigquery-public-data.covid19_vaccination_access.facility_boundary_us_all.facility_sub_region_2_code', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.geo_id', 'bigquery-public-data.covid19_vaccination_access.facility_boundary_us_all.facility_sub_region_2', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.total_pop'}</t>
+          <t>{'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.total_pop', 'bigquery-public-data.covid19_vaccination_access.facility_boundary_us_all.facility_sub_region_2', 'bigquery-public-data.covid19_vaccination_access.facility_boundary_us_all.facility_place_id', 'bigquery-public-data.covid19_vaccination_access.facility_boundary_us_all.facility_sub_region_2_code', 'bigquery-public-data.covid19_vaccination_access.facility_boundary_us_all.facility_sub_region_1', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.geo_id'}</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
@@ -7532,10 +7532,10 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>33.0144439029973</v>
+        <v>26.47146744595375</v>
       </c>
       <c r="E85" t="n">
-        <v>513102</v>
+        <v>512834</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -7571,12 +7571,12 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_acs.county_2020_5yr', 'bigquery-public-data.covid19_usafacts.summary'}</t>
+          <t>{'bigquery-public-data.covid19_usafacts.summary', 'bigquery-public-data.census_bureau_acs.county_2020_5yr'}</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data'}</t>
+          <t>{'3\n\n```\n\n---\n\n**Summary of reasoning:**\n- We need to join COVID case and death counts (as of 2020-08-27) to census population and median age by county FIPS', 'bigquery-public-data', '000', 'take top 3'}</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7586,19 +7586,19 @@
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.covid19_usafacts.summary.deaths', 'bigquery-public-data.covid19_usafacts.summary.confirmed_cases', 'bigquery-public-data.census_bureau_acs.county_2020_5yr.geo_id', 'bigquery-public-data.covid19_usafacts.summary.date', 'bigquery-public-data.covid19_usafacts.summary.county_fips_code', 'bigquery-public-data.census_bureau_acs.county_2020_5yr.median_age', 'bigquery-public-data.covid19_usafacts.summary.county_name', 'bigquery-public-data.covid19_usafacts.summary.state', 'bigquery-public-data.census_bureau_acs.county_2020_5yr.total_pop'}</t>
+          <t>{'bigquery-public-data.covid19_usafacts.summary.confirmed_cases', 'bigquery-public-data.covid19_usafacts.summary.state', 'bigquery-public-data.census_bureau_acs.county_2020_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.county_2020_5yr.total_pop', 'bigquery-public-data.covid19_usafacts.summary.deaths', 'bigquery-public-data.covid19_usafacts.summary.county_fips_code', 'bigquery-public-data.covid19_usafacts.summary.county_name', 'bigquery-public-data.census_bureau_acs.county_2020_5yr.median_age'}</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_acs', 'bigquery-public-data.covid19_usafacts'}</t>
+          <t>{'3\n\n```\n\n---\n\n**Summary of reasoning:**\n- We need to join COVID case and death counts (as of 2020-08-27) to census population and median age by county FIPS.- Filter for population &gt; 50', 'bigquery-public-data.covid19_usafacts', '000.- Compute per-100k rates and case fatality rate', 'bigquery-public-data.census_bureau_acs', 'take top 3.- Output the requested columns'}</t>
         </is>
       </c>
       <c r="U85" t="n">
-        <v>0.003508771929824561</v>
+        <v>0.01403508771929825</v>
       </c>
       <c r="V85" t="n">
-        <v>2.822546501453612e-05</v>
+        <v>7.056366253634029e-05</v>
       </c>
     </row>
     <row r="86">
@@ -7616,10 +7616,10 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>33.16248218808323</v>
+        <v>33.17831532098353</v>
       </c>
       <c r="E86" t="n">
-        <v>499891</v>
+        <v>499821</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>{"'047'", 'and the geo_census_tracts table for county filtering', 'the following relationships:**\n- Join on `geo_id` between 2011 and 2018 tables', 'bigquery-public-data'}</t>
+          <t>{'censustract_2018_5yr', 'and cell values are included in the schema links above', 'and then the intersection', 'geo_census_tracts', 'and with population &gt; 1000 in both years', 'calculate percent increase in population and absolute increase in median income', 'censustract_2011_5yr'}</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -7670,19 +7670,19 @@
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_acs.censustract_2011_5yr.median_income', 'bigquery-public-data.census_bureau_acs.censustract_2011_5yr.total_pop', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.censustract_2011_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.total_pop', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.median_income'}</t>
+          <t>{'bigquery-public-data.census_bureau_acs.censustract_2011_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.total_pop', 'bigquery-public-data.census_bureau_acs.censustract_2011_5yr.total_pop', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.median_income', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.censustract_2011_5yr.median_income'}</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>{'the following relationships:**\n- Join on `geo_id` between 2011 and 2018 tables.- Join on `geo_id` between census_bureau_acs and geo_census_tracts to filter for county_fips_code', 'bigquery-public-data.geo_census_tracts', 'and the geo_census_tracts table for county filtering.', "'047'.- Calculated fields for percentage and absolute increases", 'bigquery-public-data.census_bureau_acs'}</t>
+          <t>{'censustract_2018_5yr.geo_id', 'censustract_2011_5yr.median_income', 'censustract_2018_5yr.total_pop', 'calculate percent increase in population and absolute increase in median income.- Find top 20 tracts for each metric', 'and with population &gt; 1000 in both years.- For each tract', 'geo_census_tracts.census_tracts_new_york', 'censustract_2018_5yr.median_income', 'censustract_2011_5yr.total_pop', 'censustract_2011_5yr.geo_id', 'and cell values are included in the schema links above.', 'and then the intersection.- Use geo table to get tract names/geometries'}</t>
         </is>
       </c>
       <c r="U86" t="n">
-        <v>0.0113960113960114</v>
+        <v>0.01994301994301994</v>
       </c>
       <c r="V86" t="n">
-        <v>7.228567297961544e-05</v>
+        <v>0.000159028480555154</v>
       </c>
     </row>
     <row r="87">
@@ -7700,10 +7700,10 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>22.38620017911308</v>
+        <v>22.39075058099115</v>
       </c>
       <c r="E87" t="n">
-        <v>499531</v>
+        <v>499557</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -7739,12 +7739,12 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_acs.censustract_2018_5yr', 'bigquery-public-data.census_bureau_acs.censustract_2015_5yr', 'bigquery-public-data.geo_census_tracts.census_tracts_california'}</t>
+          <t>{'bigquery-public-data.census_bureau_acs.censustract_2015_5yr', 'bigquery-public-data.geo_census_tracts.census_tracts_california', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr'}</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data', 'and select the tract with the largest difference in median income'}</t>
+          <t>{'and cell values needed to generate an SQL query to answer the question', 'censustract_2018_5yr', 'censustract_2015_5yr', 'census_tracts_california'}</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -7754,19 +7754,19 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_acs.censustract_2015_5yr.median_income', 'bigquery-public-data.geo_census_tracts.census_tracts_california.tract_ce', 'bigquery-public-data.geo_census_tracts.census_tracts_california.geo_id', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.median_income', 'bigquery-public-data.census_bureau_acs.censustract_2015_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.geo_id'}</t>
+          <t>{'bigquery-public-data.geo_census_tracts.census_tracts_california.geo_id', 'bigquery-public-data.geo_census_tracts.census_tracts_california.tract_ce', 'bigquery-public-data.census_bureau_acs.censustract_2015_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.median_income', 'bigquery-public-data.census_bureau_acs.censustract_2018_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.censustract_2015_5yr.median_income'}</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_acs', 'bigquery-public-data.geo_census_tracts', 'and select the tract with the largest difference in median income.The tract code is in `tract_ce`'}</t>
+          <t>{'censustract_2018_5yr.geo_id', 'censustract_2015_5yr.geo_id', 'censustract_2015_5yr.median_income', 'census_tracts_california.tract_ce', 'and cell values needed to generate an SQL query to answer the question.', 'census_tracts_california.geo_id', 'censustract_2018_5yr.median_income'}</t>
         </is>
       </c>
       <c r="U87" t="n">
-        <v>0.005698005698005698</v>
+        <v>0.0113960113960114</v>
       </c>
       <c r="V87" t="n">
-        <v>4.337140378776926e-05</v>
+        <v>0.0001011999421714616</v>
       </c>
     </row>
     <row r="88">
@@ -7784,10 +7784,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>37.88506755698472</v>
+        <v>32.05181608803105</v>
       </c>
       <c r="E88" t="n">
-        <v>500247</v>
+        <v>500139</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -7823,12 +7823,12 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.geo_us_boundaries.zip_codes', 'bigquery-public-data.geo_census_tracts.us_census_tracts_national', 'bigquery-public-data.census_bureau_acs.censustract_2017_5yr'}</t>
+          <t>{'bigquery-public-data.census_bureau_acs.censustract_2017_5yr', 'bigquery-public-data.geo_us_boundaries.zip_codes', 'bigquery-public-data.geo_census_tracts.us_census_tracts_national'}</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>{'ST_GEOGPOINT(-122', '-122', 'and aggregations needed to generate the required SQL for the question', 'census_bureau_acs', 'geo_us_boundaries', '47'}</t>
+          <t>{'ST_AREA(ST_INTERSECTION(censustract_2017_5yr', 'ST_INTERSECTION(censustract_2017_5yr', 'ST_GEOGPOINT(-122', 'ST_AREA(censustract_2017_5yr', '-122', 'ST_DWITHIN(zip_codes', 'zip_codes', 'ROUND\n\n```\n\n---\n\n**This is the set of schema links you would use to generate the SQL for this question', '8046', 'censustract_2017_5yr', '47'}</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -7838,19 +7838,19 @@
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.geo_census_tracts.us_census_tracts_national.tract_geom', 'bigquery-public-data.geo_us_boundaries.zip_codes.zip_code', 'bigquery-public-data.geo_us_boundaries.zip_codes.functional_status', 'bigquery-public-data.geo_us_boundaries.zip_codes.state_code', 'bigquery-public-data.geo_census_tracts.us_census_tracts_national.functional_status', 'bigquery-public-data.geo_census_tracts.us_census_tracts_national.geo_id', 'bigquery-public-data.census_bureau_acs.censustract_2017_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.censustract_2017_5yr.total_pop', 'bigquery-public-data.census_bureau_acs.censustract_2017_5yr.income_per_capita', 'bigquery-public-data.geo_us_boundaries.zip_codes.zip_code_geom', 'bigquery-public-data.geo_census_tracts.us_census_tracts_national.tract_ce'}</t>
+          <t>{'bigquery-public-data.geo_census_tracts.us_census_tracts_national.tract_geom', 'bigquery-public-data.geo_us_boundaries.zip_codes.zip_code_geom', 'bigquery-public-data.geo_census_tracts.us_census_tracts_national.tract_ce', 'bigquery-public-data.census_bureau_acs.censustract_2017_5yr.geo_id', 'bigquery-public-data.geo_us_boundaries.zip_codes.zip_code', 'bigquery-public-data.census_bureau_acs.censustract_2017_5yr.income_per_capita', 'bigquery-public-data.geo_census_tracts.us_census_tracts_national.geo_id', 'bigquery-public-data.census_bureau_acs.censustract_2017_5yr.total_pop', 'bigquery-public-data.geo_census_tracts.us_census_tracts_national.functional_status', 'bigquery-public-data.geo_us_boundaries.zip_codes.functional_status'}</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>{'47.685833))', 'geo_us_boundaries.zip_codes', '-122.191667', 'and aggregations needed to generate the required SQL for the question.**', 'ST_GEOGPOINT(-122.191667', 'census_bureau_acs.censustract_2017_5yr', '47.685833'}</t>
+          <t>{'-122.191667', 'censustract_2017_5yr.geo_id', '47.685833', 'ROUND\n\n```\n\n---\n\n**This is the set of schema links you would use to generate the SQL for this question.**', '8046.72)', 'censustract_2017_5yr.tract_geom', 'zip_codes.zip_code_geom', 'censustract_2017_5yr.total_pop', 'zip_codes.zip_code_geom)', 'censustract_2017_5yr.income_per_capita', 'ST_AREA(censustract_2017_5yr.tract_geom)', 'zip_codes.zip_code', '47.685833)', '8046.72', 'zip_codes.state_name', 'zip_codes.zip_code_geom))', 'ST_GEOGPOINT(-122.191667', 'ST_DWITHIN(zip_codes.zip_code_geom', 'ST_AREA(ST_INTERSECTION(censustract_2017_5yr.tract_geom', 'ST_INTERSECTION(censustract_2017_5yr.tract_geom'}</t>
         </is>
       </c>
       <c r="U88" t="n">
-        <v>0.0170940170940171</v>
+        <v>0.03133903133903134</v>
       </c>
       <c r="V88" t="n">
-        <v>0.0001011999421714616</v>
+        <v>0.0002891426919184618</v>
       </c>
     </row>
     <row r="89">
@@ -7868,10 +7868,10 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>15.58243754692376</v>
+        <v>13.00598968099803</v>
       </c>
       <c r="E89" t="n">
-        <v>7061</v>
+        <v>7023</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -7912,7 +7912,7 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>{'mbb_historical_teams_seasons', 'and to filter out missing names)\n- `mbb_historical_teams_seasons', "''\n\n---\n\n**Explanation:**  \n- `mbb_historical_teams_seasons"}</t>
+          <t>{'mbb_historical_teams_seasons'}</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.ncaa_basketball.mbb_historical_teams_seasons.wins', 'bigquery-public-data.ncaa_basketball.mbb_historical_teams_seasons.market', 'bigquery-public-data.ncaa_basketball.mbb_historical_teams_seasons.season'}</t>
+          <t>{'bigquery-public-data.ncaa_basketball.mbb_historical_teams_seasons.season', 'bigquery-public-data.ncaa_basketball.mbb_historical_teams_seasons.market', 'bigquery-public-data.ncaa_basketball.mbb_historical_teams_seasons.wins'}</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>{"''\n\n---\n\n**Explanation:**  \n- `mbb_historical_teams_seasons.season` (for filtering years 1900-2000 and grouping)\n- `mbb_historical_teams_seasons", 'mbb_historical_teams_seasons.name', 'and to filter out missing names)\n- `mbb_historical_teams_seasons.wins` (to find max wins per season)\n- 1900', 'mbb_historical_teams_seasons.team_id', 'mbb_historical_teams_seasons.wins', 'mbb_historical_teams_seasons.season'}</t>
+          <t>{'mbb_historical_teams_seasons.season', 'mbb_historical_teams_seasons.name', 'mbb_historical_teams_seasons.wins', 'mbb_historical_teams_seasons.market', 'mbb_historical_teams_seasons.name !', 'mbb_historical_teams_seasons.team_id'}</t>
         </is>
       </c>
       <c r="U89" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="V89" t="n">
         <v>0.01188118811881188</v>
@@ -7952,10 +7952,10 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>47.93773763114586</v>
+        <v>15.83920846699039</v>
       </c>
       <c r="E90" t="n">
-        <v>8277</v>
+        <v>7632</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -7996,7 +7996,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>{'mbb_teams', '2018\n```\n\n**Foreign_keys:**\n```\nmbb_pbp_sr', 'mbb_players_games_sr', 'mbb_historical_tournament_games', 'mbb_pbp_sr'}</t>
+          <t>{'mbb_players_games_sr', 'mbb_historical_tournament_games'}</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -8006,19 +8006,19 @@
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.ncaa_basketball.mbb_pbp_sr.points_scored', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.win_name', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.lose_seed', 'bigquery-public-data.ncaa_basketball.mbb_pbp_sr.round', 'bigquery-public-data.ncaa_basketball.mbb_pbp_sr.period', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.win_seed', 'bigquery-public-data.ncaa_basketball.mbb_pbp_sr.season', 'bigquery-public-data.ncaa_basketball.mbb_pbp_sr.team_market', 'bigquery-public-data.ncaa_basketball.mbb_pbp_sr.game_id', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.days_from_epoch', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.lose_alias', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.win_market', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.win_alias', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.lose_name', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.lose_market', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.lose_school_ncaa', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.season', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.day', 'bigquery-public-data.ncaa_basketball.mbb_pbp_sr.player_id', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.game_date', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.round', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.win_school_ncaa'}</t>
+          <t>{'bigquery-public-data.ncaa_basketball.mbb_pbp_sr.points_scored', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.days_from_epoch', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.day', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.lose_seed', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.lose_alias', 'bigquery-public-data.ncaa_basketball.mbb_pbp_sr.game_id', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.win_school_ncaa', 'bigquery-public-data.ncaa_basketball.mbb_pbp_sr.round', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.round', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.lose_school_ncaa', 'bigquery-public-data.ncaa_basketball.mbb_pbp_sr.team_market', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.win_alias', 'bigquery-public-data.ncaa_basketball.mbb_pbp_sr.season', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.season', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.win_market', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.win_name', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.win_seed', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.game_date', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.lose_market', 'bigquery-public-data.ncaa_basketball.mbb_pbp_sr.player_id', 'bigquery-public-data.ncaa_basketball.mbb_historical_tournament_games.lose_name'}</t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>{'mbb_pbp_sr.season', 'mbb_players_games_sr.team_market', 'mbb_historical_tournament_games.*', 'mbb_players_games_sr.team_id', 'mbb_teams.id\n```\n\n---\n\n**This set of schema links and foreign keys will allow you to generate the required SQL for the question', 'mbb_pbp_sr.period', 'mbb_historical_tournament_games.win_team_id', 'mbb_historical_tournament_games.lose_market', 'mbb_players_games_sr.player_id', 'mbb_players_games_sr.game_id', 'mbb_historical_tournament_games.lose_team_id', 'mbb_historical_tournament_games.win_market', 'mbb_teams.id', 'mbb_pbp_sr.points_scored', 'mbb_pbp_sr.game_id', '2018\n```\n\n**Foreign_keys:**\n```\nmbb_pbp_sr.player_id', 'mbb_teams.market', 'mbb_pbp_sr.player_id', 'mbb_players_games_sr.points', 'mbb_historical_tournament_games.season', 'mbb_players_games_sr.season', 'mbb_pbp_sr.team_id', 'mbb_pbp_sr.team_market'}</t>
+          <t>{'mbb_players_games_sr.player_id', 'mbb_historical_tournament_games.lose_market', 'mbb_players_games_sr.team_market', 'mbb_players_games_sr.season', 'mbb_historical_tournament_games.season', 'mbb_players_games_sr.period', 'mbb_historical_tournament_games.win_market', 'mbb_players_games_sr.points'}</t>
         </is>
       </c>
       <c r="U90" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="V90" t="n">
-        <v>0.04554455445544554</v>
+        <v>0.01584158415841584</v>
       </c>
     </row>
     <row r="91">
@@ -8036,10 +8036,10 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>33.41224369197153</v>
+        <v>60.47869128995808</v>
       </c>
       <c r="E91" t="n">
-        <v>8788</v>
+        <v>8917</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -8080,7 +8080,7 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>{'mbb_teams', 'feature_engineering', '2018_tournament_results', 'mbb_historical_tournament_games', '2014\n\n\n---\n\n**This set of schema links will allow you to generate the required SQL queries for the described dataset'}</t>
+          <t>{'data-to-insights'}</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -8090,19 +8090,19 @@
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>{'data-to-insights.ncaa.2018_tournament_results.label', 'data-to-insights.ncaa.2018_tournament_results.seed', 'data-to-insights.ncaa.feature_engineering.season', 'data-to-insights.ncaa.feature_engineering.team', 'data-to-insights.ncaa.feature_engineering.pace_rank', 'data-to-insights.ncaa.2018_tournament_results.opponent_seed', 'data-to-insights.ncaa.feature_engineering.poss_40min', 'data-to-insights.ncaa.feature_engineering.efficiency_rating', 'data-to-insights.ncaa.2018_tournament_results.opponent_school_ncaa', 'data-to-insights.ncaa.feature_engineering.pts_100poss', 'data-to-insights.ncaa.mbb_historical_tournament_games.win_school_ncaa', 'data-to-insights.ncaa.2018_tournament_results.season', 'data-to-insights.ncaa.mbb_historical_tournament_games.lose_school_ncaa', 'data-to-insights.ncaa.mbb_historical_tournament_games.win_seed', 'data-to-insights.ncaa.feature_engineering.pace_rating', 'data-to-insights.ncaa.mbb_historical_tournament_games.season', 'data-to-insights.ncaa.2018_tournament_results.school_ncaa', 'data-to-insights.ncaa.feature_engineering.efficiency_rank', 'data-to-insights.ncaa.mbb_historical_tournament_games.lose_seed'}</t>
+          <t>{'data-to-insights.ncaa.feature_engineering.pace_rank', 'data-to-insights.ncaa.mbb_historical_tournament_games.lose_seed', 'data-to-insights.ncaa.feature_engineering.pts_100poss', 'data-to-insights.ncaa.2018_tournament_results.label', 'data-to-insights.ncaa.2018_tournament_results.season', 'data-to-insights.ncaa.feature_engineering.efficiency_rank', 'data-to-insights.ncaa.feature_engineering.poss_40min', 'data-to-insights.ncaa.2018_tournament_results.opponent_school_ncaa', 'data-to-insights.ncaa.2018_tournament_results.seed', 'data-to-insights.ncaa.feature_engineering.team', 'data-to-insights.ncaa.feature_engineering.pace_rating', 'data-to-insights.ncaa.2018_tournament_results.school_ncaa', 'data-to-insights.ncaa.feature_engineering.efficiency_rating', 'data-to-insights.ncaa.mbb_historical_tournament_games.win_school_ncaa', 'data-to-insights.ncaa.2018_tournament_results.opponent_seed', 'data-to-insights.ncaa.feature_engineering.season', 'data-to-insights.ncaa.mbb_historical_tournament_games.lose_school_ncaa', 'data-to-insights.ncaa.mbb_historical_tournament_games.season', 'data-to-insights.ncaa.mbb_historical_tournament_games.win_seed'}</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>{'mbb_historical_tournament_games.lose_pts', 'feature_engineering.season', '2018_tournament_results.seed', 'feature_engineering.team', 'feature_engineering.efficiency_rating', 'mbb_teams.name', '2018_tournament_results.opponent_points', '2018_tournament_results.opponent_school_ncaa', '2018_tournament_results.school_ncaa', 'feature_engineering.pace_rating', 'mbb_teams.school_ncaa', 'mbb_historical_tournament_games.lose_seed', 'mbb_historical_tournament_games.win_school_ncaa', 'mbb_historical_tournament_games.lose_school_ncaa', '2014\n\n\n---\n\n**This set of schema links will allow you to generate the required SQL queries for the described dataset.**', 'feature_engineering.efficiency_rank', 'mbb_historical_tournament_games.season', '2018_tournament_results.season', '2018_tournament_results.opponent_seed', '2018_tournament_results.label', 'feature_engineering.pace_rank', 'mbb_historical_tournament_games.win_seed', '2018_tournament_results.points', 'mbb_historical_tournament_games.win_pts'}</t>
+          <t>{'data-to-insights.ncaa'}</t>
         </is>
       </c>
       <c r="U91" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="V91" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.001811594202898551</v>
       </c>
     </row>
     <row r="92">
@@ -8120,10 +8120,10 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>21.59816821105778</v>
+        <v>26.68168504198547</v>
       </c>
       <c r="E92" t="n">
-        <v>327884</v>
+        <v>328293</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -8164,7 +8164,7 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>{'as all columns are in the same table', 'bigquery-public-data'}</t>
+          <t>{'bigquery-public-data', 'using the appropriate table and columns'}</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -8174,12 +8174,12 @@
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.google_dei.dar_non_intersectional_representation.race_white', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.report_year', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.gender_us_men', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.workforce', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.gender_us_women', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.race_hispanic_latinx', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.race_native_american', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.race_black', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.gender_global_men', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.gender_global_women', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.race_asian'}</t>
+          <t>{'bigquery-public-data.google_dei.dar_non_intersectional_representation.race_native_american', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.race_hispanic_latinx', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.race_white', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.gender_us_women', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.report_year', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.race_asian', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.gender_us_men', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.gender_global_men', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.race_black', 'bigquery-public-data.google_dei.dar_non_intersectional_representation.gender_global_women'}</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>{'as all columns are in the same table.**', 'bigquery-public-data.google_dei'}</t>
+          <t>{'bigquery-public-data.google_dei', 'using the appropriate table and columns.No foreign keys are needed as all data is in one table'}</t>
         </is>
       </c>
       <c r="U92" t="n">
@@ -8204,10 +8204,10 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>18.66392384306528</v>
+        <v>12.29786884703208</v>
       </c>
       <c r="E93" t="n">
-        <v>5519</v>
+        <v>5552</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -8243,12 +8243,12 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>{'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONS', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONTOPROJECT', 'DEPS_DEV_V1.DEPS_DEV_V1.PROJECTS'}</t>
+          <t>{'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONTOPROJECT', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONS', 'DEPS_DEV_V1.DEPS_DEV_V1.PROJECTS'}</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>{'DEPS_DEV_V1'}</t>
+          <t>{'PROJECTS', 'PACKAGEVERSIONS'}</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -8258,19 +8258,19 @@
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>{'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONS.System', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONTOPROJECT.Name', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONTOPROJECT.ProjectName', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONTOPROJECT.System', 'DEPS_DEV_V1.DEPS_DEV_V1.PROJECTS.Name', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONS.VersionInfo', 'DEPS_DEV_V1.DEPS_DEV_V1.PROJECTS.Type', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONTOPROJECT.Version', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONTOPROJECT.ProjectType', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONS.Version', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONS.Name'}</t>
+          <t>{'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONTOPROJECT.Version', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONTOPROJECT.ProjectName', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONTOPROJECT.ProjectType', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONS.VersionInfo', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONS.Version', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONTOPROJECT.Name', 'DEPS_DEV_V1.DEPS_DEV_V1.PACKAGEVERSIONS.Name', 'DEPS_DEV_V1.DEPS_DEV_V1.PROJECTS.Name'}</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>{'DEPS_DEV_V1.DEPS_DEV_V1'}</t>
+          <t>{'PACKAGEVERSIONS.System', 'PROJECTS.Name', 'PACKAGEVERSIONS.Name', 'PROJECTS.StarsCount', 'PACKAGEVERSIONS.Version', 'PACKAGEVERSIONS.UpstreamPublishedAt'}</t>
         </is>
       </c>
       <c r="U93" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="V93" t="n">
-        <v>0.01282051282051282</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="94">
@@ -8288,10 +8288,10 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>19.45945654809475</v>
+        <v>6.902359513973352</v>
       </c>
       <c r="E94" t="n">
-        <v>5240</v>
+        <v>5139</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -8372,10 +8372,10 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>10.12831853306852</v>
+        <v>5.357576855982188</v>
       </c>
       <c r="E95" t="n">
-        <v>5005</v>
+        <v>4955</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -8456,10 +8456,10 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>16.16220389609225</v>
+        <v>11.92645351402462</v>
       </c>
       <c r="E96" t="n">
-        <v>5655</v>
+        <v>5511</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -8500,7 +8500,7 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data'}</t>
+          <t>{'bigquery-public-data', 'based on the schema'}</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -8515,14 +8515,14 @@
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.chicago_taxi_trips'}</t>
+          <t>{'bigquery-public-data.chicago_taxi_trips', 'based on the schema.No foreign keys are needed'}</t>
         </is>
       </c>
       <c r="U96" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V96" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.04444444444444445</v>
       </c>
     </row>
     <row r="97">
@@ -8540,10 +8540,10 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>5.383305212017149</v>
+        <v>5.095189536048565</v>
       </c>
       <c r="E97" t="n">
-        <v>4971</v>
+        <v>4984</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -8594,7 +8594,7 @@
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.chicago_crime.crime.year', 'bigquery-public-data.chicago_crime.crime.date', 'bigquery-public-data.chicago_crime.crime.primary_type'}</t>
+          <t>{'bigquery-public-data.chicago_crime.crime.date', 'bigquery-public-data.chicago_crime.crime.year'}</t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
@@ -8624,10 +8624,10 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>8.72985028102994</v>
+        <v>6.84775797300972</v>
       </c>
       <c r="E98" t="n">
-        <v>5197</v>
+        <v>5155</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -8678,7 +8678,7 @@
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.chicago_crime.crime.year', 'bigquery-public-data.chicago_crime.crime.date', 'bigquery-public-data.chicago_crime.crime.primary_type'}</t>
+          <t>{'bigquery-public-data.chicago_crime.crime.date', 'bigquery-public-data.chicago_crime.crime.year'}</t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
@@ -8708,10 +8708,10 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>13.23508709599264</v>
+        <v>12.35026505996939</v>
       </c>
       <c r="E99" t="n">
-        <v>9736</v>
+        <v>9596</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -8762,7 +8762,7 @@
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>{'open-targets-prod.platform.molecule.id', 'open-targets-prod.platform.molecule.hasBeenWithdrawn', 'open-targets-prod.platform.molecule.isApproved', 'open-targets-prod.platform.molecule.blackBoxWarning', 'open-targets-prod.platform.molecule.drugType'}</t>
+          <t>{'open-targets-prod.platform.molecule.id', 'open-targets-prod.platform.molecule.hasBeenWithdrawn', 'open-targets-prod.platform.molecule.drugType'}</t>
         </is>
       </c>
       <c r="T99" t="inlineStr">
@@ -8792,10 +8792,10 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>12.7914509549737</v>
+        <v>6.491033241967671</v>
       </c>
       <c r="E100" t="n">
-        <v>9628</v>
+        <v>9561</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -8846,7 +8846,7 @@
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>{'open-targets-prod.platform.diseases.id', 'open-targets-prod.platform.targets.id', 'open-targets-prod.platform.associationByOverallDirect.targetId', 'open-targets-prod.platform.associationByOverallDirect.score', 'open-targets-prod.platform.associationByOverallDirect.diseaseId', 'open-targets-prod.platform.diseases.name', 'open-targets-prod.platform.targets.approvedSymbol'}</t>
+          <t>{'open-targets-prod.platform.associationByOverallDirect.score', 'open-targets-prod.platform.targets.id', 'open-targets-prod.platform.associationByOverallDirect.targetId', 'open-targets-prod.platform.diseases.id', 'open-targets-prod.platform.targets.approvedSymbol', 'open-targets-prod.platform.associationByOverallDirect.diseaseId'}</t>
         </is>
       </c>
       <c r="T100" t="inlineStr">
@@ -8876,10 +8876,10 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>16.90910607902333</v>
+        <v>9.930255499028135</v>
       </c>
       <c r="E101" t="n">
-        <v>9955</v>
+        <v>9894</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -8915,12 +8915,12 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>{'open-targets-prod.platform.evidence', 'open-targets-prod.platform.molecule', 'open-targets-prod.platform.targets'}</t>
+          <t>{'open-targets-prod.platform.molecule', 'open-targets-prod.platform.evidence', 'open-targets-prod.platform.targets'}</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>{'replace `3` with `4`', 'open-targets-prod'}</t>
+          <t>{'open-targets-prod'}</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -8930,19 +8930,19 @@
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>{'open-targets-prod.platform.evidence.targetId', 'open-targets-prod.platform.evidence.diseaseId', 'open-targets-prod.platform.targets.id', 'open-targets-prod.platform.molecule.id', 'open-targets-prod.platform.evidence.drugId', 'open-targets-prod.platform.evidence.clinicalStatus', 'open-targets-prod.platform.evidence.datasourceId', 'open-targets-prod.platform.evidence.id', 'open-targets-prod.platform.targets.approvedSymbol', 'open-targets-prod.platform.molecule.name'}</t>
+          <t>{'open-targets-prod.platform.molecule.name', 'open-targets-prod.platform.targets.id', 'open-targets-prod.platform.evidence.drugId', 'open-targets-prod.platform.evidence.id', 'open-targets-prod.platform.molecule.id', 'open-targets-prod.platform.targets.approvedSymbol', 'open-targets-prod.platform.evidence.targetId'}</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>{'replace `3` with `4`.)**', 'open-targets-prod.platform'}</t>
+          <t>{'open-targets-prod.platform'}</t>
         </is>
       </c>
       <c r="U101" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="V101" t="n">
-        <v>0.002528445006321113</v>
+        <v>0.001264222503160556</v>
       </c>
     </row>
     <row r="102">
@@ -8960,10 +8960,10 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>12.01359149604104</v>
+        <v>14.32453327596886</v>
       </c>
       <c r="E102" t="n">
-        <v>9960</v>
+        <v>9966</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -9004,7 +9004,7 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>{'you can note that MAX(score) is implied for "highest overall score"', 'bigquery-public-data'}</t>
+          <t>{'bigquery-public-data'}</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -9014,19 +9014,19 @@
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.open_targets_platform.associationByDatasourceDirect.score', 'bigquery-public-data.open_targets_platform.associationByDatasourceDirect.datasourceId', 'bigquery-public-data.open_targets_platform.associationByDatasourceDirect.targetId', 'bigquery-public-data.open_targets_platform.associationByOverallDirect.targetId', 'bigquery-public-data.open_targets_platform.targets.id', 'bigquery-public-data.open_targets_platform.targets.approvedSymbol', 'bigquery-public-data.open_targets_platform.associationByOverallDirect.diseaseId', 'bigquery-public-data.open_targets_platform.associationByDatasourceDirect.diseaseId', 'bigquery-public-data.open_targets_platform.associationByOverallDirect.score'}</t>
+          <t>{'bigquery-public-data.open_targets_platform.targets.id', 'bigquery-public-data.open_targets_platform.associationByDatasourceDirect.score', 'bigquery-public-data.open_targets_platform.associationByOverallDirect.targetId', 'bigquery-public-data.open_targets_platform.targets.approvedSymbol', 'bigquery-public-data.open_targets_platform.associationByDatasourceDirect.datasourceId', 'bigquery-public-data.open_targets_platform.associationByDatasourceDirect.targetId', 'bigquery-public-data.open_targets_platform.associationByOverallDirect.score'}</t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>{'you can note that MAX(score) is implied for "highest overall score".)**', 'bigquery-public-data.open_targets_platform'}</t>
+          <t>{'bigquery-public-data.open_targets_platform'}</t>
         </is>
       </c>
       <c r="U102" t="n">
-        <v>0.06896551724137931</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="V102" t="n">
-        <v>0.002421307506053269</v>
+        <v>0.001210653753026634</v>
       </c>
     </row>
     <row r="103">
@@ -9044,10 +9044,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>25.28978048800491</v>
+        <v>22.53942620300222</v>
       </c>
       <c r="E103" t="n">
-        <v>7237</v>
+        <v>7126</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -9088,7 +9088,7 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>{'0', 'and cell values needed to generate the SQL for the question', 'open-targets-genetics'}</t>
+          <t>{'variant_disease_coloc', '0', 'studies'}</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -9098,19 +9098,19 @@
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>{'open-targets-genetics.genetics.variant_disease_coloc.left_alt', 'open-targets-genetics.genetics.variant_disease_coloc.right_gene_id', 'open-targets-genetics.genetics.variant_disease_coloc.left_chrom', 'open-targets-genetics.genetics.variant_disease_coloc.coloc_h4', 'open-targets-genetics.genetics.studies.trait_reported', 'open-targets-genetics.genetics.variant_disease_coloc.coloc_h3', 'open-targets-genetics.genetics.variant_disease_coloc.right_bio_feature', 'open-targets-genetics.genetics.studies.study_id', 'open-targets-genetics.genetics.variant_disease_coloc.left_pos', 'open-targets-genetics.genetics.variant_disease_coloc.left_study', 'open-targets-genetics.genetics.variant_disease_coloc.coloc_log2_h4_h3', 'open-targets-genetics.genetics.variant_disease_coloc.right_study', 'open-targets-genetics.genetics.variant_disease_coloc.left_ref'}</t>
+          <t>{'open-targets-genetics.genetics.variant_disease_coloc.right_study', 'open-targets-genetics.genetics.variant_disease_coloc.left_study', 'open-targets-genetics.genetics.studies.study_id', 'open-targets-genetics.genetics.variant_disease_coloc.coloc_log2_h4_h3'}</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>{'open-targets-genetics.genetics', '0.02', '0.8', 'and cell values needed to generate the SQL for the question.**'}</t>
+          <t>{'variant_disease_coloc.right_pos', 'variant_disease_coloc.coloc_h3', 'studies.trait_reported', 'variant_disease_coloc.right_gene_id', 'studies.study_id', 'variant_disease_coloc.right_chrom', 'variant_disease_coloc.right_bio_feature', 'variant_disease_coloc.right_study', 'variant_disease_coloc.right_ref', 'variant_disease_coloc.right_alt', '0.02', 'variant_disease_coloc.coloc_log2_h4_h3', '0.8', 'variant_disease_coloc.right_phenotype', 'variant_disease_coloc.coloc_h4'}</t>
         </is>
       </c>
       <c r="U103" t="n">
         <v>0.2307692307692308</v>
       </c>
       <c r="V103" t="n">
-        <v>0.01204819277108434</v>
+        <v>0.04518072289156626</v>
       </c>
     </row>
     <row r="104">
@@ -9128,10 +9128,10 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>16.93991363607347</v>
+        <v>10.55428338103229</v>
       </c>
       <c r="E104" t="n">
-        <v>5056</v>
+        <v>5089</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>{'Sides'}</t>
+          <t>{'trade_capture_report'}</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -9182,19 +9182,19 @@
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.cymbal_investments.trade_capture_report.TargetCompID', 'bigquery-public-data.cymbal_investments.trade_capture_report.StrikePrice', 'bigquery-public-data.cymbal_investments.trade_capture_report.Sides', 'bigquery-public-data.cymbal_investments.trade_capture_report.LastPx'}</t>
+          <t>{'bigquery-public-data.cymbal_investments.trade_capture_report.LastPx', 'bigquery-public-data.cymbal_investments.trade_capture_report.StrikePrice'}</t>
         </is>
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>{'Sides.PartyIDs', 'Sides.Side'}</t>
+          <t>{'trade_capture_report.StrikePrice', 'trade_capture_report.Sides', 'trade_capture_report.LastPx'}</t>
         </is>
       </c>
       <c r="U104" t="n">
         <v>1</v>
       </c>
       <c r="V104" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="105">
@@ -9212,10 +9212,10 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>6.787342980969697</v>
+        <v>4.265435003966559</v>
       </c>
       <c r="E105" t="n">
-        <v>4923</v>
+        <v>4765</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data'}</t>
+          <t>{'trade_capture_report'}</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -9266,19 +9266,19 @@
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.cymbal_investments.trade_capture_report.StrikePrice', 'bigquery-public-data.cymbal_investments.trade_capture_report.OrderID', 'bigquery-public-data.cymbal_investments.trade_capture_report.LastPx', 'bigquery-public-data.cymbal_investments.trade_capture_report.TargetCompID', 'bigquery-public-data.cymbal_investments.trade_capture_report.Sides', 'bigquery-public-data.cymbal_investments.trade_capture_report.MaturityDate', 'bigquery-public-data.cymbal_investments.trade_capture_report.Symbol'}</t>
+          <t>{'bigquery-public-data.cymbal_investments.trade_capture_report.MaturityDate', 'bigquery-public-data.cymbal_investments.trade_capture_report.StrikePrice', 'bigquery-public-data.cymbal_investments.trade_capture_report.LastPx', 'bigquery-public-data.cymbal_investments.trade_capture_report.Symbol', 'bigquery-public-data.cymbal_investments.trade_capture_report.TargetCompID', 'bigquery-public-data.cymbal_investments.trade_capture_report.Sides', 'bigquery-public-data.cymbal_investments.trade_capture_report.OrderID'}</t>
         </is>
       </c>
       <c r="T105" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.cymbal_investments'}</t>
+          <t>{'trade_capture_report.*', 'trade_capture_report.LastPx'}</t>
         </is>
       </c>
       <c r="U105" t="n">
         <v>1</v>
       </c>
       <c r="V105" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="106">
@@ -9296,10 +9296,10 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>16.88956636900548</v>
+        <v>10.35288847598713</v>
       </c>
       <c r="E106" t="n">
-        <v>5520</v>
+        <v>5341</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -9340,7 +9340,7 @@
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'bigquery-public-data'}</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -9350,19 +9350,19 @@
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.gbif.occurrences.year', 'bigquery-public-data.gbif.occurrences.decimallatitude', 'bigquery-public-data.gbif.occurrences.species', 'bigquery-public-data.gbif.occurrences.month', 'bigquery-public-data.gbif.occurrences.eventdate'}</t>
+          <t>{'bigquery-public-data.gbif.occurrences.year', 'bigquery-public-data.gbif.occurrences.eventdate'}</t>
         </is>
       </c>
       <c r="T106" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'bigquery-public-data.gbif'}</t>
         </is>
       </c>
       <c r="U106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V106" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
     </row>
     <row r="107">
@@ -9380,10 +9380,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>20.85380660183728</v>
+        <v>30.41358703002334</v>
       </c>
       <c r="E107" t="n">
-        <v>396727</v>
+        <v>397041</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.gnomAD.v2_1_1_genomes__chr17.start_position', 'bigquery-public-data.gnomAD.v2_1_1_genomes__chr17.end_position', 'bigquery-public-data.gnomAD.v2_1_1_genomes__chr17.reference_bases', 'bigquery-public-data.gnomAD.v2_1_1_genomes__chr17.alternate_bases'}</t>
+          <t>{'bigquery-public-data.gnomAD.v2_1_1_genomes__chr17.start_position', 'bigquery-public-data.gnomAD.v2_1_1_genomes__chr17.end_position', 'bigquery-public-data.gnomAD.v2_1_1_genomes__chr17.alternate_bases'}</t>
         </is>
       </c>
       <c r="T107" t="inlineStr">
@@ -9464,10 +9464,10 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>18.64820676506497</v>
+        <v>24.08192983304616</v>
       </c>
       <c r="E108" t="n">
-        <v>396818</v>
+        <v>397155</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -9508,7 +9508,7 @@
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data'}</t>
+          <t>{'vep'}</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -9518,12 +9518,12 @@
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.gnomAD.v3_genomes__chr1.alternate_bases', 'bigquery-public-data.gnomAD.v3_genomes__chr1.AN', 'bigquery-public-data.gnomAD.v3_genomes__chr1.start_position'}</t>
+          <t>{'bigquery-public-data.gnomAD.v3_genomes__chr1.AN', 'bigquery-public-data.gnomAD.v3_genomes__chr1.alternate_bases'}</t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.gnomAD'}</t>
+          <t>{'vep.SYMBOL'}</t>
         </is>
       </c>
       <c r="U108" t="n">
@@ -9548,10 +9548,10 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>8.089186613913625</v>
+        <v>7.513195517007262</v>
       </c>
       <c r="E109" t="n">
-        <v>5087</v>
+        <v>5193</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -9602,7 +9602,7 @@
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>{'GOOGLE_TRENDS.GOOGLE_TRENDS.TOP_RISING_TERMS.week', 'GOOGLE_TRENDS.GOOGLE_TRENDS.TOP_RISING_TERMS.refresh_date', 'GOOGLE_TRENDS.GOOGLE_TRENDS.TOP_RISING_TERMS.rank', 'GOOGLE_TRENDS.GOOGLE_TRENDS.TOP_RISING_TERMS.score', 'GOOGLE_TRENDS.GOOGLE_TRENDS.TOP_RISING_TERMS.term'}</t>
+          <t>{'GOOGLE_TRENDS.GOOGLE_TRENDS.TOP_RISING_TERMS.term', 'GOOGLE_TRENDS.GOOGLE_TRENDS.TOP_RISING_TERMS.score', 'GOOGLE_TRENDS.GOOGLE_TRENDS.TOP_RISING_TERMS.week', 'GOOGLE_TRENDS.GOOGLE_TRENDS.TOP_RISING_TERMS.rank', 'GOOGLE_TRENDS.GOOGLE_TRENDS.TOP_RISING_TERMS.refresh_date'}</t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
@@ -9632,10 +9632,10 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>39.57893418194726</v>
+        <v>47.1416111139697</v>
       </c>
       <c r="E110" t="n">
-        <v>9652</v>
+        <v>9107</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -9671,12 +9671,12 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.utility_us.zipcode_area', 'bigquery-public-data.nhtsa_traffic_fatalities.accident_2016', 'bigquery-public-data.census_bureau_usa.population_by_zip_2010'}</t>
+          <t>{'bigquery-public-data.census_bureau_usa.population_by_zip_2010', 'bigquery-public-data.utility_us.zipcode_area', 'bigquery-public-data.nhtsa_traffic_fatalities.accident_2016'}</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>{'distract_2015', 'zipcode_area', 'population_by_zip_2010', 'and cell values needed to generate the SQL for the question', 'bigquery-public-data', 'accident_2015', 'us_states_area'}</t>
+          <t>{'distract_2015', 'population_by_zip_2010', 'accident_2015', 'zipcode_area', 'accident_2016', 'us_states_area', 'distract_2016'}</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -9686,19 +9686,19 @@
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.nhtsa_traffic_fatalities.accident_2016.state_name', 'bigquery-public-data.utility_us.zipcode_area.state_name', 'bigquery-public-data.census_bureau_usa.population_by_zip_2010.population', 'bigquery-public-data.utility_us.zipcode_area.zipcode', 'bigquery-public-data.census_bureau_usa.population_by_zip_2010.zipcode', 'bigquery-public-data.nhtsa_traffic_fatalities.accident_2016.consecutive_number'}</t>
+          <t>{'bigquery-public-data.nhtsa_traffic_fatalities.accident_2016.consecutive_number', 'bigquery-public-data.utility_us.zipcode_area.zipcode', 'bigquery-public-data.nhtsa_traffic_fatalities.accident_2016.state_name', 'bigquery-public-data.census_bureau_usa.population_by_zip_2010.population', 'bigquery-public-data.census_bureau_usa.population_by_zip_2010.zipcode', 'bigquery-public-data.utility_us.zipcode_area.state_name'}</t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
         <is>
-          <t>{'population_by_zip_2010.zipcode', 'distract_2015.consecutive_number', 'accident_2015.state_number', 'bigquery-public-data.nhtsa_traffic_fatalities', 'distract_2015.state_number', 'zipcode_area.zipcode', 'bigquery-public-data.utility_us', 'zipcode_area.state_name', 'bigquery-public-data.census_bureau_usa', 'accident_2015.consecutive_number', 'us_states_area.state_name', 'and cell values needed to generate the SQL for the question.**'}</t>
+          <t>{'distract_2015.driver_distracted_by_name', 'accident_2015.state_number', 'distract_2015.state_number', 'distract_2015.state_name', 'population_by_zip_2010.population', 'accident_2016.vehicle_number', 'accident_2016.consecutive_number', 'population_by_zip_2010.zipcode', 'zipcode_area.state_name', 'accident_2016.state_number', 'distract_2016.vehicle_number', 'distract_2016.driver_distracted_by_name', 'distract_2016.consecutive_number', 'accident_2015.vehicle_number', 'distract_2015.consecutive_number', 'accident_2015.consecutive_number', 'distract_2015.vehicle_number', 'distract_2016.state_number', 'distract_2016.state_name', 'us_states_area.state_name', 'zipcode_area.zipcode'}</t>
         </is>
       </c>
       <c r="U110" t="n">
         <v>0.2058823529411765</v>
       </c>
       <c r="V110" t="n">
-        <v>0.02409638554216868</v>
+        <v>0.04216867469879518</v>
       </c>
     </row>
     <row r="111">
@@ -9716,10 +9716,10 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>15.85571865504608</v>
+        <v>20.87679641199065</v>
       </c>
       <c r="E111" t="n">
-        <v>7640</v>
+        <v>7765</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -9770,7 +9770,7 @@
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.nhtsa_traffic_fatalities.accident_2016.timestamp_of_crash', 'bigquery-public-data.nhtsa_traffic_fatalities.accident_2016.atmospheric_conditions_1_name', 'bigquery-public-data.nhtsa_traffic_fatalities.accident_2016.consecutive_number', 'bigquery-public-data.nhtsa_traffic_fatalities.accident_2016.state_name'}</t>
+          <t>{'bigquery-public-data.nhtsa_traffic_fatalities.accident_2016.consecutive_number', 'bigquery-public-data.nhtsa_traffic_fatalities.accident_2016.state_name', 'bigquery-public-data.nhtsa_traffic_fatalities.accident_2016.atmospheric_conditions_1_name'}</t>
         </is>
       </c>
       <c r="T111" t="inlineStr">
@@ -9800,10 +9800,10 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>19.31520637404174</v>
+        <v>24.06208563497057</v>
       </c>
       <c r="E112" t="n">
-        <v>498257</v>
+        <v>498408</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -9844,7 +9844,7 @@
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>{"for each region (GeoName) ending with 'MA'", 'bigquery-public-data'}</t>
+          <t>{'bigquery-public-data'}</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
@@ -9854,19 +9854,19 @@
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.sdoh_bea_cainc30.fips.GeoFIPS', 'bigquery-public-data.sdoh_bea_cainc30.fips.Earnings_per_job_avg', 'bigquery-public-data.sdoh_bea_cainc30.fips.Year', 'bigquery-public-data.sdoh_bea_cainc30.fips.GeoName'}</t>
+          <t>{'bigquery-public-data.sdoh_bea_cainc30.fips.GeoName', 'bigquery-public-data.sdoh_bea_cainc30.fips.Earnings_per_job_avg', 'bigquery-public-data.sdoh_bea_cainc30.fips.GeoFIPS'}</t>
         </is>
       </c>
       <c r="T112" t="inlineStr">
         <is>
-          <t>{"for each region (GeoName) ending with 'MA'.- The difference (increase) is calculated as:  \n  `Earnings_per_job_avg (2017) - Earnings_per_job_avg (2012)`  \n  for each GeoName ending with 'MA'", 'bigquery-public-data.sdoh_bea_cainc30'}</t>
+          <t>{'bigquery-public-data.sdoh_bea_cainc30'}</t>
         </is>
       </c>
       <c r="U112" t="n">
-        <v>0.006802721088435374</v>
+        <v>0.003401360544217687</v>
       </c>
       <c r="V112" t="n">
-        <v>2.904317267618315e-05</v>
+        <v>1.452158633809157e-05</v>
       </c>
     </row>
     <row r="113">
@@ -9884,10 +9884,10 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>23.24948066985235</v>
+        <v>27.64625294198049</v>
       </c>
       <c r="E113" t="n">
-        <v>498914</v>
+        <v>499147</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -9928,7 +9928,7 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>{'000', '10\n\n```\n\n---\n\n**Summary of Reasoning:**\n- We need to join SNAP and ACS data on county FIPS', 'bigquery-public-data'}</t>
+          <t>{'snap_enrollment', 'county_2017_5yr'}</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
@@ -9938,19 +9938,19 @@
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_acs.county_2017_5yr.income_less_10000', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.geo_id', 'bigquery-public-data.sdoh_snap_enrollment.snap_enrollment.SNAP_All_Participation_Households', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.income_10000_14999', 'bigquery-public-data.sdoh_snap_enrollment.snap_enrollment.Date', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.income_15000_19999', 'bigquery-public-data.sdoh_snap_enrollment.snap_enrollment.FIPS'}</t>
+          <t>{'bigquery-public-data.census_bureau_acs.county_2017_5yr.income_15000_19999', 'bigquery-public-data.sdoh_snap_enrollment.snap_enrollment.FIPS', 'bigquery-public-data.sdoh_snap_enrollment.snap_enrollment.SNAP_All_Participation_Households', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.income_less_10000', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.income_10000_14999'}</t>
         </is>
       </c>
       <c r="T113" t="inlineStr">
         <is>
-          <t>{'10\n\n```\n\n---\n\n**Summary of Reasoning:**\n- We need to join SNAP and ACS data on county FIPS.- Filter for 2017-01-01 and nonzero SNAP households', 'bigquery-public-data.census_bureau_acs', 'bigquery-public-data.sdoh_snap_enrollment', '000.- Calculate the ratio to SNAP households'}</t>
+          <t>{'county_2017_5yr.income_10000_14999', 'county_2017_5yr.geo_id', 'snap_enrollment.Date', 'county_2017_5yr.income_less_10000', 'snap_enrollment.FIPS', 'snap_enrollment.SNAP_All_Participation_Households', 'county_2017_5yr.income_15000_19999'}</t>
         </is>
       </c>
       <c r="U113" t="n">
-        <v>0.01020408163265306</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="V113" t="n">
-        <v>5.808634535236629e-05</v>
+        <v>0.000101651104366641</v>
       </c>
     </row>
     <row r="114">
@@ -9968,10 +9968,10 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>25.86240363703109</v>
+        <v>14.01682569202967</v>
       </c>
       <c r="E114" t="n">
-        <v>498414</v>
+        <v>498333</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -10022,12 +10022,12 @@
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.sdoh_hud_pit_homelessness.hud_pit_by_coc.CoC_Number', 'bigquery-public-data.sdoh_hud_pit_homelessness.hud_pit_by_coc.CoC_Name', 'bigquery-public-data.sdoh_hud_pit_homelessness.hud_pit_by_coc.Count_Year', 'bigquery-public-data.sdoh_hud_pit_homelessness.hud_pit_by_coc.Homeless_Veterans'}</t>
+          <t>{'bigquery-public-data.sdoh_hud_pit_homelessness.hud_pit_by_coc.Homeless_Veterans', 'bigquery-public-data.sdoh_hud_pit_homelessness.hud_pit_by_coc.CoC_Name'}</t>
         </is>
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>{'hud_pit_by_coc.Count_Year', 'hud_pit_by_coc.CoC_Number', 'hud_pit_by_coc.CoC_Name', 'hud_pit_by_coc.Homeless_Veterans'}</t>
+          <t>{'hud_pit_by_coc.CoC_Number', 'hud_pit_by_coc.Count_Year', 'hud_pit_by_coc.Homeless_Veterans', 'hud_pit_by_coc.CoC_Name'}</t>
         </is>
       </c>
       <c r="U114" t="n">
@@ -10052,10 +10052,10 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>17.38914773310535</v>
+        <v>21.53970065299654</v>
       </c>
       <c r="E115" t="n">
-        <v>498529</v>
+        <v>498533</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -10096,7 +10096,7 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>{'hud_pit_by_coc'}</t>
+          <t>{'MIN\n```\n\n---\n\n## **Summary of Steps**\n\n1', 'bigquery-public-data', '2018)', 'sum `Unsheltered_Homeless`', 'calculate percentage change from 2015 to 2018'}</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -10106,19 +10106,19 @@
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.sdoh_hud_pit_homelessness.hud_pit_by_coc.CoC_Number', 'bigquery-public-data.sdoh_hud_pit_homelessness.hud_pit_by_coc.Count_Year', 'bigquery-public-data.sdoh_hud_pit_homelessness.hud_pit_by_coc.Unsheltered_Homeless'}</t>
+          <t>{'bigquery-public-data.sdoh_hud_pit_homelessness.hud_pit_by_coc.CoC_Number', 'bigquery-public-data.sdoh_hud_pit_homelessness.hud_pit_by_coc.Unsheltered_Homeless'}</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t>{'hud_pit_by_coc.CoC_Number', 'hud_pit_by_coc.Unsheltered_Homeless', 'hud_pit_by_coc.Count_Year'}</t>
+          <t>{'bigquery-public-data.sdoh_hud_pit_homelessness', 'calculate percentage change from 2015 to 2018.5', 'MIN\n```\n\n---\n\n## **Summary of Steps**\n\n1.Extract state abbreviation from `CoC_Number`', '2018).3', 'sum `Unsheltered_Homeless`.4'}</t>
         </is>
       </c>
       <c r="U115" t="n">
-        <v>0.003401360544217687</v>
+        <v>0.01700680272108844</v>
       </c>
       <c r="V115" t="n">
-        <v>4.356475901427472e-05</v>
+        <v>7.260793169045786e-05</v>
       </c>
     </row>
     <row r="116">
@@ -10136,10 +10136,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>27.22463001403958</v>
+        <v>30.14661266695475</v>
       </c>
       <c r="E116" t="n">
-        <v>498902</v>
+        <v>499239</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -10175,12 +10175,12 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_acs.county_2017_5yr', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality'}</t>
+          <t>{'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality', 'bigquery-public-data.census_bureau_acs.county_2017_5yr'}</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>{'using the commute and employment columns from the ACS table', '0', 'bigquery-public-data', 'and Wisconsin', 'joined to counties in Wisconsin', 'which can be done via FIPS or state name'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -10190,19 +10190,19 @@
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_acs.county_2017_5yr.geo_id', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality.County_of_Residence_FIPS', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality.Year', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.commute_45_59_mins', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.employed_pop', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality.Ave_Number_of_Prenatal_Wks', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality.County_of_Residence'}</t>
+          <t>{'bigquery-public-data.census_bureau_acs.county_2017_5yr.geo_id', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality.County_of_Residence', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality.Ave_Number_of_Prenatal_Wks', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality.County_of_Residence_FIPS', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.commute_45_59_mins', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.employed_pop'}</t>
         </is>
       </c>
       <c r="T116" t="inlineStr">
         <is>
-          <t>{'0.05', 'using the commute and employment columns from the ACS table.- The join is on county FIPS code', 'and Wisconsin.', 'which can be done via FIPS or state name.- The key cell values are 2018', 'bigquery-public-data.sdoh_cdc_wonder_natality', 'bigquery-public-data.census_bureau_acs', 'joined to counties in Wisconsin.- We filter counties by those where'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U116" t="n">
-        <v>0.02040816326530612</v>
+        <v>0</v>
       </c>
       <c r="V116" t="n">
-        <v>0.000101651104366641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -10220,10 +10220,10 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>35.46136599802412</v>
+        <v>32.54439821100095</v>
       </c>
       <c r="E117" t="n">
-        <v>499448</v>
+        <v>499161</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -10259,12 +10259,12 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.sdoh_cms_dual_eligible_enrollment.dual_eligible_enrollment_by_county_and_program', 'bigquery-public-data.census_bureau_acs.county_2018_5yr', 'bigquery-public-data.census_bureau_acs.county_2015_5yr'}</t>
+          <t>{'bigquery-public-data.sdoh_cms_dual_eligible_enrollment.dual_eligible_enrollment_by_county_and_program', 'bigquery-public-data.census_bureau_acs.county_2015_5yr', 'bigquery-public-data.census_bureau_acs.county_2018_5yr'}</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data', '2018-12-01\n\n```\n\n---\n\n**This set of schema links will allow you to generate the correct SQL for the question'}</t>
+          <t>{'dual_eligible_enrollment_by_county_and_program', 'county_2018_5yr', "'2018-12-01'\n```\n\n---\n\n**This set of schema links will allow you to generate the correct SQL query for the question", 'county_2015_5yr'}</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -10274,19 +10274,19 @@
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.sdoh_cms_dual_eligible_enrollment.dual_eligible_enrollment_by_county_and_program.Public_Total', 'bigquery-public-data.census_bureau_acs.county_2018_5yr.geo_id', 'bigquery-public-data.sdoh_cms_dual_eligible_enrollment.dual_eligible_enrollment_by_county_and_program.FIPS', 'bigquery-public-data.sdoh_cms_dual_eligible_enrollment.dual_eligible_enrollment_by_county_and_program.Date', 'bigquery-public-data.sdoh_cms_dual_eligible_enrollment.dual_eligible_enrollment_by_county_and_program.County_Name', 'bigquery-public-data.census_bureau_acs.county_2015_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.county_2015_5yr.unemployed_pop', 'bigquery-public-data.census_bureau_acs.county_2018_5yr.unemployed_pop'}</t>
+          <t>{'bigquery-public-data.sdoh_cms_dual_eligible_enrollment.dual_eligible_enrollment_by_county_and_program.County_Name', 'bigquery-public-data.census_bureau_acs.county_2015_5yr.unemployed_pop', 'bigquery-public-data.census_bureau_acs.county_2018_5yr.unemployed_pop', 'bigquery-public-data.sdoh_cms_dual_eligible_enrollment.dual_eligible_enrollment_by_county_and_program.FIPS', 'bigquery-public-data.sdoh_cms_dual_eligible_enrollment.dual_eligible_enrollment_by_county_and_program.Public_Total', 'bigquery-public-data.census_bureau_acs.county_2018_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.county_2015_5yr.geo_id'}</t>
         </is>
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_acs', 'bigquery-public-data.sdoh_cms_dual_eligible_enrollment', '2018-12-01\n\n```\n\n---\n\n**This set of schema links will allow you to generate the correct SQL for the question.**'}</t>
+          <t>{'county_2015_5yr.unemployed_pop', 'county_2018_5yr.unemployed_pop', 'dual_eligible_enrollment_by_county_and_program.Date', 'dual_eligible_enrollment_by_county_and_program.FIPS', 'county_2015_5yr.geo_id', 'county_2015_5yr.geo_id (FIPS)', 'dual_eligible_enrollment_by_county_and_program.Public_Total', 'county_2018_5yr.geo_id', "'2018-12-01'\n```\n\n---\n\n**This set of schema links will allow you to generate the correct SQL query for the question.**"}</t>
         </is>
       </c>
       <c r="U117" t="n">
-        <v>0.006802721088435374</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="V117" t="n">
-        <v>4.356475901427472e-05</v>
+        <v>0.0001306942770428242</v>
       </c>
     </row>
     <row r="118">
@@ -10304,10 +10304,10 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>37.18392583611421</v>
+        <v>62.60447820700938</v>
       </c>
       <c r="E118" t="n">
-        <v>499144</v>
+        <v>499861</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -10343,12 +10343,12 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality_by_maternal_morbidity', 'bigquery-public-data.census_bureau_acs.county_2017_5yr', 'bigquery-public-data.census_bureau_acs.county_2015_5yr', 'bigquery-public-data.census_bureau_acs.county_2016_5yr'}</t>
+          <t>{'bigquery-public-data.census_bureau_acs.county_2016_5yr', 'bigquery-public-data.census_bureau_acs.county_2015_5yr', 'bigquery-public-data.census_bureau_acs.county_2017_5yr', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality_by_maternal_morbidity'}</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>{'county_2015_5yr', 'county_2017_5yr', 'county_natality', 'county_2016_5yr', 'county_YYYY_5yr', 'county_natality_by_maternal_morbidity'}</t>
+          <t>{"'N'\n\n---\n\n**This is the set of schema links you would use to generate the SQL for this question", "'N'\n\nForeign_keys: bigquery-public-data", 'bigquery-public-data'}</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
@@ -10358,19 +10358,19 @@
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.census_bureau_acs.county_2015_5yr.pop_determined_poverty_status', 'bigquery-public-data.census_bureau_acs.county_2015_5yr.poverty', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality_by_maternal_morbidity.Maternal_Morbidity_YN', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality_by_maternal_morbidity.Births', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.poverty', 'bigquery-public-data.census_bureau_acs.county_2016_5yr.poverty', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality_by_maternal_morbidity.County_of_Residence_FIPS', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.pop_determined_poverty_status', 'bigquery-public-data.census_bureau_acs.county_2015_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.county_2016_5yr.pop_determined_poverty_status', 'bigquery-public-data.census_bureau_acs.county_2016_5yr.geo_id', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality_by_maternal_morbidity.Year'}</t>
+          <t>{'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality_by_maternal_morbidity.Births', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality_by_maternal_morbidity.Year', 'bigquery-public-data.census_bureau_acs.county_2015_5yr.poverty', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.county_2016_5yr.poverty', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.pop_determined_poverty_status', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality_by_maternal_morbidity.County_of_Residence_FIPS', 'bigquery-public-data.census_bureau_acs.county_2015_5yr.pop_determined_poverty_status', 'bigquery-public-data.census_bureau_acs.county_2017_5yr.poverty', 'bigquery-public-data.census_bureau_acs.county_2016_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.county_2015_5yr.geo_id', 'bigquery-public-data.census_bureau_acs.county_2016_5yr.pop_determined_poverty_status', 'bigquery-public-data.sdoh_cdc_wonder_natality.county_natality_by_maternal_morbidity.Maternal_Morbidity_YN'}</t>
         </is>
       </c>
       <c r="T118" t="inlineStr">
         <is>
-          <t>{'county_2017_5yr.poverty', 'county_natality_by_maternal_morbidity.County_of_Residence_FIPS', 'county_2016_5yr.poverty', 'county_natality_by_maternal_morbidity.Births', 'county_2015_5yr.poverty', 'county_2017_5yr.geo_id', 'county_natality.County_of_Residence_FIPS', 'county_YYYY_5yr.geo_id\n\n```\n\n---\n\n**Summary of reasoning:**\n- Identified the columns and tables for poverty and maternal morbidity', 'county_2015_5yr.geo_id', 'county_natality_by_maternal_morbidity.Maternal_Morbidity_YN', 'county_natality_by_maternal_morbidity.Year', 'county_natality.Births', 'county_natality.Year', 'county_2016_5yr.geo_id'}</t>
+          <t>{'bigquery-public-data.sdoh_cdc_wonder_natality', 'bigquery-public-data.census_bureau_acs', "'N'\n\nForeign_keys: bigquery-public-data.census_bureau_acs", "'N'\n\n---\n\n**This is the set of schema links you would use to generate the SQL for this question.**"}</t>
         </is>
       </c>
       <c r="U118" t="n">
-        <v>0.02040816326530612</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="V118" t="n">
-        <v>0.000203302208733282</v>
+        <v>5.808634535236629e-05</v>
       </c>
     </row>
     <row r="119">
@@ -10388,10 +10388,10 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>43.42178271594457</v>
+        <v>48.93102909898153</v>
       </c>
       <c r="E119" t="n">
-        <v>9722</v>
+        <v>9421</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -10432,7 +10432,7 @@
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>{"'Acceptable PM2", 'bigquery-public-data'}</t>
+          <t>{"'Acceptable PM2", 'bigquery-public-data', 'ROUND(bigquery-public-data'}</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -10442,19 +10442,19 @@
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.epa_historical_air_quality.air_quality_annual_summary.year', 'bigquery-public-data.epa_historical_air_quality.air_quality_annual_summary.units_of_measure', 'bigquery-public-data.openaq.global_air_quality.latitude', 'bigquery-public-data.epa_historical_air_quality.air_quality_annual_summary.arithmetic_mean', 'bigquery-public-data.openaq.global_air_quality.city', 'bigquery-public-data.openaq.global_air_quality.longitude', 'bigquery-public-data.openaq.global_air_quality.pollutant', 'bigquery-public-data.epa_historical_air_quality.air_quality_annual_summary.longitude', 'bigquery-public-data.openaq.global_air_quality.timestamp', 'bigquery-public-data.openaq.global_air_quality.value', 'bigquery-public-data.epa_historical_air_quality.air_quality_annual_summary.parameter_name', 'bigquery-public-data.epa_historical_air_quality.air_quality_annual_summary.latitude'}</t>
+          <t>{'bigquery-public-data.openaq.global_air_quality.city', 'bigquery-public-data.openaq.global_air_quality.latitude', 'bigquery-public-data.openaq.global_air_quality.longitude', 'bigquery-public-data.epa_historical_air_quality.air_quality_annual_summary.arithmetic_mean', 'bigquery-public-data.openaq.global_air_quality.timestamp', 'bigquery-public-data.epa_historical_air_quality.air_quality_annual_summary.longitude', 'bigquery-public-data.openaq.global_air_quality.value', 'bigquery-public-data.epa_historical_air_quality.air_quality_annual_summary.latitude'}</t>
         </is>
       </c>
       <c r="T119" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.openaq', "'Acceptable PM2.5 AQI &amp; Speciation Mass'", 'bigquery-public-data.epa_historical_air_quality'}</t>
+          <t>{'ROUND(bigquery-public-data.epa_historical_air_quality', "'Acceptable PM2.5 AQI &amp; Speciation Mass'", 'bigquery-public-data.epa_historical_air_quality', 'ROUND(bigquery-public-data.openaq', 'bigquery-public-data.openaq'}</t>
         </is>
       </c>
       <c r="U119" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="V119" t="n">
-        <v>0.003367003367003367</v>
+        <v>0.005611672278338945</v>
       </c>
     </row>
     <row r="120">
@@ -10472,10 +10472,10 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10.32862995518371</v>
+        <v>6.450462689972483</v>
       </c>
       <c r="E120" t="n">
-        <v>5972</v>
+        <v>5809</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -10526,19 +10526,19 @@
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>{'STACKOVERFLOW.STACKOVERFLOW.BADGES.user_id', 'STACKOVERFLOW.STACKOVERFLOW.USERS.reputation', 'STACKOVERFLOW.STACKOVERFLOW.USERS.id', 'STACKOVERFLOW.STACKOVERFLOW.USERS.creation_date', 'STACKOVERFLOW.STACKOVERFLOW.BADGES.id'}</t>
+          <t>{'STACKOVERFLOW.STACKOVERFLOW.BADGES.id', 'STACKOVERFLOW.STACKOVERFLOW.USERS.reputation', 'STACKOVERFLOW.STACKOVERFLOW.USERS.id', 'STACKOVERFLOW.STACKOVERFLOW.USERS.creation_date'}</t>
         </is>
       </c>
       <c r="T120" t="inlineStr">
         <is>
-          <t>{'USERS.id', 'BADGES.user_id', 'USERS.creation_date', 'USERS.reputation'}</t>
+          <t>{'USERS.reputation', 'USERS.id', 'BADGES.id', 'BADGES.user_id', 'USERS.creation_date'}</t>
         </is>
       </c>
       <c r="U120" t="n">
         <v>0.125</v>
       </c>
       <c r="V120" t="n">
-        <v>0.01754385964912281</v>
+        <v>0.02192982456140351</v>
       </c>
     </row>
     <row r="121">
@@ -10556,10 +10556,10 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>10.16427063103765</v>
+        <v>11.8028401179472</v>
       </c>
       <c r="E121" t="n">
-        <v>6009</v>
+        <v>6299</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -10595,12 +10595,12 @@
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_answers', 'bigquery-public-data.stackoverflow.posts_questions'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_questions', 'bigquery-public-data.stackoverflow.posts_answers'}</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>{'posts_questions', 'posts_answers'}</t>
+          <t>{'TIMESTAMP_DIFF(MIN(posts_answers', 'ORDER BY', 'MIN(posts_answers', 'posts_questions', 'EXTRACT(DAYOFWEEK FROM posts_questions', 'posts_answers'}</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -10610,19 +10610,19 @@
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_questions.parent_id', 'bigquery-public-data.stackoverflow.posts_answers.creation_date', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.posts_questions.creation_date', 'bigquery-public-data.stackoverflow.posts_answers.parent_id'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_answers.parent_id', 'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.posts_questions.parent_id', 'bigquery-public-data.stackoverflow.posts_answers.creation_date', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.posts_questions.creation_date'}</t>
         </is>
       </c>
       <c r="T121" t="inlineStr">
         <is>
-          <t>{'posts_questions.creation_date', 'posts_answers.creation_date', 'posts_answers.parent_id', 'posts_questions.id'}</t>
+          <t>{'posts_questions.creation_date', 'posts_answers.parent_id', 'TIMESTAMP_DIFF(MIN(posts_answers.creation_date)', 'MIN(posts_answers.creation_date)', 'ORDER BY.', 'posts_questions.id', 'posts_answers.creation_date', 'EXTRACT(DAYOFWEEK FROM posts_questions.creation_date)'}</t>
         </is>
       </c>
       <c r="U121" t="n">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="V121" t="n">
-        <v>0.01754385964912281</v>
+        <v>0.03508771929824561</v>
       </c>
     </row>
     <row r="122">
@@ -10640,10 +10640,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>5.336393191944808</v>
+        <v>4.743185578030534</v>
       </c>
       <c r="E122" t="n">
-        <v>5716</v>
+        <v>5738</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.users', 'bigquery-public-data.stackoverflow.posts_answers'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_answers', 'bigquery-public-data.stackoverflow.users'}</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
@@ -10694,7 +10694,7 @@
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.users.reputation', 'bigquery-public-data.stackoverflow.users.display_name', 'bigquery-public-data.stackoverflow.users.id', 'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.posts_answers.owner_user_id', 'bigquery-public-data.stackoverflow.posts_answers.answer_count'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.posts_answers.owner_user_id', 'bigquery-public-data.stackoverflow.users.reputation', 'bigquery-public-data.stackoverflow.users.display_name', 'bigquery-public-data.stackoverflow.posts_answers.answer_count', 'bigquery-public-data.stackoverflow.users.id'}</t>
         </is>
       </c>
       <c r="T122" t="inlineStr">
@@ -10724,10 +10724,10 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>15.50548393605277</v>
+        <v>5.910054676001891</v>
       </c>
       <c r="E123" t="n">
-        <v>5736</v>
+        <v>5760</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -10763,12 +10763,12 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_answers', 'bigquery-public-data.stackoverflow.posts_questions'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_questions', 'bigquery-public-data.stackoverflow.posts_answers'}</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>{"'python-3", 'bigquery-public-data', "'python-2"}</t>
+          <t>{'bigquery-public-data'}</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -10778,19 +10778,19 @@
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_questions.parent_id', 'bigquery-public-data.stackoverflow.posts_answers.body', 'bigquery-public-data.stackoverflow.posts_questions.tags', 'bigquery-public-data.stackoverflow.posts_questions.title', 'bigquery-public-data.stackoverflow.posts_answers.title', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.posts_questions.body', 'bigquery-public-data.stackoverflow.posts_answers.tags', 'bigquery-public-data.stackoverflow.posts_answers.parent_id'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_answers.body', 'bigquery-public-data.stackoverflow.posts_answers.title', 'bigquery-public-data.stackoverflow.posts_answers.parent_id', 'bigquery-public-data.stackoverflow.posts_answers.tags', 'bigquery-public-data.stackoverflow.posts_questions.parent_id', 'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.posts_questions.tags', 'bigquery-public-data.stackoverflow.posts_questions.title', 'bigquery-public-data.stackoverflow.posts_questions.body'}</t>
         </is>
       </c>
       <c r="T123" t="inlineStr">
         <is>
-          <t>{"'python-2.x'", "'python-3.x'", 'bigquery-public-data.stackoverflow'}</t>
+          <t>{'bigquery-public-data.stackoverflow'}</t>
         </is>
       </c>
       <c r="U123" t="n">
-        <v>0.1875</v>
+        <v>0.0625</v>
       </c>
       <c r="V123" t="n">
-        <v>0.0131578947368421</v>
+        <v>0.004385964912280702</v>
       </c>
     </row>
     <row r="124">
@@ -10808,10 +10808,10 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>20.70263001695275</v>
+        <v>25.41051616700133</v>
       </c>
       <c r="E124" t="n">
-        <v>6798</v>
+        <v>6587</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -10847,12 +10847,12 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.users', 'bigquery-public-data.stackoverflow.posts_answers', 'bigquery-public-data.stackoverflow.posts_questions'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_questions', 'bigquery-public-data.stackoverflow.posts_answers', 'bigquery-public-data.stackoverflow.users'}</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>{'posts_questions', 'and cell values needed to generate the SQL for the question', 'users', 'bigquery-public-data', 'posts_answers'}</t>
+          <t>{'bigquery-public-data', 'and users'}</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -10862,19 +10862,19 @@
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_questions.tags', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.posts_questions.comment_count', 'bigquery-public-data.stackoverflow.posts_answers.accepted_answer_id', 'bigquery-public-data.stackoverflow.users.creation_date', 'bigquery-public-data.stackoverflow.posts_answers.parent_id', 'bigquery-public-data.stackoverflow.posts_answers.view_count', 'bigquery-public-data.stackoverflow.posts_questions.parent_id', 'bigquery-public-data.stackoverflow.posts_answers.comment_count', 'bigquery-public-data.stackoverflow.users.reputation', 'bigquery-public-data.stackoverflow.posts_questions.owner_user_id', 'bigquery-public-data.stackoverflow.posts_questions.answer_count', 'bigquery-public-data.stackoverflow.posts_answers.score', 'bigquery-public-data.stackoverflow.posts_answers.creation_date', 'bigquery-public-data.stackoverflow.posts_questions.accepted_answer_id', 'bigquery-public-data.stackoverflow.posts_questions.view_count', 'bigquery-public-data.stackoverflow.posts_answers.owner_user_id', 'bigquery-public-data.stackoverflow.posts_answers.answer_count', 'bigquery-public-data.stackoverflow.posts_answers.tags', 'bigquery-public-data.stackoverflow.users.id', 'bigquery-public-data.stackoverflow.posts_questions.score', 'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.posts_questions.creation_date'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_questions.answer_count', 'bigquery-public-data.stackoverflow.posts_questions.view_count', 'bigquery-public-data.stackoverflow.posts_questions.parent_id', 'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.posts_answers.answer_count', 'bigquery-public-data.stackoverflow.posts_answers.parent_id', 'bigquery-public-data.stackoverflow.posts_questions.comment_count', 'bigquery-public-data.stackoverflow.posts_answers.tags', 'bigquery-public-data.stackoverflow.posts_answers.comment_count', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.posts_questions.tags', 'bigquery-public-data.stackoverflow.posts_questions.score', 'bigquery-public-data.stackoverflow.posts_answers.score', 'bigquery-public-data.stackoverflow.posts_answers.view_count', 'bigquery-public-data.stackoverflow.users.reputation', 'bigquery-public-data.stackoverflow.users.id'}</t>
         </is>
       </c>
       <c r="T124" t="inlineStr">
         <is>
-          <t>{'posts_questions.accepted_answer_id', 'posts_questions.owner_user_id', 'bigquery-public-data.stackoverflow', 'posts_answers.owner_user_id', 'users.id', 'posts_answers.id', 'and cell values needed to generate the SQL for the question.**'}</t>
+          <t>{'bigquery-public-data.stackoverflow', 'and users.- Mapped the necessary foreign key relationships for joining'}</t>
         </is>
       </c>
       <c r="U124" t="n">
-        <v>0.3125</v>
+        <v>0.125</v>
       </c>
       <c r="V124" t="n">
-        <v>0.03070175438596491</v>
+        <v>0.008771929824561403</v>
       </c>
     </row>
     <row r="125">
@@ -10892,10 +10892,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6.870917096966878</v>
+        <v>9.509111233986914</v>
       </c>
       <c r="E125" t="n">
-        <v>5757</v>
+        <v>5884</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -10946,7 +10946,7 @@
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_questions.creation_date', 'bigquery-public-data.stackoverflow.posts_questions.tags'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_questions.tags', 'bigquery-public-data.stackoverflow.posts_questions.creation_date'}</t>
         </is>
       </c>
       <c r="T125" t="inlineStr">
@@ -10976,10 +10976,10 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>26.30705517414026</v>
+        <v>10.26965522300452</v>
       </c>
       <c r="E126" t="n">
-        <v>6679</v>
+        <v>6355</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -11015,12 +11015,12 @@
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_answers', 'bigquery-public-data.stackoverflow.posts_questions', 'bigquery-public-data.stackoverflow.comments'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_questions', 'bigquery-public-data.stackoverflow.posts_answers', 'bigquery-public-data.stackoverflow.comments'}</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>{'comments', 'posts_questions', 'users', 'posts_answers'}</t>
+          <t>{'comments', 'posts_answers', 'posts_questions'}</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -11030,19 +11030,19 @@
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_questions.parent_id', 'bigquery-public-data.stackoverflow.posts_answers.body', 'bigquery-public-data.stackoverflow.posts_questions.tags', 'bigquery-public-data.stackoverflow.posts_questions.owner_user_id', 'bigquery-public-data.stackoverflow.comments.id', 'bigquery-public-data.stackoverflow.posts_questions.body', 'bigquery-public-data.stackoverflow.comments.creation_date', 'bigquery-public-data.stackoverflow.posts_answers.creation_date', 'bigquery-public-data.stackoverflow.comments.text', 'bigquery-public-data.stackoverflow.comments.post_id', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.posts_questions.creation_date', 'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.posts_answers.owner_user_id', 'bigquery-public-data.stackoverflow.comments.user_id', 'bigquery-public-data.stackoverflow.posts_answers.tags', 'bigquery-public-data.stackoverflow.posts_answers.parent_id'}</t>
+          <t>{'bigquery-public-data.stackoverflow.comments.text', 'bigquery-public-data.stackoverflow.posts_questions.owner_user_id', 'bigquery-public-data.stackoverflow.posts_answers.parent_id', 'bigquery-public-data.stackoverflow.posts_answers.tags', 'bigquery-public-data.stackoverflow.comments.post_id', 'bigquery-public-data.stackoverflow.posts_questions.parent_id', 'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.posts_answers.creation_date', 'bigquery-public-data.stackoverflow.posts_answers.owner_user_id', 'bigquery-public-data.stackoverflow.comments.user_id', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.posts_questions.tags', 'bigquery-public-data.stackoverflow.comments.id', 'bigquery-public-data.stackoverflow.posts_questions.creation_date', 'bigquery-public-data.stackoverflow.posts_answers.body', 'bigquery-public-data.stackoverflow.posts_questions.body', 'bigquery-public-data.stackoverflow.comments.creation_date'}</t>
         </is>
       </c>
       <c r="T126" t="inlineStr">
         <is>
-          <t>{'comments.user_id', 'comments.post_id', 'comments.creation_date', 'posts_questions.owner_user_id', 'posts_questions.creation_date', 'posts_answers.creation_date', 'posts_questions.id', 'posts_questions.tags', 'posts_answers.owner_user_id', 'users.id', 'posts_answers.parent_id', 'posts_answers.id'}</t>
+          <t>{'posts_questions.creation_date', 'posts_answers.parent_id', 'posts_questions.owner_user_id', 'comments.creation_date', 'comments.user_id', 'comments.post_id', 'posts_answers.owner_user_id', 'posts_questions.id', 'posts_questions.tags', 'posts_answers.creation_date', 'posts_answers.id'}</t>
         </is>
       </c>
       <c r="U126" t="n">
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
       <c r="V126" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04824561403508772</v>
       </c>
     </row>
     <row r="127">
@@ -11060,10 +11060,10 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>16.64493024395779</v>
+        <v>11.06021332996897</v>
       </c>
       <c r="E127" t="n">
-        <v>6142</v>
+        <v>6254</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -11099,12 +11099,12 @@
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.tags', 'bigquery-public-data.stackoverflow.posts_questions'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_questions', 'bigquery-public-data.stackoverflow.tags'}</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data'}</t>
+          <t>{'tags', 'posts_questions'}</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -11114,19 +11114,19 @@
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_questions.tags', 'bigquery-public-data.stackoverflow.posts_questions.title', 'bigquery-public-data.stackoverflow.tags.id', 'bigquery-public-data.stackoverflow.tags.wiki_post_id', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.posts_questions.view_count', 'bigquery-public-data.stackoverflow.tags.tag_name', 'bigquery-public-data.stackoverflow.posts_questions.body'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_questions.view_count', 'bigquery-public-data.stackoverflow.tags.id', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.posts_questions.tags', 'bigquery-public-data.stackoverflow.tags.tag_name', 'bigquery-public-data.stackoverflow.posts_questions.title', 'bigquery-public-data.stackoverflow.posts_questions.body', 'bigquery-public-data.stackoverflow.tags.wiki_post_id'}</t>
         </is>
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow'}</t>
+          <t>{'tags.tag_name', 'posts_questions.body', 'posts_questions.id', 'posts_questions.title', 'posts_questions.tags', 'posts_questions.view_count'}</t>
         </is>
       </c>
       <c r="U127" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="V127" t="n">
-        <v>0.004385964912280702</v>
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="128">
@@ -11144,10 +11144,10 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>9.431585778016597</v>
+        <v>5.550198887998704</v>
       </c>
       <c r="E128" t="n">
-        <v>5810</v>
+        <v>5819</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -11183,12 +11183,12 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.tags', 'bigquery-public-data.stackoverflow.posts_questions'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_questions', 'bigquery-public-data.stackoverflow.tags'}</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>{'you can add more tag values as needed', 'bigquery-public-data'}</t>
+          <t>{'bigquery-public-data', '"android-intent"\n\n---\n\n**Explanation:**  \n- `posts_questions', '`"android-intent"` — as filters for the tags'}</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -11198,19 +11198,19 @@
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_questions.tags', 'bigquery-public-data.stackoverflow.posts_questions.title', 'bigquery-public-data.stackoverflow.tags.id', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.posts_questions.view_count', 'bigquery-public-data.stackoverflow.tags.tag_name', 'bigquery-public-data.stackoverflow.posts_questions.body'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_questions.view_count', 'bigquery-public-data.stackoverflow.tags.id', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.posts_questions.tags', 'bigquery-public-data.stackoverflow.tags.tag_name', 'bigquery-public-data.stackoverflow.posts_questions.title', 'bigquery-public-data.stackoverflow.posts_questions.body'}</t>
         </is>
       </c>
       <c r="T128" t="inlineStr">
         <is>
-          <t>{'you can add more tag values as needed.)**', 'bigquery-public-data.stackoverflow'}</t>
+          <t>{'"android-intent"\n\n---\n\n**Explanation:**  \n- `posts_questions.title` — to select and filter for "how" questions', '`"android-intent"` — as filters for the tags.**No foreign keys are needed** because all the required data is in a single table', 'bigquery-public-data.stackoverflow'}</t>
         </is>
       </c>
       <c r="U128" t="n">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="V128" t="n">
-        <v>0.008771929824561403</v>
+        <v>0.0131578947368421</v>
       </c>
     </row>
     <row r="129">
@@ -11228,10 +11228,10 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>10.62070374493487</v>
+        <v>10.25093068199931</v>
       </c>
       <c r="E129" t="n">
-        <v>6031</v>
+        <v>6050</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -11267,7 +11267,7 @@
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_answers', 'bigquery-public-data.stackoverflow.posts_questions'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_questions', 'bigquery-public-data.stackoverflow.posts_answers'}</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr">
@@ -11282,7 +11282,7 @@
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.posts_questions.parent_id', 'bigquery-public-data.stackoverflow.posts_answers.creation_date', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.posts_questions.creation_date', 'bigquery-public-data.stackoverflow.posts_answers.parent_id'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_answers.parent_id', 'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.posts_questions.parent_id', 'bigquery-public-data.stackoverflow.posts_answers.creation_date', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.posts_questions.creation_date'}</t>
         </is>
       </c>
       <c r="T129" t="inlineStr">
@@ -11312,10 +11312,10 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>13.51971892104484</v>
+        <v>13.52034966798965</v>
       </c>
       <c r="E130" t="n">
-        <v>6113</v>
+        <v>6229</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -11351,12 +11351,12 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.users', 'bigquery-public-data.stackoverflow.posts_answers', 'bigquery-public-data.stackoverflow.badges', 'bigquery-public-data.stackoverflow.posts_questions'}</t>
+          <t>{'bigquery-public-data.stackoverflow.users', 'bigquery-public-data.stackoverflow.posts_questions', 'bigquery-public-data.stackoverflow.badges', 'bigquery-public-data.stackoverflow.posts_answers'}</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>{'posts_questions', '0', 'users', 'badges', 'posts_answers'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -11366,19 +11366,19 @@
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.stackoverflow.users.down_votes', 'bigquery-public-data.stackoverflow.posts_questions.score', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.users.up_votes', 'bigquery-public-data.stackoverflow.badges.user_id', 'bigquery-public-data.stackoverflow.posts_questions.body', 'bigquery-public-data.stackoverflow.posts_answers.accepted_answer_id', 'bigquery-public-data.stackoverflow.posts_answers.parent_id', 'bigquery-public-data.stackoverflow.posts_answers.view_count', 'bigquery-public-data.stackoverflow.posts_questions.parent_id', 'bigquery-public-data.stackoverflow.users.reputation', 'bigquery-public-data.stackoverflow.badges.id', 'bigquery-public-data.stackoverflow.posts_questions.owner_user_id', 'bigquery-public-data.stackoverflow.posts_answers.body', 'bigquery-public-data.stackoverflow.posts_answers.score', 'bigquery-public-data.stackoverflow.posts_questions.accepted_answer_id', 'bigquery-public-data.stackoverflow.posts_answers.owner_user_id', 'bigquery-public-data.stackoverflow.users.id', 'bigquery-public-data.stackoverflow.posts_questions.view_count', 'bigquery-public-data.stackoverflow.posts_answers.id'}</t>
+          <t>{'bigquery-public-data.stackoverflow.posts_questions.owner_user_id', 'bigquery-public-data.stackoverflow.posts_questions.accepted_answer_id', 'bigquery-public-data.stackoverflow.badges.user_id', 'bigquery-public-data.stackoverflow.posts_questions.parent_id', 'bigquery-public-data.stackoverflow.posts_answers.id', 'bigquery-public-data.stackoverflow.badges.id', 'bigquery-public-data.stackoverflow.posts_answers.body', 'bigquery-public-data.stackoverflow.posts_questions.body', 'bigquery-public-data.stackoverflow.users.up_votes', 'bigquery-public-data.stackoverflow.posts_answers.accepted_answer_id', 'bigquery-public-data.stackoverflow.posts_answers.parent_id', 'bigquery-public-data.stackoverflow.posts_answers.owner_user_id', 'bigquery-public-data.stackoverflow.posts_questions.id', 'bigquery-public-data.stackoverflow.users.reputation', 'bigquery-public-data.stackoverflow.users.down_votes', 'bigquery-public-data.stackoverflow.users.id'}</t>
         </is>
       </c>
       <c r="T130" t="inlineStr">
         <is>
-          <t>{'users.down_votes', 'users.up_votes', 'posts_questions.view_count', 'posts_questions.body', 'posts_questions.accepted_answer_id', 'posts_questions.owner_user_id', 'posts_questions.id', 'users.reputation', 'posts_answers.score', 'badges.user_id', 'users.id', '0.01', 'posts_answers.parent_id'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U130" t="n">
-        <v>0.3125</v>
+        <v>0</v>
       </c>
       <c r="V130" t="n">
-        <v>0.05701754385964912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -11396,10 +11396,10 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>23.80351302796043</v>
+        <v>99.73901278601261</v>
       </c>
       <c r="E131" t="n">
-        <v>90663</v>
+        <v>90774</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -11435,12 +11435,12 @@
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.fhir_synthea.condition', 'bigquery-public-data.fhir_synthea.patient', 'bigquery-public-data.fhir_synthea.medication_request'}</t>
+          <t>{'bigquery-public-data.fhir_synthea.medication_request', 'bigquery-public-data.fhir_synthea.patient', 'bigquery-public-data.fhir_synthea.condition'}</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>{'7\n\n```\n\n**(You may use `condition', 'condition', 'patient', 'medication_request', '7 |\n\n---\n\n**This is the set of schema links needed to generate the SQL for this question', "'Hypertension' |\n| Medications | medication_request | medication"}</t>
+          <t>{'you may need to use `condition', 'medication_request', 'condition', 'patient', '7\n\n```\n\n---\n\n**Note:**  \n- If the diagnosis codes are stored as standard codes (e', 'use the appropriate column for distinct medication counting'}</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -11450,19 +11450,19 @@
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.fhir_synthea.patient.id', 'bigquery-public-data.fhir_synthea.medication_request.id', 'bigquery-public-data.fhir_synthea.medication_request.status', 'bigquery-public-data.fhir_synthea.condition.id', 'bigquery-public-data.fhir_synthea.condition.code'}</t>
+          <t>{'bigquery-public-data.fhir_synthea.condition.id', 'bigquery-public-data.fhir_synthea.patient.id', 'bigquery-public-data.fhir_synthea.medication_request.id', 'bigquery-public-data.fhir_synthea.condition.code'}</t>
         </is>
       </c>
       <c r="T131" t="inlineStr">
         <is>
-          <t>{'7 |\n\n---\n\n**This is the set of schema links needed to generate the SQL for this question.**', 'patient.id', 'patient.deceased', 'medication_request.status', 'medication_request.medication', '7\n\n```\n\n**(You may use `condition.code', 'condition.subject', 'condition.code', "'Hypertension' |\n| Medications | medication_request | medication.reference", 'medication_request.subject'}</t>
+          <t>{'condition.code', 'medication_request.medication', 'condition.subject', 'patient.deceased', 'you may need to use `condition.code', 'medication_request.subject', 'patient.id\n- condition', '7\n\n```\n\n---\n\n**Note:**  \n- If the diagnosis codes are stored as standard codes (e.g', 'medication_request.status', 'use the appropriate column for distinct medication counting.---\n\n**Summary Table/Column Links:**\n- patient', 'patient.id'}</t>
         </is>
       </c>
       <c r="U131" t="n">
         <v>0.3529411764705883</v>
       </c>
       <c r="V131" t="n">
-        <v>0.0008592541673827118</v>
+        <v>0.000945179584120983</v>
       </c>
     </row>
     <row r="132">
@@ -11480,10 +11480,10 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>11.41688403906301</v>
+        <v>11.65131148201181</v>
       </c>
       <c r="E132" t="n">
-        <v>5847</v>
+        <v>5668</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -11534,7 +11534,7 @@
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.the_met.images.title', 'bigquery-public-data.the_met.objects.object_name', 'bigquery-public-data.the_met.images.original_image_url', 'bigquery-public-data.the_met.objects.object_id', 'bigquery-public-data.the_met.objects.title', 'bigquery-public-data.the_met.objects.artist_display_name', 'bigquery-public-data.the_met.images.object_id', 'bigquery-public-data.the_met.objects.medium', 'bigquery-public-data.the_met.objects.department', 'bigquery-public-data.the_met.objects.object_end_date'}</t>
+          <t>{'bigquery-public-data.the_met.images.original_image_url', 'bigquery-public-data.the_met.objects.title', 'bigquery-public-data.the_met.objects.artist_display_name', 'bigquery-public-data.the_met.objects.object_end_date', 'bigquery-public-data.the_met.images.object_id', 'bigquery-public-data.the_met.objects.object_id', 'bigquery-public-data.the_met.images.title', 'bigquery-public-data.the_met.objects.medium'}</t>
         </is>
       </c>
       <c r="T132" t="inlineStr">
@@ -11564,10 +11564,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>8.540755465859547</v>
+        <v>25.16740559198661</v>
       </c>
       <c r="E133" t="n">
-        <v>5729</v>
+        <v>5742</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -11618,7 +11618,7 @@
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.the_met.objects.period', 'bigquery-public-data.the_met.vision_api_data.object_id', 'bigquery-public-data.the_met.objects.object_id', 'bigquery-public-data.the_met.vision_api_data.labelAnnotations'}</t>
+          <t>{'bigquery-public-data.the_met.objects.period', 'bigquery-public-data.the_met.vision_api_data.labelAnnotations', 'bigquery-public-data.the_met.vision_api_data.object_id', 'bigquery-public-data.the_met.objects.object_id'}</t>
         </is>
       </c>
       <c r="T133" t="inlineStr">
@@ -11648,10 +11648,10 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>9.176655712071806</v>
+        <v>5.807100253005046</v>
       </c>
       <c r="E134" t="n">
-        <v>5773</v>
+        <v>5637</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -11702,7 +11702,7 @@
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.the_met.objects.metadata_date', 'bigquery-public-data.the_met.vision_api_data.object_id', 'bigquery-public-data.the_met.objects.object_id', 'bigquery-public-data.the_met.objects.title', 'bigquery-public-data.the_met.objects.department'}</t>
+          <t>{'bigquery-public-data.the_met.objects.metadata_date', 'bigquery-public-data.the_met.objects.title', 'bigquery-public-data.the_met.vision_api_data.object_id', 'bigquery-public-data.the_met.objects.object_id'}</t>
         </is>
       </c>
       <c r="T134" t="inlineStr">
@@ -11732,10 +11732,10 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>8.773199968039989</v>
+        <v>6.030930191045627</v>
       </c>
       <c r="E135" t="n">
-        <v>5377</v>
+        <v>5398</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>20.02951366011985</v>
+        <v>23.00305628997739</v>
       </c>
       <c r="E136" t="n">
-        <v>8981</v>
+        <v>8709</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -11855,12 +11855,12 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.epa_historical_air_quality.pm10_daily_summary', 'bigquery-public-data.epa_historical_air_quality.lead_daily_summary', 'bigquery-public-data.epa_historical_air_quality.pm25_frm_daily_summary', 'bigquery-public-data.epa_historical_air_quality.pm25_nonfrm_daily_summary', 'bigquery-public-data.epa_historical_air_quality.voc_daily_summary', 'bigquery-public-data.epa_historical_air_quality.so2_daily_summary'}</t>
+          <t>{'bigquery-public-data.epa_historical_air_quality.pm10_daily_summary', 'bigquery-public-data.epa_historical_air_quality.pm25_nonfrm_daily_summary', 'bigquery-public-data.epa_historical_air_quality.lead_daily_summary', 'bigquery-public-data.epa_historical_air_quality.pm25_frm_daily_summary', 'bigquery-public-data.epa_historical_air_quality.so2_daily_summary', 'bigquery-public-data.epa_historical_air_quality.voc_daily_summary'}</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>{'so2_daily_summary', 'pm10_daily_summary', '(lead_daily_summary', 'lead_daily_summary', 'and cell values needed to generate the SQL for the question', 'pm25_frm_daily_summary', 'voc_daily_summary', '(so2_daily_summary', 'pm25_nonfrm_daily_summary'}</t>
+          <t>{'pm10_daily_summary', 'pm25_nonfrm_daily_summary', 'pm25_frm_daily_summary', 'so2_daily_summary', 'lead_daily_summary', 'voc_daily_summary'}</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -11870,19 +11870,19 @@
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.epa_historical_air_quality.lead_daily_summary.date_local', 'bigquery-public-data.epa_historical_air_quality.pm10_daily_summary.arithmetic_mean', 'bigquery-public-data.epa_historical_air_quality.pm25_nonfrm_daily_summary.date_local', 'bigquery-public-data.epa_historical_air_quality.pm25_frm_daily_summary.arithmetic_mean', 'bigquery-public-data.epa_historical_air_quality.lead_daily_summary.arithmetic_mean', 'bigquery-public-data.epa_historical_air_quality.so2_daily_summary.state_name', 'bigquery-public-data.epa_historical_air_quality.pm25_nonfrm_daily_summary.arithmetic_mean', 'bigquery-public-data.epa_historical_air_quality.voc_daily_summary.date_local', 'bigquery-public-data.epa_historical_air_quality.voc_daily_summary.state_name', 'bigquery-public-data.epa_historical_air_quality.so2_daily_summary.date_local', 'bigquery-public-data.epa_historical_air_quality.so2_daily_summary.arithmetic_mean', 'bigquery-public-data.epa_historical_air_quality.pm25_frm_daily_summary.date_local', 'bigquery-public-data.epa_historical_air_quality.pm10_daily_summary.state_name', 'bigquery-public-data.epa_historical_air_quality.voc_daily_summary.arithmetic_mean', 'bigquery-public-data.epa_historical_air_quality.lead_daily_summary.state_name', 'bigquery-public-data.epa_historical_air_quality.pm25_frm_daily_summary.state_name', 'bigquery-public-data.epa_historical_air_quality.pm25_nonfrm_daily_summary.state_name', 'bigquery-public-data.epa_historical_air_quality.pm10_daily_summary.date_local'}</t>
+          <t>{'bigquery-public-data.epa_historical_air_quality.pm25_nonfrm_daily_summary.date_local', 'bigquery-public-data.epa_historical_air_quality.pm25_frm_daily_summary.arithmetic_mean', 'bigquery-public-data.epa_historical_air_quality.so2_daily_summary.date_local', 'bigquery-public-data.epa_historical_air_quality.voc_daily_summary.date_local', 'bigquery-public-data.epa_historical_air_quality.pm10_daily_summary.date_local', 'bigquery-public-data.epa_historical_air_quality.voc_daily_summary.arithmetic_mean', 'bigquery-public-data.epa_historical_air_quality.pm25_nonfrm_daily_summary.arithmetic_mean', 'bigquery-public-data.epa_historical_air_quality.lead_daily_summary.arithmetic_mean', 'bigquery-public-data.epa_historical_air_quality.pm25_frm_daily_summary.date_local', 'bigquery-public-data.epa_historical_air_quality.pm10_daily_summary.arithmetic_mean', 'bigquery-public-data.epa_historical_air_quality.so2_daily_summary.arithmetic_mean', 'bigquery-public-data.epa_historical_air_quality.lead_daily_summary.date_local'}</t>
         </is>
       </c>
       <c r="T136" t="inlineStr">
         <is>
-          <t>{'(lead_daily_summary.arithmetic_mean * 100)\n\n```\n\n---\n\n**This set of schema links covers all the columns', 'pm10_daily_summary.date_local', 'voc_daily_summary.state_name', 'pm25_nonfrm_daily_summary.date_local', 'voc_daily_summary.date_local', 'so2_daily_summary.parameter_name', 'pm25_frm_daily_summary.parameter_name', 'pm25_frm_daily_summary.state_name', 'pm25_frm_daily_summary.arithmetic_mean', 'so2_daily_summary.date_local', 'voc_daily_summary.arithmetic_mean', 'pm25_nonfrm_daily_summary.parameter_name', 'so2_daily_summary.arithmetic_mean', 'pm25_nonfrm_daily_summary.arithmetic_mean', 'voc_daily_summary.parameter_name', 'pm25_nonfrm_daily_summary.state_name', '(so2_daily_summary.arithmetic_mean * 10)', 'lead_daily_summary.arithmetic_mean', 'lead_daily_summary.date_local', 'and cell values needed to generate the SQL for the question.**', 'lead_daily_summary.parameter_name', 'so2_daily_summary.state_name', 'pm10_daily_summary.arithmetic_mean', 'pm10_daily_summary.state_name', 'pm10_daily_summary.parameter_name', 'lead_daily_summary.state_name', 'pm25_frm_daily_summary.date_local'}</t>
+          <t>{'voc_daily_summary.state_name', 'lead_daily_summary.arithmetic_mean', 'pm10_daily_summary.state_name', 'pm25_nonfrm_daily_summary.arithmetic_mean', 'pm25_nonfrm_daily_summary.state_name', 'pm10_daily_summary.arithmetic_mean', 'pm25_nonfrm_daily_summary.date_local', 'so2_daily_summary.date_local', 'so2_daily_summary.state_name', 'pm25_frm_daily_summary.date_local', 'pm25_frm_daily_summary.arithmetic_mean', 'voc_daily_summary.arithmetic_mean', 'pm10_daily_summary.date_local', 'lead_daily_summary.date_local', 'so2_daily_summary.arithmetic_mean', 'lead_daily_summary.state_name', 'pm25_frm_daily_summary.state_name', 'voc_daily_summary.date_local'}</t>
         </is>
       </c>
       <c r="U136" t="n">
-        <v>0.28125</v>
+        <v>0.1875</v>
       </c>
       <c r="V136" t="n">
-        <v>0.03071672354948805</v>
+        <v>0.0204778156996587</v>
       </c>
     </row>
     <row r="137">
@@ -11900,10 +11900,10 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>34.60181653499603</v>
+        <v>30.42017051402945</v>
       </c>
       <c r="E137" t="n">
-        <v>15915</v>
+        <v>15494</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -11944,7 +11944,7 @@
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>{'IDC', '"https://viewer', '"1'}</t>
+          <t>{'IDC', "'1", 'and output are included', '"https://viewer'}</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -11954,19 +11954,19 @@
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t>{'IDC.IDC_V17.DICOM_ALL.StudyInstanceUID', 'IDC.IDC_V17.DICOM_ALL.Modality', 'IDC.IDC_V17.DICOM_ALL.SourceImageSequence', 'IDC.IDC_V17.DICOM_ALL.SeriesInstanceUID', 'IDC.IDC_V17.DICOM_ALL.ReferencedImageSequence', 'IDC.IDC_V17.DICOM_ALL.instance_size', 'IDC.IDC_V17.DICOM_ALL.ReferencedSeriesSequence', 'IDC.IDC_V17.DICOM_ALL.SOPClassUID', 'IDC.IDC_V17.DICOM_ALL.collection_id'}</t>
+          <t>{'IDC.IDC_V17.DICOM_ALL.ReferencedSeriesSequence', 'IDC.IDC_V17.DICOM_ALL.SeriesInstanceUID', 'IDC.IDC_V17.DICOM_ALL.collection_id', 'IDC.IDC_V17.DICOM_ALL.instance_size', 'IDC.IDC_V17.DICOM_ALL.StudyInstanceUID', 'IDC.IDC_V17.DICOM_ALL.ReferencedImageSequence', 'IDC.IDC_V17.DICOM_ALL.SourceImageSequence'}</t>
         </is>
       </c>
       <c r="T137" t="inlineStr">
         <is>
-          <t>{'"https://viewer.imaging', '"1.2', 'IDC.IDC_V17'}</t>
+          <t>{'and output are included.- All relevant cell values for filtering are included', 'IDC.IDC_V17', '"https://viewer.imaging', "'1.2"}</t>
         </is>
       </c>
       <c r="U137" t="n">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="V137" t="n">
-        <v>0.001428571428571429</v>
+        <v>0.001904761904761905</v>
       </c>
     </row>
     <row r="138">
@@ -11984,10 +11984,10 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>26.97587730409577</v>
+        <v>13.68179070396582</v>
       </c>
       <c r="E138" t="n">
-        <v>15377</v>
+        <v>15395</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -12028,7 +12028,7 @@
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>{'IDC', 'returning the top 5', "'1", 'CodeMeaning\n\n---\n\n**Explanation:**  \n- You filter DICOM_PIVOT for public SEG modality instances with the given SOPClassUID'}</t>
+          <t>{"'1", 'IDC'}</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -12038,19 +12038,19 @@
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>{'IDC.IDC_V17.DICOM_ALL.Modality', 'IDC.IDC_V17.DICOM_ALL.access', 'IDC.IDC_V17.SEGMENTATIONS.SeriesInstanceUID', 'IDC.IDC_V17.DICOM_ALL.PatientID', 'IDC.IDC_V17.DICOM_ALL.SeriesInstanceUID', 'IDC.IDC_V17.DICOM_ALL.SOPInstanceUID', 'IDC.IDC_V17.DICOM_ALL.SeriesDescription', 'IDC.IDC_V17.SEGMENTATIONS.SOPInstanceUID', 'IDC.IDC_V17.DICOM_ALL.SOPClassUID', 'IDC.IDC_V17.DICOM_ALL.collection_id', 'IDC.IDC_V17.SEGMENTATIONS.PatientID'}</t>
+          <t>{'IDC.IDC_V17.SEGMENTATIONS.SOPInstanceUID', 'IDC.IDC_V17.DICOM_ALL.SeriesInstanceUID', 'IDC.IDC_V17.DICOM_ALL.SOPInstanceUID', 'IDC.IDC_V17.DICOM_ALL.collection_id', 'IDC.IDC_V17.SEGMENTATIONS.PatientID', 'IDC.IDC_V17.SEGMENTATIONS.SeriesInstanceUID', 'IDC.IDC_V17.DICOM_ALL.PatientID', 'IDC.IDC_V17.DICOM_ALL.SeriesDescription'}</t>
         </is>
       </c>
       <c r="T138" t="inlineStr">
         <is>
-          <t>{'IDC.IDC_V17', 'returning the top 5.', "'1.2", 'CodeMeaning\n\n---\n\n**Explanation:**  \n- You filter DICOM_PIVOT for public SEG modality instances with the given SOPClassUID.- Join to SEGMENTATIONS on SeriesInstanceUID'}</t>
+          <t>{'IDC.IDC_V17', "'1.2"}</t>
         </is>
       </c>
       <c r="U138" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="V138" t="n">
-        <v>0.001904761904761905</v>
+        <v>0.0009523809523809524</v>
       </c>
     </row>
     <row r="139">
@@ -12068,10 +12068,10 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>23.00692524714395</v>
+        <v>13.52769008401083</v>
       </c>
       <c r="E139" t="n">
-        <v>15530</v>
+        <v>15434</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -12112,7 +12112,7 @@
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>{'SEGMENTATIONS', 'DICOM_PIVOT', "'1"}</t>
+          <t>{"'1", 'IDC'}</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -12122,19 +12122,19 @@
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>{'IDC.IDC_V17.DICOM_ALL.Modality', 'IDC.IDC_V17.SEGMENTATIONS.SeriesInstanceUID', 'IDC.IDC_V17.DICOM_ALL.SeriesInstanceUID', 'IDC.IDC_V17.DICOM_ALL.SOPInstanceUID', 'IDC.IDC_V17.SEGMENTATIONS.SOPInstanceUID'}</t>
+          <t>{'IDC.IDC_V17.SEGMENTATIONS.SOPInstanceUID', 'IDC.IDC_V17.DICOM_ALL.SOPInstanceUID', 'IDC.IDC_V17.DICOM_ALL.Modality'}</t>
         </is>
       </c>
       <c r="T139" t="inlineStr">
         <is>
-          <t>{'DICOM_PIVOT.SOPInstanceUID', 'SEGMENTATIONS.SeriesInstanceUID', 'SEGMENTATIONS.segmented_SeriesInstanceUID', "'1.3", 'DICOM_PIVOT.Modality', 'DICOM_PIVOT.SeriesInstanceUID'}</t>
+          <t>{'IDC.IDC_V17', "'1.3"}</t>
         </is>
       </c>
       <c r="U139" t="n">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="V139" t="n">
-        <v>0.002857142857142857</v>
+        <v>0.0009523809523809524</v>
       </c>
     </row>
     <row r="140">
@@ -12152,10 +12152,10 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>22.4290350980591</v>
+        <v>13.98920645099133</v>
       </c>
       <c r="E140" t="n">
-        <v>15315</v>
+        <v>15195</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -12196,7 +12196,7 @@
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>{"'Peripheral zone'\n\n```\n\n---\n\n**If you want to be more general and include other possible relevant columns (e", 'SEGMENTATIONS', 'DICOM_PIVOT', 'but the above is the minimal set for this question'}</t>
+          <t>{'IDC'}</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -12206,19 +12206,19 @@
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>{'IDC.IDC_V17.DICOM_ALL.StudyInstanceUID', 'IDC.IDC_V17.SEGMENTATIONS.SegmentedPropertyType', 'IDC.IDC_V17.DICOM_ALL.Modality', 'IDC.IDC_V17.SEGMENTATIONS.SegmentedPropertyCategory', 'IDC.IDC_V17.DICOM_ALL.SOPInstanceUID', 'IDC.IDC_V17.DICOM_ALL.SeriesDescription', 'IDC.IDC_V17.SEGMENTATIONS.SOPInstanceUID', 'IDC.IDC_V17.DICOM_ALL.collection_id', 'IDC.IDC_V17.SEGMENTATIONS.StudyInstanceUID'}</t>
+          <t>{'IDC.IDC_V17.SEGMENTATIONS.StudyInstanceUID', 'IDC.IDC_V17.DICOM_ALL.StudyInstanceUID'}</t>
         </is>
       </c>
       <c r="T140" t="inlineStr">
         <is>
-          <t>{'SEGMENTATIONS.AnatomicRegion', 'SEGMENTATIONS.StudyInstanceUID', 'DICOM_PIVOT.SeriesDescription', 'SEGMENTATIONS.SegmentedPropertyType', 'but the above is the minimal set for this question.**', 'DICOM_PIVOT.StudyInstanceUID', 'DICOM_PIVOT.collection_id', "'Peripheral zone'\n\n```\n\n---\n\n**If you want to be more general and include other possible relevant columns (e.g"}</t>
+          <t>{'IDC.IDC_V17'}</t>
         </is>
       </c>
       <c r="U140" t="n">
-        <v>0.25</v>
+        <v>0.0625</v>
       </c>
       <c r="V140" t="n">
-        <v>0.00380952380952381</v>
+        <v>0.0004761904761904762</v>
       </c>
     </row>
     <row r="141">
@@ -12236,10 +12236,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>24.29912167112343</v>
+        <v>11.91470525198383</v>
       </c>
       <c r="E141" t="n">
-        <v>15363</v>
+        <v>15297</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -12280,7 +12280,7 @@
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>{'DICOM_PIVOT', 'substitute with the correct ones from the un-nested specimen preparation sequence table'}</t>
+          <t>{'IDC'}</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -12290,19 +12290,19 @@
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>{'IDC.IDC_V17.DICOM_ALL.instance_size', 'IDC.IDC_V17.DICOM_ALL.Modality', 'IDC.IDC_V17.DICOM_ALL.SOPInstanceUID', 'IDC.IDC_V17.DICOM_ALL.SpecimenDescriptionSequence'}</t>
+          <t>{'IDC.IDC_V17.DICOM_ALL.instance_size', 'IDC.IDC_V17.DICOM_ALL.SpecimenDescriptionSequence', 'IDC.IDC_V17.DICOM_ALL.SOPInstanceUID'}</t>
         </is>
       </c>
       <c r="T141" t="inlineStr">
         <is>
-          <t>{'DICOM_PIVOT.embeddingMedium_CodingSchemeDesignator', 'substitute with the correct ones from the un-nested specimen preparation sequence table.)*', 'DICOM_PIVOT.Modality', 'DICOM_PIVOT.stainingSubstance_CodeMeaning', 'DICOM_PIVOT.embeddingMedium_CodeMeaning', 'DICOM_PIVOT.stainingSubstance_CodingSchemeDesignator'}</t>
+          <t>{'IDC.IDC_V17'}</t>
         </is>
       </c>
       <c r="U141" t="n">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="V141" t="n">
-        <v>0.002857142857142857</v>
+        <v>0.0004761904761904762</v>
       </c>
     </row>
     <row r="142">
@@ -12320,10 +12320,10 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>19.66981412912719</v>
+        <v>13.39387072995305</v>
       </c>
       <c r="E142" t="n">
-        <v>15593</v>
+        <v>15544</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -12364,7 +12364,7 @@
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>{'IDC', 'and aggregating for top patients', 'and cell values are included in the schema links'}</t>
+          <t>{'IDC'}</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -12374,19 +12374,19 @@
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>{'IDC.IDC_V17.DICOM_ALL.StudyInstanceUID', 'IDC.IDC_V17.DICOM_ALL.Modality', 'IDC.IDC_V17.DICOM_ALL.SeriesInstanceUID', 'IDC.IDC_V17.DICOM_ALL.Exposure', 'IDC.IDC_V17.DICOM_ALL.instance_size', 'IDC.IDC_V17.DICOM_ALL.ImagePositionPatient', 'IDC.IDC_V17.DICOM_ALL.collection_id', 'IDC.IDC_V17.DICOM_ALL.PatientID'}</t>
+          <t>{'IDC.IDC_V17.DICOM_ALL.SeriesInstanceUID', 'IDC.IDC_V17.DICOM_ALL.PatientID', 'IDC.IDC_V17.DICOM_ALL.instance_size', 'IDC.IDC_V17.DICOM_ALL.StudyInstanceUID', 'IDC.IDC_V17.DICOM_ALL.ImagePositionPatient', 'IDC.IDC_V17.DICOM_ALL.Exposure'}</t>
         </is>
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t>{'and cell values are included in the schema links.- The calculations are described as aggregation functions in the schema links', 'and aggregating for top patients.- All relevant columns', 'IDC.IDC_V17'}</t>
+          <t>{'IDC.IDC_V17'}</t>
         </is>
       </c>
       <c r="U142" t="n">
-        <v>0.1875</v>
+        <v>0.0625</v>
       </c>
       <c r="V142" t="n">
-        <v>0.001428571428571429</v>
+        <v>0.0004761904761904762</v>
       </c>
     </row>
     <row r="143">
@@ -12404,10 +12404,10 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>23.83525915513746</v>
+        <v>14.12795903300866</v>
       </c>
       <c r="E143" t="n">
-        <v>15450</v>
+        <v>15542</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -12448,7 +12448,7 @@
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>{'IDC', 'and report cancer subtype', "'tumor'\n\n```\n\n---\n\n**Summary of reasoning:**\n- All required filters and outputs are in the DICOM_ALL table"}</t>
+          <t>{"'tumor'\n\n```\n\n---\n\n### **Explanation**\n- All relevant columns for filtering and reporting are included", 'IDC'}</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -12458,19 +12458,19 @@
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>{'IDC.IDC_V17.DICOM_ALL.StudyInstanceUID', 'IDC.IDC_V17.DICOM_ALL.Modality', 'IDC.IDC_V17.DICOM_ALL.TotalPixelMatrixColumns', 'IDC.IDC_V17.DICOM_ALL.crdc_instance_uuid', 'IDC.IDC_V17.DICOM_ALL.SeriesInstanceUID', 'IDC.IDC_V17.DICOM_ALL.TotalPixelMatrixRows', 'IDC.IDC_V17.DICOM_ALL.ContainerIdentifier', 'IDC.IDC_V17.DICOM_ALL.ImageType', 'IDC.IDC_V17.DICOM_ALL.gcs_url', 'IDC.IDC_V17.DICOM_ALL.collection_id', 'IDC.IDC_V17.DICOM_ALL.PatientID'}</t>
+          <t>{'IDC.IDC_V17.DICOM_ALL.SeriesInstanceUID', 'IDC.IDC_V17.DICOM_ALL.collection_id', 'IDC.IDC_V17.DICOM_ALL.gcs_url', 'IDC.IDC_V17.DICOM_ALL.PatientID', 'IDC.IDC_V17.DICOM_ALL.crdc_instance_uuid', 'IDC.IDC_V17.DICOM_ALL.StudyInstanceUID', 'IDC.IDC_V17.DICOM_ALL.TotalPixelMatrixRows', 'IDC.IDC_V17.DICOM_ALL.TotalPixelMatrixColumns', 'IDC.IDC_V17.DICOM_ALL.ContainerIdentifier'}</t>
         </is>
       </c>
       <c r="T143" t="inlineStr">
         <is>
-          <t>{'and report cancer subtype.- The schema links above cover all columns and values needed to generate the SQL', "'tumor'\n\n```\n\n---\n\n**Summary of reasoning:**\n- All required filters and outputs are in the DICOM_ALL table.- The query will filter on Modality", 'IDC.IDC_V17'}</t>
+          <t>{'IDC.IDC_V17', "'tumor'\n\n```\n\n---\n\n### **Explanation**\n- All relevant columns for filtering and reporting are included.- All literal values used for filtering are included"}</t>
         </is>
       </c>
       <c r="U143" t="n">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="V143" t="n">
-        <v>0.001428571428571429</v>
+        <v>0.0009523809523809524</v>
       </c>
     </row>
     <row r="144">
@@ -12488,10 +12488,10 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>14.04178342199884</v>
+        <v>9.656974057026673</v>
       </c>
       <c r="E144" t="n">
-        <v>14757</v>
+        <v>14801</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -12542,7 +12542,7 @@
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>{'IDC.IDC_V17.DICOM_PIVOT.SegmentedPropertyTypeCodeSequence', 'IDC.IDC_V17.DICOM_PIVOT.collection_id', 'IDC.IDC_V17.DICOM_PIVOT.StudyInstanceUID'}</t>
+          <t>{'IDC.IDC_V17.DICOM_PIVOT.StudyInstanceUID', 'IDC.IDC_V17.DICOM_PIVOT.SegmentedPropertyTypeCodeSequence'}</t>
         </is>
       </c>
       <c r="T144" t="inlineStr">
@@ -12572,10 +12572,10 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>20.47378231794573</v>
+        <v>6.81946022703778</v>
       </c>
       <c r="E145" t="n">
-        <v>15091</v>
+        <v>14921</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -12626,7 +12626,7 @@
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t>{'IDC.IDC_V17.DICOM_ALL.StudyInstanceUID', 'IDC.IDC_V17.DICOM_ALL.collection_id', 'IDC.IDC_V17.DICOM_ALL.SegmentSequence', 'IDC.IDC_V17.DICOM_ALL.SeriesDescription'}</t>
+          <t>{'IDC.IDC_V17.DICOM_ALL.StudyInstanceUID', 'IDC.IDC_V17.DICOM_ALL.SegmentSequence'}</t>
         </is>
       </c>
       <c r="T145" t="inlineStr">
@@ -12656,10 +12656,10 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>21.69149362086318</v>
+        <v>18.54570398700889</v>
       </c>
       <c r="E146" t="n">
-        <v>15819</v>
+        <v>16236</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -12700,7 +12700,7 @@
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>{'IDC', '0', '1', "'1"}</t>
+          <t>{'1', "'1", '0', 'IDC'}</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
@@ -12710,12 +12710,12 @@
       </c>
       <c r="S146" t="inlineStr">
         <is>
-          <t>{'IDC.IDC_V17.DICOM_ALL.SeriesInstanceUID', 'IDC.IDC_V17.DICOM_ALL.PixelSpacing', 'IDC.IDC_V17.DICOM_ALL.SOPInstanceUID', 'IDC.IDC_V17.DICOM_ALL.ImageType', 'IDC.IDC_V17.DICOM_ALL.Rows', 'IDC.IDC_V17.DICOM_ALL.crdc_series_uuid', 'IDC.IDC_V17.DICOM_ALL.StudyInstanceUID', 'IDC.IDC_V17.DICOM_ALL.Modality', 'IDC.IDC_V17.DICOM_ALL.Exposure', 'IDC.IDC_V17.DICOM_ALL.ImagePositionPatient', 'IDC.IDC_V17.DICOM_ALL.collection_id', 'IDC.IDC_V17.DICOM_ALL.SliceThickness', 'IDC.IDC_V17.DICOM_ALL.ImageOrientationPatient', 'IDC.IDC_V17.DICOM_ALL.SeriesNumber', 'IDC.IDC_V17.DICOM_ALL.Columns', 'IDC.IDC_V17.DICOM_ALL.instance_size', 'IDC.IDC_V17.DICOM_ALL.aws_bucket', 'IDC.IDC_V17.DICOM_ALL.PatientID', 'IDC.IDC_V17.DICOM_ALL.TransferSyntaxUID'}</t>
+          <t>{'IDC.IDC_V17.DICOM_ALL.SliceThickness', 'IDC.IDC_V17.DICOM_ALL.Exposure', 'IDC.IDC_V17.DICOM_ALL.SeriesInstanceUID', 'IDC.IDC_V17.DICOM_ALL.SOPInstanceUID', 'IDC.IDC_V17.DICOM_ALL.ImageType', 'IDC.IDC_V17.DICOM_ALL.Columns', 'IDC.IDC_V17.DICOM_ALL.ImageOrientationPatient', 'IDC.IDC_V17.DICOM_ALL.PatientID', 'IDC.IDC_V17.DICOM_ALL.instance_size', 'IDC.IDC_V17.DICOM_ALL.Rows', 'IDC.IDC_V17.DICOM_ALL.aws_bucket', 'IDC.IDC_V17.DICOM_ALL.StudyInstanceUID', 'IDC.IDC_V17.DICOM_ALL.ImagePositionPatient', 'IDC.IDC_V17.DICOM_ALL.crdc_series_uuid', 'IDC.IDC_V17.DICOM_ALL.SeriesNumber', 'IDC.IDC_V17.DICOM_ALL.TransferSyntaxUID', 'IDC.IDC_V17.DICOM_ALL.PixelSpacing'}</t>
         </is>
       </c>
       <c r="T146" t="inlineStr">
         <is>
-          <t>{'0.99', "'1.2", '1.01\n\n```\n\n**These are the schema links needed to generate the SQL for the question', 'IDC.IDC_V17'}</t>
+          <t>{'IDC.IDC_V17', '1.01', '0.99', "'1.2"}</t>
         </is>
       </c>
       <c r="U146" t="n">
@@ -12740,10 +12740,10 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>11.85433483403176</v>
+        <v>12.70170571497874</v>
       </c>
       <c r="E147" t="n">
-        <v>5310</v>
+        <v>5401</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -12784,7 +12784,7 @@
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>{'IOWA_LIQUOR_SALES', '0'}</t>
+          <t>{'IOWA_LIQUOR_SALES'}</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
@@ -12799,14 +12799,14 @@
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>{'0.01', 'IOWA_LIQUOR_SALES.IOWA_LIQUOR_SALES'}</t>
+          <t>{'IOWA_LIQUOR_SALES.IOWA_LIQUOR_SALES'}</t>
         </is>
       </c>
       <c r="U147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V147" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="148">
@@ -12824,10 +12824,10 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>10.86207080399618</v>
+        <v>7.782811523007695</v>
       </c>
       <c r="E148" t="n">
-        <v>5163</v>
+        <v>5162</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -12868,7 +12868,7 @@
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>{'sales', 'the above columns and values are sufficient'}</t>
+          <t>{'`sales', '`2021`: years to filter and group by  \n- `10`: to limit to top 10 categories\n\n**No foreign keys** are needed as all data is in a single table', '10  \n\n\n---\n\n**Explanation:**  \n- `sales', 'sales'}</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -12878,19 +12878,19 @@
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.iowa_liquor_sales.sales.date', 'bigquery-public-data.iowa_liquor_sales.sales.category_name', 'bigquery-public-data.iowa_liquor_sales.sales.state_bottle_retail', 'bigquery-public-data.iowa_liquor_sales.sales.category', 'bigquery-public-data.iowa_liquor_sales.sales.bottle_volume_ml'}</t>
+          <t>{'bigquery-public-data.iowa_liquor_sales.sales.category', 'bigquery-public-data.iowa_liquor_sales.sales.bottle_volume_ml', 'bigquery-public-data.iowa_liquor_sales.sales.state_bottle_retail', 'bigquery-public-data.iowa_liquor_sales.sales.category_name'}</t>
         </is>
       </c>
       <c r="T148" t="inlineStr">
         <is>
-          <t>{'sales.category', 'sales.category_name', 'the above columns and values are sufficient.)**', 'sales.bottle_volume_ml', 'sales.date', 'sales.state_bottle_retail'}</t>
+          <t>{'sales.bottle_volume_ml', '`sales.bottle_volume_ml`: to compute per-liter retail price  \n- `sales', '10  \n\n\n---\n\n**Explanation:**  \n- `sales.category`', 'sales.date', '`2021`: years to filter and group by  \n- `10`: to limit to top 10 categories\n\n**No foreign keys** are needed as all data is in a single table.', 'sales.category', 'sales.state_bottle_retail', 'sales.category_name', '`sales.category_name`: to group and identify categories  \n- `sales'}</t>
         </is>
       </c>
       <c r="U148" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V148" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="149">
@@ -12908,10 +12908,10 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9.326285080052912</v>
+        <v>5.266204439976718</v>
       </c>
       <c r="E149" t="n">
-        <v>4979</v>
+        <v>4831</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -12952,7 +12952,7 @@
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -12962,19 +12962,19 @@
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.iowa_liquor_sales.sales.sale_dollars', 'bigquery-public-data.iowa_liquor_sales.sales.date', 'bigquery-public-data.iowa_liquor_sales.sales.invoice_and_item_number', 'bigquery-public-data.iowa_liquor_sales.sales.item_description'}</t>
+          <t>{'bigquery-public-data.iowa_liquor_sales.sales.sale_dollars', 'bigquery-public-data.iowa_liquor_sales.sales.date', 'bigquery-public-data.iowa_liquor_sales.sales.item_description', 'bigquery-public-data.iowa_liquor_sales.sales.invoice_and_item_number'}</t>
         </is>
       </c>
       <c r="T149" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.iowa_liquor_sales'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V149" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -12992,10 +12992,10 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>12.60673738300102</v>
+        <v>11.61050500301644</v>
       </c>
       <c r="E150" t="n">
-        <v>5573</v>
+        <v>5492</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -13036,7 +13036,7 @@
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'bigquery-public-data'}</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -13046,19 +13046,19 @@
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.iowa_liquor_sales.sales.county', 'bigquery-public-data.iowa_liquor_sales.sales.date', 'bigquery-public-data.iowa_liquor_sales.sales.category_name', 'bigquery-public-data.census_bureau_usa.population_by_zip_2010.minimum_age', 'bigquery-public-data.census_bureau_usa.population_by_zip_2010.population', 'bigquery-public-data.iowa_liquor_sales.sales.zip_code', 'bigquery-public-data.iowa_liquor_sales.sales.sale_dollars', 'bigquery-public-data.census_bureau_usa.population_by_zip_2010.zipcode'}</t>
+          <t>{'bigquery-public-data.iowa_liquor_sales.sales.category_name', 'bigquery-public-data.census_bureau_usa.population_by_zip_2010.population', 'bigquery-public-data.iowa_liquor_sales.sales.zip_code', 'bigquery-public-data.iowa_liquor_sales.sales.sale_dollars', 'bigquery-public-data.iowa_liquor_sales.sales.date', 'bigquery-public-data.census_bureau_usa.population_by_zip_2010.zipcode'}</t>
         </is>
       </c>
       <c r="T150" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'bigquery-public-data.iowa_liquor_sales', 'bigquery-public-data.census_bureau_usa'}</t>
         </is>
       </c>
       <c r="U150" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V150" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="151">
@@ -13076,10 +13076,10 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>17.57859597890638</v>
+        <v>20.25722118699923</v>
       </c>
       <c r="E151" t="n">
-        <v>12689</v>
+        <v>12267</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -13120,7 +13120,7 @@
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>{'', 'bigquery-public-data'}</t>
+          <t>{'but the logic is the same', 'bigquery-public-data', 'you can generalize to healthcare_provider_taxonomy_code_1'}</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -13130,19 +13130,19 @@
       </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.nppes.npi_optimized.npi', 'bigquery-public-data.nppes.npi_optimized.provider_business_practice_location_address_state_name', 'bigquery-public-data.nppes.npi_optimized.healthcare_provider_taxonomy_1_specialization', 'bigquery-public-data.nppes.npi_optimized.provider_business_practice_location_address_city_name'}</t>
+          <t>{'bigquery-public-data.nppes.npi_optimized.healthcare_provider_taxonomy_1_specialization', 'bigquery-public-data.nppes.npi_optimized.npi'}</t>
         </is>
       </c>
       <c r="T151" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.nppes', '.'}</t>
+          <t>{'you can generalize to healthcare_provider_taxonomy_code_1.', 'bigquery-public-data.nppes', 'but the logic is the same.)*'}</t>
         </is>
       </c>
       <c r="U151" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="V151" t="n">
-        <v>0.002178649237472767</v>
+        <v>0.00326797385620915</v>
       </c>
     </row>
     <row r="152">
@@ -13160,10 +13160,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>9.451731029199436</v>
+        <v>7.217652157007251</v>
       </c>
       <c r="E152" t="n">
-        <v>5023</v>
+        <v>5096</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -13204,7 +13204,7 @@
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>{'usa_1910_current', '2021\n\n```\n\n**(No foreign keys are needed as there is only one table involved'}</t>
+          <t>{'bigquery-public-data', '2021\n```\n\n**(No foreign keys needed'}</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -13214,19 +13214,19 @@
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.usa_names.usa_1910_current.state', 'bigquery-public-data.usa_names.usa_1910_current.name', 'bigquery-public-data.usa_names.usa_1910_current.number', 'bigquery-public-data.usa_names.usa_1910_current.year', 'bigquery-public-data.usa_names.usa_1910_current.gender'}</t>
+          <t>{'bigquery-public-data.usa_names.usa_1910_current.name', 'bigquery-public-data.usa_names.usa_1910_current.gender', 'bigquery-public-data.usa_names.usa_1910_current.year', 'bigquery-public-data.usa_names.usa_1910_current.number'}</t>
         </is>
       </c>
       <c r="T152" t="inlineStr">
         <is>
-          <t>{'usa_1910_current.name', 'usa_1910_current.state', 'usa_1910_current.gender', 'usa_1910_current.year', 'usa_1910_current.number', '2021\n\n```\n\n**(No foreign keys are needed as there is only one table involved.)**'}</t>
+          <t>{'2021\n```\n\n**(No foreign keys needed.)**', 'bigquery-public-data.usa_names'}</t>
         </is>
       </c>
       <c r="U152" t="n">
         <v>1</v>
       </c>
       <c r="V152" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="153">
@@ -13244,10 +13244,10 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>36.69653877196833</v>
+        <v>46.20806003897451</v>
       </c>
       <c r="E153" t="n">
-        <v>29213</v>
+        <v>29403</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -13283,12 +13283,12 @@
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>{'TCGA.TCGA_VERSIONED.SOMATIC_MUTATION_HG19_DCC_2017_02', 'TCGA.TCGA_VERSIONED.CLINICAL_GDC_R39', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02'}</t>
+          <t>{'TCGA.TCGA_VERSIONED.CLINICAL_GDC_R39', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02', 'TCGA.TCGA_VERSIONED.SOMATIC_MUTATION_HG19_DCC_2017_02'}</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>{'CCNE1 (RNA table)', 'TCGA', 'get clinical data (clinical table)'}</t>
+          <t>{'SOMATIC_MUTATION_HG19_MC3_2017_02', 'CLINICAL_GDC_R39', 'RNASEQ_HG19_GDC_2017_02'}</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
@@ -13298,19 +13298,19 @@
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>{'TCGA.TCGA_VERSIONED.SOMATIC_MUTATION_HG19_DCC_2017_02.case_barcode', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.gene_id', 'TCGA.TCGA_VERSIONED.SOMATIC_MUTATION_HG19_DCC_2017_02.project_short_name', 'TCGA.TCGA_VERSIONED.CLINICAL_GDC_R39.submitter_id', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.project_short_name', 'TCGA.TCGA_VERSIONED.CLINICAL_GDC_R39.demo__days_to_death', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.normalized_count', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.case_barcode', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.sample_barcode', 'TCGA.TCGA_VERSIONED.CLINICAL_GDC_R39.demo__vital_status', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.HGNC_gene_symbol', 'TCGA.TCGA_VERSIONED.SOMATIC_MUTATION_HG19_DCC_2017_02.Hugo_Symbol', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.aliquot_barcode', 'TCGA.TCGA_VERSIONED.SOMATIC_MUTATION_HG19_DCC_2017_02.Variant_Type', 'TCGA.TCGA_VERSIONED.CLINICAL_GDC_R39.demo__gender'}</t>
+          <t>{'TCGA.TCGA_VERSIONED.SOMATIC_MUTATION_HG19_DCC_2017_02.case_barcode', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.HGNC_gene_symbol', 'TCGA.TCGA_VERSIONED.CLINICAL_GDC_R39.demo__gender', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.case_barcode', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.aliquot_barcode', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.normalized_count', 'TCGA.TCGA_VERSIONED.SOMATIC_MUTATION_HG19_DCC_2017_02.project_short_name', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.sample_barcode', 'TCGA.TCGA_VERSIONED.SOMATIC_MUTATION_HG19_DCC_2017_02.Variant_Type', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.project_short_name', 'TCGA.TCGA_VERSIONED.RNASEQ_HG19_GDC_2017_02.gene_id', 'TCGA.TCGA_VERSIONED.CLINICAL_GDC_R39.demo__vital_status', 'TCGA.TCGA_VERSIONED.CLINICAL_GDC_R39.demo__days_to_death'}</t>
         </is>
       </c>
       <c r="T153" t="inlineStr">
         <is>
-          <t>{'CCNE1 (RNA table).- For those patients', 'get clinical data (clinical table).- Join on `case_barcode`/`case_id`', 'TCGA.TCGA_VERSIONED'}</t>
+          <t>{'RNASEQ_HG19_GDC_2017_02.HGNC_gene_symbol', 'RNASEQ_HG19_GDC_2017_02.project_short_name', 'CLINICAL_GDC_R39.case_barcode', 'SOMATIC_MUTATION_HG19_MC3_2017_02.case_barcode', 'RNASEQ_HG19_GDC_2017_02.case_barcode', 'SOMATIC_MUTATION_HG19_MC3_2017_02.project_short_name', 'RNASEQ_HG19_GDC_2017_02.normalized_count', 'SOMATIC_MUTATION_HG19_MC3_2017_02.Hugo_Symbol', 'CLINICAL_GDC_R39.case_id'}</t>
         </is>
       </c>
       <c r="U153" t="n">
         <v>0.01910828025477707</v>
       </c>
       <c r="V153" t="n">
-        <v>0.0007304601899196494</v>
+        <v>0.002191380569758948</v>
       </c>
     </row>
     <row r="154">
@@ -13328,10 +13328,10 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>28.80008007609285</v>
+        <v>45.87450248899404</v>
       </c>
       <c r="E154" t="n">
-        <v>14745</v>
+        <v>14794</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -13367,12 +13367,12 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>{'isb-cgc-bq.CPTAC.RNAseq_hg38_gdc_current', 'isb-cgc-bq.PDC_metadata.aliquot_to_case_mapping_current', 'isb-cgc-bq.CPTAC.quant_proteome_CPTAC_CCRCC_discovery_study_pdc_current'}</t>
+          <t>{'isb-cgc-bq.CPTAC.RNAseq_hg38_gdc_current', 'isb-cgc-bq.CPTAC.quant_proteome_CPTAC_CCRCC_discovery_study_pdc_current', 'isb-cgc-bq.PDC_metadata.aliquot_to_case_mapping_current'}</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>{'0', 'isb-cgc-bq'}</t>
+          <t>{'0', 'isb-cgc-bq', 'correlation threshold)'}</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
@@ -13382,19 +13382,19 @@
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>{'isb-cgc-bq.PDC_metadata.aliquot_to_case_mapping_current.sample_submitter_id', 'isb-cgc-bq.CPTAC.quant_proteome_CPTAC_CCRCC_discovery_study_pdc_current.gene_symbol', 'isb-cgc-bq.CPTAC.quant_proteome_CPTAC_CCRCC_discovery_study_pdc_current.aliquot_id', 'isb-cgc-bq.CPTAC.RNAseq_hg38_gdc_current.sample_barcode', 'isb-cgc-bq.PDC_metadata.aliquot_to_case_mapping_current.sample_type', 'isb-cgc-bq.CPTAC.quant_proteome_CPTAC_CCRCC_discovery_study_pdc_current.case_id', 'isb-cgc-bq.PDC_metadata.aliquot_to_case_mapping_current.case_id', 'isb-cgc-bq.CPTAC.RNAseq_hg38_gdc_current.gene_name', 'isb-cgc-bq.PDC_metadata.aliquot_to_case_mapping_current.aliquot_id', 'isb-cgc-bq.CPTAC.RNAseq_hg38_gdc_current.fpkm_unstranded', 'isb-cgc-bq.CPTAC.quant_proteome_CPTAC_CCRCC_discovery_study_pdc_current.protein_abundance_log2ratio'}</t>
+          <t>{'isb-cgc-bq.CPTAC.RNAseq_hg38_gdc_current.gene_name', 'isb-cgc-bq.CPTAC.RNAseq_hg38_gdc_current.fpkm_unstranded', 'isb-cgc-bq.PDC_metadata.aliquot_to_case_mapping_current.aliquot_id', 'isb-cgc-bq.CPTAC.quant_proteome_CPTAC_CCRCC_discovery_study_pdc_current.case_id', 'isb-cgc-bq.CPTAC.quant_proteome_CPTAC_CCRCC_discovery_study_pdc_current.aliquot_id', 'isb-cgc-bq.CPTAC.quant_proteome_CPTAC_CCRCC_discovery_study_pdc_current.gene_symbol', 'isb-cgc-bq.PDC_metadata.aliquot_to_case_mapping_current.case_id', 'isb-cgc-bq.CPTAC.quant_proteome_CPTAC_CCRCC_discovery_study_pdc_current.protein_abundance_log2ratio', 'isb-cgc-bq.PDC_metadata.aliquot_to_case_mapping_current.sample_type', 'isb-cgc-bq.CPTAC.RNAseq_hg38_gdc_current.sample_barcode', 'isb-cgc-bq.PDC_metadata.aliquot_to_case_mapping_current.sample_submitter_id'}</t>
         </is>
       </c>
       <c r="T154" t="inlineStr">
         <is>
-          <t>{'0.5\n\n```\n\n---\n\n**Summary of reasoning:**  \n- Identified relevant tables and columns for proteomics and RNAseq data for CCRCC', 'isb-cgc-bq.CPTAC'}</t>
+          <t>{'0.5\n\n```\n\n---\n\n**Summary of reasoning:**  \n- Identified relevant tables and columns for proteomics and RNAseq data for CCRCC', 'isb-cgc-bq.CPTAC', 'correlation threshold).- Provided explicit join conditions as schema links'}</t>
         </is>
       </c>
       <c r="U154" t="n">
-        <v>0.02531645569620253</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="V154" t="n">
-        <v>0.001378359751895245</v>
+        <v>0.002067539627842867</v>
       </c>
     </row>
     <row r="155">
@@ -13412,10 +13412,10 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>56.34637198504061</v>
+        <v>57.05687837995356</v>
       </c>
       <c r="E155" t="n">
-        <v>30877</v>
+        <v>30871</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -13451,12 +13451,12 @@
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>{'TCGA_MITELMAN.PROD.CYTOBANDS_HG38', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23'}</t>
+          <t>{'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38'}</t>
         </is>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>{'CYTOBANDS_HG38', 'COPY_NUMBER_SEGMENT_MASKED_HG38_GDC_R14'}</t>
+          <t>{'TCGA_MITELMAN', 'segment overlap: (COPY_NUMBER_SEGMENT_MASKED_HG38_GDC_R14'}</t>
         </is>
       </c>
       <c r="R155" t="inlineStr">
@@ -13466,19 +13466,19 @@
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>{'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.hg38_start', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.case_barcode', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.project_short_name', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.chromosome', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.chromosome', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.copy_number', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.start_pos', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.cytoband_name', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.end_pos', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.hg38_stop'}</t>
+          <t>{'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.end_pos', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.start_pos', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.chromosome', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.case_barcode', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.hg38_stop', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.copy_number', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.chromosome', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.cytoband_name', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.hg38_start'}</t>
         </is>
       </c>
       <c r="T155" t="inlineStr">
         <is>
-          <t>{'CYTOBANDS_HG38.chromosome', 'COPY_NUMBER_SEGMENT_MASKED_HG38_GDC_R14.copy_number', 'CYTOBANDS_HG38.cytoband_name', 'COPY_NUMBER_SEGMENT_MASKED_HG38_GDC_R14.start_pos', 'COPY_NUMBER_SEGMENT_MASKED_HG38_GDC_R14.end_pos &gt; CYTOBANDS_HG38', 'COPY_NUMBER_SEGMENT_MASKED_HG38_GDC_R14.start_pos &lt; CYTOBANDS_HG38', 'COPY_NUMBER_SEGMENT_MASKED_HG38_GDC_R14.case_barcode', 'COPY_NUMBER_SEGMENT_MASKED_HG38_GDC_R14.end_pos', 'CYTOBANDS_HG38.hg38_stop', 'COPY_NUMBER_SEGMENT_MASKED_HG38_GDC_R14.chromosome', 'COPY_NUMBER_SEGMENT_MASKED_HG38_GDC_R14.project_short_name', 'CYTOBANDS_HG38.hg38_start'}</t>
+          <t>{'segment overlap: (COPY_NUMBER_SEGMENT_MASKED_HG38_GDC_R14.start_pos/end_pos) with (CYTOBANDS_HG38', 'TCGA_MITELMAN.PROD', 'TCGA_MITELMAN.TCGA_VERSIONED'}</t>
         </is>
       </c>
       <c r="U155" t="n">
         <v>0.01136363636363636</v>
       </c>
       <c r="V155" t="n">
-        <v>0.002808988764044944</v>
+        <v>0.0007022471910112359</v>
       </c>
     </row>
     <row r="156">
@@ -13496,10 +13496,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>23.46022939984687</v>
+        <v>30.38482932100305</v>
       </c>
       <c r="E156" t="n">
-        <v>30679</v>
+        <v>31842</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -13535,12 +13535,12 @@
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>{'TCGA_MITELMAN.PROD.CYTOBANDS_HG38', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23'}</t>
+          <t>{'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38'}</t>
         </is>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>{'copy_number_segment_allelic_hg38_gdc_r23', 'cytobands_hg38', 'COUNT(DISTINCT copy_number_segment_allelic_hg38_gdc_r23', 'MAX(copy_number_segment_allelic_hg38_gdc_r23'}</t>
+          <t>{'TCGA_MITELMAN'}</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
@@ -13550,19 +13550,19 @@
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>{'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.hg38_start', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.case_barcode', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.project_short_name', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.chromosome', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.chromosome', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.copy_number', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.start_pos', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.cytoband_name', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.end_pos', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.hg38_stop'}</t>
+          <t>{'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.end_pos', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.start_pos', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.chromosome', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.case_barcode', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.hg38_stop', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.copy_number', 'TCGA_MITELMAN.TCGA_VERSIONED.COPY_NUMBER_SEGMENT_ALLELIC_HG38_GDC_R23.chromosome', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.cytoband_name', 'TCGA_MITELMAN.PROD.CYTOBANDS_HG38.hg38_start'}</t>
         </is>
       </c>
       <c r="T156" t="inlineStr">
         <is>
-          <t>{'copy_number_segment_allelic_hg38_gdc_r23.copy_number', 'copy_number_segment_allelic_hg38_gdc_r23.project_short_name', 'copy_number_segment_allelic_hg38_gdc_r23.sample_barcode', 'MAX(copy_number_segment_allelic_hg38_gdc_r23.copy_number)', 'cytobands_hg38.chromosome', 'cytobands_hg38.hg38_stop', 'COUNT(DISTINCT copy_number_segment_allelic_hg38_gdc_r23.case_barcode)', 'copy_number_segment_allelic_hg38_gdc_r23.case_barcode', 'cytobands_hg38.hg38_start', 'copy_number_segment_allelic_hg38_gdc_r23.chromosome', 'cytobands_hg38.cytoband_name', 'copy_number_segment_allelic_hg38_gdc_r23.end_pos', 'copy_number_segment_allelic_hg38_gdc_r23.start_pos'}</t>
+          <t>{'TCGA_MITELMAN.PROD', 'TCGA_MITELMAN.TCGA_VERSIONED'}</t>
         </is>
       </c>
       <c r="U156" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="V156" t="n">
-        <v>0.003043071161048689</v>
+        <v>0.0004681647940074906</v>
       </c>
     </row>
     <row r="157">
@@ -13580,10 +13580,10 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>38.14563663001172</v>
+        <v>33.21682557900203</v>
       </c>
       <c r="E157" t="n">
-        <v>8912</v>
+        <v>8422</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -13619,12 +13619,12 @@
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>{'TCGA_HG19_DATA_V0.TCGA_HG19_DATA_V0.SOMATIC_MUTATION_MC3', 'TCGA_HG19_DATA_V0.TCGA_HG19_DATA_V0.RNASEQ_GENE_EXPRESSION_UNC_RSEM'}</t>
+          <t>{'TCGA_HG19_DATA_V0.TCGA_HG19_DATA_V0.RNASEQ_GENE_EXPRESSION_UNC_RSEM', 'TCGA_HG19_DATA_V0.TCGA_HG19_DATA_V0.SOMATIC_MUTATION_MC3'}</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>{'TCGA_HG19_DATA_V0'}</t>
+          <t>{'SOMATIC_MUTATION_DCC', 'RNASEQ_GENE_EXPRESSION_UNC_RSEM', "'TP53'\n\n```\n\n*(Or substitute `SOMATIC_MUTATION_MC3` for `SOMATIC_MUTATION_DCC` if using that table"}</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
@@ -13634,19 +13634,19 @@
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>{'TCGA_HG19_DATA_V0.TCGA_HG19_DATA_V0.RNASEQ_GENE_EXPRESSION_UNC_RSEM.sample_barcode', 'TCGA_HG19_DATA_V0.TCGA_HG19_DATA_V0.SOMATIC_MUTATION_MC3.SYMBOL', 'TCGA_HG19_DATA_V0.TCGA_HG19_DATA_V0.RNASEQ_GENE_EXPRESSION_UNC_RSEM.HGNC_gene_symbol', 'TCGA_HG19_DATA_V0.TCGA_HG19_DATA_V0.SOMATIC_MUTATION_MC3.sample_barcode_tumor', 'TCGA_HG19_DATA_V0.TCGA_HG19_DATA_V0.RNASEQ_GENE_EXPRESSION_UNC_RSEM.project_short_name', 'TCGA_HG19_DATA_V0.TCGA_HG19_DATA_V0.RNASEQ_GENE_EXPRESSION_UNC_RSEM.normalized_count', 'TCGA_HG19_DATA_V0.TCGA_HG19_DATA_V0.SOMATIC_MUTATION_MC3.project_short_name', 'TCGA_HG19_DATA_V0.TCGA_HG19_DATA_V0.SOMATIC_MUTATION_MC3.Variant_Type'}</t>
+          <t>{'TCGA_HG19_DATA_V0.TCGA_HG19_DATA_V0.SOMATIC_MUTATION_MC3.sample_barcode_tumor', 'TCGA_HG19_DATA_V0.TCGA_HG19_DATA_V0.SOMATIC_MUTATION_MC3.Variant_Type', 'TCGA_HG19_DATA_V0.TCGA_HG19_DATA_V0.RNASEQ_GENE_EXPRESSION_UNC_RSEM.sample_barcode'}</t>
         </is>
       </c>
       <c r="T157" t="inlineStr">
         <is>
-          <t>{'TCGA_HG19_DATA_V0.TCGA_HG19_DATA_V0'}</t>
+          <t>{'RNASEQ_GENE_EXPRESSION_UNC_RSEM.HGNC_gene_symbol', "'TP53'\n\n```\n\n*(Or substitute `SOMATIC_MUTATION_MC3` for `SOMATIC_MUTATION_DCC` if using that table.)*", 'RNASEQ_GENE_EXPRESSION_UNC_RSEM.project_short_name', 'SOMATIC_MUTATION_DCC.case_barcode', 'RNASEQ_GENE_EXPRESSION_UNC_RSEM.case_barcode', 'RNASEQ_GENE_EXPRESSION_UNC_RSEM.normalized_count', 'SOMATIC_MUTATION_DCC.Variant_Classification', 'SOMATIC_MUTATION_DCC.project_short_name'}</t>
         </is>
       </c>
       <c r="U157" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="V157" t="n">
-        <v>0.002493765586034913</v>
+        <v>0.0199501246882793</v>
       </c>
     </row>
     <row r="158">
@@ -13664,10 +13664,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>31.90080603095703</v>
+        <v>51.5166998069617</v>
       </c>
       <c r="E158" t="n">
-        <v>12622</v>
+        <v>13155</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -13703,12 +13703,12 @@
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>{'TCGA_HG38_DATA_V0.TCGA_BIOCLIN_V0.CLINICAL', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.MIRNASEQ_EXPRESSION', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.RNASEQ_GENE_EXPRESSION'}</t>
+          <t>{'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.MIRNASEQ_EXPRESSION', 'TCGA_HG38_DATA_V0.TCGA_BIOCLIN_V0.CLINICAL', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.RNASEQ_GENE_EXPRESSION'}</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>{'0', 'TCGA_HG38_DATA_V0', 'and cell values needed to generate the SQL (or pseudo-SQL) for this complex biomedical query', '1'}</t>
+          <t>{'1', '0', 'and value constraints needed to generate the SQL for the question', 'TCGA_HG38_DATA_V0'}</t>
         </is>
       </c>
       <c r="R158" t="inlineStr">
@@ -13718,12 +13718,12 @@
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>{'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.MIRNASEQ_EXPRESSION.mirna_id', 'TCGA_HG38_DATA_V0.TCGA_BIOCLIN_V0.CLINICAL.pathologic_stage', 'TCGA_HG38_DATA_V0.TCGA_BIOCLIN_V0.CLINICAL.age_at_diagnosis', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.MIRNASEQ_EXPRESSION.project_short_name', 'TCGA_HG38_DATA_V0.TCGA_BIOCLIN_V0.CLINICAL.project_short_name', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.RNASEQ_GENE_EXPRESSION.case_barcode', 'TCGA_HG38_DATA_V0.TCGA_BIOCLIN_V0.CLINICAL.case_barcode', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.RNASEQ_GENE_EXPRESSION.project_short_name', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.MIRNASEQ_EXPRESSION.case_barcode', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.RNASEQ_GENE_EXPRESSION.HTSeq__Counts', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.MIRNASEQ_EXPRESSION.reads_per_million_miRNA_mapped', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.RNASEQ_GENE_EXPRESSION.gene_name'}</t>
+          <t>{'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.MIRNASEQ_EXPRESSION.reads_per_million_miRNA_mapped', 'TCGA_HG38_DATA_V0.TCGA_BIOCLIN_V0.CLINICAL.case_barcode', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.RNASEQ_GENE_EXPRESSION.case_barcode', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.MIRNASEQ_EXPRESSION.mirna_id', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.RNASEQ_GENE_EXPRESSION.gene_name', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0.MIRNASEQ_EXPRESSION.case_barcode'}</t>
         </is>
       </c>
       <c r="T158" t="inlineStr">
         <is>
-          <t>{'and cell values needed to generate the SQL (or pseudo-SQL) for this complex biomedical query.', 'TCGA_HG38_DATA_V0.TCGA_BIOCLIN_V0', '0.3', '1.0\n\n```\n\n---\n\n**Summary:**  \nThese schema links cover all the columns', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0'}</t>
+          <t>{'1.0\n\n```\n\n---\n\n**This set of schema links covers all the columns', 'TCGA_HG38_DATA_V0.TCGA_BIOCLIN_V0', '0.3', 'and value constraints needed to generate the SQL for the question.**', 'TCGA_HG38_DATA_V0.TCGA_HG38_DATA_V0'}</t>
         </is>
       </c>
       <c r="U158" t="n">
@@ -13748,10 +13748,10 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>27.57000616705045</v>
+        <v>28.01958950399421</v>
       </c>
       <c r="E159" t="n">
-        <v>12764</v>
+        <v>12601</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -13792,7 +13792,7 @@
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>{'PANCANCER_ATLAS_1', 'and patient matching'}</t>
+          <t>{'EBPP_ADJUSTPANCAN_ILLUMINAHISEQ_RNASEQV2_GENEXP_FILTERED', 'CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED', "icd_o_3_histology NOT LIKE '%' AND icd_o_3_histology NOT LIKE '%'\n\n```\n\n---\n\n**Explanation:**  \n- The question requires linking clinical and gene expression tables via `ParticipantBarcode`"}</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
@@ -13802,19 +13802,19 @@
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>{'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.EBPP_ADJUSTPANCAN_ILLUMINAHISEQ_RNASEQV2_GENEXP_FILTERED.normalized_count', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.EBPP_ADJUSTPANCAN_ILLUMINAHISEQ_RNASEQV2_GENEXP_FILTERED.ParticipantBarcode', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.icd_o_3_histology', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.bcr_patient_barcode', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.EBPP_ADJUSTPANCAN_ILLUMINAHISEQ_RNASEQV2_GENEXP_FILTERED.Study', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.EBPP_ADJUSTPANCAN_ILLUMINAHISEQ_RNASEQV2_GENEXP_FILTERED.Symbol', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.acronym'}</t>
+          <t>{'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.bcr_patient_barcode', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.EBPP_ADJUSTPANCAN_ILLUMINAHISEQ_RNASEQV2_GENEXP_FILTERED.Symbol', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.EBPP_ADJUSTPANCAN_ILLUMINAHISEQ_RNASEQV2_GENEXP_FILTERED.ParticipantBarcode', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.icd_o_3_histology'}</t>
         </is>
       </c>
       <c r="T159" t="inlineStr">
         <is>
-          <t>{'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED', 'and patient matching.- Included all necessary filters and calculations'}</t>
+          <t>{'EBPP_ADJUSTPANCAN_ILLUMINAHISEQ_RNASEQV2_GENEXP_FILTERED.ParticipantBarcode', 'EBPP_ADJUSTPANCAN_ILLUMINAHISEQ_RNASEQV2_GENEXP_FILTERED.normalized_count', 'CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.icd_o_3_histology', 'EBPP_ADJUSTPANCAN_ILLUMINAHISEQ_RNASEQV2_GENEXP_FILTERED.Symbol', 'CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.acronym', 'CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.ParticipantBarcode', "icd_o_3_histology NOT LIKE '%' AND icd_o_3_histology NOT LIKE '%'\n\n```\n\n---\n\n**Explanation:**  \n- The question requires linking clinical and gene expression tables via `ParticipantBarcode`.- Filter for LGG patients and IGF2 gene"}</t>
         </is>
       </c>
       <c r="U159" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V159" t="n">
-        <v>0.002400960384153661</v>
+        <v>0.008403361344537815</v>
       </c>
     </row>
     <row r="160">
@@ -13832,10 +13832,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>22.56805076613091</v>
+        <v>13.46495868999045</v>
       </c>
       <c r="E160" t="n">
-        <v>12397</v>
+        <v>12618</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -13876,7 +13876,7 @@
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>{'MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE', 'CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED'}</t>
+          <t>{'PANCANCER_ATLAS_1'}</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
@@ -13886,19 +13886,19 @@
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>{'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.ParticipantBarcode', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.bcr_patient_barcode', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.Hugo_Symbol', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.histological_type', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.Study', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.acronym', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.FILTER'}</t>
+          <t>{'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.Hugo_Symbol', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.ParticipantBarcode', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.histological_type', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.bcr_patient_barcode'}</t>
         </is>
       </c>
       <c r="T160" t="inlineStr">
         <is>
-          <t>{'CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.histological_type', 'CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.acronym', 'MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.ParticipantBarcode', 'MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.Hugo_Symbol', 'CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.ParticipantBarcode'}</t>
+          <t>{'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED'}</t>
         </is>
       </c>
       <c r="U160" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="V160" t="n">
-        <v>0.006002400960384154</v>
+        <v>0.001200480192076831</v>
       </c>
     </row>
     <row r="161">
@@ -13916,10 +13916,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>25.62840166501701</v>
+        <v>9.724722447048407</v>
       </c>
       <c r="E161" t="n">
-        <v>12699</v>
+        <v>12511</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -13960,7 +13960,7 @@
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>{'MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE', 'CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED'}</t>
+          <t>{'and cell values needed to generate the SQL for the described analysis', 'MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE', 'CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED'}</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
@@ -13970,19 +13970,19 @@
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>{'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.ParticipantBarcode', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.bcr_patient_barcode', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.Hugo_Symbol', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.histological_type', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.Study', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.acronym', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.FILTER'}</t>
+          <t>{'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.Hugo_Symbol', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.ParticipantBarcode', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.histological_type', 'PANCANCER_ATLAS_1.PANCANCER_ATLAS_FILTERED.CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.bcr_patient_barcode'}</t>
         </is>
       </c>
       <c r="T161" t="inlineStr">
         <is>
-          <t>{'MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.Variant_Classification', 'CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.histological_type', 'MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.ParticipantBarcode', 'CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.acronym', 'MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.Hugo_Symbol', 'CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.ParticipantBarcode', 'MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.FILTER'}</t>
+          <t>{'and cell values needed to generate the SQL for the described analysis.', 'CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.histological_type', 'MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.Variant_Classification', 'MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.ParticipantBarcode', 'MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.Hugo_Symbol', 'CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.acronym', 'CLINICAL_PANCAN_PATIENT_WITH_FOLLOWUP_FILTERED.ParticipantBarcode', 'MC3_MAF_V5_ONE_PER_TUMOR_SAMPLE.FILTER'}</t>
         </is>
       </c>
       <c r="U161" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V161" t="n">
-        <v>0.008403361344537815</v>
+        <v>0.009603841536614645</v>
       </c>
     </row>
     <row r="162">
@@ -14000,10 +14000,10 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>29.7980331259314</v>
+        <v>36.87168978300178</v>
       </c>
       <c r="E162" t="n">
-        <v>19548</v>
+        <v>19766</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -14039,12 +14039,12 @@
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>{'isb-cgc-bq.pancancer_atlas.Filtered_MC3_MAF_V5_one_per_tumor_sample', 'isb-cgc-bq.pancancer_atlas.Filtered_clinical_PANCAN_patient_with_followup'}</t>
+          <t>{'isb-cgc-bq.pancancer_atlas.Filtered_clinical_PANCAN_patient_with_followup', 'isb-cgc-bq.pancancer_atlas.Filtered_MC3_MAF_V5_one_per_tumor_sample'}</t>
         </is>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>{"'PASS'\n\n\n---\n\n**This set of schema links will allow you to generate the correct SQL query for the question", 'isb-cgc-bq'}</t>
+          <t>{'isb-cgc-bq'}</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
@@ -14054,19 +14054,19 @@
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>{'isb-cgc-bq.pancancer_atlas.Filtered_clinical_PANCAN_patient_with_followup.bcr_patient_barcode', 'isb-cgc-bq.pancancer_atlas.Filtered_MC3_MAF_V5_one_per_tumor_sample.FILTER', 'isb-cgc-bq.pancancer_atlas.Filtered_MC3_MAF_V5_one_per_tumor_sample.Hugo_Symbol', 'isb-cgc-bq.pancancer_atlas.Filtered_clinical_PANCAN_patient_with_followup.acronym', 'isb-cgc-bq.pancancer_atlas.Filtered_MC3_MAF_V5_one_per_tumor_sample.Study', 'isb-cgc-bq.pancancer_atlas.Filtered_MC3_MAF_V5_one_per_tumor_sample.ParticipantBarcode'}</t>
+          <t>{'isb-cgc-bq.pancancer_atlas.Filtered_MC3_MAF_V5_one_per_tumor_sample.ParticipantBarcode', 'isb-cgc-bq.pancancer_atlas.Filtered_clinical_PANCAN_patient_with_followup.bcr_patient_barcode'}</t>
         </is>
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>{"'PASS'\n\n\n---\n\n**This set of schema links will allow you to generate the correct SQL query for the question.**", 'isb-cgc-bq.pancancer_atlas'}</t>
+          <t>{'isb-cgc-bq.pancancer_atlas'}</t>
         </is>
       </c>
       <c r="U162" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="V162" t="n">
-        <v>0.001223990208078335</v>
+        <v>0.0006119951040391676</v>
       </c>
     </row>
     <row r="163">
@@ -14084,10 +14084,10 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>24.24537369399332</v>
+        <v>7.710720233968459</v>
       </c>
       <c r="E163" t="n">
-        <v>19295</v>
+        <v>18955</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -14123,12 +14123,12 @@
       </c>
       <c r="P163" t="inlineStr">
         <is>
-          <t>{'isb-cgc-bq.pancancer_atlas.Filtered_MC3_MAF_V5_one_per_tumor_sample', 'isb-cgc-bq.pancancer_atlas.Filtered_clinical_PANCAN_patient_with_followup'}</t>
+          <t>{'isb-cgc-bq.pancancer_atlas.Filtered_clinical_PANCAN_patient_with_followup', 'isb-cgc-bq.pancancer_atlas.Filtered_MC3_MAF_V5_one_per_tumor_sample'}</t>
         </is>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>{'isb-cgc-bq', '- Allow calculation of the chi-squared statistic for co-occurrence'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
@@ -14138,19 +14138,19 @@
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>{'isb-cgc-bq.pancancer_atlas.Filtered_clinical_PANCAN_patient_with_followup.bcr_patient_barcode', 'isb-cgc-bq.pancancer_atlas.Filtered_MC3_MAF_V5_one_per_tumor_sample.FILTER', 'isb-cgc-bq.pancancer_atlas.Filtered_MC3_MAF_V5_one_per_tumor_sample.Hugo_Symbol', 'isb-cgc-bq.pancancer_atlas.Filtered_clinical_PANCAN_patient_with_followup.acronym', 'isb-cgc-bq.pancancer_atlas.Filtered_MC3_MAF_V5_one_per_tumor_sample.Study', 'isb-cgc-bq.pancancer_atlas.Filtered_MC3_MAF_V5_one_per_tumor_sample.ParticipantBarcode'}</t>
+          <t>{'isb-cgc-bq.pancancer_atlas.Filtered_MC3_MAF_V5_one_per_tumor_sample.ParticipantBarcode', 'isb-cgc-bq.pancancer_atlas.Filtered_clinical_PANCAN_patient_with_followup.bcr_patient_barcode'}</t>
         </is>
       </c>
       <c r="T163" t="inlineStr">
         <is>
-          <t>{'- Allow calculation of the chi-squared statistic for co-occurrence.', 'isb-cgc-bq.pancancer_atlas'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U163" t="n">
-        <v>0.09523809523809523</v>
+        <v>0</v>
       </c>
       <c r="V163" t="n">
-        <v>0.001223990208078335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -14168,10 +14168,10 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>19.83215554896742</v>
+        <v>13.30820514599327</v>
       </c>
       <c r="E164" t="n">
-        <v>5981</v>
+        <v>6444</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -14222,12 +14222,12 @@
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>{'spider2-public-data.1000_genomes.sample_info.Super_Population', 'spider2-public-data.1000_genomes.variants.call', 'spider2-public-data.1000_genomes.variants.start', 'spider2-public-data.1000_genomes.variants.alternate_bases', 'spider2-public-data.1000_genomes.sample_info.Sample', 'spider2-public-data.1000_genomes.variants.end', 'spider2-public-data.1000_genomes.variants.reference_bases', 'spider2-public-data.1000_genomes.variants.VT', 'spider2-public-data.1000_genomes.variants.reference_name'}</t>
+          <t>{'spider2-public-data.1000_genomes.variants.reference_name', 'spider2-public-data.1000_genomes.variants.reference_bases', 'spider2-public-data.1000_genomes.sample_info.Super_Population', 'spider2-public-data.1000_genomes.variants.end', 'spider2-public-data.1000_genomes.sample_info.Sample', 'spider2-public-data.1000_genomes.variants.start', 'spider2-public-data.1000_genomes.variants.alternate_bases', 'spider2-public-data.1000_genomes.variants.call', 'spider2-public-data.1000_genomes.variants.VT'}</t>
         </is>
       </c>
       <c r="T164" t="inlineStr">
         <is>
-          <t>{'29.71679', 'spider2-public-data.1000_genomes'}</t>
+          <t>{'spider2-public-data.1000_genomes', '29.71679'}</t>
         </is>
       </c>
       <c r="U164" t="n">
@@ -14252,10 +14252,10 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>28.38348200591281</v>
+        <v>9.008995565993246</v>
       </c>
       <c r="E165" t="n">
-        <v>6274</v>
+        <v>6033</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -14296,7 +14296,7 @@
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>{'spider2-public-data', '41277499\n\n```\n\n**(No foreign keys needed for this query'}</t>
+          <t>{'variants'}</t>
         </is>
       </c>
       <c r="R165" t="inlineStr">
@@ -14306,19 +14306,19 @@
       </c>
       <c r="S165" t="inlineStr">
         <is>
-          <t>{'spider2-public-data.1000_genomes.variants.call', 'spider2-public-data.1000_genomes.variants.start', 'spider2-public-data.1000_genomes.variants.alternate_bases', 'spider2-public-data.1000_genomes.variants.AF', 'spider2-public-data.1000_genomes.variants.end', 'spider2-public-data.1000_genomes.variants.reference_bases', 'spider2-public-data.1000_genomes.variants.VT', 'spider2-public-data.1000_genomes.variants.reference_name'}</t>
+          <t>{'spider2-public-data.1000_genomes.variants.reference_name', 'spider2-public-data.1000_genomes.variants.reference_bases', 'spider2-public-data.1000_genomes.variants.AF', 'spider2-public-data.1000_genomes.variants.end', 'spider2-public-data.1000_genomes.variants.start', 'spider2-public-data.1000_genomes.variants.alternate_bases', 'spider2-public-data.1000_genomes.variants.call', 'spider2-public-data.1000_genomes.variants.VT'}</t>
         </is>
       </c>
       <c r="T165" t="inlineStr">
         <is>
-          <t>{'41277499\n\n```\n\n**(No foreign keys needed for this query.)**', 'spider2-public-data.1000_genomes'}</t>
+          <t>{'variants.AC', 'variants.start', 'variants.HWE', 'variants.VT', 'variants.call', 'variants.reference_name', 'variants.AMR_AF', 'variants.AF1', 'variants.AN', 'variants.SVTYPE', 'variants.EUR_AF', 'variants.AFR_AF', 'variants.ASN_AF', 'variants.reference_bases', 'variants.AF', 'variants.alternate_bases', 'variants.end'}</t>
         </is>
       </c>
       <c r="U165" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V165" t="n">
-        <v>0.016</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="166">
@@ -14336,10 +14336,10 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>15.29233729094267</v>
+        <v>4.888974056986626</v>
       </c>
       <c r="E166" t="n">
-        <v>5348</v>
+        <v>5368</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -14390,7 +14390,7 @@
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.austin_bikeshare.bikeshare_trips.start_station_id', 'bigquery-public-data.austin_bikeshare.bikeshare_stations.station_id', 'bigquery-public-data.austin_bikeshare.bikeshare_trips.start_time', 'bigquery-public-data.austin_bikeshare.bikeshare_stations.status'}</t>
+          <t>{'bigquery-public-data.austin_bikeshare.bikeshare_trips.start_time', 'bigquery-public-data.austin_bikeshare.bikeshare_trips.start_station_id', 'bigquery-public-data.austin_bikeshare.bikeshare_stations.station_id'}</t>
         </is>
       </c>
       <c r="T166" t="inlineStr">
@@ -14420,10 +14420,10 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>21.67119072005153</v>
+        <v>6.958014736999758</v>
       </c>
       <c r="E167" t="n">
-        <v>5708</v>
+        <v>5629</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -14474,7 +14474,7 @@
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.austin_bikeshare.bikeshare_trips.duration_minutes', 'bigquery-public-data.austin_bikeshare.bikeshare_trips.start_time', 'bigquery-public-data.austin_bikeshare.bikeshare_trips.subscriber_type', 'bigquery-public-data.austin_bikeshare.bikeshare_trips.bike_type', 'bigquery-public-data.austin_bikeshare.bikeshare_trips.start_station_name', 'bigquery-public-data.austin_bikeshare.bikeshare_trips.end_station_name'}</t>
+          <t>{'bigquery-public-data.austin_bikeshare.bikeshare_trips.start_time'}</t>
         </is>
       </c>
       <c r="T167" t="inlineStr">
@@ -14504,10 +14504,10 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>28.52810355788097</v>
+        <v>10.69981086498592</v>
       </c>
       <c r="E168" t="n">
-        <v>5856</v>
+        <v>5642</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -14548,7 +14548,7 @@
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>{'bikeshare_trips', 'start_station', 'end_station'}</t>
+          <t>{'bigquery-public-data'}</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
@@ -14558,19 +14558,19 @@
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.austin_bikeshare.bikeshare_stations.council_district', 'bigquery-public-data.austin_bikeshare.bikeshare_trips.start_station_id', 'bigquery-public-data.austin_bikeshare.bikeshare_stations.status', 'bigquery-public-data.austin_bikeshare.bikeshare_stations.station_id', 'bigquery-public-data.austin_bikeshare.bikeshare_trips.end_station_id'}</t>
+          <t>{'bigquery-public-data.austin_bikeshare.bikeshare_trips.end_station_id', 'bigquery-public-data.austin_bikeshare.bikeshare_trips.start_station_id', 'bigquery-public-data.austin_bikeshare.bikeshare_stations.council_district', 'bigquery-public-data.austin_bikeshare.bikeshare_stations.station_id'}</t>
         </is>
       </c>
       <c r="T168" t="inlineStr">
         <is>
-          <t>{'bikeshare_trips.start_station_id !', 'end_station.status', 'bikeshare_trips.start_station_id', 'end_station.station_id', 'start_station.status', 'end_station.council_district', 'bikeshare_trips.trip_id', 'start_station.station_id', 'start_station.council_district', 'bikeshare_trips.end_station_id'}</t>
+          <t>{'bigquery-public-data.austin_bikeshare'}</t>
         </is>
       </c>
       <c r="U168" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="V168" t="n">
-        <v>0.08547008547008547</v>
+        <v>0.008547008547008548</v>
       </c>
     </row>
     <row r="169">
@@ -14588,10 +14588,10 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>12.68171813292429</v>
+        <v>8.747870204038918</v>
       </c>
       <c r="E169" t="n">
-        <v>5316</v>
+        <v>5597</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -14642,7 +14642,7 @@
       </c>
       <c r="S169" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.austin_incidents.incidents_2016.descript', 'bigquery-public-data.austin_incidents.incidents_2016.date'}</t>
+          <t>{'bigquery-public-data.austin_incidents.incidents_2016.date', 'bigquery-public-data.austin_incidents.incidents_2016.descript'}</t>
         </is>
       </c>
       <c r="T169" t="inlineStr">
@@ -14672,10 +14672,10 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>8.730520904064178</v>
+        <v>4.199674785020761</v>
       </c>
       <c r="E170" t="n">
-        <v>4730</v>
+        <v>4723</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -14716,7 +14716,7 @@
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>{'fulltext', 'the above is sufficient'}</t>
+          <t>{'fulltext', 'if you want to be explicit about the count:)**  \nfulltext'}</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
@@ -14726,12 +14726,12 @@
       </c>
       <c r="S170" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.bbc_news.fulltext.body', 'bigquery-public-data.bbc_news.fulltext.category'}</t>
+          <t>{'bigquery-public-data.bbc_news.fulltext.category'}</t>
         </is>
       </c>
       <c r="T170" t="inlineStr">
         <is>
-          <t>{'the above is sufficient.)', 'fulltext.body', 'fulltext.category', 'fulltext.title'}</t>
+          <t>{'fulltext.body', 'fulltext.category', 'fulltext.title', 'if you want to be explicit about the count:)**  \nfulltext.category'}</t>
         </is>
       </c>
       <c r="U170" t="n">
@@ -14756,10 +14756,10 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>32.14863827615045</v>
+        <v>16.41834532300709</v>
       </c>
       <c r="E171" t="n">
-        <v>14805</v>
+        <v>14577</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
@@ -14810,19 +14810,19 @@
       </c>
       <c r="S171" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.dimensions_ai_covid19.publications.date_inserted', 'bigquery-public-data.dimensions_ai_covid19.publications.research_orgs', 'bigquery-public-data.dimensions_ai_covid19.publications.id', 'bigquery-public-data.dimensions_ai_covid19.grid.id', 'bigquery-public-data.dimensions_ai_covid19.publications.title'}</t>
+          <t>{'bigquery-public-data.dimensions_ai_covid19.publications.id', 'bigquery-public-data.dimensions_ai_covid19.publications.title', 'bigquery-public-data.dimensions_ai_covid19.publications.research_orgs', 'bigquery-public-data.dimensions_ai_covid19.grid.id'}</t>
         </is>
       </c>
       <c r="T171" t="inlineStr">
         <is>
-          <t>{'publications.book_title', 'publications.book_series_title', 'publications.date_inserted', 'publications.proceedings_title', 'grid.id', 'publications.publisher', 'grid.address', 'publications.journal'}</t>
+          <t>{'publications.book_title', 'publications.research_orgs', 'publications.funding_details', 'publications.authors', 'grid.address', 'publications.book_series_title', 'grid.id', 'publications.proceedings_title', 'publications.journal', 'publications.date_inserted'}</t>
         </is>
       </c>
       <c r="U171" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="V171" t="n">
-        <v>0.005979073243647235</v>
+        <v>0.007473841554559043</v>
       </c>
     </row>
     <row r="172">
@@ -14840,10 +14840,10 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>25.32053094403818</v>
+        <v>16.36309376603458</v>
       </c>
       <c r="E172" t="n">
-        <v>38796</v>
+        <v>38676</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
@@ -14879,12 +14879,12 @@
       </c>
       <c r="P172" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.ebi_chembl.compound_records_23', 'bigquery-public-data.ebi_chembl.formulations_23', 'bigquery-public-data.ebi_chembl.molecule_synonyms_23', 'bigquery-public-data.ebi_chembl.products_23', 'bigquery-public-data.ebi_chembl.research_companies_23'}</t>
+          <t>{'bigquery-public-data.ebi_chembl.molecule_synonyms_23', 'bigquery-public-data.ebi_chembl.compound_records_23', 'bigquery-public-data.ebi_chembl.research_companies_23', 'bigquery-public-data.ebi_chembl.products_23', 'bigquery-public-data.ebi_chembl.formulations_23'}</t>
         </is>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>{'molecule_synonyms_23', 'max(products_23', 'then to `molecule_dictionary_23` via `molregno`', 'molecule_dictionary_23', 'products_23', 'research_companies_23'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -14894,19 +14894,19 @@
       </c>
       <c r="S172" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.ebi_chembl.molecule_synonyms_23.molregno', 'bigquery-public-data.ebi_chembl.formulations_23.molregno', 'bigquery-public-data.ebi_chembl.products_23.trade_name', 'bigquery-public-data.ebi_chembl.compound_records_23.molregno', 'bigquery-public-data.ebi_chembl.products_23.approval_date', 'bigquery-public-data.ebi_chembl.research_companies_23.company'}</t>
+          <t>{'bigquery-public-data.ebi_chembl.compound_records_23.molregno', 'bigquery-public-data.ebi_chembl.products_23.trade_name', 'bigquery-public-data.ebi_chembl.products_23.approval_date', 'bigquery-public-data.ebi_chembl.research_companies_23.company', 'bigquery-public-data.ebi_chembl.formulations_23.molregno', 'bigquery-public-data.ebi_chembl.molecule_synonyms_23.molregno'}</t>
         </is>
       </c>
       <c r="T172" t="inlineStr">
         <is>
-          <t>{'molecule_synonyms_23.molregno', 'products_23.approval_date', 'products_23.molregno', "max(products_23.approval_date)\n\n```\n\n---\n\n**Explanation:**  \n- We use the `company` field in `research_companies_23` to filter for `'SanofiAventis'`", 'research_companies_23.res_stem_id', 'molecule_synonyms_23.res_stem_id', 'then to `molecule_dictionary_23` via `molregno`.- We join to `products_23` via `molregno` to get `trade_name` and `approval_date`', 'products_23.trade_name', 'molecule_dictionary_23.molregno', 'research_companies_23.company'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U172" t="n">
-        <v>0.007643312101910828</v>
+        <v>0</v>
       </c>
       <c r="V172" t="n">
-        <v>0.001873711823121604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -14924,10 +14924,10 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>33.56391271087341</v>
+        <v>23.48264031601138</v>
       </c>
       <c r="E173" t="n">
-        <v>39400</v>
+        <v>40219</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
@@ -14963,12 +14963,12 @@
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.ebi_chembl.compound_properties_29', 'bigquery-public-data.ebi_chembl.compound_structures_29', 'bigquery-public-data.ebi_chembl.docs_29', 'bigquery-public-data.ebi_chembl.activities_29'}</t>
+          <t>{'bigquery-public-data.ebi_chembl.compound_structures_29', 'bigquery-public-data.ebi_chembl.compound_properties_29', 'bigquery-public-data.ebi_chembl.docs_29', 'bigquery-public-data.ebi_chembl.activities_29'}</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>{'max(compound_properties', 'compound_structures', 'activities2', 'docs', 'activities1', 'compound_properties', 'classify(activities1', 'activities', 'max(activities', 'uuid(activities'}</t>
+          <t>{'bigquery-public-data'}</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
@@ -14978,19 +14978,19 @@
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.ebi_chembl.docs_29.doc_id', 'bigquery-public-data.ebi_chembl.activities_29.standard_value', 'bigquery-public-data.ebi_chembl.docs_29.journal', 'bigquery-public-data.ebi_chembl.activities_29.standard_relation', 'bigquery-public-data.ebi_chembl.activities_29.pchembl_value', 'bigquery-public-data.ebi_chembl.compound_structures_29.molregno', 'bigquery-public-data.ebi_chembl.activities_29.molregno', 'bigquery-public-data.ebi_chembl.activities_29.standard_type', 'bigquery-public-data.ebi_chembl.activities_29.assay_id', 'bigquery-public-data.ebi_chembl.compound_properties_29.heavy_atoms', 'bigquery-public-data.ebi_chembl.docs_29.year', 'bigquery-public-data.ebi_chembl.activities_29.activity_id', 'bigquery-public-data.ebi_chembl.compound_structures_29.canonical_smiles', 'bigquery-public-data.ebi_chembl.activities_29.doc_id', 'bigquery-public-data.ebi_chembl.docs_29.first_page', 'bigquery-public-data.ebi_chembl.compound_properties_29.molregno'}</t>
+          <t>{'bigquery-public-data.ebi_chembl.activities_29.molregno', 'bigquery-public-data.ebi_chembl.activities_29.standard_relation', 'bigquery-public-data.ebi_chembl.activities_29.doc_id', 'bigquery-public-data.ebi_chembl.activities_29.standard_value', 'bigquery-public-data.ebi_chembl.docs_29.doc_id', 'bigquery-public-data.ebi_chembl.compound_properties_29.heavy_atoms', 'bigquery-public-data.ebi_chembl.docs_29.year', 'bigquery-public-data.ebi_chembl.activities_29.assay_id', 'bigquery-public-data.ebi_chembl.activities_29.pchembl_value', 'bigquery-public-data.ebi_chembl.activities_29.standard_type', 'bigquery-public-data.ebi_chembl.compound_structures_29.canonical_smiles', 'bigquery-public-data.ebi_chembl.docs_29.first_page', 'bigquery-public-data.ebi_chembl.compound_properties_29.molregno', 'bigquery-public-data.ebi_chembl.docs_29.journal', 'bigquery-public-data.ebi_chembl.activities_29.activity_id', 'bigquery-public-data.ebi_chembl.compound_structures_29.molregno'}</t>
         </is>
       </c>
       <c r="T173" t="inlineStr">
         <is>
-          <t>{'activities.potential_duplicate', 'compound_properties.heavy_atoms &lt;', 'compound_structures.canonical_smiles)', 'max(activities.doc_id)', 'docs.rank within (docs', 'activities2.standard_relation)', 'activities.standard_value', 'activities.pchembl_value &gt; 10', 'docs.journal', 'activities2.assay_id', 'activities.standard_relation', 'activities.pchembl_value', 'activities.molregno', 'activities.standard_type', 'activities1.standard_type', 'activities1.assay_id', 'uuid(activities.activity_id', 'activities.standard_value IS NOT NULL', 'activities1.molregno ≠ activities2', 'docs.doc_id', 'compound_structures.canonical_smiles', 'activities.doc_id', 'activities2.standard_value', 'max(compound_properties.heavy_atoms)', 'activities.activity_id', 'docs.year)', 'compound_properties.molregno', 'compound_structures.molregno', 'classify(activities1.standard_value', 'activities.assay_id', 'activities1.standard_relation', 'compound_properties.heavy_atoms &gt;', 'compound_properties.heavy_atoms', 'activities2.standard_type', 'docs.year'}</t>
+          <t>{'bigquery-public-data.ebi_chembl'}</t>
         </is>
       </c>
       <c r="U173" t="n">
-        <v>0.01273885350318471</v>
+        <v>0.001273885350318471</v>
       </c>
       <c r="V173" t="n">
-        <v>0.006557991380925614</v>
+        <v>0.0001873711823121604</v>
       </c>
     </row>
     <row r="174">
@@ -15008,10 +15008,10 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>6.869583148974925</v>
+        <v>8.25153822498396</v>
       </c>
       <c r="E174" t="n">
-        <v>11126</v>
+        <v>11110</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -15047,7 +15047,7 @@
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.fdic_banks.institutions', 'bigquery-public-data.fdic_banks.locations', 'bigquery-public-data.geo_us_boundaries.zip_codes', 'bigquery-public-data.census_utility.fips_codes_states'}</t>
+          <t>{'bigquery-public-data.fdic_banks.locations', 'bigquery-public-data.fdic_banks.institutions', 'bigquery-public-data.geo_us_boundaries.zip_codes', 'bigquery-public-data.census_utility.fips_codes_states'}</t>
         </is>
       </c>
       <c r="Q174" t="inlineStr">
@@ -15062,7 +15062,7 @@
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.fdic_banks.institutions.state_name', 'bigquery-public-data.fdic_banks.locations.zip_code', 'bigquery-public-data.geo_us_boundaries.zip_codes.state_fips_code', 'bigquery-public-data.geo_us_boundaries.zip_codes.state_name', 'bigquery-public-data.census_utility.fips_codes_states.state_fips_code', 'bigquery-public-data.census_utility.fips_codes_states.state_name', 'bigquery-public-data.geo_us_boundaries.zip_codes.zip_code', 'bigquery-public-data.fdic_banks.institutions.zip_code', 'bigquery-public-data.fdic_banks.institutions.state_fips_code', 'bigquery-public-data.fdic_banks.institutions.state', 'bigquery-public-data.fdic_banks.locations.state', 'bigquery-public-data.fdic_banks.locations.state_name', 'bigquery-public-data.fdic_banks.locations.institution_name', 'bigquery-public-data.fdic_banks.institutions.institution_name', 'bigquery-public-data.geo_us_boundaries.zip_codes.zip_code_geom'}</t>
+          <t>{'bigquery-public-data.census_utility.fips_codes_states.state_fips_code', 'bigquery-public-data.geo_us_boundaries.zip_codes.state_fips_code', 'bigquery-public-data.fdic_banks.institutions.zip_code', 'bigquery-public-data.fdic_banks.locations.zip_code', 'bigquery-public-data.geo_us_boundaries.zip_codes.zip_code_geom', 'bigquery-public-data.fdic_banks.institutions.state_fips_code', 'bigquery-public-data.fdic_banks.locations.institution_name', 'bigquery-public-data.geo_us_boundaries.zip_codes.zip_code', 'bigquery-public-data.fdic_banks.institutions.institution_name'}</t>
         </is>
       </c>
       <c r="T174" t="inlineStr">
@@ -15092,10 +15092,10 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>28.91716903913766</v>
+        <v>9.110337498015724</v>
       </c>
       <c r="E175" t="n">
-        <v>11916</v>
+        <v>11547</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
@@ -15131,7 +15131,7 @@
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.geo_us_boundaries.zip_codes', 'bigquery-public-data.fdic_banks.locations', 'bigquery-public-data.geo_census_blockgroups.us_blockgroups_national', 'bigquery-public-data.census_utility.fips_codes_states'}</t>
+          <t>{'bigquery-public-data.geo_census_blockgroups.us_blockgroups_national', 'bigquery-public-data.fdic_banks.locations', 'bigquery-public-data.geo_us_boundaries.zip_codes', 'bigquery-public-data.census_utility.fips_codes_states'}</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr">
@@ -15146,12 +15146,12 @@
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.fdic_banks.locations.zip_code', 'bigquery-public-data.geo_us_boundaries.zip_codes.state_fips_code', 'bigquery-public-data.geo_us_boundaries.zip_codes.state_name', 'bigquery-public-data.geo_census_blockgroups.us_blockgroups_national.state_name', 'bigquery-public-data.geo_census_blockgroups.us_blockgroups_national.geo_id', 'bigquery-public-data.geo_us_boundaries.zip_codes.zip_code', 'bigquery-public-data.census_utility.fips_codes_states.state_fips_code', 'bigquery-public-data.census_utility.fips_codes_states.state_name', 'bigquery-public-data.fdic_banks.locations.state', 'bigquery-public-data.fdic_banks.locations.state_name', 'bigquery-public-data.fdic_banks.locations.branch_name', 'bigquery-public-data.fdic_banks.locations.institution_name', 'bigquery-public-data.geo_census_blockgroups.us_blockgroups_national.blockgroup_geom', 'bigquery-public-data.geo_census_blockgroups.us_blockgroups_national.state_fips_code', 'bigquery-public-data.geo_us_boundaries.zip_codes.zip_code_geom'}</t>
+          <t>{'bigquery-public-data.census_utility.fips_codes_states.state_fips_code', 'bigquery-public-data.geo_us_boundaries.zip_codes.state_fips_code', 'bigquery-public-data.geo_census_blockgroups.us_blockgroups_national.geo_id', 'bigquery-public-data.fdic_banks.locations.zip_code', 'bigquery-public-data.geo_us_boundaries.zip_codes.zip_code_geom', 'bigquery-public-data.fdic_banks.locations.institution_name', 'bigquery-public-data.geo_census_blockgroups.us_blockgroups_national.state_fips_code', 'bigquery-public-data.geo_us_boundaries.zip_codes.zip_code', 'bigquery-public-data.fdic_banks.locations.branch_name', 'bigquery-public-data.geo_census_blockgroups.us_blockgroups_national.blockgroup_geom'}</t>
         </is>
       </c>
       <c r="T175" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.fdic_banks', 'bigquery-public-data.geo_census_blockgroups', 'bigquery-public-data.geo_us_boundaries'}</t>
+          <t>{'bigquery-public-data.geo_us_boundaries', 'bigquery-public-data.fdic_banks', 'bigquery-public-data.geo_census_blockgroups'}</t>
         </is>
       </c>
       <c r="U175" t="n">
@@ -15176,10 +15176,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>18.39517006604001</v>
+        <v>15.5656186399865</v>
       </c>
       <c r="E176" t="n">
-        <v>5636</v>
+        <v>5827</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -15230,12 +15230,12 @@
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>{'GOOGLE_ADS.GOOGLE_ADS_TRANSPARENCY_CENTER.REMOVED_CREATIVE_STATS.audience_selection_approach_info', 'GOOGLE_ADS.GOOGLE_ADS_TRANSPARENCY_CENTER.REMOVED_CREATIVE_STATS.region_stats', 'GOOGLE_ADS.GOOGLE_ADS_TRANSPARENCY_CENTER.REMOVED_CREATIVE_STATS.creative_page_url'}</t>
+          <t>{'GOOGLE_ADS.GOOGLE_ADS_TRANSPARENCY_CENTER.REMOVED_CREATIVE_STATS.region_stats', 'GOOGLE_ADS.GOOGLE_ADS_TRANSPARENCY_CENTER.REMOVED_CREATIVE_STATS.creative_page_url'}</t>
         </is>
       </c>
       <c r="T176" t="inlineStr">
         <is>
-          <t>{'REMOVED_CREATIVE_STATS.audience_selection_approach_info', 'REMOVED_CREATIVE_STATS.times_shown_lower_bound', 'REMOVED_CREATIVE_STATS.last_shown_time', 'REMOVED_CREATIVE_STATS.violation_category', 'REMOVED_CREATIVE_STATS.region_stats', 'REMOVED_CREATIVE_STATS.creative_page_url', 'REMOVED_CREATIVE_STATS.times_shown_upper_bound', 'REMOVED_CREATIVE_STATS.disapproval', 'REMOVED_CREATIVE_STATS.first_shown_time', 'REMOVED_CREATIVE_STATS.times_shown_availability_date'}</t>
+          <t>{'REMOVED_CREATIVE_STATS.first_shown_time', 'REMOVED_CREATIVE_STATS.times_shown_lower_bound', 'REMOVED_CREATIVE_STATS.times_shown_availability_date', 'REMOVED_CREATIVE_STATS.creative_page_url', 'REMOVED_CREATIVE_STATS.disapproval', 'REMOVED_CREATIVE_STATS.times_shown_upper_bound', 'REMOVED_CREATIVE_STATS.audience_selection_approach_info', 'REMOVED_CREATIVE_STATS.last_shown_time', 'REMOVED_CREATIVE_STATS.violation_category', 'REMOVED_CREATIVE_STATS.region_stats'}</t>
         </is>
       </c>
       <c r="U176" t="n">
@@ -15260,10 +15260,10 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>6.609915283042938</v>
+        <v>10.00061290198937</v>
       </c>
       <c r="E177" t="n">
-        <v>6447</v>
+        <v>6721</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -15299,7 +15299,7 @@
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.world_bank_intl_education.country_summary', 'bigquery-public-data.world_bank_health_population.country_summary', 'bigquery-public-data.world_bank_wdi.country_summary', 'bigquery-public-data.world_bank_intl_debt.international_debt', 'bigquery-public-data.world_bank_intl_debt.country_summary'}</t>
+          <t>{'bigquery-public-data.world_bank_intl_education.country_summary', 'bigquery-public-data.world_bank_wdi.country_summary', 'bigquery-public-data.world_bank_intl_debt.international_debt', 'bigquery-public-data.world_bank_health_population.country_summary', 'bigquery-public-data.world_bank_intl_debt.country_summary'}</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr">
@@ -15314,7 +15314,7 @@
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.world_bank_intl_debt.international_debt.country_name', 'bigquery-public-data.world_bank_intl_debt.international_debt.country_code', 'bigquery-public-data.world_bank_intl_debt.international_debt.value', 'bigquery-public-data.world_bank_intl_debt.country_summary.region', 'bigquery-public-data.world_bank_wdi.country_summary.country_code', 'bigquery-public-data.world_bank_wdi.country_summary.region', 'bigquery-public-data.world_bank_intl_education.country_summary.country_code', 'bigquery-public-data.world_bank_health_population.country_summary.region', 'bigquery-public-data.world_bank_intl_debt.international_debt.indicator_name', 'bigquery-public-data.world_bank_health_population.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.country_summary.country_code', 'bigquery-public-data.world_bank_intl_education.country_summary.region'}</t>
+          <t>{'bigquery-public-data.world_bank_intl_education.country_summary.region', 'bigquery-public-data.world_bank_intl_debt.international_debt.indicator_name', 'bigquery-public-data.world_bank_health_population.country_summary.region', 'bigquery-public-data.world_bank_intl_debt.international_debt.country_name', 'bigquery-public-data.world_bank_wdi.country_summary.region', 'bigquery-public-data.world_bank_intl_debt.international_debt.country_code', 'bigquery-public-data.world_bank_intl_debt.international_debt.value', 'bigquery-public-data.world_bank_intl_debt.country_summary.region', 'bigquery-public-data.world_bank_intl_education.country_summary.country_code', 'bigquery-public-data.world_bank_wdi.country_summary.country_code', 'bigquery-public-data.world_bank_health_population.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.country_summary.country_code'}</t>
         </is>
       </c>
       <c r="T177" t="inlineStr">
@@ -15344,10 +15344,10 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>10.20659287786111</v>
+        <v>13.57305484701646</v>
       </c>
       <c r="E178" t="n">
-        <v>6760</v>
+        <v>7184</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -15383,7 +15383,7 @@
       </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.world_bank_intl_education.country_summary', 'bigquery-public-data.world_bank_health_population.country_summary', 'bigquery-public-data.world_bank_wdi.country_summary', 'bigquery-public-data.world_bank_wdi.indicators_data', 'bigquery-public-data.world_bank_intl_debt.country_summary'}</t>
+          <t>{'bigquery-public-data.world_bank_intl_education.country_summary', 'bigquery-public-data.world_bank_wdi.country_summary', 'bigquery-public-data.world_bank_wdi.indicators_data', 'bigquery-public-data.world_bank_health_population.country_summary', 'bigquery-public-data.world_bank_intl_debt.country_summary'}</t>
         </is>
       </c>
       <c r="Q178" t="inlineStr">
@@ -15398,7 +15398,7 @@
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.world_bank_wdi.indicators_data.country_code', 'bigquery-public-data.world_bank_wdi.indicators_data.value', 'bigquery-public-data.world_bank_wdi.country_summary.region', 'bigquery-public-data.world_bank_wdi.indicators_data.indicator_code', 'bigquery-public-data.world_bank_health_population.country_summary.region', 'bigquery-public-data.world_bank_health_population.country_summary.country_code', 'bigquery-public-data.world_bank_intl_education.country_summary.short_name', 'bigquery-public-data.world_bank_intl_education.country_summary.region', 'bigquery-public-data.world_bank_intl_debt.country_summary.income_group', 'bigquery-public-data.world_bank_health_population.country_summary.short_name', 'bigquery-public-data.world_bank_intl_debt.country_summary.region', 'bigquery-public-data.world_bank_health_population.country_summary.income_group', 'bigquery-public-data.world_bank_wdi.country_summary.country_code', 'bigquery-public-data.world_bank_wdi.country_summary.short_name', 'bigquery-public-data.world_bank_wdi.country_summary.income_group', 'bigquery-public-data.world_bank_wdi.indicators_data.year', 'bigquery-public-data.world_bank_intl_education.country_summary.income_group', 'bigquery-public-data.world_bank_intl_education.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.country_summary.short_name', 'bigquery-public-data.world_bank_intl_debt.country_summary.country_code'}</t>
+          <t>{'bigquery-public-data.world_bank_intl_education.country_summary.region', 'bigquery-public-data.world_bank_wdi.country_summary.short_name', 'bigquery-public-data.world_bank_intl_debt.country_summary.short_name', 'bigquery-public-data.world_bank_health_population.country_summary.income_group', 'bigquery-public-data.world_bank_wdi.indicators_data.country_code', 'bigquery-public-data.world_bank_intl_debt.country_summary.region', 'bigquery-public-data.world_bank_wdi.indicators_data.value', 'bigquery-public-data.world_bank_intl_debt.country_summary.income_group', 'bigquery-public-data.world_bank_wdi.country_summary.income_group', 'bigquery-public-data.world_bank_intl_debt.country_summary.country_code', 'bigquery-public-data.world_bank_intl_education.country_summary.income_group', 'bigquery-public-data.world_bank_health_population.country_summary.region', 'bigquery-public-data.world_bank_health_population.country_summary.short_name', 'bigquery-public-data.world_bank_wdi.country_summary.region', 'bigquery-public-data.world_bank_intl_education.country_summary.country_code', 'bigquery-public-data.world_bank_intl_education.country_summary.short_name', 'bigquery-public-data.world_bank_wdi.country_summary.country_code', 'bigquery-public-data.world_bank_health_population.country_summary.country_code'}</t>
         </is>
       </c>
       <c r="T178" t="inlineStr">
@@ -15428,10 +15428,10 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>14.41010088287294</v>
+        <v>11.65708569099661</v>
       </c>
       <c r="E179" t="n">
-        <v>6960</v>
+        <v>6951</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -15467,7 +15467,7 @@
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.world_bank_intl_education.country_summary', 'bigquery-public-data.world_bank_health_population.country_summary', 'bigquery-public-data.world_bank_wdi.country_summary', 'bigquery-public-data.world_bank_intl_debt.international_debt', 'bigquery-public-data.world_bank_intl_debt.country_summary'}</t>
+          <t>{'bigquery-public-data.world_bank_intl_education.country_summary', 'bigquery-public-data.world_bank_wdi.country_summary', 'bigquery-public-data.world_bank_intl_debt.international_debt', 'bigquery-public-data.world_bank_health_population.country_summary', 'bigquery-public-data.world_bank_intl_debt.country_summary'}</t>
         </is>
       </c>
       <c r="Q179" t="inlineStr">
@@ -15482,7 +15482,7 @@
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.world_bank_intl_debt.international_debt.country_name', 'bigquery-public-data.world_bank_intl_debt.international_debt.country_code', 'bigquery-public-data.world_bank_intl_debt.international_debt.value', 'bigquery-public-data.world_bank_intl_debt.country_summary.region', 'bigquery-public-data.world_bank_intl_debt.international_debt.indicator_code', 'bigquery-public-data.world_bank_wdi.country_summary.country_code', 'bigquery-public-data.world_bank_wdi.country_summary.region', 'bigquery-public-data.world_bank_intl_education.country_summary.country_code', 'bigquery-public-data.world_bank_health_population.country_summary.region', 'bigquery-public-data.world_bank_health_population.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.country_summary.country_code', 'bigquery-public-data.world_bank_intl_education.country_summary.region'}</t>
+          <t>{'bigquery-public-data.world_bank_intl_education.country_summary.region', 'bigquery-public-data.world_bank_intl_debt.international_debt.indicator_code', 'bigquery-public-data.world_bank_health_population.country_summary.region', 'bigquery-public-data.world_bank_intl_debt.international_debt.country_name', 'bigquery-public-data.world_bank_wdi.country_summary.region', 'bigquery-public-data.world_bank_intl_debt.international_debt.country_code', 'bigquery-public-data.world_bank_intl_debt.international_debt.value', 'bigquery-public-data.world_bank_intl_debt.country_summary.region', 'bigquery-public-data.world_bank_intl_education.country_summary.country_code', 'bigquery-public-data.world_bank_wdi.country_summary.country_code', 'bigquery-public-data.world_bank_health_population.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.country_summary.country_code'}</t>
         </is>
       </c>
       <c r="T179" t="inlineStr">
@@ -15512,10 +15512,10 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>7.929500967031345</v>
+        <v>6.251219948986545</v>
       </c>
       <c r="E180" t="n">
-        <v>6379</v>
+        <v>6595</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -15551,7 +15551,7 @@
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.world_bank_intl_education.country_summary', 'bigquery-public-data.world_bank_health_population.country_summary', 'bigquery-public-data.world_bank_wdi.country_summary', 'bigquery-public-data.world_bank_intl_debt.international_debt', 'bigquery-public-data.world_bank_intl_debt.country_summary'}</t>
+          <t>{'bigquery-public-data.world_bank_intl_education.country_summary', 'bigquery-public-data.world_bank_wdi.country_summary', 'bigquery-public-data.world_bank_intl_debt.international_debt', 'bigquery-public-data.world_bank_health_population.country_summary', 'bigquery-public-data.world_bank_intl_debt.country_summary'}</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr">
@@ -15566,7 +15566,7 @@
       </c>
       <c r="S180" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.world_bank_intl_debt.international_debt.country_name', 'bigquery-public-data.world_bank_intl_debt.international_debt.country_code', 'bigquery-public-data.world_bank_intl_debt.international_debt.value', 'bigquery-public-data.world_bank_intl_debt.country_summary.region', 'bigquery-public-data.world_bank_wdi.country_summary.country_code', 'bigquery-public-data.world_bank_wdi.country_summary.region', 'bigquery-public-data.world_bank_intl_education.country_summary.country_code', 'bigquery-public-data.world_bank_health_population.country_summary.region', 'bigquery-public-data.world_bank_intl_debt.international_debt.indicator_name', 'bigquery-public-data.world_bank_health_population.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.country_summary.country_code', 'bigquery-public-data.world_bank_intl_education.country_summary.region'}</t>
+          <t>{'bigquery-public-data.world_bank_intl_education.country_summary.region', 'bigquery-public-data.world_bank_intl_debt.international_debt.indicator_name', 'bigquery-public-data.world_bank_health_population.country_summary.region', 'bigquery-public-data.world_bank_intl_debt.international_debt.country_name', 'bigquery-public-data.world_bank_wdi.country_summary.region', 'bigquery-public-data.world_bank_intl_debt.international_debt.country_code', 'bigquery-public-data.world_bank_intl_debt.international_debt.value', 'bigquery-public-data.world_bank_intl_debt.country_summary.region', 'bigquery-public-data.world_bank_intl_education.country_summary.country_code', 'bigquery-public-data.world_bank_wdi.country_summary.country_code', 'bigquery-public-data.world_bank_health_population.country_summary.country_code', 'bigquery-public-data.world_bank_intl_debt.country_summary.country_code'}</t>
         </is>
       </c>
       <c r="T180" t="inlineStr">
@@ -15596,10 +15596,10 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>12.16942651988938</v>
+        <v>9.126801876991522</v>
       </c>
       <c r="E181" t="n">
-        <v>6705</v>
+        <v>6728</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -15635,7 +15635,7 @@
       </c>
       <c r="P181" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.world_bank_intl_education.country_summary', 'bigquery-public-data.world_bank_health_population.country_summary', 'bigquery-public-data.world_bank_wdi.country_summary', 'bigquery-public-data.world_bank_wdi.indicators_data', 'bigquery-public-data.world_bank_intl_debt.country_summary'}</t>
+          <t>{'bigquery-public-data.world_bank_intl_education.country_summary', 'bigquery-public-data.world_bank_wdi.country_summary', 'bigquery-public-data.world_bank_wdi.indicators_data', 'bigquery-public-data.world_bank_health_population.country_summary', 'bigquery-public-data.world_bank_intl_debt.country_summary'}</t>
         </is>
       </c>
       <c r="Q181" t="inlineStr">
@@ -15650,7 +15650,7 @@
       </c>
       <c r="S181" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.world_bank_wdi.indicators_data.country_code', 'bigquery-public-data.world_bank_wdi.indicators_data.value', 'bigquery-public-data.world_bank_wdi.country_summary.region', 'bigquery-public-data.world_bank_wdi.indicators_data.indicator_code', 'bigquery-public-data.world_bank_health_population.country_summary.region', 'bigquery-public-data.world_bank_health_population.country_summary.country_code', 'bigquery-public-data.world_bank_intl_education.country_summary.short_name', 'bigquery-public-data.world_bank_intl_education.country_summary.region', 'bigquery-public-data.world_bank_intl_debt.country_summary.income_group', 'bigquery-public-data.world_bank_health_population.country_summary.short_name', 'bigquery-public-data.world_bank_intl_debt.country_summary.region', 'bigquery-public-data.world_bank_health_population.country_summary.income_group', 'bigquery-public-data.world_bank_wdi.country_summary.country_code', 'bigquery-public-data.world_bank_wdi.country_summary.short_name', 'bigquery-public-data.world_bank_wdi.country_summary.income_group', 'bigquery-public-data.world_bank_intl_education.country_summary.country_code', 'bigquery-public-data.world_bank_intl_education.country_summary.income_group', 'bigquery-public-data.world_bank_intl_debt.country_summary.short_name', 'bigquery-public-data.world_bank_intl_debt.country_summary.country_code'}</t>
+          <t>{'bigquery-public-data.world_bank_intl_education.country_summary.region', 'bigquery-public-data.world_bank_wdi.country_summary.short_name', 'bigquery-public-data.world_bank_intl_debt.country_summary.short_name', 'bigquery-public-data.world_bank_health_population.country_summary.income_group', 'bigquery-public-data.world_bank_wdi.indicators_data.country_code', 'bigquery-public-data.world_bank_intl_debt.country_summary.region', 'bigquery-public-data.world_bank_wdi.indicators_data.value', 'bigquery-public-data.world_bank_intl_debt.country_summary.income_group', 'bigquery-public-data.world_bank_wdi.country_summary.income_group', 'bigquery-public-data.world_bank_intl_debt.country_summary.country_code', 'bigquery-public-data.world_bank_intl_education.country_summary.income_group', 'bigquery-public-data.world_bank_health_population.country_summary.region', 'bigquery-public-data.world_bank_health_population.country_summary.short_name', 'bigquery-public-data.world_bank_wdi.country_summary.region', 'bigquery-public-data.world_bank_intl_education.country_summary.country_code', 'bigquery-public-data.world_bank_intl_education.country_summary.short_name', 'bigquery-public-data.world_bank_wdi.country_summary.country_code', 'bigquery-public-data.world_bank_health_population.country_summary.country_code'}</t>
         </is>
       </c>
       <c r="T181" t="inlineStr">
@@ -15680,10 +15680,10 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>17.42464654613286</v>
+        <v>7.345936282014009</v>
       </c>
       <c r="E182" t="n">
-        <v>5296</v>
+        <v>5091</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -15724,7 +15724,7 @@
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>{'crime_by_lsoa'}</t>
+          <t>{'bigquery-public-data'}</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -15734,19 +15734,19 @@
       </c>
       <c r="S182" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.london_crime.crime_by_lsoa.year', 'bigquery-public-data.london_crime.crime_by_lsoa.minor_category', 'bigquery-public-data.london_crime.crime_by_lsoa.value'}</t>
+          <t>{'bigquery-public-data.london_crime.crime_by_lsoa.minor_category', 'bigquery-public-data.london_crime.crime_by_lsoa.year', 'bigquery-public-data.london_crime.crime_by_lsoa.value'}</t>
         </is>
       </c>
       <c r="T182" t="inlineStr">
         <is>
-          <t>{'crime_by_lsoa.value', 'crime_by_lsoa.year', 'crime_by_lsoa.minor_category'}</t>
+          <t>{'bigquery-public-data.london_crime'}</t>
         </is>
       </c>
       <c r="U182" t="n">
         <v>0.5</v>
       </c>
       <c r="V182" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.02564102564102564</v>
       </c>
     </row>
     <row r="183">
@@ -15764,10 +15764,10 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>7.426739828893915</v>
+        <v>6.297256705991458</v>
       </c>
       <c r="E183" t="n">
-        <v>5139</v>
+        <v>5128</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -15818,7 +15818,7 @@
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.london_crime.crime_by_lsoa.year', 'bigquery-public-data.london_crime.crime_by_lsoa.major_category', 'bigquery-public-data.london_crime.crime_by_lsoa.borough', 'bigquery-public-data.london_crime.crime_by_lsoa.minor_category', 'bigquery-public-data.london_crime.crime_by_lsoa.month', 'bigquery-public-data.london_crime.crime_by_lsoa.value'}</t>
+          <t>{'bigquery-public-data.london_crime.crime_by_lsoa.minor_category', 'bigquery-public-data.london_crime.crime_by_lsoa.major_category', 'bigquery-public-data.london_crime.crime_by_lsoa.borough', 'bigquery-public-data.london_crime.crime_by_lsoa.value', 'bigquery-public-data.london_crime.crime_by_lsoa.year', 'bigquery-public-data.london_crime.crime_by_lsoa.month'}</t>
         </is>
       </c>
       <c r="T183" t="inlineStr">
@@ -15848,10 +15848,10 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>7.065329649951309</v>
+        <v>5.495730808994267</v>
       </c>
       <c r="E184" t="n">
-        <v>5133</v>
+        <v>5014</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -15902,7 +15902,7 @@
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.london_crime.crime_by_lsoa.value', 'bigquery-public-data.london_crime.crime_by_lsoa.major_category', 'bigquery-public-data.london_crime.crime_by_lsoa.borough'}</t>
+          <t>{'bigquery-public-data.london_crime.crime_by_lsoa.borough', 'bigquery-public-data.london_crime.crime_by_lsoa.value', 'bigquery-public-data.london_crime.crime_by_lsoa.major_category'}</t>
         </is>
       </c>
       <c r="T184" t="inlineStr">
@@ -15932,10 +15932,10 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>14.75795662193559</v>
+        <v>18.77827393298503</v>
       </c>
       <c r="E185" t="n">
-        <v>7982</v>
+        <v>8063</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -15986,7 +15986,7 @@
       </c>
       <c r="S185" t="inlineStr">
         <is>
-          <t>{'data-to-insights.ecommerce.rev_transactions.geoNetwork_country', 'data-to-insights.ecommerce.rev_transactions.channelGrouping', 'data-to-insights.ecommerce.rev_transactions.totals_transactions'}</t>
+          <t>{'data-to-insights.ecommerce.rev_transactions.channelGrouping', 'data-to-insights.ecommerce.rev_transactions.geoNetwork_country', 'data-to-insights.ecommerce.rev_transactions.totals_transactions'}</t>
         </is>
       </c>
       <c r="T185" t="inlineStr">
@@ -16016,10 +16016,10 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>7.246500816894695</v>
+        <v>14.57829062099336</v>
       </c>
       <c r="E186" t="n">
-        <v>7945</v>
+        <v>8001</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -16100,10 +16100,10 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>15.15583595400676</v>
+        <v>8.939200281980447</v>
       </c>
       <c r="E187" t="n">
-        <v>6704</v>
+        <v>6588</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -16139,7 +16139,7 @@
       </c>
       <c r="P187" t="inlineStr">
         <is>
-          <t>{'META_KAGGLE.META_KAGGLE.FORUMMESSAGEVOTES', 'META_KAGGLE.META_KAGGLE.USERS'}</t>
+          <t>{'META_KAGGLE.META_KAGGLE.USERS', 'META_KAGGLE.META_KAGGLE.FORUMMESSAGEVOTES'}</t>
         </is>
       </c>
       <c r="Q187" t="inlineStr">
@@ -16154,7 +16154,7 @@
       </c>
       <c r="S187" t="inlineStr">
         <is>
-          <t>{'META_KAGGLE.META_KAGGLE.FORUMMESSAGEVOTES.FromUserId', 'META_KAGGLE.META_KAGGLE.FORUMMESSAGEVOTES.Id', 'META_KAGGLE.META_KAGGLE.USERS.Id', 'META_KAGGLE.META_KAGGLE.USERS.UserName', 'META_KAGGLE.META_KAGGLE.FORUMMESSAGEVOTES.ToUserId'}</t>
+          <t>{'META_KAGGLE.META_KAGGLE.USERS.Id', 'META_KAGGLE.META_KAGGLE.USERS.UserName', 'META_KAGGLE.META_KAGGLE.FORUMMESSAGEVOTES.Id'}</t>
         </is>
       </c>
       <c r="T187" t="inlineStr">
@@ -16184,10 +16184,10 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>27.59411300206557</v>
+        <v>11.78544007899472</v>
       </c>
       <c r="E188" t="n">
-        <v>6348</v>
+        <v>6272</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -16223,12 +16223,12 @@
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>{'DEATH.DEATH.RACE', 'DEATH.DEATH.ICD10CODE', 'DEATH.DEATH.DEATHRECORDS', 'DEATH.DEATH.ENTITYAXISCONDITIONS'}</t>
+          <t>{'DEATH.DEATH.DEATHRECORDS', 'DEATH.DEATH.RACE', 'DEATH.DEATH.ENTITYAXISCONDITIONS', 'DEATH.DEATH.ICD10CODE'}</t>
         </is>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>{"and race descriptions containing 'black'", 'grouped by age and ICD10 category', 'DEATH', 'and to RACE (on Race/Code)'}</t>
+          <t>{'DEATH'}</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
@@ -16238,19 +16238,19 @@
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>{'DEATH.DEATH.RACE.Code', 'DEATH.DEATH.DEATHRECORDS.Age', 'DEATH.DEATH.ENTITYAXISCONDITIONS.Icd10Code', 'DEATH.DEATH.ICD10CODE.Code', 'DEATH.DEATH.ENTITYAXISCONDITIONS.DeathRecordId', 'DEATH.DEATH.RACE.Description', 'DEATH.DEATH.ICD10CODE.Description', 'DEATH.DEATH.DEATHRECORDS.Id', 'DEATH.DEATH.ENTITYAXISCONDITIONS.Id', 'DEATH.DEATH.DEATHRECORDS.Icd10Code'}</t>
+          <t>{'DEATH.DEATH.ICD10CODE.Description', 'DEATH.DEATH.DEATHRECORDS.Age', 'DEATH.DEATH.RACE.Code', 'DEATH.DEATH.RACE.Description', 'DEATH.DEATH.ENTITYAXISCONDITIONS.DeathRecordId', 'DEATH.DEATH.ICD10CODE.Code'}</t>
         </is>
       </c>
       <c r="T188" t="inlineStr">
         <is>
-          <t>{"and race descriptions containing 'black'.- Count total deaths and deaths where race description contains 'black'", 'and to RACE (on Race/Code).- Filter ages 12-18', 'grouped by age and ICD10 category.', 'DEATH.DEATH'}</t>
+          <t>{'DEATH.DEATH'}</t>
         </is>
       </c>
       <c r="U188" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="V188" t="n">
-        <v>0.04040404040404041</v>
+        <v>0.0101010101010101</v>
       </c>
     </row>
     <row r="189">
@@ -16268,10 +16268,10 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>20.73981975507922</v>
+        <v>48.11366406601155</v>
       </c>
       <c r="E189" t="n">
-        <v>35186</v>
+        <v>34930</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -16312,7 +16312,7 @@
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>{'firebase-public-project'}</t>
+          <t>{"'completion'  \n\n\n**(You may need to adjust the exact event_name or event_params", 'etc', 'firebase-public-project', 'e'}</t>
         </is>
       </c>
       <c r="R189" t="inlineStr">
@@ -16322,19 +16322,19 @@
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>{'firebase-public-project.analytics_153293282.events_20180915.event_params', 'firebase-public-project.analytics_153293282.events_20180915.event_name', 'firebase-public-project.analytics_153293282.events_20180915.event_timestamp', 'firebase-public-project.analytics_153293282.events_20180915.user_pseudo_id'}</t>
+          <t>{'firebase-public-project.analytics_153293282.events_20180915.event_timestamp', 'firebase-public-project.analytics_153293282.events_20180915.event_params', 'firebase-public-project.analytics_153293282.events_20180915.user_pseudo_id'}</t>
         </is>
       </c>
       <c r="T189" t="inlineStr">
         <is>
-          <t>{'firebase-public-project.analytics_153293282'}</t>
+          <t>{'e.g', 'firebase-public-project.analytics_153293282', "'completion'  \n\n\n**(You may need to adjust the exact event_name or event_params.key values based on the actual data", 'etc.)**'}</t>
         </is>
       </c>
       <c r="U189" t="n">
-        <v>0.008771929824561403</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="V189" t="n">
-        <v>0.0001464772227918559</v>
+        <v>0.0005859088911674235</v>
       </c>
     </row>
     <row r="190">
@@ -16348,14 +16348,14 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>bq011.sql</t>
+          <t>ga012.sql</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>21.34198343195021</v>
+        <v>31.05764676496619</v>
       </c>
       <c r="E190" t="n">
-        <v>50745</v>
+        <v>51234</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -16391,12 +16391,12 @@
       </c>
       <c r="P190" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210106', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210122', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210101', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201224', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210114', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201108', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201206', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201211', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210102', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201112', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201209', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201105', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210119', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201116', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201223', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210112', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201218', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201125', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201126', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210113', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210109', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201127', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201230', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201109', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201217', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201216', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201208', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210110', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201221', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201205', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201227', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210103', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210129', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201103', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201207', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201113', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201124', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201118', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210128', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201220', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201201', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201219', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201106', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201203', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210107', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201214', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201212', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201101', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201102', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210131', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210124', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201129', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201122', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201128', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201204', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201121', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201117', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201231', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201130', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210130', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210126', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201114', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201215', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201104', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201202', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210117', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201123', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201225', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201120', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210127', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201115', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201222', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201228', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210118', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210123', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210116', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201229', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201111', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210125', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210121', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210111', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201110', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201226', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210108', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210104', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210120', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201210', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210105', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201213', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201107', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210115', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201119'}</t>
+          <t>{'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201130'}</t>
         </is>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>{'but the columns are the same in each', "'20210101'"}</t>
+          <t>{'bigquery-public-data'}</t>
         </is>
       </c>
       <c r="R190" t="inlineStr">
@@ -16406,19 +16406,19 @@
       </c>
       <c r="S190" t="inlineStr">
         <is>
-          <t>{'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201130.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201113.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201231.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201220.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210123.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210118.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201215.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201107.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201205.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210106.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201103.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210104.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210124.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210116.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201201.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201112.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201101.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201217.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201216.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201208.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201105.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210127.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210108.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201114.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210113.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201108.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210130.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210119.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201106.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210107.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201129.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201101.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201102.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201125.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210121.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201205.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201119.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201111.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201208.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201123.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210110.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201206.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201108.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201130.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210119.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201116.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201118.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201112.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201225.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201225.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201207.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210120.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210111.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210108.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201130.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201201.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201127.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201210.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201231.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201203.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201122.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210118.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201210.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201121.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201109.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201123.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201210.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201109.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210122.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201126.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201217.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210123.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201203.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201104.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210112.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201212.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210107.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210128.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201116.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210113.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201113.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201226.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210101.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201227.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201107.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201125.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201106.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210104.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201127.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201205.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210102.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210117.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201226.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210105.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201114.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201229.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201118.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210101.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210105.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201124.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201110.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201204.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201124.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201221.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201124.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201223.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201213.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201106.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210126.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201222.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210130.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210120.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201229.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210105.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210103.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201219.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201119.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210106.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210121.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201219.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201128.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201202.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201225.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201202.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201212.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201102.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210121.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201101.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210103.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210127.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201109.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210129.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210119.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201104.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201230.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201129.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201215.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210128.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201222.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201220.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210101.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210112.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201105.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201121.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201228.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201216.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201128.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210109.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201128.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210131.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210126.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201216.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201206.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201211.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201118.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210117.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210131.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201111.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201220.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210129.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210111.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201227.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201212.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201204.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201125.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201129.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210112.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201105.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201227.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210114.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201111.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201202.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210125.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210122.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201120.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201119.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201108.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210125.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201117.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210116.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210104.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201115.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201209.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210115.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201221.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201114.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201211.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201126.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201116.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201223.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201126.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201103.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201203.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201207.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201214.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210131.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210120.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210102.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201117.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201122.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201229.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201224.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210129.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210109.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201113.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210122.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201215.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201213.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210127.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201213.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210109.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201207.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201209.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201102.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201112.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210103.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201224.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201121.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201107.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201231.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210115.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210128.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201218.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210130.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201122.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201230.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201214.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210115.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210123.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201204.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210117.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201103.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201224.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201123.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210111.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201117.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201110.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201228.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210113.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210107.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201228.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201120.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201115.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210126.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201219.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201222.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201209.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210110.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210108.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210124.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210106.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201211.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210110.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201110.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210124.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201115.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210116.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201226.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201217.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201230.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201221.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210114.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201201.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201127.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210102.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201218.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201214.event_params', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210114.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210125.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201223.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201206.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201104.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20210118.event_timestamp', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201120.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201218.user_pseudo_id', 'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201208.user_pseudo_id'}</t>
+          <t>{'bigquery-public-data.ga4_obfuscated_sample_ecommerce.events_20201130.items'}</t>
         </is>
       </c>
       <c r="T190" t="inlineStr">
         <is>
-          <t>{'but the columns are the same in each.)**\n\n---\n\n**Summary Table:**\n\n| Concept in Question | Schema Link(s) |\n|---------------------|---------------|\n| pseudo users        | user_pseudo_id |\n| active in last 7d   | event_date', "'20210101'."}</t>
+          <t>{'bigquery-public-data.ga4_obfuscated_sample_ecommerce'}</t>
         </is>
       </c>
       <c r="U190" t="n">
-        <v>0.02173913043478261</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="V190" t="n">
-        <v>0.0002012882447665056</v>
+        <v>0.0001006441223832528</v>
       </c>
     </row>
     <row r="191">
@@ -16436,37 +16436,37 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>29.00051909778267</v>
+        <v>15.62860574998194</v>
       </c>
       <c r="E191" t="n">
-        <v>5776</v>
+        <v>5786</v>
       </c>
       <c r="F191" t="n">
         <v>0.7272727272727273</v>
       </c>
       <c r="G191" t="n">
-        <v>0.4</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="H191" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="I191" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="J191" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="K191" t="n">
-        <v>0.4</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="L191" t="n">
         <v>0.75</v>
       </c>
       <c r="M191" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N191" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -16480,29 +16480,29 @@
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>{'MAX(orders', 'COUNT(orders', 'SUM(order_payments', 'order_payments', 'you can add: RFM segment criteria/quantiles)**\n\n---\n\n### **Summary Table**\n\n| Purpose                | Table/Column/Key                        |\n|------------------------|-----------------------------------------|\n| Customer identifier    | customers'}</t>
+          <t>{'but that is not a schema link', 'order_payments'}</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>{'customers.customer_unique_id', 'orders.order_purchase_timestamp', 'orders.order_id', 'customers.customer_id', 'orders.customer_id', 'orders.order_status'}</t>
+          <t>{'orders.order_status', 'orders.order_id', 'customers.customer_id', 'orders.order_purchase_timestamp', 'customers.customer_unique_id', 'orders.customer_id'}</t>
         </is>
       </c>
       <c r="S191" t="inlineStr">
         <is>
-          <t>{'order_items.price', 'order_items.order_id'}</t>
+          <t>{'order_items.order_id', 'order_items.price'}</t>
         </is>
       </c>
       <c r="T191" t="inlineStr">
         <is>
-          <t>{'order_payments.order_id', 'customers.customer_id |\n| Order linkage          | order_payments', 'order_payments.payment_value', 'COUNT(orders.order_id)', 'SUM(order_payments.payment_value)\n\n```\n\n**(If you want to include RFM segment logic', 'you can add: RFM segment criteria/quantiles)**\n\n---\n\n### **Summary Table**\n\n| Purpose                | Table/Column/Key                        |\n|------------------------|-----------------------------------------|\n| Customer identifier    | customers.customer_unique_id            |\n| Order linkage          | orders', 'MAX(orders.order_purchase_timestamp)'}</t>
+          <t>{'order_payments.payment_value', 'but that is not a schema link.)**', 'order_payments.order_id'}</t>
         </is>
       </c>
       <c r="U191" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="V191" t="n">
-        <v>0.1857142857142857</v>
+        <v>0.1285714285714286</v>
       </c>
     </row>
     <row r="192">
@@ -16520,10 +16520,10 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>9.137502376921475</v>
+        <v>15.98036367102759</v>
       </c>
       <c r="E192" t="n">
-        <v>5297</v>
+        <v>5371</v>
       </c>
       <c r="F192" t="n">
         <v>0.9</v>
@@ -16569,7 +16569,7 @@
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>{'order_payments.order_id', 'orders.order_purchase_timestamp', 'order_payments.payment_value', 'orders.order_id', 'customers.customer_id', 'orders.customer_id'}</t>
+          <t>{'order_payments.payment_value', 'order_payments.order_id', 'orders.order_id', 'customers.customer_id', 'orders.order_purchase_timestamp', 'orders.customer_id'}</t>
         </is>
       </c>
       <c r="S192" t="inlineStr">
@@ -16604,37 +16604,37 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>5.661187752848491</v>
+        <v>5.917282382957637</v>
       </c>
       <c r="E193" t="n">
-        <v>5820</v>
+        <v>5875</v>
       </c>
       <c r="F193" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
       </c>
       <c r="J193" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K193" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L193" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="M193" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N193" t="n">
-        <v>1</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -16648,29 +16648,29 @@
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'the player(s) with the highest value and their corresponding value'}</t>
         </is>
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>{'batting.h', 'batting.player_id', 'batting.r', 'player.name_given', 'batting.g', 'batting.hr', 'player.player_id'}</t>
+          <t>{'batting.player_id', 'batting.h', 'batting.hr', 'batting.g', 'batting.r', 'player.name_given'}</t>
         </is>
       </c>
       <c r="S193" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'player.player_id'}</t>
         </is>
       </c>
       <c r="T193" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'player.player_id\n```\n\n**Explanation:**  \nThese are the columns and foreign key needed to generate the SQL query to find', 'the player(s) with the highest value and their corresponding value.'}</t>
         </is>
       </c>
       <c r="U193" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="V193" t="n">
-        <v>0.01988636363636364</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="194">
@@ -16688,38 +16688,38 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>8.610243254108354</v>
+        <v>6.504244720970746</v>
       </c>
       <c r="E194" t="n">
-        <v>5426</v>
+        <v>5387</v>
       </c>
       <c r="F194" t="n">
         <v>0.5</v>
       </c>
       <c r="G194" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H194" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0.4</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
       </c>
       <c r="J194" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.5</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.6666666666666666</v>
       </c>
       <c r="L194" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="M194" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N194" t="n">
         <v>0.25</v>
       </c>
-      <c r="N194" t="n">
-        <v>0.2857142857142858</v>
-      </c>
       <c r="O194" t="inlineStr">
         <is>
           <t>{'collisions'}</t>
@@ -16732,7 +16732,7 @@
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>{'case_ids'}</t>
+          <t>{'you can substitute that column in place of `primary_collision_factor`', 'case_ids'}</t>
         </is>
       </c>
       <c r="R194" t="inlineStr">
@@ -16742,19 +16742,19 @@
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t>{'collisions.collision_date', 'collisions.pcf_violation_category'}</t>
+          <t>{'collisions.pcf_violation_category', 'collisions.collision_date'}</t>
         </is>
       </c>
       <c r="T194" t="inlineStr">
         <is>
-          <t>{'collisions.primary_collision_factor', 'case_ids.db_year', 'case_ids.case_id'}</t>
+          <t>{'case_ids.db_year', 'collisions.primary_collision_factor\n\n*(If you prefer to use `collisions', 'you can substitute that column in place of `primary_collision_factor`.)*', 'case_ids.case_id'}</t>
         </is>
       </c>
       <c r="U194" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="V194" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="195">
@@ -16772,10 +16772,10 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>8.150257252855226</v>
+        <v>6.90125276602339</v>
       </c>
       <c r="E195" t="n">
-        <v>5000</v>
+        <v>5051</v>
       </c>
       <c r="F195" t="n">
         <v>0.3928571428571428</v>
@@ -16811,7 +16811,7 @@
       </c>
       <c r="P195" t="inlineStr">
         <is>
-          <t>{'Cards', 'Promotions', 'Locations', 'Events'}</t>
+          <t>{'Cards', 'Events', 'Locations', 'Promotions'}</t>
         </is>
       </c>
       <c r="Q195" t="inlineStr">
@@ -16821,12 +16821,12 @@
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>{'Belts.id', 'Belts.name', 'Wrestlers.name', 'Matches.title_id', 'Matches.duration', 'Matches.winner_id', 'Matches.loser_id', 'Wrestlers.id'}</t>
+          <t>{'Matches.loser_id', 'Matches.duration', 'Belts.id', 'Belts.name', 'Matches.title_id', 'Matches.winner_id', 'Wrestlers.id', 'Wrestlers.name'}</t>
         </is>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>{'Events.id', 'Events.name', 'Cards.id', 'Matches.id', 'Matches.card_id', 'Cards.promotion_id', 'Locations.name', 'Promotions.id', 'Promotions.name', 'Cards.location_id', 'Cards.event_id', 'Locations.id', 'Matches.win_type'}</t>
+          <t>{'Matches.win_type', 'Promotions.name', 'Cards.promotion_id', 'Cards.id', 'Locations.name', 'Promotions.id', 'Locations.id', 'Matches.card_id', 'Matches.id', 'Events.name', 'Cards.location_id', 'Cards.event_id', 'Events.id'}</t>
         </is>
       </c>
       <c r="T195" t="inlineStr">
@@ -16856,10 +16856,10 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>9.904384160879999</v>
+        <v>8.842570459994022</v>
       </c>
       <c r="E196" t="n">
-        <v>5159</v>
+        <v>5211</v>
       </c>
       <c r="F196" t="n">
         <v>0.625</v>
@@ -16890,7 +16890,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>{'player_match', 'match', 'player', 'batsman_scored'}</t>
+          <t>{'batsman_scored', 'player', 'player_match', 'match'}</t>
         </is>
       </c>
       <c r="P196" t="inlineStr">
@@ -16905,12 +16905,12 @@
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>{'match.team_2', 'match.match_id', 'match.team_1', 'match.match_winner', 'batsman_scored.runs_scored', 'player_match.team_id', 'player.player_name', 'player_match.match_id', 'player.player_id', 'player_match.player_id', 'batsman_scored.match_id'}</t>
+          <t>{'match.match_winner', 'player_match.team_id', 'match.team_1', 'match.team_2', 'player.player_name', 'match.match_id', 'batsman_scored.match_id', 'player.player_id', 'batsman_scored.runs_scored', 'player_match.match_id', 'player_match.player_id'}</t>
         </is>
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t>{'ball_by_ball.ball_id', 'ball_by_ball.over_id', 'batsman_scored.over_id', 'ball_by_ball.innings_no', 'ball_by_ball.match_id', 'batsman_scored.ball_id', 'ball_by_ball.striker', 'batsman_scored.innings_no'}</t>
+          <t>{'batsman_scored.over_id', 'batsman_scored.innings_no', 'batsman_scored.ball_id', 'ball_by_ball.ball_id', 'ball_by_ball.innings_no', 'ball_by_ball.striker', 'ball_by_ball.over_id', 'ball_by_ball.match_id'}</t>
         </is>
       </c>
       <c r="T196" t="inlineStr">
@@ -16940,10 +16940,10 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>15.75754329701886</v>
+        <v>7.468253397964872</v>
       </c>
       <c r="E197" t="n">
-        <v>5155</v>
+        <v>5125</v>
       </c>
       <c r="F197" t="n">
         <v>0.5</v>
@@ -16974,7 +16974,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>{'match', 'player', 'batsman_scored'}</t>
+          <t>{'batsman_scored', 'player', 'match'}</t>
         </is>
       </c>
       <c r="P197" t="inlineStr">
@@ -16989,17 +16989,17 @@
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>{'match.match_id', 'match.season_id', 'batsman_scored.runs_scored', 'player.player_name', 'player.player_id', 'batsman_scored.match_id'}</t>
+          <t>{'player.player_name', 'match.match_id', 'match.season_id', 'batsman_scored.match_id', 'batsman_scored.runs_scored', 'player.player_id'}</t>
         </is>
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t>{'ball_by_ball.ball_id', 'ball_by_ball.over_id', 'batsman_scored.over_id', 'ball_by_ball.innings_no', 'ball_by_ball.match_id', 'batsman_scored.ball_id', 'ball_by_ball.striker', 'batsman_scored.innings_no'}</t>
+          <t>{'batsman_scored.over_id', 'batsman_scored.innings_no', 'batsman_scored.ball_id', 'ball_by_ball.ball_id', 'ball_by_ball.innings_no', 'ball_by_ball.striker', 'ball_by_ball.over_id', 'ball_by_ball.match_id'}</t>
         </is>
       </c>
       <c r="T197" t="inlineStr">
         <is>
-          <t>{'player_match.match_id', 'player_match.player_id', 'batsman_scored.striker'}</t>
+          <t>{'batsman_scored.striker', 'player_match.match_id', 'player_match.player_id'}</t>
         </is>
       </c>
       <c r="U197" t="n">
@@ -17024,10 +17024,10 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>9.23213659808971</v>
+        <v>5.562997497036122</v>
       </c>
       <c r="E198" t="n">
-        <v>5203</v>
+        <v>5222</v>
       </c>
       <c r="F198" t="n">
         <v>1</v>
@@ -17058,7 +17058,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>{'olist_orders', 'olist_order_payments', 'olist_customers'}</t>
+          <t>{'olist_customers', 'olist_orders', 'olist_order_payments'}</t>
         </is>
       </c>
       <c r="P198" t="inlineStr">
@@ -17073,7 +17073,7 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>{'olist_customers.customer_unique_id', 'olist_orders.order_status', 'olist_orders.customer_id', 'olist_orders.order_id', 'olist_customers.customer_city', 'olist_customers.customer_id', 'olist_order_payments.order_id', 'olist_customers.customer_state', 'olist_order_payments.payment_value'}</t>
+          <t>{'olist_customers.customer_city', 'olist_orders.order_status', 'olist_orders.customer_id', 'olist_orders.order_id', 'olist_customers.customer_unique_id', 'olist_order_payments.payment_value', 'olist_order_payments.order_id', 'olist_customers.customer_state', 'olist_customers.customer_id'}</t>
         </is>
       </c>
       <c r="S198" t="inlineStr">
@@ -17108,10 +17108,10 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>13.3780905730091</v>
+        <v>12.19294038100634</v>
       </c>
       <c r="E199" t="n">
-        <v>5602</v>
+        <v>5614</v>
       </c>
       <c r="F199" t="n">
         <v>1</v>
@@ -17142,7 +17142,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>{'language', 'category', 'film', 'actor', 'film_actor', 'film_category'}</t>
+          <t>{'film_category', 'film_actor', 'language', 'category', 'film', 'actor'}</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
@@ -17157,7 +17157,7 @@
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>{'film_actor.actor_id', 'actor.last_name', 'category.category_id', 'film.film_id', 'film.length', 'film.language_id', 'language.language_id', 'film_category.category_id', 'film_actor.film_id', 'actor.actor_id', 'film_category.film_id', 'language.name', 'film.rating', 'actor.first_name', 'film.release_year', 'category.name'}</t>
+          <t>{'film.language_id', 'film.length', 'actor.actor_id', 'language.language_id', 'actor.first_name', 'film_actor.actor_id', 'film.release_year', 'actor.last_name', 'film_category.category_id', 'category.category_id', 'category.name', 'film.rating', 'film_actor.film_id', 'film.film_id', 'film_category.film_id', 'language.name'}</t>
         </is>
       </c>
       <c r="S199" t="inlineStr">
@@ -17192,19 +17192,19 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>19.5837156381458</v>
+        <v>12.59109768498456</v>
       </c>
       <c r="E200" t="n">
-        <v>5473</v>
+        <v>5482</v>
       </c>
       <c r="F200" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G200" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>0.9387755102040817</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -17216,17 +17216,17 @@
         <v>1</v>
       </c>
       <c r="L200" t="n">
-        <v>0.8823529411764706</v>
+        <v>1</v>
       </c>
       <c r="M200" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="N200" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>{'rental', 'category', 'film', 'customer', 'address', 'city', 'film_category', 'inventory'}</t>
+          <t>{'rental', 'film_category', 'address', 'customer', 'inventory', 'city', 'category', 'film'}</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
@@ -17241,24 +17241,24 @@
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>{'rental.customer_id', 'rental.inventory_id', 'address.city_id', 'inventory.film_id', 'category.category_id', 'film.film_id', 'inventory.inventory_id', 'address.address_id', 'city.city_id', 'film_category.category_id', 'customer.address_id', 'film_category.film_id', 'customer.customer_id', 'city.city', 'category.name'}</t>
+          <t>{'inventory.film_id', 'rental.customer_id', 'city.city_id', 'rental.rental_date', 'inventory.inventory_id', 'customer.address_id', 'rental.return_date', 'address.address_id', 'category.category_id', 'category.name', 'film_category.category_id', 'rental.inventory_id', 'film.film_id', 'address.city_id', 'customer.customer_id', 'film_category.film_id', 'city.city'}</t>
         </is>
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t>{'rental.return_date', 'rental.rental_date'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="T200" t="inlineStr">
         <is>
-          <t>{'film.length'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U200" t="n">
         <v>0.3809523809523809</v>
       </c>
       <c r="V200" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1416666666666667</v>
       </c>
     </row>
     <row r="201">
@@ -17276,37 +17276,37 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>8.523257203865796</v>
+        <v>10.44610185100464</v>
       </c>
       <c r="E201" t="n">
-        <v>5366</v>
+        <v>5426</v>
       </c>
       <c r="F201" t="n">
         <v>1</v>
       </c>
       <c r="G201" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
-        <v>0.7499999999999999</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
       </c>
       <c r="J201" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K201" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
       <c r="M201" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="N201" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
@@ -17320,12 +17320,12 @@
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>{'not a schema link', 'and the years 2020 and 2021 as filter values'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>{'hardware_fact_sales_monthly.fiscal_year', 'hardware_dim_product.product_code', 'hardware_fact_sales_monthly.product_code', 'hardware_dim_product.segment'}</t>
+          <t>{'hardware_fact_sales_monthly.fiscal_year', 'hardware_fact_sales_monthly.product_code', 'hardware_dim_product.segment', 'hardware_dim_product.product_code'}</t>
         </is>
       </c>
       <c r="S201" t="inlineStr">
@@ -17335,14 +17335,14 @@
       </c>
       <c r="T201" t="inlineStr">
         <is>
-          <t>{'and the years 2020 and 2021 as filter values.- The percentage increase is a calculation', 'not a schema link.- The ordering is by the computed percentage increase'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U201" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="V201" t="n">
-        <v>0.06122448979591837</v>
+        <v>0.04081632653061224</v>
       </c>
     </row>
     <row r="202">
@@ -17360,38 +17360,38 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>11.17487899214029</v>
+        <v>7.328887930023484</v>
       </c>
       <c r="E202" t="n">
-        <v>5242</v>
+        <v>5234</v>
       </c>
       <c r="F202" t="n">
         <v>0.8</v>
       </c>
       <c r="G202" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="H202" t="n">
         <v>0.5714285714285714</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0.6666666666666666</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
       </c>
       <c r="J202" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.5</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.6666666666666666</v>
       </c>
       <c r="L202" t="n">
         <v>0.75</v>
       </c>
       <c r="M202" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N202" t="n">
         <v>0.6</v>
       </c>
-      <c r="N202" t="n">
-        <v>0.6666666666666665</v>
-      </c>
       <c r="O202" t="inlineStr">
         <is>
           <t>{'university_faculty'}</t>
@@ -17404,12 +17404,12 @@
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>{'the above suffices'}</t>
+          <t>{'you could add: "average of university_faculty', 'the above is sufficient'}</t>
         </is>
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>{'university_faculty.FacFirstName', 'university_faculty.FacLastName', 'university_faculty.FacRank'}</t>
+          <t>{'university_faculty.FacLastName', 'university_faculty.FacFirstName', 'university_faculty.FacRank'}</t>
         </is>
       </c>
       <c r="S202" t="inlineStr">
@@ -17419,14 +17419,14 @@
       </c>
       <c r="T202" t="inlineStr">
         <is>
-          <t>{'the above suffices.)*', 'university_faculty.FacSalary\n```\n\n*(Optionally'}</t>
+          <t>{'the above is sufficient.)*', 'university_faculty.FacSalary\n\n```\n\n*(Optionally', 'you could add: "average of university_faculty.FacSalary grouped by university_faculty'}</t>
         </is>
       </c>
       <c r="U202" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="V202" t="n">
-        <v>0.05102040816326531</v>
+        <v>0.06122448979591837</v>
       </c>
     </row>
     <row r="203">
@@ -17444,41 +17444,41 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>13.12490299204364</v>
+        <v>9.762061367975548</v>
       </c>
       <c r="E203" t="n">
-        <v>5573</v>
+        <v>5457</v>
       </c>
       <c r="F203" t="n">
         <v>0.4615384615384616</v>
       </c>
       <c r="G203" t="n">
-        <v>0.3</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H203" t="n">
-        <v>0.3636363636363637</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="I203" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="J203" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="K203" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="L203" t="n">
         <v>0.4</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4</v>
       </c>
       <c r="N203" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>{'pizza_toppings', 'pizza_recipes'}</t>
+          <t>{'pizza_recipes', 'pizza_toppings'}</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
@@ -17488,7 +17488,7 @@
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>{'pizza_get_exclusions', 'pizza_get_extras', 'pizza_customer_orders', 'pizza_runner_orders'}</t>
+          <t>{'pizza_customer_orders', 'pizza_runner_orders'}</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
@@ -17498,19 +17498,19 @@
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>{'pizza_clean_customer_orders.exclusions', 'pizza_clean_customer_orders.customer_id', 'pizza_clean_customer_orders.order_id', 'pizza_clean_customer_orders.extras', 'pizza_clean_customer_orders.pizza_id', 'pizza_clean_customer_orders.order_time'}</t>
+          <t>{'pizza_clean_customer_orders.exclusions', 'pizza_clean_customer_orders.order_id', 'pizza_clean_customer_orders.extras', 'pizza_clean_customer_orders.pizza_id', 'pizza_clean_customer_orders.customer_id', 'pizza_clean_customer_orders.order_time'}</t>
         </is>
       </c>
       <c r="T203" t="inlineStr">
         <is>
-          <t>{'pizza_get_exclusions.exclusions', 'pizza_get_extras.extras_count', 'pizza_customer_orders.order_id', 'pizza_runner_orders.cancellation', 'pizza_get_extras.order_id', 'pizza_get_exclusions.order_id', 'pizza_customer_orders.pizza_id', 'pizza_runner_orders.order_id', 'pizza_get_exclusions.total_exclusions', 'pizza_get_extras.extras'}</t>
+          <t>{'pizza_customer_orders.exclusions', 'pizza_customer_orders.order_id', 'pizza_runner_orders.order_id', 'pizza_runner_orders.cancellation (NULL or empty string)', 'pizza_customer_orders.extras', 'pizza_customer_orders.pizza_id'}</t>
         </is>
       </c>
       <c r="U203" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="V203" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1298701298701299</v>
       </c>
     </row>
     <row r="204">
@@ -17528,10 +17528,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>14.42674434999935</v>
+        <v>10.47529862402007</v>
       </c>
       <c r="E204" t="n">
-        <v>5567</v>
+        <v>5743</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -17582,12 +17582,12 @@
       </c>
       <c r="S204" t="inlineStr">
         <is>
-          <t>{'pizza_clean_customer_orders.order_id', 'pizza_clean_customer_orders.extras', 'pizza_clean_runner_orders.cancellation', 'pizza_clean_customer_orders.pizza_id', 'pizza_clean_runner_orders.order_id'}</t>
+          <t>{'pizza_clean_runner_orders.order_id', 'pizza_clean_customer_orders.extras', 'pizza_clean_customer_orders.pizza_id', 'pizza_clean_customer_orders.order_id', 'pizza_clean_runner_orders.cancellation'}</t>
         </is>
       </c>
       <c r="T204" t="inlineStr">
         <is>
-          <t>{'pizza_names.pizza_name', 'pizza_runner_orders.cancellation', 'pizza_customer_orders.order_id', 'pizza_get_extras.extras_count', 'pizza_get_extras.order_id', 'pizza_customer_orders.pizza_id', 'pizza_runner_orders.order_id', 'pizza_names.pizza_id'}</t>
+          <t>{'pizza_customer_orders.order_id', 'pizza_runner_orders.order_id', 'pizza_get_extras.order_id', 'pizza_runner_orders.cancellation', 'pizza_get_extras.extras_count', 'pizza_names.pizza_name', 'pizza_names.pizza_id', 'pizza_customer_orders.pizza_id'}</t>
         </is>
       </c>
       <c r="U204" t="n">
@@ -17612,19 +17612,19 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>19.91045891004615</v>
+        <v>10.00409001798835</v>
       </c>
       <c r="E205" t="n">
-        <v>5866</v>
+        <v>5673</v>
       </c>
       <c r="F205" t="n">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
       </c>
       <c r="H205" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -17636,13 +17636,13 @@
         <v>1</v>
       </c>
       <c r="L205" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
       <c r="N205" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
@@ -17661,12 +17661,12 @@
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>{'shopping_cart_page_hierarchy.product_id', 'shopping_cart_page_hierarchy.page_id', 'shopping_cart_events.event_type', 'shopping_cart_events.visit_id', 'shopping_cart_events.page_id'}</t>
+          <t>{'shopping_cart_page_hierarchy.page_id', 'shopping_cart_events.page_id', 'shopping_cart_events.event_type', 'shopping_cart_page_hierarchy.product_id'}</t>
         </is>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>{'shopping_cart_page_hierarchy.page_name'}</t>
+          <t>{'shopping_cart_page_hierarchy.page_name', 'shopping_cart_events.visit_id'}</t>
         </is>
       </c>
       <c r="T205" t="inlineStr">
@@ -17678,7 +17678,7 @@
         <v>0.1052631578947368</v>
       </c>
       <c r="V205" t="n">
-        <v>0.04716981132075472</v>
+        <v>0.03773584905660377</v>
       </c>
     </row>
     <row r="206">
@@ -17696,19 +17696,19 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>10.35899090580642</v>
+        <v>7.867732721031643</v>
       </c>
       <c r="E206" t="n">
-        <v>5420</v>
+        <v>5437</v>
       </c>
       <c r="F206" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G206" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="H206" t="n">
-        <v>0.8750000000000001</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -17720,17 +17720,17 @@
         <v>1</v>
       </c>
       <c r="L206" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M206" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N206" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>{'interest_metrics', 'interest_map'}</t>
+          <t>{'interest_map', 'interest_metrics'}</t>
         </is>
       </c>
       <c r="P206" t="inlineStr">
@@ -17745,24 +17745,24 @@
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>{'interest_metrics.interest_id', 'interest_metrics.month_year', 'interest_map.id', 'interest_metrics.composition', 'interest_map.interest_name'}</t>
+          <t>{'interest_metrics.interest_id', 'interest_map.id', 'interest_metrics.composition', 'interest_map.interest_name'}</t>
         </is>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'interest_metrics.month_year'}</t>
         </is>
       </c>
       <c r="T206" t="inlineStr">
         <is>
-          <t>{'interest_metrics._month', 'interest_metrics._year'}</t>
+          <t>{'interest_metrics._year', 'interest_metrics._month'}</t>
         </is>
       </c>
       <c r="U206" t="n">
         <v>0.1052631578947368</v>
       </c>
       <c r="V206" t="n">
-        <v>0.0660377358490566</v>
+        <v>0.05660377358490566</v>
       </c>
     </row>
     <row r="207">
@@ -17780,10 +17780,10 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>8.864380793878809</v>
+        <v>8.891360573004931</v>
       </c>
       <c r="E207" t="n">
-        <v>5431</v>
+        <v>5466</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
@@ -17824,7 +17824,7 @@
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>{'and calculate the percentage change for each year', 'weekly_sales'}</t>
+          <t>{'weekly_sales'}</t>
         </is>
       </c>
       <c r="R207" t="inlineStr">
@@ -17839,14 +17839,14 @@
       </c>
       <c r="T207" t="inlineStr">
         <is>
-          <t>{'and calculate the percentage change for each year.No foreign keys are required since all data is in a single table', 'weekly_sales.week_date', 'weekly_sales.sales', 'weekly_sales.calendar_year'}</t>
+          <t>{'weekly_sales.calendar_year', 'weekly_sales.sales', 'weekly_sales.week_date'}</t>
         </is>
       </c>
       <c r="U207" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="V207" t="n">
-        <v>0.03773584905660377</v>
+        <v>0.02830188679245283</v>
       </c>
     </row>
     <row r="208">
@@ -17864,37 +17864,37 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>15.97829420212656</v>
+        <v>8.788471825013403</v>
       </c>
       <c r="E208" t="n">
-        <v>5182</v>
+        <v>5232</v>
       </c>
       <c r="F208" t="n">
         <v>1</v>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
       </c>
       <c r="J208" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K208" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
       <c r="M208" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N208" t="n">
-        <v>1</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
@@ -17908,12 +17908,12 @@
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Movie'}</t>
         </is>
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t>{'Person.PID', 'M_Director.MID', 'M_Director.PID', 'Person.Name', 'M_Cast.PID', 'M_Cast.MID'}</t>
+          <t>{'M_Cast.PID', 'M_Director.PID', 'M_Cast.MID', 'M_Director.MID', 'Person.Name', 'Person.PID'}</t>
         </is>
       </c>
       <c r="S208" t="inlineStr">
@@ -17923,14 +17923,14 @@
       </c>
       <c r="T208" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Movie.MID'}</t>
         </is>
       </c>
       <c r="U208" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="V208" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="209">
@@ -17948,10 +17948,10 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>10.82436747010797</v>
+        <v>7.373222374008037</v>
       </c>
       <c r="E209" t="n">
-        <v>5171</v>
+        <v>5197</v>
       </c>
       <c r="F209" t="n">
         <v>1</v>
@@ -17982,7 +17982,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>{'Musical_Styles', 'Musical_Preferences'}</t>
+          <t>{'Musical_Preferences', 'Musical_Styles'}</t>
         </is>
       </c>
       <c r="P209" t="inlineStr">
@@ -17997,7 +17997,7 @@
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>{'Musical_Preferences.StyleID', 'Musical_Styles.StyleName', 'Musical_Styles.StyleID', 'Musical_Preferences.PreferenceSeq'}</t>
+          <t>{'Musical_Preferences.PreferenceSeq', 'Musical_Styles.StyleID', 'Musical_Styles.StyleName', 'Musical_Preferences.StyleID'}</t>
         </is>
       </c>
       <c r="S209" t="inlineStr">
@@ -18032,37 +18032,37 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>17.38898540404625</v>
+        <v>10.46381160698365</v>
       </c>
       <c r="E210" t="n">
-        <v>5482</v>
+        <v>5530</v>
       </c>
       <c r="F210" t="n">
         <v>1</v>
       </c>
       <c r="G210" t="n">
-        <v>0.4</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H210" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.8</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
       </c>
       <c r="J210" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="K210" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
       <c r="M210" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.75</v>
       </c>
       <c r="N210" t="n">
-        <v>0.6</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
@@ -18076,12 +18076,12 @@
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>{'customer', '2\n```\n\n---\n\n**Explanation:**  \nThese are the columns and foreign key relationships needed to generate the SQL for this question'}</t>
+          <t>{'customer'}</t>
         </is>
       </c>
       <c r="R210" t="inlineStr">
         <is>
-          <t>{'payment.amount', 'payment.customer_id', 'payment.payment_date'}</t>
+          <t>{'payment.amount', 'payment.payment_date', 'payment.customer_id'}</t>
         </is>
       </c>
       <c r="S210" t="inlineStr">
@@ -18091,14 +18091,14 @@
       </c>
       <c r="T210" t="inlineStr">
         <is>
-          <t>{'customer.last_name', 'customer.first_name', 'customer.customer_id', '2\n```\n\n---\n\n**Explanation:**  \nThese are the columns and foreign key relationships needed to generate the SQL for this question.The cell values 10 and 2 are included for the "top 10" and "round to two decimals" requirements'}</t>
+          <t>{'customer.customer_id'}</t>
         </is>
       </c>
       <c r="U210" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="V210" t="n">
-        <v>0.05833333333333333</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="211">
@@ -18116,10 +18116,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>8.718911519972607</v>
+        <v>16.65209608402802</v>
       </c>
       <c r="E211" t="n">
-        <v>5392</v>
+        <v>5384</v>
       </c>
       <c r="F211" t="n">
         <v>0.8571428571428571</v>
@@ -18165,7 +18165,7 @@
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>{'rental.rental_date', 'staff.store_id', 'staff.staff_id', 'rental.staff_id'}</t>
+          <t>{'rental.rental_date', 'rental.staff_id', 'staff.staff_id', 'staff.store_id'}</t>
         </is>
       </c>
       <c r="S211" t="inlineStr">
@@ -18200,19 +18200,19 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>10.54832553700544</v>
+        <v>8.283069394994527</v>
       </c>
       <c r="E212" t="n">
-        <v>5132</v>
+        <v>5070</v>
       </c>
       <c r="F212" t="n">
         <v>1</v>
       </c>
       <c r="G212" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="H212" t="n">
-        <v>0.9523809523809523</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -18227,14 +18227,14 @@
         <v>1</v>
       </c>
       <c r="M212" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="N212" t="n">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>{'orders', 'stores', 'hubs'}</t>
+          <t>{'orders', 'hubs', 'stores'}</t>
         </is>
       </c>
       <c r="P212" t="inlineStr">
@@ -18249,7 +18249,7 @@
       </c>
       <c r="R212" t="inlineStr">
         <is>
-          <t>{'stores.store_id', 'stores.hub_id', 'orders.order_status', 'hubs.hub_name', 'hubs.hub_id', 'orders.store_id', 'orders.order_created_month'}</t>
+          <t>{'orders.order_created_month', 'stores.hub_id', 'orders.order_status', 'hubs.hub_name', 'orders.store_id', 'stores.store_id', 'hubs.hub_id'}</t>
         </is>
       </c>
       <c r="S212" t="inlineStr">
@@ -18259,14 +18259,14 @@
       </c>
       <c r="T212" t="inlineStr">
         <is>
-          <t>{'orders.order_created_year'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U212" t="n">
         <v>0.4285714285714285</v>
       </c>
       <c r="V212" t="n">
-        <v>0.1355932203389831</v>
+        <v>0.1186440677966102</v>
       </c>
     </row>
     <row r="213">
@@ -18284,73 +18284,73 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>14.89433578005992</v>
+        <v>9.164957531960681</v>
       </c>
       <c r="E213" t="n">
-        <v>6104</v>
+        <v>6003</v>
       </c>
       <c r="F213" t="n">
-        <v>0.2</v>
+        <v>0.2181818181818182</v>
       </c>
       <c r="G213" t="n">
-        <v>0.7857142857142857</v>
+        <v>1</v>
       </c>
       <c r="H213" t="n">
-        <v>0.3188405797101449</v>
+        <v>0.3582089552238806</v>
       </c>
       <c r="I213" t="n">
         <v>0.6</v>
       </c>
       <c r="J213" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K213" t="n">
-        <v>0.6666666666666665</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="L213" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="M213" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N213" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>{'League', 'Match', 'Team'}</t>
+          <t>{'Team', 'Match', 'League'}</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>{'Player', 'match_view'}</t>
+          <t>{'match_view', 'Player'}</t>
         </is>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>{'return only one team with the minimum count'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>{'League.name', 'Match.home_team_api_id', 'Match.league_id', 'Match.home_team_goal', 'Match.away_team_api_id', 'Team.team_long_name', 'League.id', 'Team.team_api_id'}</t>
+          <t>{'Match.away_team_goal', 'Match.league_id', 'Team.team_api_id', 'League.name', 'Match.home_team_goal', 'Team.team_long_name', 'League.id', 'Match.away_team_api_id', 'Match.home_team_api_id'}</t>
         </is>
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>{'match_view.season', 'Match.away_player_2', 'Match.away_player_7', 'Match.home_player_5', 'Team.id', 'Match.away_player_8', 'Match.home_player_1', 'Match.home_player_11', 'Match.away_player_11', 'match_view.away_team_goal', 'Match.home_player_2', 'Match.away_player_1', 'Match.away_team_goal', 'Match.home_player_4', 'Match.away_player_9', 'Match.away_player_10', 'match_view.home_team_goal', 'Match.home_player_10', 'match_view.card', 'Match.home_player_8', 'match_view.match_api_id', 'Match.match_api_id', 'match_view.away_team', 'match_view.id', 'Match.id', 'Match.home_player_9', 'Match.away_player_3', 'Match.home_player_3', 'Match.away_player_5', 'Match.away_player_6', 'Match.season', 'match_view.goal', 'Match.home_player_7', 'Player.player_name', 'match_view.home_team', 'Match.card', 'Match.away_player_4', 'Match.home_player_6', 'Player.id', 'match_view.league', 'Match.goal', 'Player.player_api_id'}</t>
+          <t>{'Match.card', 'match_view.home_team', 'Match.away_player_6', 'Player.player_name', 'Match.home_player_9', 'match_view.league', 'match_view.home_team_goal', 'Team.id', 'Match.home_player_10', 'match_view.away_team_goal', 'Match.away_player_1', 'Match.away_player_3', 'Player.player_api_id', 'Match.home_player_1', 'Match.away_player_9', 'Match.away_player_8', 'Match.home_player_4', 'Player.id', 'Match.home_player_3', 'Match.home_player_11', 'Match.away_player_10', 'Match.home_player_5', 'Match.home_player_7', 'Match.away_player_5', 'match_view.away_team', 'Match.home_player_6', 'Match.home_player_8', 'Match.away_player_2', 'match_view.season', 'Match.away_player_7', 'Match.away_player_4', 'Match.season', 'match_view.id', 'Match.id', 'match_view.goal', 'match_view.match_api_id', 'Match.away_player_11', 'Match.goal', 'Match.match_api_id', 'match_view.card', 'Match.home_player_2'}</t>
         </is>
       </c>
       <c r="T213" t="inlineStr">
         <is>
-          <t>{'Match.away_team_goal\n\n**(And the logic for "fewest wins" is: count of matches where (home_team_api_id and home_team_goal &gt; away_team_goal) OR (away_team_api_id and away_team_goal &gt; home_team_goal)', 'return only one team with the minimum count.)**'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U213" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V213" t="n">
-        <v>0.04291845493562232</v>
+        <v>0.03862660944206009</v>
       </c>
     </row>
     <row r="214">
@@ -18368,37 +18368,37 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>11.63513071881607</v>
+        <v>6.489454195019789</v>
       </c>
       <c r="E214" t="n">
-        <v>5795</v>
+        <v>5841</v>
       </c>
       <c r="F214" t="n">
         <v>0.1875</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="H214" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I214" t="n">
         <v>0.25</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L214" t="n">
         <v>0.1666666666666667</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N214" t="n">
-        <v>0.16</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="O214" t="inlineStr">
         <is>
@@ -18407,34 +18407,34 @@
       </c>
       <c r="P214" t="inlineStr">
         <is>
-          <t>{'drivers', 'races', 'results'}</t>
+          <t>{'results', 'drivers', 'races'}</t>
         </is>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>{'both are included', 'driver_standings', 'constructor_standings', 'drivers_ext', 'races_ext'}</t>
+          <t>{'driver_standings', 'constructor_standings', 'drivers_ext', 'races_ext'}</t>
         </is>
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>{'constructors.name', 'constructors.constructor_id'}</t>
+          <t>{'constructors.constructor_id', 'constructors.name'}</t>
         </is>
       </c>
       <c r="S214" t="inlineStr">
         <is>
-          <t>{'drivers.driver_id', 'races.race_id', 'races.year', 'results.driver_id', 'drivers.forename', 'results.points', 'results.constructor_id', 'results.race_id', 'races.name', 'drivers.surname'}</t>
+          <t>{'drivers.driver_id', 'results.constructor_id', 'drivers.surname', 'races.year', 'results.driver_id', 'results.race_id', 'drivers.forename', 'races.name', 'races.race_id', 'results.points'}</t>
         </is>
       </c>
       <c r="T214" t="inlineStr">
         <is>
-          <t>{'constructor_standings.constructor_id', 'constructor_standings.points\n\n```\n\n**(If you want to be more concise', 'constructor_standings.race_id', 'drivers_ext.driver_id', 'driver_standings.driver_id', 'both are included.)**', 'drivers_ext.full_name', 'driver_standings.race_id', 'races_ext.year', 'driver_standings.points', 'races_ext.race_id'}</t>
+          <t>{'constructor_standings.constructor_id', 'races_ext.race_id', 'driver_standings.points', 'drivers_ext.full_name', 'drivers_ext.driver_id', 'constructor_standings.points', 'driver_standings.race_id', 'races_ext.year', 'driver_standings.driver_id', 'constructor_standings.race_id'}</t>
         </is>
       </c>
       <c r="U214" t="n">
-        <v>0.2068965517241379</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="V214" t="n">
-        <v>0.05701754385964912</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="215">
@@ -18452,10 +18452,10 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>14.59418588597327</v>
+        <v>26.41227406205144</v>
       </c>
       <c r="E215" t="n">
-        <v>8134</v>
+        <v>8444</v>
       </c>
       <c r="F215" t="n">
         <v>0</v>
@@ -18496,7 +18496,7 @@
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>{'GLOBAL_WEATHER__CLIMATE_DATA_FOR_BI'}</t>
+          <t>{'GLOBAL_WEATHER__CLIMATE_DATA_FOR_BI', '2023-01-22  \nIf filtering for U'}</t>
         </is>
       </c>
       <c r="R215" t="inlineStr">
@@ -18506,19 +18506,19 @@
       </c>
       <c r="S215" t="inlineStr">
         <is>
-          <t>{'GLOBAL_WEATHER__CLIMATE_DATA_FOR_BI.STANDARD_TILE.HISTORY_DAY.POSTAL_CODE', 'GLOBAL_WEATHER__CLIMATE_DATA_FOR_BI.STANDARD_TILE.HISTORY_DAY.COUNTRY', 'GLOBAL_WEATHER__CLIMATE_DATA_FOR_BI.STANDARD_TILE.HISTORY_DAY.DATE_VALID_STD', 'GLOBAL_WEATHER__CLIMATE_DATA_FOR_BI.STANDARD_TILE.HISTORY_DAY.TOT_SNOWFALL_IN'}</t>
+          <t>{'GLOBAL_WEATHER__CLIMATE_DATA_FOR_BI.STANDARD_TILE.HISTORY_DAY.COUNTRY', 'GLOBAL_WEATHER__CLIMATE_DATA_FOR_BI.STANDARD_TILE.HISTORY_DAY.POSTAL_CODE', 'GLOBAL_WEATHER__CLIMATE_DATA_FOR_BI.STANDARD_TILE.HISTORY_DAY.DATE_VALID_STD', 'GLOBAL_WEATHER__CLIMATE_DATA_FOR_BI.STANDARD_TILE.HISTORY_DAY.TOT_SNOWFALL_IN'}</t>
         </is>
       </c>
       <c r="T215" t="inlineStr">
         <is>
-          <t>{'GLOBAL_WEATHER__CLIMATE_DATA_FOR_BI.STANDARD_TILE'}</t>
+          <t>{'2023-01-22  \nIf filtering for U.S', 'GLOBAL_WEATHER__CLIMATE_DATA_FOR_BI.STANDARD_TILE'}</t>
         </is>
       </c>
       <c r="U215" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V215" t="n">
-        <v>0.004651162790697674</v>
+        <v>0.009302325581395349</v>
       </c>
     </row>
     <row r="216">
@@ -18536,10 +18536,10 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>49.55920161888935</v>
+        <v>30.40096627298044</v>
       </c>
       <c r="E216" t="n">
-        <v>8893</v>
+        <v>8479</v>
       </c>
       <c r="F216" t="n">
         <v>0</v>
@@ -18575,12 +18575,12 @@
       </c>
       <c r="P216" t="inlineStr">
         <is>
-          <t>{'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_TIMESERIES', 'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_ENTITIES', 'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_ATTRIBUTES'}</t>
+          <t>{'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_ENTITIES', 'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_ATTRIBUTES', 'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_TIMESERIES'}</t>
         </is>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>{'FINANCE__ECONOMICS'}</t>
+          <t>{'FINANCIAL_INSTITUTION_TIMESERIES', 'FINANCIAL_INSTITUTION_ENTITIES'}</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
@@ -18590,19 +18590,19 @@
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>{'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_ENTITIES.IS_ACTIVE', 'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_TIMESERIES.VARIABLE', 'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_ATTRIBUTES.FREQUENCY', 'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_ATTRIBUTES.VARIABLE_NAME', 'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_TIMESERIES.VARIABLE_NAME', 'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_ENTITIES.NAME', 'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_TIMESERIES.ID_RSSD', 'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_TIMESERIES.DATE', 'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_TIMESERIES.VALUE', 'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_ENTITIES.ID_RSSD', 'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_ATTRIBUTES.VARIABLE'}</t>
+          <t>{'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_ENTITIES.ID_RSSD', 'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_TIMESERIES.ID_RSSD', 'FINANCE__ECONOMICS.CYBERSYN.FINANCIAL_INSTITUTION_ENTITIES.NAME'}</t>
         </is>
       </c>
       <c r="T216" t="inlineStr">
         <is>
-          <t>{'FINANCE__ECONOMICS.CYBERSYN'}</t>
+          <t>{'FINANCIAL_INSTITUTION_TIMESERIES.VARIABLE_NAME', 'FINANCIAL_INSTITUTION_ENTITIES.NAME', 'FINANCIAL_INSTITUTION_ENTITIES.IS_ACTIVE', 'FINANCIAL_INSTITUTION_ENTITIES.ID_RSSD', 'FINANCIAL_INSTITUTION_TIMESERIES.DATE', 'FINANCIAL_INSTITUTION_TIMESERIES.ID_RSSD', 'FINANCIAL_INSTITUTION_TIMESERIES.VALUE'}</t>
         </is>
       </c>
       <c r="U216" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="V216" t="n">
-        <v>0.002267573696145125</v>
+        <v>0.01587301587301587</v>
       </c>
     </row>
     <row r="217">
@@ -18620,10 +18620,10 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>23.40321504208259</v>
+        <v>14.33533188997535</v>
       </c>
       <c r="E217" t="n">
-        <v>8610</v>
+        <v>8290</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
@@ -18664,7 +18664,7 @@
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>{'STOCK_PRICE_TIMESERIES', 'COMPANY_INDEX'}</t>
+          <t>{'COMPANY_INDEX', 'STOCK_PRICE_TIMESERIES', 'and calculate the percentage change', 'and cell values to generate the SQL for this question', 'you can omit it'}</t>
         </is>
       </c>
       <c r="R217" t="inlineStr">
@@ -18674,19 +18674,19 @@
       </c>
       <c r="S217" t="inlineStr">
         <is>
-          <t>{'FINANCE__ECONOMICS.CYBERSYN.STOCK_PRICE_TIMESERIES.VARIABLE_NAME', 'FINANCE__ECONOMICS.CYBERSYN.STOCK_PRICE_TIMESERIES.TICKER', 'FINANCE__ECONOMICS.CYBERSYN.STOCK_PRICE_TIMESERIES.DATE'}</t>
+          <t>{'FINANCE__ECONOMICS.CYBERSYN.STOCK_PRICE_TIMESERIES.TICKER', 'FINANCE__ECONOMICS.CYBERSYN.STOCK_PRICE_TIMESERIES.DATE'}</t>
         </is>
       </c>
       <c r="T217" t="inlineStr">
         <is>
-          <t>{'STOCK_PRICE_TIMESERIES.TICKER', 'STOCK_PRICE_TIMESERIES.DATE', 'COMPANY_INDEX.COMPANY_NAME', 'STOCK_PRICE_TIMESERIES.VALUE', 'STOCK_PRICE_TIMESERIES.VARIABLE_NAME', 'COMPANY_INDEX.PRIMARY_TICKER'}</t>
+          <t>{'and cell values to generate the SQL for this question.', 'STOCK_PRICE_TIMESERIES.TICKER', 'and calculate the percentage change.The schema links above provide all the necessary columns', 'STOCK_PRICE_TIMESERIES.VARIABLE_NAME', 'you can omit it.)**\n\n---\n\n**Summary of reasoning:**  \nWe need to join company names to tickers', 'COMPANY_INDEX.COMPANY_NAME', 'COMPANY_INDEX.PRIMARY_TICKER', 'STOCK_PRICE_TIMESERIES.VALUE', 'STOCK_PRICE_TIMESERIES.DATE'}</t>
         </is>
       </c>
       <c r="U217" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="V217" t="n">
-        <v>0.01360544217687075</v>
+        <v>0.02040816326530612</v>
       </c>
     </row>
     <row r="218">
@@ -18704,10 +18704,10 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>12.47212624805979</v>
+        <v>19.53501886100275</v>
       </c>
       <c r="E218" t="n">
-        <v>7167</v>
+        <v>7162</v>
       </c>
       <c r="F218" t="n">
         <v>0</v>
@@ -18758,7 +18758,7 @@
       </c>
       <c r="S218" t="inlineStr">
         <is>
-          <t>{'WEATHER__ENVIRONMENT.CYBERSYN.FEMA_NATIONAL_FLOOD_INSURANCE_PROGRAM_CLAIM_INDEX.NFIP_COMMUNITY_NAME', 'WEATHER__ENVIRONMENT.CYBERSYN.FEMA_NATIONAL_FLOOD_INSURANCE_PROGRAM_CLAIM_INDEX.BUILDING_DAMAGE_AMOUNT', 'WEATHER__ENVIRONMENT.CYBERSYN.FEMA_NATIONAL_FLOOD_INSURANCE_PROGRAM_CLAIM_INDEX.CONTENTS_DAMAGE_AMOUNT', 'WEATHER__ENVIRONMENT.CYBERSYN.FEMA_NATIONAL_FLOOD_INSURANCE_PROGRAM_CLAIM_INDEX.DATE_OF_LOSS'}</t>
+          <t>{'WEATHER__ENVIRONMENT.CYBERSYN.FEMA_NATIONAL_FLOOD_INSURANCE_PROGRAM_CLAIM_INDEX.BUILDING_DAMAGE_AMOUNT', 'WEATHER__ENVIRONMENT.CYBERSYN.FEMA_NATIONAL_FLOOD_INSURANCE_PROGRAM_CLAIM_INDEX.DATE_OF_LOSS', 'WEATHER__ENVIRONMENT.CYBERSYN.FEMA_NATIONAL_FLOOD_INSURANCE_PROGRAM_CLAIM_INDEX.CONTENTS_DAMAGE_AMOUNT', 'WEATHER__ENVIRONMENT.CYBERSYN.FEMA_NATIONAL_FLOOD_INSURANCE_PROGRAM_CLAIM_INDEX.NFIP_COMMUNITY_NAME'}</t>
         </is>
       </c>
       <c r="T218" t="inlineStr">
@@ -18788,10 +18788,10 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>28.65698833297938</v>
+        <v>36.83166899898788</v>
       </c>
       <c r="E219" t="n">
-        <v>14466</v>
+        <v>14387</v>
       </c>
       <c r="F219" t="n">
         <v>0</v>
@@ -18827,12 +18827,12 @@
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>{'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW'}</t>
+          <t>{'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW'}</t>
         </is>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>{'BRAZE_USER_EVENT_DEMO_DATASET', 'end_time\n\n*(Replace start_time and end_time with the actual one-hour window as needed'}</t>
+          <t>{'BRAZE_USER_EVENT_DEMO_DATASET'}</t>
         </is>
       </c>
       <c r="R219" t="inlineStr">
@@ -18842,19 +18842,19 @@
       </c>
       <c r="S219" t="inlineStr">
         <is>
-          <t>{'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.CARRIER', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.DEVICE_MODEL', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.MESSAGE_VARIATION_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.APP_GROUP_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.CAMPAIGN_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.USER_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.TIME', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.APP_GROUP_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.MESSAGE_VARIATION_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.PLATFORM', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.BROWSER', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.TIME', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.TIME', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.AD_TRACKING_ENABLED', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.CAMPAIGN_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.DEVICE_MODEL', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.MESSAGE_VARIATION_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.BROWSER', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.CAMPAIGN_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.PLATFORM', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.AD_TRACKING_ENABLED', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.PLATFORM', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.CAMPAIGN_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.PLATFORM', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.USER_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.MESSAGE_VARIATION_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.USER_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.AD_TRACKING_ENABLED', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.APP_GROUP_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.CARRIER', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.APP_GROUP_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.TIME', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.USER_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.ID'}</t>
+          <t>{'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.USER_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.BROWSER', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.AD_TRACKING_ENABLED', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.TIME', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.MESSAGE_VARIATION_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.CARRIER', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.CAMPAIGN_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.USER_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.MESSAGE_VARIATION_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.USER_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.AD_TRACKING_ENABLED', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.AD_TRACKING_ENABLED', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.APP_GROUP_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.TIME', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.APP_GROUP_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.PLATFORM', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.USER_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.MESSAGE_VARIATION_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.DEVICE_MODEL', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.CAMPAIGN_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.PLATFORM', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.TIME', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.MESSAGE_VARIATION_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.CAMPAIGN_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.PLATFORM', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_BOUNCE_VIEW.APP_GROUP_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.PLATFORM', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.BROWSER', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.CAMPAIGN_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_SEND_VIEW.TIME', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.APP_GROUP_ID', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_INFLUENCEDOPEN_VIEW.CARRIER', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.DEVICE_MODEL', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC.USERS_MESSAGES_PUSHNOTIFICATION_OPEN_VIEW.ID'}</t>
         </is>
       </c>
       <c r="T219" t="inlineStr">
         <is>
-          <t>{'end_time\n\n*(Replace start_time and end_time with the actual one-hour window as needed.)*', 'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC'}</t>
+          <t>{'BRAZE_USER_EVENT_DEMO_DATASET.PUBLIC'}</t>
         </is>
       </c>
       <c r="U219" t="n">
-        <v>0.03225806451612903</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="V219" t="n">
-        <v>0.001123595505617978</v>
+        <v>0.0005617977528089888</v>
       </c>
     </row>
     <row r="220">
@@ -18872,10 +18872,10 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>10.25253795785829</v>
+        <v>8.87410222296603</v>
       </c>
       <c r="E220" t="n">
-        <v>5367</v>
+        <v>5426</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
@@ -18911,12 +18911,12 @@
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>{'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_INDEX', 'US_ADDRESSES__POI.CYBERSYN.US_ADDRESSES', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_RELATIONSHIPS', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_CHARACTERISTICS'}</t>
+          <t>{'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_RELATIONSHIPS', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_INDEX', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_CHARACTERISTICS', 'US_ADDRESSES__POI.CYBERSYN.US_ADDRESSES'}</t>
         </is>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>{'US_ADDRESSES__POI', '10\n\n**No foreign keys are needed for this query'}</t>
+          <t>{'US_ADDRESSES__POI', '10\n```\n\n**(No foreign keys needed for this query'}</t>
         </is>
       </c>
       <c r="R220" t="inlineStr">
@@ -18926,12 +18926,12 @@
       </c>
       <c r="S220" t="inlineStr">
         <is>
-          <t>{'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_RELATIONSHIPS.GEO_ID', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_RELATIONSHIPS.GEO_NAME', 'US_ADDRESSES__POI.CYBERSYN.US_ADDRESSES.STREET_TYPE', 'US_ADDRESSES__POI.CYBERSYN.US_ADDRESSES.STATE', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_RELATIONSHIPS.RELATED_GEO_NAME', 'US_ADDRESSES__POI.CYBERSYN.US_ADDRESSES.ID_ZIP', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_INDEX.GEO_NAME', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_RELATIONSHIPS.LEVEL', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_RELATIONSHIPS.RELATIONSHIP_TYPE', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_INDEX.LEVEL', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_CHARACTERISTICS.GEO_ID', 'US_ADDRESSES__POI.CYBERSYN.US_ADDRESSES.NUMBER', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_CHARACTERISTICS.VALUE', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_RELATIONSHIPS.RELATED_LEVEL', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_INDEX.GEO_ID', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_CHARACTERISTICS.RELATIONSHIP_TYPE', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_CHARACTERISTICS.GEO_NAME', 'US_ADDRESSES__POI.CYBERSYN.US_ADDRESSES.STREET'}</t>
+          <t>{'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_CHARACTERISTICS.GEO_ID', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_CHARACTERISTICS.VALUE', 'US_ADDRESSES__POI.CYBERSYN.US_ADDRESSES.STREET_TYPE', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_CHARACTERISTICS.GEO_NAME', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_INDEX.GEO_NAME', 'US_ADDRESSES__POI.CYBERSYN.US_ADDRESSES.NUMBER', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_RELATIONSHIPS.RELATED_GEO_NAME', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_RELATIONSHIPS.GEO_NAME', 'US_ADDRESSES__POI.CYBERSYN.US_ADDRESSES.STREET', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_RELATIONSHIPS.GEO_ID', 'US_ADDRESSES__POI.CYBERSYN.GEOGRAPHY_INDEX.GEO_ID'}</t>
         </is>
       </c>
       <c r="T220" t="inlineStr">
         <is>
-          <t>{'10\n\n**No foreign keys are needed for this query.**', 'US_ADDRESSES__POI.CYBERSYN'}</t>
+          <t>{'10\n```\n\n**(No foreign keys needed for this query.)**', 'US_ADDRESSES__POI.CYBERSYN'}</t>
         </is>
       </c>
       <c r="U220" t="n">
@@ -18956,10 +18956,10 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>11.90404011611827</v>
+        <v>18.77743789402302</v>
       </c>
       <c r="E221" t="n">
-        <v>5601</v>
+        <v>6145</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -18995,12 +18995,12 @@
       </c>
       <c r="P221" t="inlineStr">
         <is>
-          <t>{'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Dim_CensusGeography', 'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Fact_CensusValues_ACS2021'}</t>
+          <t>{'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Fact_CensusValues_ACS2021', 'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Dim_CensusGeography'}</t>
         </is>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>{'SUM(Fact_CensusValues_ACS2021', 'Dim_CensusGeography', 'e', 'Fact_CensusValues_ACS2021', 'but the question does not specify a particular MetricID'}</t>
+          <t>{'(SUM(Fact_CensusValues_ACS2021', 'Fact_CensusValues_ACS2021', '(Fact_CensusValues_ACS2021', 'Dim_CensusGeography'}</t>
         </is>
       </c>
       <c r="R221" t="inlineStr">
@@ -19010,19 +19010,19 @@
       </c>
       <c r="S221" t="inlineStr">
         <is>
-          <t>{'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Dim_CensusGeography.BlockGroupPolygon', 'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Dim_CensusGeography.StateCountyTractID', 'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Fact_CensusValues_ACS2021.MetricID', 'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Fact_CensusValues_ACS2021.BlockGroupID', 'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Dim_CensusGeography.BlockGroupID', 'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Dim_CensusGeography.StateAbbrev', 'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Fact_CensusValues_ACS2021.CensusValue'}</t>
+          <t>{'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Fact_CensusValues_ACS2021.CensusValue', 'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Dim_CensusGeography.StateCountyTractID', 'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Dim_CensusGeography.BlockGroupID', 'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Fact_CensusValues_ACS2021.BlockGroupID', 'CENSUS_GALAXY__ZIP_CODE_TO_BLOCK_GROUP_SAMPLE.PUBLIC.Dim_CensusGeography.BlockGroupPolygon'}</t>
         </is>
       </c>
       <c r="T221" t="inlineStr">
         <is>
-          <t>{'Fact_CensusValues_ACS2021.BlockGroupID', 'but the question does not specify a particular MetricID.)**', 'Fact_CensusValues_ACS2021.CensusValue / SUM(Fact_CensusValues_ACS2021', 'Dim_CensusGeography.StateCountyTractID', 'Fact_CensusValues_ACS2021.CensusValue', 'Dim_CensusGeography.BlockGroupID', 'SUM(Fact_CensusValues_ACS2021.CensusValue) GROUP BY Dim_CensusGeography', 'Dim_CensusGeography.StateName', 'e.g'}</t>
+          <t>{'Dim_CensusGeography.BlockGroupID', 'Fact_CensusValues_ACS2021.MetricID', 'Dim_CensusGeography.StateName', '(SUM(Fact_CensusValues_ACS2021.CensusValue) GROUP BY Dim_CensusGeography', 'Dim_CensusGeography.StateCountyTractID', '(Fact_CensusValues_ACS2021.CensusValue / SUM(Fact_CensusValues_ACS2021', 'Fact_CensusValues_ACS2021.BlockGroupID', 'Fact_CensusValues_ACS2021.CensusValue'}</t>
         </is>
       </c>
       <c r="U221" t="n">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="V221" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1403508771929824</v>
       </c>
     </row>
     <row r="222">
@@ -19040,10 +19040,10 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>19.35866875713691</v>
+        <v>16.16881895100232</v>
       </c>
       <c r="E222" t="n">
-        <v>5927</v>
+        <v>6042</v>
       </c>
       <c r="F222" t="n">
         <v>0</v>
@@ -19079,12 +19079,12 @@
       </c>
       <c r="P222" t="inlineStr">
         <is>
-          <t>{'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_CensusValues_ACS2021_ByZip', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_StateBenchmark_ACS2021', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.LU_GeographyExpanded', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Dim_CensusMetrics'}</t>
+          <t>{'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.LU_GeographyExpanded', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_CensusValues_ACS2021_ByZip', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_StateBenchmark_ACS2021', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Dim_CensusMetrics'}</t>
         </is>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>{'Fact_StateBenchmark_ACS2021', 'Fact_CensusValues_ACS2021_ByZip', 'include those as well', 'Dim_CensusMetrics', 'LU_GeographyExpanded'}</t>
+          <t>{'Fact_CensusValues_ACS2021_ByZip', 'Dim_CensusMetrics', 'Fact_StateBenchmark_ACS2021', 'LU_GeographyExpanded'}</t>
         </is>
       </c>
       <c r="R222" t="inlineStr">
@@ -19094,19 +19094,19 @@
       </c>
       <c r="S222" t="inlineStr">
         <is>
-          <t>{'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.LU_GeographyExpanded.PreferredStateAbbrev', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_CensusValues_ACS2021_ByZip.MetricID', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_StateBenchmark_ACS2021.StateAbbrev', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Dim_CensusMetrics.MetricID', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_StateBenchmark_ACS2021.TotalStatePopulation', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_CensusValues_ACS2021_ByZip.ZipCode', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_StateBenchmark_ACS2021.MetricID', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.LU_GeographyExpanded.ZipCode', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_StateBenchmark_ACS2021.StateBenchmarkValue'}</t>
+          <t>{'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_StateBenchmark_ACS2021.TotalStatePopulation', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_StateBenchmark_ACS2021.StateAbbrev', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.LU_GeographyExpanded.ZipCode', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_StateBenchmark_ACS2021.StateBenchmarkValue', 'CENSUS_GALAXY__AIML_MODEL_DATA_ENRICHMENT_SAMPLE.PUBLIC.Fact_CensusValues_ACS2021_ByZip.ZipCode'}</t>
         </is>
       </c>
       <c r="T222" t="inlineStr">
         <is>
-          <t>{'Dim_CensusMetrics.MetricID', 'Fact_StateBenchmark_ACS2021.StateAbbrev', 'LU_GeographyExpanded.ZipCode', 'Fact_CensusValues_ACS2021_ByZip.MetricID', 'Fact_StateBenchmark_ACS2021.TotalStatePopulation\n\n```\n\n**(If the descriptor is in Descriptor2 or Descriptor3', 'Fact_StateBenchmark_ACS2021.MetricID', 'Dim_CensusMetrics.Descriptor1', 'Fact_StateBenchmark_ACS2021.StateBenchmarkValue', 'Fact_CensusValues_ACS2021_ByZip.ZipCode', 'include those as well.)**', 'LU_GeographyExpanded.PreferredStateAbbrev', 'Fact_CensusValues_ACS2021_ByZip.CensusValueByZip'}</t>
+          <t>{'Fact_CensusValues_ACS2021_ByZip.ZipCode', 'LU_GeographyExpanded.PreferredStateAbbrev', 'Fact_CensusValues_ACS2021_ByZip.MetricID', 'LU_GeographyExpanded.ZipCode', 'Dim_CensusMetrics.MetricID', 'Fact_StateBenchmark_ACS2021.StateBenchmarkValue', 'Fact_StateBenchmark_ACS2021.TotalStatePopulation', 'Fact_CensusValues_ACS2021_ByZip.CensusValueByZip', 'Fact_StateBenchmark_ACS2021.StateAbbrev', 'Fact_StateBenchmark_ACS2021.MetricID', 'Dim_CensusMetrics.Descriptor1'}</t>
         </is>
       </c>
       <c r="U222" t="n">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="V222" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1929824561403509</v>
       </c>
     </row>
   </sheetData>
